--- a/QuizAndKeyList.xlsx
+++ b/QuizAndKeyList.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="255">
   <si>
     <t>No</t>
   </si>
@@ -635,9 +635,6 @@
     <t>Containers</t>
   </si>
   <si>
-    <t>(1) push(x), pop(), top(), empty()</t>
-  </si>
-  <si>
     <t>Power of Two</t>
   </si>
   <si>
@@ -648,9 +645,6 @@
   </si>
   <si>
     <t xml:space="preserve">Implement Queue Using Stacks </t>
-  </si>
-  <si>
-    <t>(1) push(x), pop(), peek(), empty()</t>
   </si>
   <si>
     <t>Lowest Common Ancestor Of A Binary Search Tree</t>
@@ -1077,6 +1071,81 @@
     <t>Reviewed</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> push(x), pop(), top(), empty()</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> push(x), pop(), peek(), empty()</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>用兩個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>來做 pop取出時和top確認時 只要使用原本的API就好 分別是poll和peek 在push放入的時候需要做修改 每次push時都把Q1元素照順序取出放入Q2 才放入 把新元素加入空的Q1 再把Q2的元素們加回來 所以整串Q1裡面會一直是反向的存著元素們 因此取出時不需要另外處理</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>用兩個Stack來做 push放入時不用處理直接存到S1 在取出pop或確認top時 從上面取出 放入S2 (順序反過來) 再從S2上方取出或確認即可</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -1185,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1254,11 +1323,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1631,8 +1708,8 @@
   <dimension ref="A1:AD1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1652,13 +1729,13 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -1708,7 +1785,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:30" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="13" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1716,7 +1793,7 @@
         <v>43029</v>
       </c>
       <c r="C2" s="20">
-        <v>43029</v>
+        <v>43082</v>
       </c>
       <c r="D2" s="9">
         <v>232</v>
@@ -1725,24 +1802,32 @@
         <v>92</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>185</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="13">
+        <v>124</v>
+      </c>
+      <c r="L2" s="13">
+        <v>54</v>
+      </c>
       <c r="M2" s="17">
         <f t="shared" ref="M2:M33" si="0">IF(ISBLANK(K2),,((K2-L2*2)+1000)/9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>112.88888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="13" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1750,7 +1835,7 @@
         <v>43030</v>
       </c>
       <c r="C3" s="20">
-        <v>43030</v>
+        <v>43082</v>
       </c>
       <c r="D3" s="9">
         <v>225</v>
@@ -1765,15 +1850,23 @@
         <v>185</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K3" s="13">
+        <v>73</v>
+      </c>
+      <c r="L3" s="13">
+        <v>136</v>
+      </c>
       <c r="M3" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1799,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>156</v>
@@ -1835,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>165</v>
@@ -1868,7 +1961,7 @@
         <v>126</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>34</v>
@@ -1904,7 +1997,7 @@
         <v>121</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>34</v>
@@ -1941,7 +2034,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>119</v>
@@ -1977,7 +2070,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>120</v>
@@ -2011,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>119</v>
@@ -2045,7 +2138,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>120</v>
@@ -2079,7 +2172,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>145</v>
@@ -2109,19 +2202,19 @@
         <v>92</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="0"/>
@@ -2145,19 +2238,19 @@
         <v>92</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="0"/>
@@ -2217,7 +2310,7 @@
         <v>92</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>25</v>
@@ -2226,10 +2319,10 @@
         <v>26</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="0"/>
@@ -2253,7 +2346,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>25</v>
@@ -2262,10 +2355,10 @@
         <v>26</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="0"/>
@@ -2361,7 +2454,7 @@
         <v>92</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>58</v>
@@ -2370,10 +2463,10 @@
         <v>59</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M20" s="17">
         <f t="shared" si="0"/>
@@ -2397,7 +2490,7 @@
         <v>92</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>58</v>
@@ -2406,10 +2499,10 @@
         <v>59</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="0"/>
@@ -2433,7 +2526,7 @@
         <v>92</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>58</v>
@@ -2442,10 +2535,10 @@
         <v>59</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="0"/>
@@ -2469,7 +2562,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>58</v>
@@ -2478,10 +2571,10 @@
         <v>59</v>
       </c>
       <c r="I23" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="0"/>
@@ -2505,7 +2598,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>58</v>
@@ -2514,10 +2607,10 @@
         <v>59</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="0"/>
@@ -2577,7 +2670,7 @@
         <v>92</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>58</v>
@@ -2586,10 +2679,10 @@
         <v>59</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="0"/>
@@ -2649,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>58</v>
@@ -2658,10 +2751,10 @@
         <v>59</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="0"/>
@@ -2694,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>107</v>
@@ -3066,7 +3159,7 @@
         <v>92</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>96</v>
@@ -3075,10 +3168,10 @@
         <v>97</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K38" s="9">
         <v>96</v>
@@ -3108,19 +3201,19 @@
         <v>29</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>168</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K39" s="9">
         <v>56</v>
@@ -3318,7 +3411,7 @@
         <v>92</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>168</v>
@@ -3327,10 +3420,10 @@
         <v>178</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K44" s="9">
         <v>264</v>
@@ -3360,7 +3453,7 @@
         <v>92</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>25</v>
@@ -3369,10 +3462,10 @@
         <v>26</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K45" s="9">
         <v>434</v>
@@ -3476,19 +3569,19 @@
         <v>92</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H48" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J48" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="K48" s="9">
         <v>257</v>
@@ -3738,7 +3831,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="M66" s="18">
-        <f t="shared" ref="M66:M97" si="2">IF(ISBLANK(K66),,((K66-L66*2)+1000)/9)</f>
+        <f t="shared" ref="M66:M69" si="2">IF(ISBLANK(K66),,((K66-L66*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
@@ -11291,22 +11384,22 @@
   </sortState>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="M1:M1008">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1008">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1008">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>43070</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17865,42 +17958,42 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Algo">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Algo">
       <formula>NOT(ISERROR(SEARCH(("Algo"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Array">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Array">
       <formula>NOT(ISERROR(SEARCH(("Array"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Backtracking">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Backtracking">
       <formula>NOT(ISERROR(SEARCH(("Backtracking"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="DP">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="DP">
       <formula>NOT(ISERROR(SEARCH(("DP"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="LinkedList">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="LinkedList">
       <formula>NOT(ISERROR(SEARCH(("LinkedList"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Math">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Math">
       <formula>NOT(ISERROR(SEARCH(("Math"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Tree">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Tree">
       <formula>NOT(ISERROR(SEARCH(("Tree"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="String">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="String">
       <formula>NOT(ISERROR(SEARCH(("String"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QuizAndKeyList.xlsx
+++ b/QuizAndKeyList.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g3094010\git\Note-Java\"/>
@@ -16,14 +16,14 @@
     <sheet name="SimpleList" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$1007</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$1008</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="281">
   <si>
     <t>No</t>
   </si>
@@ -516,9 +516,6 @@
   </si>
   <si>
     <t>tree</t>
-  </si>
-  <si>
-    <t>找出一棵樹的最大深度</t>
   </si>
   <si>
     <t>用DFS做。事前先開一個arr存兩個變數(目前深度，最大深度)
@@ -811,6 +808,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -827,6 +825,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
@@ -844,6 +843,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -860,6 +860,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -876,6 +877,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">array 
 </t>
@@ -893,6 +895,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -972,6 +975,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -988,6 +992,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">target </t>
     </r>
@@ -1022,6 +1027,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">target
 </t>
@@ -1039,6 +1045,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>index</t>
     </r>
@@ -1087,6 +1094,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> push(x), pop(), top(), empty()</t>
     </r>
@@ -1108,6 +1116,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> push(x), pop(), peek(), empty()</t>
     </r>
@@ -1146,15 +1155,1248 @@
     <t>用兩個Stack來做 push放入時不用處理直接存到S1 在取出pop或確認top時 從上面取出 放入S2 (順序反過來) 再從S2上方取出或確認即可</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t xml:space="preserve">Done? </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Same Tree</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ree</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ree</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>asy</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Path Sum</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Path Sum 2</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>給一棵樹和一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">target(int) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>判斷從</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>leaf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>的各條</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">path </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>有沒有任何一條的和加總會是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">target </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>回傳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">boolean </t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>直覺的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">traverse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>兩棵樹分別比較左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>一直到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">leaf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>記得要注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>一開始先比較左右兩個節點</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>如果一樣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>做一個可以傳入兩個變數的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">helper </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>傳入左右子樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>一直往下比較</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Level-Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>來做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>或兩個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">queue) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>先碰到的葉子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>該處的深度就是最小深度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Method2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>也可以直接用遞迴的方式往下找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>直接看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>可能比較快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>簡單說分成兩種</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>case (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>左樹或右樹有任何一邊為空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>則該節點的最小高是左高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>右高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>其中左高或右高為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0) (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>兩邊都不為空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>則最小高是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>min(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>左高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>右高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)+1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>一路從下往上算</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>也是遞迴往下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>做一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">helper(node, sum, target) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>當</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>兩邊都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>的時候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>檢查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>是否等於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">target </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>只要有一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>就一路跳出來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>不能跳出來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>要繼續檢查</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>一樣是遞回來做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> helpe(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>內是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">templeft = helper(n.left) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>也就是翻轉左樹以下之後再把左樹接到右側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n.right=templeft </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>當然左右都要做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>回傳本身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>給一棵樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回傳一棵樹的最大深度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>給兩棵樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>回傳是否相同</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>給一棵樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>回傳是否左右對稱</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>給一棵樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>回傳一棵樹的最小深度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>延續</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">#112 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>給一棵樹和一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">target(int) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>不只是找出有沒有加總符合的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">path </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>要列出全部符合的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">path </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>回傳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> List&lt;List&lt;Integer&gt;&gt;</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>給一棵樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>回傳一棵樹與原樹左右對稱</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">一樣的解法 差別在於要多傳兩個變數 一個是現在的List 一個是全部的ListList 然後作法就是往下的時候裝一個進去List 出來的時候拿掉一個最後面的元素 最後加入ListList的時候記得要用new的 不能直接加原本的List </t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1163,27 +2405,32 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF3C78D8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFA64D79"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1227,8 +2474,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,8 +2496,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1250,11 +2511,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1326,16 +2631,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1705,37 +3030,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="26.140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="52.7109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="58.7109375" style="27" customWidth="1"/>
     <col min="11" max="12" width="7.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -1802,19 +3129,19 @@
         <v>92</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="K2" s="13">
         <v>124</v>
@@ -1844,19 +3171,19 @@
         <v>92</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K3" s="13">
         <v>73</v>
@@ -1892,13 +3219,13 @@
         <v>25</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" si="0"/>
@@ -1922,19 +3249,19 @@
         <v>29</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="M5" s="17">
         <f t="shared" si="0"/>
@@ -1961,7 +3288,7 @@
         <v>126</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>34</v>
@@ -1997,7 +3324,7 @@
         <v>121</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>34</v>
@@ -2034,7 +3361,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>119</v>
@@ -2070,7 +3397,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>120</v>
@@ -2104,7 +3431,7 @@
         <v>41</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>119</v>
@@ -2138,7 +3465,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>120</v>
@@ -2172,7 +3499,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>145</v>
@@ -2202,19 +3529,19 @@
         <v>92</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="0"/>
@@ -2238,19 +3565,19 @@
         <v>92</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I14" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="0"/>
@@ -2274,7 +3601,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>25</v>
@@ -2283,10 +3610,10 @@
         <v>26</v>
       </c>
       <c r="I15" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="0"/>
@@ -2310,7 +3637,7 @@
         <v>92</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>25</v>
@@ -2319,10 +3646,10 @@
         <v>26</v>
       </c>
       <c r="I16" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="0"/>
@@ -2346,7 +3673,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>25</v>
@@ -2355,10 +3682,10 @@
         <v>26</v>
       </c>
       <c r="I17" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="0"/>
@@ -2382,7 +3709,7 @@
         <v>92</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>58</v>
@@ -2391,10 +3718,10 @@
         <v>59</v>
       </c>
       <c r="I18" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="0"/>
@@ -2418,7 +3745,7 @@
         <v>92</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>58</v>
@@ -2427,10 +3754,10 @@
         <v>59</v>
       </c>
       <c r="I19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="0"/>
@@ -2454,7 +3781,7 @@
         <v>92</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>58</v>
@@ -2463,10 +3790,10 @@
         <v>59</v>
       </c>
       <c r="I20" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="M20" s="17">
         <f t="shared" si="0"/>
@@ -2490,7 +3817,7 @@
         <v>92</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>58</v>
@@ -2499,10 +3826,10 @@
         <v>59</v>
       </c>
       <c r="I21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="0"/>
@@ -2526,7 +3853,7 @@
         <v>92</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>58</v>
@@ -2535,10 +3862,10 @@
         <v>59</v>
       </c>
       <c r="I22" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="0"/>
@@ -2562,7 +3889,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>58</v>
@@ -2571,10 +3898,10 @@
         <v>59</v>
       </c>
       <c r="I23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="0"/>
@@ -2598,7 +3925,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>58</v>
@@ -2607,10 +3934,10 @@
         <v>59</v>
       </c>
       <c r="I24" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="0"/>
@@ -2634,7 +3961,7 @@
         <v>92</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>58</v>
@@ -2643,10 +3970,10 @@
         <v>59</v>
       </c>
       <c r="I25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="0"/>
@@ -2670,7 +3997,7 @@
         <v>92</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>58</v>
@@ -2679,10 +4006,10 @@
         <v>59</v>
       </c>
       <c r="I26" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="0"/>
@@ -2706,7 +4033,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>58</v>
@@ -2715,10 +4042,10 @@
         <v>59</v>
       </c>
       <c r="I27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="0"/>
@@ -2742,7 +4069,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>58</v>
@@ -2751,10 +4078,10 @@
         <v>59</v>
       </c>
       <c r="I28" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="0"/>
@@ -2787,7 +4114,7 @@
         <v>26</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>107</v>
@@ -2958,10 +4285,10 @@
         <v>153</v>
       </c>
       <c r="I33" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="K33" s="9">
         <v>258</v>
@@ -3159,7 +4486,7 @@
         <v>92</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>96</v>
@@ -3168,10 +4495,10 @@
         <v>97</v>
       </c>
       <c r="I38" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="K38" s="9">
         <v>96</v>
@@ -3201,19 +4528,19 @@
         <v>29</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H39" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="K39" s="9">
         <v>56</v>
@@ -3369,19 +4696,19 @@
         <v>29</v>
       </c>
       <c r="F43" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="K43" s="9">
         <v>486</v>
@@ -3411,19 +4738,19 @@
         <v>92</v>
       </c>
       <c r="F44" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="9" t="s">
+      <c r="J44" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="K44" s="9">
         <v>264</v>
@@ -3453,7 +4780,7 @@
         <v>92</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>25</v>
@@ -3462,10 +4789,10 @@
         <v>26</v>
       </c>
       <c r="I45" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="K45" s="9">
         <v>434</v>
@@ -3527,19 +4854,19 @@
         <v>92</v>
       </c>
       <c r="F47" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="K47" s="9">
         <v>245</v>
@@ -3569,19 +4896,19 @@
         <v>92</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H48" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="J48" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="K48" s="9">
         <v>257</v>
@@ -3676,67 +5003,262 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="F51" s="23"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="M51" s="18">
+    <row r="51" spans="1:13" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="35">
+        <v>50</v>
+      </c>
+      <c r="B51" s="33">
+        <v>43083</v>
+      </c>
+      <c r="C51" s="33">
+        <v>43083</v>
+      </c>
+      <c r="D51" s="23">
+        <v>100</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" s="23">
+        <v>264</v>
+      </c>
+      <c r="L51" s="23">
+        <v>8</v>
+      </c>
+      <c r="M51" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="F52" s="23"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+        <v>138.66666666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>51</v>
+      </c>
+      <c r="B52" s="20">
+        <v>43083</v>
+      </c>
+      <c r="C52" s="33">
+        <v>43083</v>
+      </c>
+      <c r="D52" s="9">
+        <v>101</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K52" s="9">
+        <v>553</v>
+      </c>
+      <c r="L52" s="9">
+        <v>8</v>
+      </c>
       <c r="M52" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="F53" s="23"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+        <v>170.77777777777777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="81" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>52</v>
+      </c>
+      <c r="B53" s="20">
+        <v>43083</v>
+      </c>
+      <c r="C53" s="33">
+        <v>43083</v>
+      </c>
+      <c r="D53" s="9">
+        <v>111</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K53" s="9">
+        <v>170</v>
+      </c>
+      <c r="L53" s="9">
+        <v>74</v>
+      </c>
       <c r="M53" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="F54" s="23"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+        <v>113.55555555555556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
+      <c r="B54" s="20">
+        <v>43083</v>
+      </c>
+      <c r="C54" s="33">
+        <v>43083</v>
+      </c>
+      <c r="D54" s="9">
+        <v>112</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="K54" s="9">
+        <v>210</v>
+      </c>
+      <c r="L54" s="9">
+        <v>69</v>
+      </c>
       <c r="M54" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="F55" s="23"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+        <v>119.11111111111111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="54" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
+      <c r="B55" s="20">
+        <v>43083</v>
+      </c>
+      <c r="C55" s="33">
+        <v>43083</v>
+      </c>
+      <c r="D55" s="9">
+        <v>113</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" s="9">
+        <v>197</v>
+      </c>
+      <c r="L55" s="9">
+        <v>7</v>
+      </c>
       <c r="M55" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+        <v>131.44444444444446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="20">
+        <v>43083</v>
+      </c>
+      <c r="C56" s="33">
+        <v>43083</v>
+      </c>
+      <c r="D56" s="9">
+        <v>226</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K56" s="9">
+        <v>353</v>
+      </c>
+      <c r="L56" s="9">
+        <v>8</v>
+      </c>
       <c r="M56" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>148.55555555555554</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+      <c r="A57" s="16">
+        <v>56</v>
+      </c>
       <c r="F57" s="23"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3746,7 +5268,9 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
+      <c r="A58" s="16">
+        <v>57</v>
+      </c>
       <c r="F58" s="23"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3756,7 +5280,9 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="16">
+        <v>58</v>
+      </c>
       <c r="F59" s="23"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3766,7 +5292,9 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
       <c r="F60" s="23"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3776,7 +5304,9 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
       <c r="F61" s="23"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3786,7 +5316,9 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
       <c r="F62" s="23"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3796,7 +5328,9 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
       <c r="F63" s="23"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3805,8 +5339,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="F64" s="23"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3815,8 +5357,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+    <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
+      <c r="B65" s="30">
+        <v>226</v>
+      </c>
+      <c r="C65" s="31" t="str">
+        <f>IF(COUNTIF(D:D,B65),"Done","Not Yet")</f>
+        <v>Done</v>
+      </c>
       <c r="F65" s="23"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3826,7 +5377,9 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
       <c r="F66" s="23"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3836,7 +5389,9 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
+      <c r="A67" s="16">
+        <v>66</v>
+      </c>
       <c r="F67" s="23"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -11378,28 +12933,28 @@
       <c r="M1008" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G1007"/>
+  <autoFilter ref="H1:H1008"/>
   <sortState ref="A2:N1008">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="M1:M1008">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1008">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1008">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C1:C50 C66:C1048576 C58:C59 C62:C64">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>43070</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11410,6 +12965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D1012"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -17958,42 +19514,42 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Algo">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Algo">
       <formula>NOT(ISERROR(SEARCH(("Algo"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Array">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Array">
       <formula>NOT(ISERROR(SEARCH(("Array"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Backtracking">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Backtracking">
       <formula>NOT(ISERROR(SEARCH(("Backtracking"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="DP">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="DP">
       <formula>NOT(ISERROR(SEARCH(("DP"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="LinkedList">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="LinkedList">
       <formula>NOT(ISERROR(SEARCH(("LinkedList"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Math">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Math">
       <formula>NOT(ISERROR(SEARCH(("Math"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Tree">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Tree">
       <formula>NOT(ISERROR(SEARCH(("Tree"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="String">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="String">
       <formula>NOT(ISERROR(SEARCH(("String"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QuizAndKeyList.xlsx
+++ b/QuizAndKeyList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24920" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24900" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="339">
   <si>
     <t>No</t>
   </si>
@@ -826,15 +826,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>subsets</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>Input</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>array</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1493,6 +1485,136 @@
   <si>
     <t>給兩個字串數字 相加後回傳字串</t>
   </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>使用iterative</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>使用一個stack，也開一個list來接，順序是左右上。這題是比較難的，但也不會太難。因為由後而前依序是上右左，所以大致上就照這個順序push入stack。做法是一開始先push root，然後peek出root檢查是不是已經左右都是null，代表到最下方了。如果左右都是null，則該node已經得加入list，所以要pop出來加；如果左右還有不是null，就把不是null的那邊push入stack（要注意，中間node只是peek出來，所以本身還是在stack裡面，所以順序還是在後面），當然push的順序是右左。要記得push進去之前要切斷本身node的該側連結，否則會形成loop。</t>
+  </si>
+  <si>
+    <r>
+      <t>使用一個stack，也開一個list來接，順序是上左右。又因為traverse本來就由上到下，所以碰到該個就直接把他放入list。再來考慮左右，因為左邊在右邊前面，所以先把右邊放入stack，再往左邊跳（也可以把左邊後放入stack，等他下次迴圈後也是會取出一樣的左邊，但就比較麻煩），依序往下。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val=".PingFang TC"/>
+      </rPr>
+      <t>-.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>-¢.¦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val=".PingFang TC"/>
+      </rPr>
+      <t>-³.»-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Ï.Ó-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val=".PingFang TC"/>
+      </rPr>
+      <t>í.ò-Ă.ć-_x0001__x0000_Œ_x0000_µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>_x0000_µ使用一個st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val=".PingFang TC"/>
+      </rPr>
+      <t>ack，也開一個list來接，順序是左上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>右。因為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val=".PingFang TC"/>
+      </rPr>
+      <t>左邊要先，中間在後，所以一路往左，並且依序把中間pu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>sh入st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val=".PingFang TC"/>
+      </rPr>
+      <t>ack，右邊不需要處理，因為右邊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>可以等取出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF454545"/>
+        <rFont val=".PingFang TC"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>使用一個stack，也開一個list來接，順序是左上右。因為左邊要先，中間在後，所以一路往左，並且依序把中間push入stack，右邊不需要處理，因為右邊可以等取出中間時才處理。等到跳到null（最左邊null)的時候，開始pull出stack。這時候因為是要考慮到上右，所以先把中間放入list才往右邊跳，當右邊處理結束後，又會回到上一層的中間，依次往上回去。</t>
+  </si>
 </sst>
 </file>
 
@@ -1502,7 +1624,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1610,6 +1732,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val=".PingFang TC"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1697,7 +1834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1944,16 +2081,122 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF4E5E3"/>
           <bgColor rgb="FFF4E5E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2441,9 +2684,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2464,13 +2707,13 @@
   <sheetData>
     <row r="1" spans="1:30" s="54" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D1" s="50" t="s">
         <v>0</v>
@@ -2504,11 +2747,11 @@
       </c>
       <c r="N1" s="82">
         <f>COUNTA(B4:B200)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O1" s="82">
         <f>COUNTA(J10:J206)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="49" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2526,10 +2769,10 @@
       <c r="L2" s="47"/>
       <c r="M2" s="48"/>
       <c r="N2" s="78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="49" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2554,113 +2797,106 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" ht="65" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" s="18">
-        <v>43036</v>
+        <v>43029</v>
       </c>
       <c r="C4" s="18">
-        <v>43036</v>
+        <v>43082</v>
       </c>
       <c r="D4" s="14">
+        <v>232</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="34">
+        <v>124</v>
+      </c>
+      <c r="L4" s="34">
         <v>54</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
       <c r="M4" s="35">
-        <f t="shared" ref="M4:M35" si="0">IF(ISBLANK(K4),,((K4-L4*2)+1000)/9)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K4),,((K4-L4*2)+1000)/9)</f>
+        <v>112.88888888888889</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5" spans="1:30" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="18">
-        <v>43036</v>
+        <v>43030</v>
       </c>
       <c r="C5" s="18">
-        <v>43036</v>
+        <v>43082</v>
       </c>
       <c r="D5" s="14">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>34</v>
+        <v>182</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+        <v>243</v>
+      </c>
+      <c r="K5" s="34">
+        <v>73</v>
+      </c>
+      <c r="L5" s="34">
+        <v>136</v>
+      </c>
       <c r="M5" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
+        <f>IF(ISBLANK(K5),,((K5-L5*2)+1000)/9)</f>
+        <v>89</v>
+      </c>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="1:30" ht="52" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
@@ -2688,7 +2924,7 @@
         <v>130</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>155</v>
@@ -2700,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="33">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K6),,((K6-L6*2)+1000)/9)</f>
         <v>140.77777777777777</v>
       </c>
       <c r="N6" s="56"/>
@@ -2728,8 +2964,8 @@
       <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>239</v>
+      <c r="H7" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>163</v>
@@ -2740,144 +2976,146 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K7),,((K7-L7*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="18">
-        <v>43037</v>
+        <v>43036</v>
       </c>
       <c r="C8" s="18">
-        <v>43037</v>
+        <v>43036</v>
       </c>
       <c r="D8" s="14">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>237</v>
+      <c r="F8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K8),,((K8-L8*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="18">
-        <v>43037</v>
+        <v>43036</v>
       </c>
       <c r="C9" s="18">
-        <v>43037</v>
+        <v>43036</v>
       </c>
       <c r="D9" s="14">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>234</v>
+      <c r="F9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K9),,((K9-L9*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="18">
-        <v>43038</v>
+        <v>43037</v>
       </c>
       <c r="C10" s="18">
-        <v>43038</v>
+        <v>43037</v>
       </c>
       <c r="D10" s="14">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>233</v>
+      <c r="H10" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K10),,((K10-L10*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="18">
-        <v>43038</v>
+        <v>43037</v>
       </c>
       <c r="C11" s="18">
-        <v>43038</v>
+        <v>43037</v>
       </c>
       <c r="D11" s="14">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>120</v>
@@ -2886,13 +3124,13 @@
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K11),,((K11-L11*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="18">
         <v>43038</v>
@@ -2901,303 +3139,301 @@
         <v>43038</v>
       </c>
       <c r="D12" s="14">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>146</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J12" s="11"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K12),,((K12-L12*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="18">
-        <v>43039</v>
+        <v>43038</v>
       </c>
       <c r="C13" s="18">
-        <v>43039</v>
+        <v>43038</v>
       </c>
       <c r="D13" s="14">
-        <v>657</v>
+        <v>47</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>226</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>228</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K13),,((K13-L13*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="18">
-        <v>43042</v>
+        <v>43038</v>
       </c>
       <c r="C14" s="18">
-        <v>43042</v>
+        <v>43038</v>
       </c>
       <c r="D14" s="14">
-        <v>669</v>
+        <v>77</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>229</v>
+        <v>29</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K14),,((K14-L14*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B15" s="18">
-        <v>43044</v>
+        <v>43039</v>
       </c>
       <c r="C15" s="18">
-        <v>43044</v>
+        <v>43039</v>
       </c>
       <c r="D15" s="14">
-        <v>136</v>
+        <v>657</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K15),,((K15-L15*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" s="18">
-        <v>43044</v>
+        <v>43042</v>
       </c>
       <c r="C16" s="18">
-        <v>43044</v>
+        <v>43042</v>
       </c>
       <c r="D16" s="14">
-        <v>190</v>
+        <v>669</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K16),,((K16-L16*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="18">
-        <v>43044</v>
-      </c>
-      <c r="C17" s="18">
-        <v>43044</v>
+        <v>43042</v>
+      </c>
+      <c r="C17" s="20">
+        <v>43082</v>
       </c>
       <c r="D17" s="14">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K17),,((K17-L17*2)+1000)/9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N17" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B18" s="18">
-        <v>43044</v>
-      </c>
-      <c r="C18" s="18">
-        <v>43044</v>
+        <v>43042</v>
+      </c>
+      <c r="C18" s="20">
+        <v>43082</v>
       </c>
       <c r="D18" s="14">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K18),,((K18-L18*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="18">
-        <v>43044</v>
-      </c>
-      <c r="C19" s="18">
-        <v>43044</v>
+        <v>43042</v>
+      </c>
+      <c r="C19" s="20">
+        <v>43082</v>
       </c>
       <c r="D19" s="14">
-        <v>268</v>
+        <v>442</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K19),,((K19-L19*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20" s="18">
         <v>43044</v>
@@ -3206,13 +3442,13 @@
         <v>43044</v>
       </c>
       <c r="D20" s="14">
-        <v>338</v>
+        <v>191</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>58</v>
@@ -3221,21 +3457,21 @@
         <v>59</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K20),,((K20-L20*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="18">
         <v>43044</v>
@@ -3244,13 +3480,13 @@
         <v>43044</v>
       </c>
       <c r="D21" s="14">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>58</v>
@@ -3259,21 +3495,21 @@
         <v>59</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K21),,((K21-L21*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="18">
         <v>43044</v>
@@ -3282,13 +3518,13 @@
         <v>43044</v>
       </c>
       <c r="D22" s="14">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>58</v>
@@ -3297,21 +3533,21 @@
         <v>59</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K22),,((K22-L22*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" s="18">
         <v>43044</v>
@@ -3320,13 +3556,13 @@
         <v>43044</v>
       </c>
       <c r="D23" s="14">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>58</v>
@@ -3335,37 +3571,36 @@
         <v>59</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K23),,((K23-L23*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:30" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24" s="18">
-        <v>43045</v>
+        <v>43044</v>
       </c>
       <c r="C24" s="18">
-        <v>43045</v>
+        <v>43044</v>
       </c>
       <c r="D24" s="14">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>58</v>
@@ -3374,52 +3609,36 @@
         <v>59</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K24),,((K24-L24*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-    </row>
-    <row r="25" spans="1:30" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B25" s="18">
-        <v>43045</v>
+        <v>43044</v>
       </c>
       <c r="C25" s="18">
-        <v>43045</v>
+        <v>43044</v>
       </c>
       <c r="D25" s="14">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>58</v>
@@ -3428,282 +3647,246 @@
         <v>59</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K25),,((K25-L25*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-    </row>
-    <row r="26" spans="1:30" s="8" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B26" s="18">
-        <v>43051</v>
+        <v>43044</v>
       </c>
       <c r="C26" s="18">
-        <v>43051</v>
+        <v>43044</v>
       </c>
       <c r="D26" s="14">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="36">
-        <v>1077</v>
-      </c>
-      <c r="L26" s="36">
-        <v>386</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
       <c r="M26" s="35">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K26),,((K26-L26*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B27" s="18">
-        <v>43051</v>
+        <v>43044</v>
       </c>
       <c r="C27" s="18">
-        <v>43051</v>
+        <v>43044</v>
       </c>
       <c r="D27" s="14">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="36">
-        <v>261</v>
-      </c>
-      <c r="L27" s="36">
-        <v>912</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
       <c r="M27" s="35">
-        <f t="shared" si="0"/>
-        <v>-62.555555555555557</v>
-      </c>
-      <c r="N27"/>
+        <f>IF(ISBLANK(K27),,((K27-L27*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28" s="18">
-        <v>43051</v>
+        <v>43044</v>
       </c>
       <c r="C28" s="18">
-        <v>43051</v>
+        <v>43044</v>
       </c>
       <c r="D28" s="14">
-        <v>28</v>
+        <v>461</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" s="36">
+        <v>222</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="35">
+        <f>IF(ISBLANK(K28),,((K28-L28*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:30" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
+        <v>26</v>
+      </c>
+      <c r="B29" s="18">
+        <v>43045</v>
+      </c>
+      <c r="C29" s="18">
+        <v>43045</v>
+      </c>
+      <c r="D29" s="14">
+        <v>137</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="35">
+        <f>IF(ISBLANK(K29),,((K29-L29*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+    </row>
+    <row r="30" spans="1:30" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A30" s="17">
+        <v>27</v>
+      </c>
+      <c r="B30" s="18">
+        <v>43045</v>
+      </c>
+      <c r="C30" s="18">
+        <v>43045</v>
+      </c>
+      <c r="D30" s="14">
+        <v>260</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="L28" s="36">
-        <v>370</v>
-      </c>
-      <c r="M28" s="35">
-        <f t="shared" si="0"/>
-        <v>50.333333333333336</v>
-      </c>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-    </row>
-    <row r="29" spans="1:30" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.15">
-      <c r="A29" s="17">
-        <v>30</v>
-      </c>
-      <c r="B29" s="18">
-        <v>43051</v>
-      </c>
-      <c r="C29" s="18">
-        <v>43051</v>
-      </c>
-      <c r="D29" s="14">
-        <v>38</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="36">
-        <v>160</v>
-      </c>
-      <c r="L29" s="36">
-        <v>1169</v>
-      </c>
-      <c r="M29" s="35">
-        <f t="shared" si="0"/>
-        <v>-130.88888888888889</v>
-      </c>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-    </row>
-    <row r="30" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A30" s="17">
-        <v>31</v>
-      </c>
-      <c r="B30" s="18">
-        <v>43051</v>
-      </c>
-      <c r="C30" s="18">
-        <v>43051</v>
-      </c>
-      <c r="D30" s="14">
-        <v>88</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="J30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="36">
-        <v>196</v>
-      </c>
-      <c r="L30" s="36">
-        <v>793</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
       <c r="M30" s="35">
-        <f t="shared" si="0"/>
-        <v>-43.333333333333336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K30),,((K30-L30*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B31" s="18">
         <v>43051</v>
@@ -3712,335 +3895,368 @@
         <v>43051</v>
       </c>
       <c r="D31" s="14">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="K31" s="36">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L31" s="36">
-        <v>14</v>
+        <v>912</v>
       </c>
       <c r="M31" s="35">
-        <f t="shared" si="0"/>
-        <v>136.66666666666666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K31),,((K31-L31*2)+1000)/9)</f>
+        <v>-62.555555555555557</v>
+      </c>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B32" s="18">
-        <v>43052</v>
+        <v>43051</v>
       </c>
       <c r="C32" s="18">
-        <v>43052</v>
+        <v>43051</v>
       </c>
       <c r="D32" s="14">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="K32" s="36">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="L32" s="36">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" si="0"/>
-        <v>139.55555555555554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K32),,((K32-L32*2)+1000)/9)</f>
+        <v>50.333333333333336</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" spans="1:30" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A33" s="17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B33" s="18">
-        <v>43052</v>
+        <v>43051</v>
       </c>
       <c r="C33" s="18">
-        <v>43052</v>
+        <v>43051</v>
       </c>
       <c r="D33" s="14">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="K33" s="36">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="L33" s="36">
-        <v>12</v>
+        <v>1169</v>
       </c>
       <c r="M33" s="35">
-        <f t="shared" si="0"/>
-        <v>123.33333333333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K33),,((K33-L33*2)+1000)/9)</f>
+        <v>-130.88888888888889</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A34" s="17">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B34" s="18">
-        <v>43062</v>
+        <v>43051</v>
       </c>
       <c r="C34" s="18">
-        <v>43062</v>
+        <v>43051</v>
       </c>
       <c r="D34" s="14">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="K34" s="36">
-        <v>480</v>
+        <v>196</v>
       </c>
       <c r="L34" s="36">
-        <v>59</v>
+        <v>793</v>
       </c>
       <c r="M34" s="35">
-        <f t="shared" si="0"/>
-        <v>151.33333333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K34),,((K34-L34*2)+1000)/9)</f>
+        <v>-43.333333333333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A35" s="17">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B35" s="18">
-        <v>43062</v>
+        <v>43051</v>
       </c>
       <c r="C35" s="18">
-        <v>43062</v>
+        <v>43051</v>
       </c>
       <c r="D35" s="14">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="K35" s="36">
-        <v>627</v>
+        <v>258</v>
       </c>
       <c r="L35" s="36">
+        <v>14</v>
+      </c>
+      <c r="M35" s="35">
+        <f>IF(ISBLANK(K35),,((K35-L35*2)+1000)/9)</f>
+        <v>136.66666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" s="8" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+      <c r="A36" s="17">
+        <v>33</v>
+      </c>
+      <c r="B36" s="18">
+        <v>43051</v>
+      </c>
+      <c r="C36" s="18">
+        <v>43051</v>
+      </c>
+      <c r="D36" s="14">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="35">
-        <f t="shared" si="0"/>
-        <v>172.11111111111111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
-      <c r="A36" s="17">
-        <v>36</v>
-      </c>
-      <c r="B36" s="18">
-        <v>43062</v>
-      </c>
-      <c r="C36" s="18">
-        <v>43062</v>
-      </c>
-      <c r="D36" s="14">
-        <v>58</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="J36" s="11" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="K36" s="36">
-        <v>75</v>
+        <v>1077</v>
       </c>
       <c r="L36" s="36">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" ref="M36:M67" si="1">IF(ISBLANK(K36),,((K36-L36*2)+1000)/9)</f>
-        <v>43.666666666666664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K36),,((K36-L36*2)+1000)/9)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A37" s="17">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B37" s="18">
-        <v>43062</v>
+        <v>43052</v>
       </c>
       <c r="C37" s="18">
-        <v>43062</v>
+        <v>43052</v>
       </c>
       <c r="D37" s="14">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K37" s="36">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="L37" s="36">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="M37" s="35">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="N37"/>
+        <f>IF(ISBLANK(K37),,((K37-L37*2)+1000)/9)</f>
+        <v>139.55555555555554</v>
+      </c>
     </row>
     <row r="38" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A38" s="17">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="18">
-        <v>43062</v>
+        <v>43052</v>
       </c>
       <c r="C38" s="18">
-        <v>43062</v>
+        <v>43052</v>
       </c>
       <c r="D38" s="14">
-        <v>383</v>
+        <v>63</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="K38" s="36">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="L38" s="36">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M38" s="35">
-        <f t="shared" si="1"/>
-        <v>115.77777777777777</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" s="8" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K38),,((K38-L38*2)+1000)/9)</f>
+        <v>123.33333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A39" s="17">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="18">
         <v>43062</v>
@@ -4049,680 +4265,624 @@
         <v>43062</v>
       </c>
       <c r="D39" s="14">
+        <v>58</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" s="36">
+        <v>75</v>
+      </c>
+      <c r="L39" s="36">
+        <v>341</v>
+      </c>
+      <c r="M39" s="35">
+        <f>IF(ISBLANK(K39),,((K39-L39*2)+1000)/9)</f>
+        <v>43.666666666666664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A40" s="17">
+        <v>37</v>
+      </c>
+      <c r="B40" s="18">
+        <v>43062</v>
+      </c>
+      <c r="C40" s="18">
+        <v>43062</v>
+      </c>
+      <c r="D40" s="14">
+        <v>383</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K40" s="36">
+        <v>96</v>
+      </c>
+      <c r="L40" s="36">
+        <v>27</v>
+      </c>
+      <c r="M40" s="35">
+        <f>IF(ISBLANK(K40),,((K40-L40*2)+1000)/9)</f>
+        <v>115.77777777777777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" s="8" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+      <c r="A41" s="17">
+        <v>38</v>
+      </c>
+      <c r="B41" s="18">
+        <v>43062</v>
+      </c>
+      <c r="C41" s="18">
+        <v>43062</v>
+      </c>
+      <c r="D41" s="14">
         <v>398</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K39" s="36">
-        <v>56</v>
-      </c>
-      <c r="L39" s="36">
-        <v>166</v>
-      </c>
-      <c r="M39" s="35">
-        <f t="shared" si="1"/>
-        <v>80.444444444444443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
-      <c r="A40" s="17">
-        <v>42</v>
-      </c>
-      <c r="B40" s="18">
-        <v>43063</v>
-      </c>
-      <c r="C40" s="18">
-        <v>43063</v>
-      </c>
-      <c r="D40" s="14">
-        <v>200</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K40" s="36">
-        <v>486</v>
-      </c>
-      <c r="L40" s="36">
-        <v>24</v>
-      </c>
-      <c r="M40" s="35">
-        <f t="shared" si="1"/>
-        <v>159.77777777777777</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
-      <c r="A41" s="17">
-        <v>43</v>
-      </c>
-      <c r="B41" s="18">
-        <v>43063</v>
-      </c>
-      <c r="C41" s="18">
-        <v>43063</v>
-      </c>
-      <c r="D41" s="14">
-        <v>463</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>223</v>
+      <c r="F41" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>166</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K41" s="36">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c r="L41" s="36">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="M41" s="35">
-        <f t="shared" si="1"/>
-        <v>134.44444444444446</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K41),,((K41-L41*2)+1000)/9)</f>
+        <v>80.444444444444443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A42" s="17">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B42" s="18">
-        <v>43072</v>
+        <v>43062</v>
       </c>
       <c r="C42" s="18">
-        <v>43072</v>
+        <v>43062</v>
       </c>
       <c r="D42" s="14">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>111</v>
+        <v>92</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="36">
+        <v>627</v>
+      </c>
+      <c r="L42" s="36">
+        <v>39</v>
+      </c>
       <c r="M42" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(ISBLANK(K42),,((K42-L42*2)+1000)/9)</f>
+        <v>172.11111111111111</v>
       </c>
     </row>
     <row r="43" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A43" s="17">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B43" s="18">
-        <v>43082</v>
+        <v>43062</v>
       </c>
       <c r="C43" s="18">
-        <v>43082</v>
+        <v>43062</v>
       </c>
       <c r="D43" s="14">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="K43" s="36">
-        <v>1030</v>
+        <v>164</v>
       </c>
       <c r="L43" s="36">
-        <v>34</v>
+        <v>348</v>
       </c>
       <c r="M43" s="35">
-        <f t="shared" si="1"/>
-        <v>218</v>
-      </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-    </row>
-    <row r="44" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K43),,((K43-L43*2)+1000)/9)</f>
+        <v>52</v>
+      </c>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:30" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B44" s="18">
-        <v>43074</v>
+        <v>43062</v>
       </c>
       <c r="C44" s="18">
-        <v>43082</v>
+        <v>43062</v>
       </c>
       <c r="D44" s="14">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>142</v>
+      <c r="F44" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="K44" s="36">
-        <v>218</v>
+        <v>480</v>
       </c>
       <c r="L44" s="36">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M44" s="35">
-        <f t="shared" si="1"/>
-        <v>120.88888888888889</v>
-      </c>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
+        <f>IF(ISBLANK(K44),,((K44-L44*2)+1000)/9)</f>
+        <v>151.33333333333334</v>
+      </c>
     </row>
     <row r="45" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A45" s="17">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B45" s="18">
-        <v>43072</v>
+        <v>43063</v>
       </c>
       <c r="C45" s="18">
-        <v>43082</v>
+        <v>43063</v>
       </c>
       <c r="D45" s="14">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>166</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K45" s="36">
-        <v>245</v>
+        <v>486</v>
       </c>
       <c r="L45" s="36">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="M45" s="35">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K45),,((K45-L45*2)+1000)/9)</f>
+        <v>159.77777777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A46" s="17">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B46" s="18">
-        <v>43042</v>
-      </c>
-      <c r="C46" s="20">
-        <v>43082</v>
+        <v>43063</v>
+      </c>
+      <c r="C46" s="18">
+        <v>43063</v>
       </c>
       <c r="D46" s="14">
-        <v>215</v>
+        <v>463</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
+        <v>225</v>
+      </c>
+      <c r="K46" s="36">
+        <v>264</v>
+      </c>
+      <c r="L46" s="36">
+        <v>27</v>
+      </c>
       <c r="M46" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K46),,((K46-L46*2)+1000)/9)</f>
+        <v>134.44444444444446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A47" s="17">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B47" s="18">
-        <v>43030</v>
+        <v>43064</v>
       </c>
       <c r="C47" s="18">
         <v>43082</v>
       </c>
       <c r="D47" s="14">
-        <v>225</v>
+        <v>448</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>182</v>
+      <c r="F47" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>240</v>
+        <v>25</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="K47" s="34">
-        <v>73</v>
-      </c>
-      <c r="L47" s="34">
-        <v>136</v>
+        <v>219</v>
+      </c>
+      <c r="K47" s="36">
+        <v>434</v>
+      </c>
+      <c r="L47" s="36">
+        <v>48</v>
       </c>
       <c r="M47" s="35">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-    </row>
-    <row r="48" spans="1:30" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K47),,((K47-L47*2)+1000)/9)</f>
+        <v>148.66666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B48" s="18">
-        <v>43029</v>
+        <v>43072</v>
       </c>
       <c r="C48" s="18">
-        <v>43082</v>
+        <v>43072</v>
       </c>
       <c r="D48" s="14">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>187</v>
+        <v>29</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="K48" s="34">
-        <v>124</v>
-      </c>
-      <c r="L48" s="34">
-        <v>54</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
       <c r="M48" s="35">
-        <f t="shared" si="1"/>
-        <v>112.88888888888889</v>
-      </c>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-    </row>
-    <row r="49" spans="1:30" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K48),,((K48-L48*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A49" s="17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="18">
-        <v>43073</v>
+        <v>43072</v>
       </c>
       <c r="C49" s="18">
         <v>43082</v>
       </c>
       <c r="D49" s="14">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K49" s="36">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="L49" s="36">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="M49" s="35">
-        <f t="shared" si="1"/>
-        <v>131.88888888888889</v>
+        <f>IF(ISBLANK(K49),,((K49-L49*2)+1000)/9)</f>
+        <v>113</v>
       </c>
       <c r="N49" s="8"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
     </row>
     <row r="50" spans="1:30" ht="39" x14ac:dyDescent="0.15">
       <c r="A50" s="17">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B50" s="18">
-        <v>43042</v>
-      </c>
-      <c r="C50" s="20">
+        <v>43073</v>
+      </c>
+      <c r="C50" s="18">
         <v>43082</v>
       </c>
       <c r="D50" s="14">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
+        <v>191</v>
+      </c>
+      <c r="K50" s="36">
+        <v>257</v>
+      </c>
+      <c r="L50" s="36">
+        <v>35</v>
+      </c>
       <c r="M50" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(ISBLANK(K50),,((K50-L50*2)+1000)/9)</f>
+        <v>131.88888888888889</v>
       </c>
       <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
     </row>
     <row r="51" spans="1:30" ht="39" x14ac:dyDescent="0.15">
       <c r="A51" s="17">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B51" s="18">
-        <v>43042</v>
-      </c>
-      <c r="C51" s="20">
+        <v>43074</v>
+      </c>
+      <c r="C51" s="18">
         <v>43082</v>
       </c>
       <c r="D51" s="14">
-        <v>442</v>
+        <v>73</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
+        <v>144</v>
+      </c>
+      <c r="K51" s="36">
+        <v>218</v>
+      </c>
+      <c r="L51" s="36">
+        <v>65</v>
+      </c>
       <c r="M51" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(ISBLANK(K51),,((K51-L51*2)+1000)/9)</f>
+        <v>120.88888888888889</v>
       </c>
       <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-    </row>
-    <row r="52" spans="1:30" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:30" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A52" s="17">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B52" s="18">
-        <v>43064</v>
+        <v>43082</v>
       </c>
       <c r="C52" s="18">
         <v>43082</v>
       </c>
       <c r="D52" s="14">
-        <v>448</v>
+        <v>53</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>243</v>
+      <c r="F52" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="I52" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="36">
+        <v>1030</v>
+      </c>
+      <c r="L52" s="36">
+        <v>34</v>
+      </c>
+      <c r="M52" s="35">
+        <f>IF(ISBLANK(K52),,((K52-L52*2)+1000)/9)</f>
         <v>218</v>
       </c>
-      <c r="J52" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="K52" s="36">
-        <v>434</v>
-      </c>
-      <c r="L52" s="36">
-        <v>48</v>
-      </c>
-      <c r="M52" s="35">
-        <f t="shared" si="1"/>
-        <v>148.66666666666666</v>
-      </c>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
     </row>
     <row r="53" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17">
@@ -4738,22 +4898,22 @@
         <v>100</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F53" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="G53" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>250</v>
-      </c>
       <c r="I53" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K53" s="37">
         <v>264</v>
@@ -4762,7 +4922,7 @@
         <v>8</v>
       </c>
       <c r="M53" s="38">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K53),,((K53-L53*2)+1000)/9)</f>
         <v>138.66666666666666</v>
       </c>
       <c r="O53"/>
@@ -4796,22 +4956,22 @@
         <v>101</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K54" s="36">
         <v>553</v>
@@ -4820,7 +4980,7 @@
         <v>8</v>
       </c>
       <c r="M54" s="33">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K54),,((K54-L54*2)+1000)/9)</f>
         <v>170.77777777777777</v>
       </c>
       <c r="N54" s="8"/>
@@ -4839,22 +4999,22 @@
         <v>111</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K55" s="36">
         <v>170</v>
@@ -4863,7 +5023,7 @@
         <v>74</v>
       </c>
       <c r="M55" s="33">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K55),,((K55-L55*2)+1000)/9)</f>
         <v>113.55555555555556</v>
       </c>
       <c r="N55" s="8"/>
@@ -4882,22 +5042,22 @@
         <v>112</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K56" s="36">
         <v>210</v>
@@ -4906,7 +5066,7 @@
         <v>69</v>
       </c>
       <c r="M56" s="33">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K56),,((K56-L56*2)+1000)/9)</f>
         <v>119.11111111111111</v>
       </c>
       <c r="N56" s="8"/>
@@ -4925,22 +5085,22 @@
         <v>113</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K57" s="36">
         <v>197</v>
@@ -4949,7 +5109,7 @@
         <v>7</v>
       </c>
       <c r="M57" s="33">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K57),,((K57-L57*2)+1000)/9)</f>
         <v>131.44444444444446</v>
       </c>
       <c r="N57" s="8"/>
@@ -4968,22 +5128,22 @@
         <v>226</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K58" s="36">
         <v>353</v>
@@ -4992,29 +5152,27 @@
         <v>8</v>
       </c>
       <c r="M58" s="33">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K58),,((K58-L58*2)+1000)/9)</f>
         <v>148.55555555555554</v>
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:30" ht="65" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" ht="26" x14ac:dyDescent="0.15">
       <c r="A59" s="17">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="18">
         <v>43084</v>
       </c>
-      <c r="C59" s="18">
-        <v>43084</v>
-      </c>
+      <c r="C59" s="18"/>
       <c r="D59" s="25">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G59" s="27" t="s">
         <v>36</v>
@@ -5023,79 +5181,57 @@
         <v>38</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>291</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="J59" s="14"/>
       <c r="K59" s="39">
-        <v>367</v>
+        <v>526</v>
       </c>
       <c r="L59" s="39">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M59" s="33">
-        <f t="shared" si="1"/>
-        <v>147</v>
+        <f>IF(ISBLANK(K59),,((K59-L59*2)+1000)/9)</f>
+        <v>160.66666666666666</v>
       </c>
       <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-      <c r="AC59" s="8"/>
-      <c r="AD59" s="8"/>
-    </row>
-    <row r="60" spans="1:30" ht="65" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A60" s="17">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B60" s="18">
-        <v>43085</v>
-      </c>
-      <c r="C60" s="18">
-        <v>43085</v>
-      </c>
-      <c r="D60" s="28">
-        <v>22</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>43084</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="25">
+        <v>21</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>84</v>
+        <v>264</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="K60" s="40">
-        <v>614</v>
-      </c>
-      <c r="L60" s="40">
-        <v>41</v>
+        <v>268</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="39">
+        <v>452</v>
+      </c>
+      <c r="L60" s="39">
+        <v>102</v>
       </c>
       <c r="M60" s="33">
-        <f t="shared" si="1"/>
-        <v>170.22222222222223</v>
+        <f>IF(ISBLANK(K60),,((K60-L60*2)+1000)/9)</f>
+        <v>138.66666666666666</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
@@ -5115,341 +5251,333 @@
       <c r="AC60" s="8"/>
       <c r="AD60" s="8"/>
     </row>
-    <row r="61" spans="1:30" ht="52" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:30" ht="65" x14ac:dyDescent="0.15">
       <c r="A61" s="17">
-        <v>68</v>
-      </c>
-      <c r="B61" s="42">
-        <v>43087</v>
-      </c>
-      <c r="C61" s="42">
-        <v>43087</v>
-      </c>
-      <c r="D61" s="28">
-        <v>125</v>
-      </c>
-      <c r="E61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="18">
+        <v>43084</v>
+      </c>
+      <c r="C61" s="18">
+        <v>43084</v>
+      </c>
+      <c r="D61" s="25">
+        <v>19</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="K61" s="39">
+        <v>367</v>
+      </c>
+      <c r="L61" s="39">
+        <v>22</v>
+      </c>
+      <c r="M61" s="33">
+        <f>IF(ISBLANK(K61),,((K61-L61*2)+1000)/9)</f>
+        <v>147</v>
+      </c>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+    </row>
+    <row r="62" spans="1:30" ht="26" x14ac:dyDescent="0.15">
+      <c r="A62" s="58">
+        <v>59</v>
+      </c>
+      <c r="B62" s="42">
+        <v>43084</v>
+      </c>
+      <c r="C62" s="42"/>
+      <c r="D62" s="59">
+        <v>322</v>
+      </c>
+      <c r="E62" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="I62" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="J62" s="60"/>
+      <c r="K62" s="63">
+        <v>280</v>
+      </c>
+      <c r="L62" s="63">
+        <v>20</v>
+      </c>
+      <c r="M62" s="64">
+        <f>IF(ISBLANK(K62),,((K62-L62*2)+1000)/9)</f>
+        <v>137.77777777777777</v>
+      </c>
+      <c r="N62" s="56"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="57"/>
+      <c r="T62" s="57"/>
+      <c r="U62" s="57"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="57"/>
+      <c r="Z62" s="57"/>
+      <c r="AA62" s="57"/>
+      <c r="AB62" s="57"/>
+      <c r="AC62" s="57"/>
+      <c r="AD62" s="57"/>
+    </row>
+    <row r="63" spans="1:30" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="58">
+        <v>60</v>
+      </c>
+      <c r="B63" s="42">
+        <v>43084</v>
+      </c>
+      <c r="C63" s="42"/>
+      <c r="D63" s="59">
+        <v>70</v>
+      </c>
+      <c r="E63" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F61" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="G61" s="72" t="s">
-        <v>304</v>
-      </c>
-      <c r="H61" s="72" t="s">
-        <v>305</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="J61" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="K61" s="75">
-        <v>126</v>
-      </c>
-      <c r="L61" s="75">
-        <v>462</v>
-      </c>
-      <c r="M61" s="64">
-        <f t="shared" si="1"/>
-        <v>22.444444444444443</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="52" x14ac:dyDescent="0.15">
-      <c r="A62" s="17">
-        <v>69</v>
-      </c>
-      <c r="B62" s="42">
-        <v>43087</v>
-      </c>
-      <c r="C62" s="42">
-        <v>43087</v>
-      </c>
-      <c r="D62" s="28">
-        <v>169</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G62" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="H62" s="72" t="s">
-        <v>310</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="K62" s="75">
-        <v>416</v>
-      </c>
-      <c r="L62" s="75">
-        <v>39</v>
-      </c>
-      <c r="M62" s="64">
-        <f t="shared" si="1"/>
-        <v>148.66666666666666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" s="57" customFormat="1" ht="104" x14ac:dyDescent="0.15">
-      <c r="A63" s="17">
-        <v>70</v>
-      </c>
-      <c r="B63" s="42">
-        <v>43087</v>
-      </c>
-      <c r="C63" s="42">
-        <v>43087</v>
-      </c>
-      <c r="D63" s="28">
-        <v>179</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="G63" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="H63" s="72" t="s">
-        <v>310</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="K63" s="75">
-        <v>215</v>
-      </c>
-      <c r="L63" s="75">
-        <v>23</v>
+      <c r="F63" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="I63" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="J63" s="60"/>
+      <c r="K63" s="63">
+        <v>486</v>
+      </c>
+      <c r="L63" s="63">
+        <v>22</v>
       </c>
       <c r="M63" s="64">
-        <f t="shared" si="1"/>
-        <v>129.88888888888889</v>
-      </c>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-    </row>
-    <row r="64" spans="1:30" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K63),,((K63-L63*2)+1000)/9)</f>
+        <v>160.22222222222223</v>
+      </c>
+      <c r="N63" s="56"/>
+    </row>
+    <row r="64" spans="1:30" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="58">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="42">
         <v>43087</v>
       </c>
-      <c r="C64" s="42">
-        <v>43088</v>
-      </c>
+      <c r="C64" s="41"/>
       <c r="D64" s="65">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="E64" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="G64" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="I64" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="F64" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="G64" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="H64" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="I64" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="J64" s="60" t="s">
-        <v>328</v>
-      </c>
+      <c r="J64" s="60"/>
       <c r="K64" s="67">
-        <v>3213</v>
+        <v>625</v>
       </c>
       <c r="L64" s="67">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="M64" s="64">
-        <f t="shared" si="1"/>
-        <v>445.88888888888891</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" s="57" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A65" s="17">
-        <v>64</v>
+        <f>IF(ISBLANK(K64),,((K64-L64*2)+1000)/9)</f>
+        <v>176.55555555555554</v>
+      </c>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
+      <c r="Y64" s="68"/>
+      <c r="Z64" s="68"/>
+      <c r="AA64" s="68"/>
+      <c r="AB64" s="68"/>
+      <c r="AC64" s="68"/>
+      <c r="AD64" s="68"/>
+    </row>
+    <row r="65" spans="1:30" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A65" s="58">
+        <v>62</v>
       </c>
       <c r="B65" s="42">
         <v>43087</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="41"/>
+      <c r="D65" s="65">
+        <v>213</v>
+      </c>
+      <c r="E65" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="I65" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="J65" s="60"/>
+      <c r="K65" s="67">
+        <v>171</v>
+      </c>
+      <c r="L65" s="67">
+        <v>5</v>
+      </c>
+      <c r="M65" s="64">
+        <f>IF(ISBLANK(K65),,((K65-L65*2)+1000)/9)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A66" s="58">
+        <v>63</v>
+      </c>
+      <c r="B66" s="42">
+        <v>43087</v>
+      </c>
+      <c r="C66" s="42">
         <v>43088</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="65">
+        <v>1</v>
+      </c>
+      <c r="E66" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="G66" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H66" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="I66" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="J66" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="K66" s="67">
+        <v>3213</v>
+      </c>
+      <c r="L66" s="67">
+        <v>100</v>
+      </c>
+      <c r="M66" s="64">
+        <f>IF(ISBLANK(K66),,((K66-L66*2)+1000)/9)</f>
+        <v>445.88888888888891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" s="57" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A67" s="17">
+        <v>64</v>
+      </c>
+      <c r="B67" s="42">
+        <v>43087</v>
+      </c>
+      <c r="C67" s="42">
+        <v>43088</v>
+      </c>
+      <c r="D67" s="14">
         <v>15</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="G65" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="I65" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="J65" s="83" t="s">
-        <v>330</v>
-      </c>
-      <c r="K65" s="74">
+      <c r="E67" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G67" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I67" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="J67" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="K67" s="74">
         <v>905</v>
       </c>
-      <c r="L65" s="74">
+      <c r="L67" s="74">
         <v>103</v>
       </c>
-      <c r="M65" s="64">
-        <f t="shared" si="1"/>
+      <c r="M67" s="64">
+        <f>IF(ISBLANK(K67),,((K67-L67*2)+1000)/9)</f>
         <v>188.77777777777777</v>
-      </c>
-      <c r="N65" s="8"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AA65"/>
-      <c r="AB65"/>
-      <c r="AC65"/>
-      <c r="AD65"/>
-    </row>
-    <row r="66" spans="1:30" s="57" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="17">
-        <v>57</v>
-      </c>
-      <c r="B66" s="18">
-        <v>43084</v>
-      </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="25">
-        <v>21</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="39">
-        <v>452</v>
-      </c>
-      <c r="L66" s="39">
-        <v>102</v>
-      </c>
-      <c r="M66" s="33">
-        <f t="shared" si="1"/>
-        <v>138.66666666666666</v>
-      </c>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="8"/>
-      <c r="AD66" s="8"/>
-    </row>
-    <row r="67" spans="1:30" s="57" customFormat="1" ht="26" x14ac:dyDescent="0.15">
-      <c r="A67" s="17">
-        <v>56</v>
-      </c>
-      <c r="B67" s="18">
-        <v>43084</v>
-      </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="25">
-        <v>23</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="39">
-        <v>526</v>
-      </c>
-      <c r="L67" s="39">
-        <v>40</v>
-      </c>
-      <c r="M67" s="33">
-        <f t="shared" si="1"/>
-        <v>160.66666666666666</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67"/>
@@ -5469,327 +5597,293 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A68" s="58">
-        <v>60</v>
+    <row r="68" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+      <c r="A68" s="17">
+        <v>65</v>
       </c>
       <c r="B68" s="42">
-        <v>43084</v>
-      </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="59">
-        <v>70</v>
-      </c>
-      <c r="E68" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="G68" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="I68" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="J68" s="60"/>
-      <c r="K68" s="63">
-        <v>486</v>
-      </c>
-      <c r="L68" s="63">
-        <v>22</v>
+        <v>43087</v>
+      </c>
+      <c r="D68" s="28">
+        <v>347</v>
+      </c>
+      <c r="E68" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" s="71" t="s">
+        <v>306</v>
+      </c>
+      <c r="G68" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H68" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="I68" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="J68" s="77"/>
+      <c r="K68" s="75">
+        <v>308</v>
+      </c>
+      <c r="L68" s="75">
+        <v>24</v>
       </c>
       <c r="M68" s="64">
-        <f t="shared" ref="M68:M99" si="2">IF(ISBLANK(K68),,((K68-L68*2)+1000)/9)</f>
-        <v>160.22222222222223</v>
-      </c>
-      <c r="N68" s="56"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="57"/>
-      <c r="S68" s="57"/>
-      <c r="T68" s="57"/>
-      <c r="U68" s="57"/>
-      <c r="V68" s="57"/>
-      <c r="W68" s="57"/>
-      <c r="X68" s="57"/>
-      <c r="Y68" s="57"/>
-      <c r="Z68" s="57"/>
-      <c r="AA68" s="57"/>
-      <c r="AB68" s="57"/>
-      <c r="AC68" s="57"/>
-      <c r="AD68" s="57"/>
+        <f>IF(ISBLANK(K68),,((K68-L68*2)+1000)/9)</f>
+        <v>140</v>
+      </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A69" s="17">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="42">
         <v>43087</v>
       </c>
       <c r="D69" s="28">
-        <v>75</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>29</v>
+        <v>287</v>
+      </c>
+      <c r="E69" s="69" t="s">
+        <v>316</v>
       </c>
       <c r="F69" s="71" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G69" s="72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H69" s="72" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K69" s="75">
-        <v>358</v>
+        <v>660</v>
       </c>
       <c r="L69" s="75">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M69" s="64">
-        <f t="shared" si="2"/>
-        <v>139.77777777777777</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="15" x14ac:dyDescent="0.15">
-      <c r="A70" s="58">
-        <v>61</v>
+        <f>IF(ISBLANK(K69),,((K69-L69*2)+1000)/9)</f>
+        <v>172.66666666666666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A70" s="17">
+        <v>67</v>
       </c>
       <c r="B70" s="42">
         <v>43087</v>
       </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="65">
-        <v>198</v>
-      </c>
-      <c r="E70" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="F70" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="G70" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="H70" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="I70" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="J70" s="60"/>
-      <c r="K70" s="67">
-        <v>625</v>
-      </c>
-      <c r="L70" s="67">
-        <v>18</v>
+      <c r="D70" s="28">
+        <v>75</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="H70" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="K70" s="75">
+        <v>358</v>
+      </c>
+      <c r="L70" s="75">
+        <v>50</v>
       </c>
       <c r="M70" s="64">
-        <f t="shared" si="2"/>
-        <v>176.55555555555554</v>
-      </c>
-      <c r="N70" s="57"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="68"/>
-      <c r="R70" s="68"/>
-      <c r="S70" s="68"/>
-      <c r="T70" s="68"/>
-      <c r="U70" s="68"/>
-      <c r="V70" s="68"/>
-      <c r="W70" s="68"/>
-      <c r="X70" s="68"/>
-      <c r="Y70" s="68"/>
-      <c r="Z70" s="68"/>
-      <c r="AA70" s="68"/>
-      <c r="AB70" s="68"/>
-      <c r="AC70" s="68"/>
-      <c r="AD70" s="68"/>
-    </row>
-    <row r="71" spans="1:30" ht="30" x14ac:dyDescent="0.15">
-      <c r="A71" s="58">
-        <v>62</v>
+        <f>IF(ISBLANK(K70),,((K70-L70*2)+1000)/9)</f>
+        <v>139.77777777777777</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="52" x14ac:dyDescent="0.15">
+      <c r="A71" s="17">
+        <v>68</v>
       </c>
       <c r="B71" s="42">
         <v>43087</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="65">
-        <v>213</v>
-      </c>
-      <c r="E71" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="G71" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="I71" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="J71" s="60"/>
-      <c r="K71" s="67">
-        <v>171</v>
-      </c>
-      <c r="L71" s="67">
-        <v>5</v>
+      <c r="C71" s="42">
+        <v>43087</v>
+      </c>
+      <c r="D71" s="28">
+        <v>125</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="G71" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="H71" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="J71" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="K71" s="75">
+        <v>126</v>
+      </c>
+      <c r="L71" s="75">
+        <v>462</v>
       </c>
       <c r="M71" s="64">
-        <f t="shared" si="2"/>
-        <v>129</v>
-      </c>
-      <c r="N71" s="57"/>
-      <c r="O71" s="57"/>
-      <c r="P71" s="57"/>
-      <c r="Q71" s="57"/>
-      <c r="R71" s="57"/>
-      <c r="S71" s="57"/>
-      <c r="T71" s="57"/>
-      <c r="U71" s="57"/>
-      <c r="V71" s="57"/>
-      <c r="W71" s="57"/>
-      <c r="X71" s="57"/>
-      <c r="Y71" s="57"/>
-      <c r="Z71" s="57"/>
-      <c r="AA71" s="57"/>
-      <c r="AB71" s="57"/>
-      <c r="AC71" s="57"/>
-      <c r="AD71" s="57"/>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.15">
+        <f>IF(ISBLANK(K71),,((K71-L71*2)+1000)/9)</f>
+        <v>22.444444444444443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="52" x14ac:dyDescent="0.15">
       <c r="A72" s="17">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B72" s="42">
         <v>43087</v>
       </c>
+      <c r="C72" s="42">
+        <v>43087</v>
+      </c>
       <c r="D72" s="28">
-        <v>287</v>
-      </c>
-      <c r="E72" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G72" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K72" s="75">
+        <v>416</v>
+      </c>
+      <c r="L72" s="75">
+        <v>39</v>
+      </c>
+      <c r="M72" s="64">
+        <f>IF(ISBLANK(K72),,((K72-L72*2)+1000)/9)</f>
+        <v>148.66666666666666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="104" x14ac:dyDescent="0.15">
+      <c r="A73" s="17">
+        <v>70</v>
+      </c>
+      <c r="B73" s="42">
+        <v>43087</v>
+      </c>
+      <c r="C73" s="42">
+        <v>43087</v>
+      </c>
+      <c r="D73" s="28">
+        <v>179</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G73" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H73" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K73" s="75">
+        <v>215</v>
+      </c>
+      <c r="L73" s="75">
+        <v>23</v>
+      </c>
+      <c r="M73" s="64">
+        <f>IF(ISBLANK(K73),,((K73-L73*2)+1000)/9)</f>
+        <v>129.88888888888889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="65" x14ac:dyDescent="0.15">
+      <c r="A74" s="17">
+        <v>71</v>
+      </c>
+      <c r="B74" s="18">
+        <v>43085</v>
+      </c>
+      <c r="C74" s="18">
+        <v>43085</v>
+      </c>
+      <c r="D74" s="28">
+        <v>22</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I74" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F72" s="71" t="s">
-        <v>301</v>
-      </c>
-      <c r="G72" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="H72" s="72" t="s">
-        <v>310</v>
-      </c>
-      <c r="K72" s="75">
-        <v>660</v>
-      </c>
-      <c r="L72" s="75">
-        <v>53</v>
-      </c>
-      <c r="M72" s="64">
-        <f t="shared" si="2"/>
-        <v>172.66666666666666</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="26" x14ac:dyDescent="0.15">
-      <c r="A73" s="58">
-        <v>59</v>
-      </c>
-      <c r="B73" s="42">
-        <v>43084</v>
-      </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="59">
-        <v>322</v>
-      </c>
-      <c r="E73" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="G73" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="H73" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="I73" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="J73" s="60"/>
-      <c r="K73" s="63">
-        <v>280</v>
-      </c>
-      <c r="L73" s="63">
-        <v>20</v>
-      </c>
-      <c r="M73" s="64">
-        <f t="shared" si="2"/>
-        <v>137.77777777777777</v>
-      </c>
-      <c r="N73" s="56"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="57"/>
-      <c r="R73" s="57"/>
-      <c r="S73" s="57"/>
-      <c r="T73" s="57"/>
-      <c r="U73" s="57"/>
-      <c r="V73" s="57"/>
-      <c r="W73" s="57"/>
-      <c r="X73" s="57"/>
-      <c r="Y73" s="57"/>
-      <c r="Z73" s="57"/>
-      <c r="AA73" s="57"/>
-      <c r="AB73" s="57"/>
-      <c r="AC73" s="57"/>
-      <c r="AD73" s="57"/>
-    </row>
-    <row r="74" spans="1:30" ht="30" x14ac:dyDescent="0.15">
-      <c r="A74" s="17">
-        <v>65</v>
-      </c>
-      <c r="B74" s="42">
-        <v>43087</v>
-      </c>
-      <c r="D74" s="28">
-        <v>347</v>
-      </c>
-      <c r="E74" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="F74" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="G74" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="H74" s="72" t="s">
-        <v>310</v>
-      </c>
-      <c r="I74" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="K74" s="75">
-        <v>308</v>
-      </c>
-      <c r="L74" s="75">
-        <v>24</v>
-      </c>
-      <c r="M74" s="64">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
+      <c r="J74" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K74" s="40">
+        <v>614</v>
+      </c>
+      <c r="L74" s="40">
+        <v>41</v>
+      </c>
+      <c r="M74" s="33">
+        <f>IF(ISBLANK(K74),,((K74-L74*2)+1000)/9)</f>
+        <v>170.22222222222223</v>
+      </c>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A75" s="17">
@@ -5805,7 +5899,7 @@
         <v>92</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>93</v>
@@ -5814,7 +5908,7 @@
         <v>139</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="40">
@@ -5824,39 +5918,135 @@
         <v>33</v>
       </c>
       <c r="M75" s="64">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(K75),,((K75-L75*2)+1000)/9)</f>
         <v>115.77777777777777</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:30" ht="52" x14ac:dyDescent="0.15">
       <c r="A76" s="17">
         <v>73</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="11"/>
-      <c r="M76" s="33"/>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B76" s="84">
+        <v>43123</v>
+      </c>
+      <c r="C76" s="84">
+        <v>43123</v>
+      </c>
+      <c r="D76" s="28">
+        <v>144</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="J76" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="K76" s="40">
+        <v>143</v>
+      </c>
+      <c r="L76" s="40">
+        <v>12</v>
+      </c>
+      <c r="M76" s="64">
+        <f>IF(ISBLANK(K76),,((K76-L76*2)+1000)/9)</f>
+        <v>124.33333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="65" x14ac:dyDescent="0.15">
       <c r="A77" s="17">
         <v>74</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="11"/>
-      <c r="M77" s="33"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B77" s="84">
+        <v>43123</v>
+      </c>
+      <c r="C77" s="84">
+        <v>43123</v>
+      </c>
+      <c r="D77" s="28">
+        <v>94</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="J77" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="K77" s="40">
+        <v>378</v>
+      </c>
+      <c r="L77" s="40">
+        <v>13</v>
+      </c>
+      <c r="M77" s="64">
+        <f>IF(ISBLANK(K77),,((K77-L77*2)+1000)/9)</f>
+        <v>150.22222222222223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="104" x14ac:dyDescent="0.15">
       <c r="A78" s="17">
         <v>75</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="11"/>
-      <c r="M78" s="33"/>
+      <c r="B78" s="84">
+        <v>43123</v>
+      </c>
+      <c r="C78" s="84">
+        <v>43123</v>
+      </c>
+      <c r="D78" s="28">
+        <v>145</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="K78" s="40">
+        <v>231</v>
+      </c>
+      <c r="L78" s="40">
+        <v>18</v>
+      </c>
+      <c r="M78" s="64">
+        <f>IF(ISBLANK(K78),,((K78-L78*2)+1000)/9)</f>
+        <v>132.77777777777777</v>
+      </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
@@ -13478,98 +13668,128 @@
     </row>
   </sheetData>
   <autoFilter ref="G1:G1002"/>
-  <sortState ref="A4:AD74">
-    <sortCondition ref="C4:C74"/>
+  <sortState ref="A4:AD154">
+    <sortCondition ref="A4:A154"/>
   </sortState>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="M4:M10 M12:M1002">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E1002 E1:E4 E8:E10 E12:E68">
-    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E75:E76 E1:E4 E8:E10 E12:E68 E79:E1002">
+    <cfRule type="containsText" dxfId="37" priority="24" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E1002 E1:E4 E8:E10 E12:E68">
-    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="E75:E76 E1:E4 E8:E10 E12:E68 E79:E1002">
+    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C200">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="C1:C75 C79:C200">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
       <formula>$C$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E1048576 E1:E10 E12:E68">
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Easy">
+  <conditionalFormatting sqref="E75:E76 E1:E10 E12:E68 E79:E1048576">
+    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E74">
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E74">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E69))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E74">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E77))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20128,42 +20348,42 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Algo">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Algo">
       <formula>NOT(ISERROR(SEARCH(("Algo"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Array">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Array">
       <formula>NOT(ISERROR(SEARCH(("Array"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Backtracking">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Backtracking">
       <formula>NOT(ISERROR(SEARCH(("Backtracking"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="DP">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="DP">
       <formula>NOT(ISERROR(SEARCH(("DP"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="LinkedList">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="LinkedList">
       <formula>NOT(ISERROR(SEARCH(("LinkedList"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Math">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Math">
       <formula>NOT(ISERROR(SEARCH(("Math"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Tree">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Tree">
       <formula>NOT(ISERROR(SEARCH(("Tree"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="String">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="String">
       <formula>NOT(ISERROR(SEARCH(("String"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QuizAndKeyList.xlsx
+++ b/QuizAndKeyList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="-6960" windowWidth="32000" windowHeight="17540"/>
+    <workbookView xWindow="-32000" yWindow="-7420" windowWidth="32000" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="345">
   <si>
     <t>No</t>
   </si>
@@ -1504,115 +1504,6 @@
     <t>使用一個stack，也開一個list來接，順序是左右上。這題是比較難的，但也不會太難。因為由後而前依序是上右左，所以大致上就照這個順序push入stack。做法是一開始先push root，然後peek出root檢查是不是已經左右都是null，代表到最下方了。如果左右都是null，則該node已經得加入list，所以要pop出來加；如果左右還有不是null，就把不是null的那邊push入stack（要注意，中間node只是peek出來，所以本身還是在stack裡面，所以順序還是在後面），當然push的順序是右左。要記得push進去之前要切斷本身node的該側連結，否則會形成loop。</t>
   </si>
   <si>
-    <r>
-      <t>使用一個stack，也開一個list來接，順序是上左右。又因為traverse本來就由上到下，所以碰到該個就直接把他放入list。再來考慮左右，因為左邊在右邊前面，所以先把右邊放入stack，再往左邊跳（也可以把左邊後放入stack，等他下次迴圈後也是會取出一樣的左邊，但就比較麻煩），依序往下。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val=".PingFang TC"/>
-      </rPr>
-      <t>-.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>-¢.¦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val=".PingFang TC"/>
-      </rPr>
-      <t>-³.»-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Ï.Ó-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val=".PingFang TC"/>
-      </rPr>
-      <t>í.ò-Ă.ć-_x0001__x0000_Œ_x0000_µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>_x0000_µ使用一個st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val=".PingFang TC"/>
-      </rPr>
-      <t>ack，也開一個list來接，順序是左上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>右。因為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val=".PingFang TC"/>
-      </rPr>
-      <t>左邊要先，中間在後，所以一路往左，並且依序把中間pu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>sh入st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val=".PingFang TC"/>
-      </rPr>
-      <t>ack，右邊不需要處理，因為右邊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>可以等取出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF454545"/>
-        <rFont val=".PingFang TC"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>使用一個stack，也開一個list來接，順序是左上右。因為左邊要先，中間在後，所以一路往左，並且依序把中間push入stack，右邊不需要處理，因為右邊可以等取出中間時才處理。等到跳到null（最左邊null)的時候，開始pull出stack。這時候因為是要考慮到上右，所以先把中間放入list才往右邊跳，當右邊處理結束後，又會回到上一層的中間，依次往上回去。</t>
   </si>
   <si>
@@ -1623,6 +1514,18 @@
   </si>
   <si>
     <t>這是一個BST 所以左邊最小 右邊最大 最右邊最大代表值不會變 最左邊則是會變成全部node的加總 所以最後會是最大在左邊 最小在右邊。搞清楚關係後就可以開始做，基本上就是那一個變數來存目前已經加到哪裡，從最大開始處理，一直漸漸往左邊掃過來，每次掃到的node的新的值都是目前值加上累積值，直到最左邊。</t>
+  </si>
+  <si>
+    <t>使用一個stack，也開一個list來接，順序是上左右。又因為traverse本來就由上到下，所以碰到該個就直接把他放入list。再來考慮左右，因為左邊在右邊前面，所以先把右邊放入stack，再往左邊跳（也可以把左邊後放入stack，等他下次迴圈後也是會取出一樣的左邊，但就比較麻煩），依序往下。</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>給一個singly linked list 然後reverse它</t>
+  </si>
+  <si>
+    <t>要使用三個指標p1=null, p2=head, p3=head.next 先把p2.next的指向p1 再把p1跳p2 p2跳p3 p3跳p3.next 但要檢查p3.next</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1536,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1740,16 +1643,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF454545"/>
-      <name val=".PingFang TC"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF454545"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2093,7 +1986,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2635,9 +2528,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="134" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -2698,11 +2591,11 @@
       </c>
       <c r="N1" s="82">
         <f>COUNTA(B4:B200)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O1" s="82">
         <f>COUNTA(J10:J206)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="49" customFormat="1" ht="20" customHeight="1">
@@ -2741,7 +2634,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
       <c r="N3" s="80">
-        <v>538</v>
+        <v>206</v>
       </c>
       <c r="O3" s="81" t="str">
         <f>IF(COUNTIF(D4:D100,N3)&gt;0, "Done", "Not Yet!")</f>
@@ -3256,7 +3149,7 @@
         <v>334</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K16" s="40">
         <v>378</v>
@@ -4651,7 +4544,7 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="35">
-        <f t="shared" ref="M48:M79" si="2">IF(ISBLANK(K48),,((K48-L48*2)+1000)/9)</f>
+        <f t="shared" ref="M48:M80" si="2">IF(ISBLANK(K48),,((K48-L48*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
@@ -5027,7 +4920,7 @@
       </c>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:30" ht="118">
+    <row r="57" spans="1:30" ht="52">
       <c r="A57" s="17">
         <v>73</v>
       </c>
@@ -5056,7 +4949,7 @@
         <v>334</v>
       </c>
       <c r="J57" s="85" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K57" s="40">
         <v>143</v>
@@ -6054,7 +5947,7 @@
         <v>92</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>71</v>
@@ -6063,10 +5956,10 @@
         <v>189</v>
       </c>
       <c r="I79" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="K79" s="40">
         <v>448</v>
@@ -6079,15 +5972,47 @@
         <v>152.44444444444446</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" ht="26">
       <c r="A80" s="17">
         <v>77</v>
       </c>
-      <c r="F80" s="12"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="11"/>
-      <c r="M80" s="33"/>
+      <c r="B80" s="18">
+        <v>43125</v>
+      </c>
+      <c r="C80" s="18">
+        <v>43125</v>
+      </c>
+      <c r="D80" s="28">
+        <v>206</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="K80" s="40">
+        <v>620</v>
+      </c>
+      <c r="L80" s="40">
+        <v>16</v>
+      </c>
+      <c r="M80" s="35">
+        <f t="shared" si="2"/>
+        <v>176.44444444444446</v>
+      </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="17">
@@ -13707,7 +13632,7 @@
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C75 C80:C200">
+  <conditionalFormatting sqref="C1:C75 C81:C200">
     <cfRule type="cellIs" dxfId="28" priority="21" operator="lessThan">
       <formula>$C$17</formula>
     </cfRule>

--- a/QuizAndKeyList.xlsx
+++ b/QuizAndKeyList.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g3094010\git\Note-Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/Programming/Java/Note-Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31995" yWindow="-7425" windowWidth="31995" windowHeight="18000"/>
+    <workbookView xWindow="-32000" yWindow="-6960" windowWidth="32000" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$1002</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="354">
   <si>
     <t>No</t>
   </si>
@@ -2079,14 +2079,32 @@
     <t xml:space="preserve">n+1個資料 資料範圍介於1到n 證明一定有重複 又假設重複只有一個 找出那個重複的 並且不能修改array本身 </t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>Linked List Cycle 2</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>給一條linkedlist 判斷有沒有環 回傳true/false</t>
+  </si>
+  <si>
+    <t>給一條linkedlist 判斷有沒有環 如果有 回傳環的開始點 如果沒有 回傳null</t>
+  </si>
+  <si>
+    <t>使用快慢指標 一開始兩者都指向head 快指摽一次兩步 慢指摽一次一步 快慢指標重疊代表有 快指標走完代表沒有</t>
+  </si>
+  <si>
+    <t>使用快慢指標 一開始兩者都指向head 快指摽一次兩步 慢指摽一次一步 快慢指標重疊時代表有環 此時再從head造另一個慢指標 一個指標從第一重疊點 一個指標從頭 一次一步 走到的第二重疊點就是入口</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2171,7 +2189,7 @@
       <b/>
       <sz val="12"/>
       <color theme="7" tint="0.59999389629810485"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -2428,7 +2446,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2437,10 +2455,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2474,7 +2492,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2495,10 +2513,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2559,10 +2577,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2580,7 +2598,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2588,7 +2606,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2939,25 +2957,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="52.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" style="31" customWidth="1"/>
-    <col min="11" max="12" width="7.28515625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="52.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" style="31" customWidth="1"/>
+    <col min="11" max="12" width="7.33203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="29" customFormat="1">
@@ -3002,14 +3020,14 @@
       </c>
       <c r="N1" s="34">
         <f>COUNTA(B4:B200)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O1" s="34">
         <f>COUNTA(J10:J206)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="24" customFormat="1" ht="14.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="24" customFormat="1" ht="16">
       <c r="A2" s="19"/>
       <c r="B2" s="30"/>
       <c r="C2" s="35"/>
@@ -3030,7 +3048,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:30" s="24" customFormat="1" ht="17" thickBot="1">
       <c r="A3" s="19"/>
       <c r="B3" s="30"/>
       <c r="C3" s="35"/>
@@ -3052,7 +3070,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="51" customFormat="1" ht="27.75" thickBot="1">
+    <row r="4" spans="1:30" s="51" customFormat="1" ht="31" thickBot="1">
       <c r="A4" s="40">
         <v>63</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>445.88888888888891</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="51" customFormat="1" ht="95.25" thickBot="1">
+    <row r="5" spans="1:30" s="51" customFormat="1" ht="76" thickBot="1">
       <c r="A5" s="40">
         <v>64</v>
       </c>
@@ -3137,7 +3155,7 @@
       </c>
       <c r="N5" s="55"/>
     </row>
-    <row r="6" spans="1:30" s="51" customFormat="1" ht="26.25" thickBot="1">
+    <row r="6" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A6" s="40">
         <v>46</v>
       </c>
@@ -3196,7 +3214,7 @@
       <c r="AC6" s="55"/>
       <c r="AD6" s="55"/>
     </row>
-    <row r="7" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="7" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
       <c r="A7" s="40">
         <v>69</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>148.66666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="55" customFormat="1" ht="102.75" thickBot="1">
+    <row r="8" spans="1:30" s="55" customFormat="1" ht="118" thickBot="1">
       <c r="A8" s="40">
         <v>70</v>
       </c>
@@ -3297,7 +3315,7 @@
       <c r="AC8" s="51"/>
       <c r="AD8" s="51"/>
     </row>
-    <row r="9" spans="1:30" s="55" customFormat="1" ht="26.25" thickBot="1">
+    <row r="9" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A9" s="40">
         <v>42</v>
       </c>
@@ -3339,7 +3357,7 @@
         <v>159.77777777777777</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="55" customFormat="1" ht="27.75" thickBot="1">
+    <row r="10" spans="1:30" s="55" customFormat="1" ht="31" thickBot="1">
       <c r="A10" s="40">
         <v>66</v>
       </c>
@@ -3394,7 +3412,7 @@
       <c r="AC10" s="51"/>
       <c r="AD10" s="51"/>
     </row>
-    <row r="11" spans="1:30" s="55" customFormat="1" ht="27.75" thickBot="1">
+    <row r="11" spans="1:30" s="55" customFormat="1" ht="31" thickBot="1">
       <c r="A11" s="40">
         <v>65</v>
       </c>
@@ -3491,7 +3509,7 @@
         <v>80.444444444444443</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="55" customFormat="1" ht="26.25" thickBot="1">
+    <row r="13" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A13" s="40">
         <v>43</v>
       </c>
@@ -3533,7 +3551,7 @@
         <v>134.44444444444446</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="14" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A14" s="40">
         <v>28</v>
       </c>
@@ -3576,7 +3594,7 @@
       </c>
       <c r="N14" s="51"/>
     </row>
-    <row r="15" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="15" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A15" s="40">
         <v>6</v>
       </c>
@@ -3612,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="16" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A16" s="40">
         <v>5</v>
       </c>
@@ -3650,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="17" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A17" s="40">
         <v>48</v>
       </c>
@@ -3708,7 +3726,7 @@
       <c r="AC17" s="51"/>
       <c r="AD17" s="51"/>
     </row>
-    <row r="18" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="18" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A18" s="40">
         <v>31</v>
       </c>
@@ -3750,7 +3768,7 @@
         <v>-43.333333333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="19" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A19" s="40">
         <v>4</v>
       </c>
@@ -3805,7 +3823,7 @@
       <c r="AC19" s="51"/>
       <c r="AD19" s="51"/>
     </row>
-    <row r="20" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="20" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A20" s="40">
         <v>14</v>
       </c>
@@ -3846,7 +3864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="21" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A21" s="40">
         <v>15</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="55" customFormat="1" ht="41.25" thickBot="1">
+    <row r="22" spans="1:30" s="55" customFormat="1" ht="46" thickBot="1">
       <c r="A22" s="40">
         <v>16</v>
       </c>
@@ -3922,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="55" customFormat="1" ht="51.75" thickBot="1">
+    <row r="23" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
       <c r="A23" s="40">
         <v>44</v>
       </c>
@@ -3964,7 +3982,7 @@
         <v>148.66666666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="55" customFormat="1" ht="64.5" thickBot="1">
+    <row r="24" spans="1:30" s="55" customFormat="1" ht="66" thickBot="1">
       <c r="A24" s="40">
         <v>41</v>
       </c>
@@ -4006,7 +4024,7 @@
         <v>151.33333333333334</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="55" customFormat="1" ht="51.75" thickBot="1">
+    <row r="25" spans="1:30" s="55" customFormat="1" ht="66" thickBot="1">
       <c r="A25" s="40">
         <v>71</v>
       </c>
@@ -4048,7 +4066,7 @@
         <v>170.22222222222223</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="26" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A26" s="40">
         <v>9</v>
       </c>
@@ -4084,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="27" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A27" s="40">
         <v>10</v>
       </c>
@@ -4120,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="28" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A28" s="40">
         <v>11</v>
       </c>
@@ -4158,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="29" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A29" s="40">
         <v>7</v>
       </c>
@@ -4196,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="30" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A30" s="40">
         <v>8</v>
       </c>
@@ -4232,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="31" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A31" s="40">
         <v>45</v>
       </c>
@@ -4266,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="55" customFormat="1" ht="26.25" thickBot="1">
+    <row r="32" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A32" s="40">
         <v>2</v>
       </c>
@@ -4325,7 +4343,7 @@
       <c r="AC32" s="51"/>
       <c r="AD32" s="51"/>
     </row>
-    <row r="33" spans="1:30" s="55" customFormat="1" ht="64.5" thickBot="1">
+    <row r="33" spans="1:30" s="55" customFormat="1" ht="66" thickBot="1">
       <c r="A33" s="40">
         <v>1</v>
       </c>
@@ -4384,7 +4402,7 @@
       <c r="AC33" s="74"/>
       <c r="AD33" s="74"/>
     </row>
-    <row r="34" spans="1:30" s="55" customFormat="1" ht="26.25" thickBot="1">
+    <row r="34" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A34" s="40">
         <v>49</v>
       </c>
@@ -4440,7 +4458,7 @@
       <c r="AC34" s="51"/>
       <c r="AD34" s="51"/>
     </row>
-    <row r="35" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="35" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A35" s="40">
         <v>34</v>
       </c>
@@ -4482,7 +4500,7 @@
         <v>139.55555555555554</v>
       </c>
     </row>
-    <row r="36" spans="1:30" s="55" customFormat="1" ht="39" thickBot="1">
+    <row r="36" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A36" s="40">
         <v>35</v>
       </c>
@@ -4524,7 +4542,7 @@
         <v>123.33333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="37" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A37" s="40">
         <v>60</v>
       </c>
@@ -4578,7 +4596,7 @@
       <c r="AC37" s="51"/>
       <c r="AD37" s="51"/>
     </row>
-    <row r="38" spans="1:30" s="55" customFormat="1" ht="51.75" thickBot="1">
+    <row r="38" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
       <c r="A38" s="40">
         <v>3</v>
       </c>
@@ -4636,7 +4654,7 @@
       <c r="AC38" s="51"/>
       <c r="AD38" s="51"/>
     </row>
-    <row r="39" spans="1:30" s="55" customFormat="1" ht="14.25" thickBot="1">
+    <row r="39" spans="1:30" s="55" customFormat="1" ht="16" thickBot="1">
       <c r="A39" s="40">
         <v>61</v>
       </c>
@@ -4691,7 +4709,7 @@
       <c r="AC39" s="75"/>
       <c r="AD39" s="75"/>
     </row>
-    <row r="40" spans="1:30" s="55" customFormat="1" ht="27.75" thickBot="1">
+    <row r="40" spans="1:30" s="55" customFormat="1" ht="31" thickBot="1">
       <c r="A40" s="40">
         <v>62</v>
       </c>
@@ -4746,7 +4764,7 @@
       <c r="AC40" s="51"/>
       <c r="AD40" s="51"/>
     </row>
-    <row r="41" spans="1:30" s="55" customFormat="1" ht="26.25" thickBot="1">
+    <row r="41" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A41" s="40">
         <v>59</v>
       </c>
@@ -4800,7 +4818,7 @@
       <c r="AC41" s="51"/>
       <c r="AD41" s="51"/>
     </row>
-    <row r="42" spans="1:30" s="55" customFormat="1" ht="81.75" thickBot="1">
+    <row r="42" spans="1:30" s="55" customFormat="1" ht="91" thickBot="1">
       <c r="A42" s="40">
         <v>33</v>
       </c>
@@ -4842,7 +4860,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="55" customFormat="1" ht="64.5" thickBot="1">
+    <row r="43" spans="1:30" s="55" customFormat="1" ht="66" thickBot="1">
       <c r="A43" s="40">
         <v>58</v>
       </c>
@@ -4884,7 +4902,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="55" customFormat="1" ht="41.25" thickBot="1">
+    <row r="44" spans="1:30" s="55" customFormat="1" ht="46" thickBot="1">
       <c r="A44" s="40">
         <v>57</v>
       </c>
@@ -4926,7 +4944,7 @@
         <v>138.66666666666666</v>
       </c>
     </row>
-    <row r="45" spans="1:30" s="55" customFormat="1" ht="68.25" thickBot="1">
+    <row r="45" spans="1:30" s="55" customFormat="1" ht="76" thickBot="1">
       <c r="A45" s="40">
         <v>56</v>
       </c>
@@ -4984,7 +5002,7 @@
       <c r="AC45" s="51"/>
       <c r="AD45" s="51"/>
     </row>
-    <row r="46" spans="1:30" s="55" customFormat="1" ht="26.25" thickBot="1">
+    <row r="46" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A46" s="40">
         <v>77</v>
       </c>
@@ -5043,7 +5061,7 @@
       <c r="AC46" s="51"/>
       <c r="AD46" s="51"/>
     </row>
-    <row r="47" spans="1:30" s="55" customFormat="1" ht="26.25" thickBot="1">
+    <row r="47" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A47" s="40">
         <v>24</v>
       </c>
@@ -5082,7 +5100,7 @@
       </c>
       <c r="N47" s="79"/>
     </row>
-    <row r="48" spans="1:30" s="55" customFormat="1" ht="51.75" thickBot="1">
+    <row r="48" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
       <c r="A48" s="40">
         <v>26</v>
       </c>
@@ -5136,7 +5154,7 @@
       <c r="AC48" s="79"/>
       <c r="AD48" s="79"/>
     </row>
-    <row r="49" spans="1:30" s="79" customFormat="1" ht="13.5" thickBot="1">
+    <row r="49" spans="1:30" s="79" customFormat="1" ht="14" thickBot="1">
       <c r="A49" s="40">
         <v>18</v>
       </c>
@@ -5191,7 +5209,7 @@
       <c r="AC49" s="55"/>
       <c r="AD49" s="55"/>
     </row>
-    <row r="50" spans="1:30" s="51" customFormat="1" ht="51.75" thickBot="1">
+    <row r="50" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A50" s="40">
         <v>17</v>
       </c>
@@ -5246,7 +5264,7 @@
       <c r="AC50" s="55"/>
       <c r="AD50" s="55"/>
     </row>
-    <row r="51" spans="1:30" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="51" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A51" s="40">
         <v>22</v>
       </c>
@@ -5301,7 +5319,7 @@
       <c r="AC51" s="55"/>
       <c r="AD51" s="55"/>
     </row>
-    <row r="52" spans="1:30" s="55" customFormat="1" ht="51.75" thickBot="1">
+    <row r="52" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
       <c r="A52" s="40">
         <v>27</v>
       </c>
@@ -5356,7 +5374,7 @@
       <c r="AC52" s="51"/>
       <c r="AD52" s="51"/>
     </row>
-    <row r="53" spans="1:30" s="55" customFormat="1" ht="13.5" thickBot="1">
+    <row r="53" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A53" s="40">
         <v>19</v>
       </c>
@@ -5394,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" s="51" customFormat="1" ht="26.25" thickBot="1">
+    <row r="54" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A54" s="40">
         <v>23</v>
       </c>
@@ -5449,7 +5467,7 @@
       <c r="AC54" s="55"/>
       <c r="AD54" s="55"/>
     </row>
-    <row r="55" spans="1:30" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="55" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A55" s="40">
         <v>20</v>
       </c>
@@ -5504,7 +5522,7 @@
       <c r="AC55" s="55"/>
       <c r="AD55" s="55"/>
     </row>
-    <row r="56" spans="1:30" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="56" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A56" s="40">
         <v>21</v>
       </c>
@@ -5559,7 +5577,7 @@
       <c r="AC56" s="55"/>
       <c r="AD56" s="55"/>
     </row>
-    <row r="57" spans="1:30" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="57" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A57" s="40">
         <v>25</v>
       </c>
@@ -5613,7 +5631,7 @@
       <c r="AC57" s="55"/>
       <c r="AD57" s="55"/>
     </row>
-    <row r="58" spans="1:30" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="58" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A58" s="40">
         <v>67</v>
       </c>
@@ -5649,7 +5667,7 @@
         <v>139.77777777777777</v>
       </c>
     </row>
-    <row r="59" spans="1:30" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="59" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A59" s="40">
         <v>72</v>
       </c>
@@ -5687,7 +5705,7 @@
         <v>115.77777777777777</v>
       </c>
     </row>
-    <row r="60" spans="1:30" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="60" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A60" s="40">
         <v>12</v>
       </c>
@@ -5742,7 +5760,7 @@
       <c r="AC60" s="55"/>
       <c r="AD60" s="55"/>
     </row>
-    <row r="61" spans="1:30" s="51" customFormat="1" ht="26.25" thickBot="1">
+    <row r="61" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A61" s="40">
         <v>39</v>
       </c>
@@ -5801,7 +5819,7 @@
       <c r="AC61" s="55"/>
       <c r="AD61" s="55"/>
     </row>
-    <row r="62" spans="1:30" s="51" customFormat="1" ht="26.25" thickBot="1">
+    <row r="62" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A62" s="40">
         <v>29</v>
       </c>
@@ -5843,7 +5861,7 @@
         <v>50.333333333333336</v>
       </c>
     </row>
-    <row r="63" spans="1:30" s="51" customFormat="1" ht="64.5" thickBot="1">
+    <row r="63" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
       <c r="A63" s="40">
         <v>30</v>
       </c>
@@ -5886,7 +5904,7 @@
       </c>
       <c r="N63" s="55"/>
     </row>
-    <row r="64" spans="1:30" s="51" customFormat="1" ht="26.25" thickBot="1">
+    <row r="64" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A64" s="40">
         <v>36</v>
       </c>
@@ -5945,7 +5963,7 @@
       <c r="AC64" s="55"/>
       <c r="AD64" s="55"/>
     </row>
-    <row r="65" spans="1:30" s="51" customFormat="1" ht="26.25" thickBot="1">
+    <row r="65" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A65" s="40">
         <v>40</v>
       </c>
@@ -6003,7 +6021,7 @@
       <c r="AC65" s="55"/>
       <c r="AD65" s="55"/>
     </row>
-    <row r="66" spans="1:30" s="51" customFormat="1" ht="51.75" thickBot="1">
+    <row r="66" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A66" s="40">
         <v>68</v>
       </c>
@@ -6045,7 +6063,7 @@
         <v>22.444444444444443</v>
       </c>
     </row>
-    <row r="67" spans="1:30" s="51" customFormat="1" ht="39" thickBot="1">
+    <row r="67" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
       <c r="A67" s="40">
         <v>37</v>
       </c>
@@ -6104,7 +6122,7 @@
       <c r="AC67" s="55"/>
       <c r="AD67" s="55"/>
     </row>
-    <row r="68" spans="1:30" s="51" customFormat="1" ht="77.25" thickBot="1">
+    <row r="68" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
       <c r="A68" s="40">
         <v>74</v>
       </c>
@@ -6142,11 +6160,11 @@
         <v>13</v>
       </c>
       <c r="M68" s="50">
-        <f t="shared" ref="M68:M80" si="2">IF(ISBLANK(K68),,((K68-L68*2)+1000)/9)</f>
+        <f t="shared" ref="M68:M82" si="2">IF(ISBLANK(K68),,((K68-L68*2)+1000)/9)</f>
         <v>150.22222222222223</v>
       </c>
     </row>
-    <row r="69" spans="1:30" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="69" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A69" s="40">
         <v>50</v>
       </c>
@@ -6189,7 +6207,7 @@
       </c>
       <c r="N69" s="55"/>
     </row>
-    <row r="70" spans="1:30" s="51" customFormat="1" ht="26.25" thickBot="1">
+    <row r="70" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A70" s="40">
         <v>51</v>
       </c>
@@ -6232,7 +6250,7 @@
       </c>
       <c r="N70" s="55"/>
     </row>
-    <row r="71" spans="1:30" s="51" customFormat="1" ht="64.5" thickBot="1">
+    <row r="71" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
       <c r="A71" s="40">
         <v>32</v>
       </c>
@@ -6291,7 +6309,7 @@
       <c r="AC71" s="55"/>
       <c r="AD71" s="55"/>
     </row>
-    <row r="72" spans="1:30" s="51" customFormat="1" ht="77.25" thickBot="1">
+    <row r="72" spans="1:30" s="51" customFormat="1" ht="79" thickBot="1">
       <c r="A72" s="40">
         <v>52</v>
       </c>
@@ -6334,7 +6352,7 @@
       </c>
       <c r="N72" s="55"/>
     </row>
-    <row r="73" spans="1:30" s="51" customFormat="1" ht="39" thickBot="1">
+    <row r="73" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
       <c r="A73" s="40">
         <v>53</v>
       </c>
@@ -6377,7 +6395,7 @@
       </c>
       <c r="N73" s="55"/>
     </row>
-    <row r="74" spans="1:30" s="51" customFormat="1" ht="51.75" thickBot="1">
+    <row r="74" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A74" s="40">
         <v>54</v>
       </c>
@@ -6420,7 +6438,7 @@
       </c>
       <c r="N74" s="55"/>
     </row>
-    <row r="75" spans="1:30" s="51" customFormat="1" ht="64.5" thickBot="1">
+    <row r="75" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A75" s="40">
         <v>73</v>
       </c>
@@ -6462,7 +6480,7 @@
         <v>124.33333333333333</v>
       </c>
     </row>
-    <row r="76" spans="1:30" s="51" customFormat="1" ht="102.75" thickBot="1">
+    <row r="76" spans="1:30" s="51" customFormat="1" ht="118" thickBot="1">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -6504,7 +6522,7 @@
         <v>132.77777777777777</v>
       </c>
     </row>
-    <row r="77" spans="1:30" s="51" customFormat="1" ht="39" thickBot="1">
+    <row r="77" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
       <c r="A77" s="40">
         <v>55</v>
       </c>
@@ -6547,7 +6565,7 @@
       </c>
       <c r="N77" s="55"/>
     </row>
-    <row r="78" spans="1:30" s="51" customFormat="1" ht="26.25" thickBot="1">
+    <row r="78" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
       <c r="A78" s="40">
         <v>47</v>
       </c>
@@ -6606,7 +6624,7 @@
       <c r="AC78" s="75"/>
       <c r="AD78" s="75"/>
     </row>
-    <row r="79" spans="1:30" s="51" customFormat="1" ht="64.5" thickBot="1">
+    <row r="79" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
       <c r="A79" s="40">
         <v>76</v>
       </c>
@@ -6648,7 +6666,7 @@
         <v>152.44444444444446</v>
       </c>
     </row>
-    <row r="80" spans="1:30" s="51" customFormat="1" ht="41.25" thickBot="1">
+    <row r="80" spans="1:30" s="51" customFormat="1" ht="46" thickBot="1">
       <c r="A80" s="40">
         <v>13</v>
       </c>
@@ -6707,41 +6725,91 @@
       <c r="AC80" s="55"/>
       <c r="AD80" s="55"/>
     </row>
-    <row r="81" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="81" spans="1:13" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A81" s="40">
         <v>78</v>
       </c>
-      <c r="B81" s="73"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="89"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="50"/>
-    </row>
-    <row r="82" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B81" s="80">
+        <v>43127</v>
+      </c>
+      <c r="C81" s="80">
+        <v>43127</v>
+      </c>
+      <c r="D81" s="43">
+        <v>141</v>
+      </c>
+      <c r="E81" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="G81" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="J81" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K81" s="49">
+        <v>454</v>
+      </c>
+      <c r="L81" s="49">
+        <v>22</v>
+      </c>
+      <c r="M81" s="58">
+        <f t="shared" si="2"/>
+        <v>156.66666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="51" customFormat="1" ht="40" thickBot="1">
       <c r="A82" s="40">
         <v>79</v>
       </c>
-      <c r="B82" s="73"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="89"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="50"/>
-    </row>
-    <row r="83" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B82" s="80">
+        <v>43127</v>
+      </c>
+      <c r="C82" s="80">
+        <v>43127</v>
+      </c>
+      <c r="D82" s="43">
+        <v>142</v>
+      </c>
+      <c r="E82" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G82" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="J82" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="K82" s="49">
+        <v>394</v>
+      </c>
+      <c r="L82" s="49">
+        <v>23</v>
+      </c>
+      <c r="M82" s="58">
+        <f t="shared" si="2"/>
+        <v>149.77777777777777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A83" s="40">
         <v>80</v>
       </c>
@@ -6758,7 +6826,7 @@
       <c r="L83" s="49"/>
       <c r="M83" s="50"/>
     </row>
-    <row r="84" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="84" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A84" s="40">
         <v>81</v>
       </c>
@@ -6775,7 +6843,7 @@
       <c r="L84" s="49"/>
       <c r="M84" s="50"/>
     </row>
-    <row r="85" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="85" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A85" s="40">
         <v>82</v>
       </c>
@@ -6792,7 +6860,7 @@
       <c r="L85" s="49"/>
       <c r="M85" s="50"/>
     </row>
-    <row r="86" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="86" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A86" s="40">
         <v>83</v>
       </c>
@@ -6809,7 +6877,7 @@
       <c r="L86" s="49"/>
       <c r="M86" s="50"/>
     </row>
-    <row r="87" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="87" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A87" s="40">
         <v>84</v>
       </c>
@@ -6826,7 +6894,7 @@
       <c r="L87" s="49"/>
       <c r="M87" s="50"/>
     </row>
-    <row r="88" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="88" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A88" s="40">
         <v>85</v>
       </c>
@@ -6843,7 +6911,7 @@
       <c r="L88" s="49"/>
       <c r="M88" s="50"/>
     </row>
-    <row r="89" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="89" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A89" s="40">
         <v>86</v>
       </c>
@@ -6860,7 +6928,7 @@
       <c r="L89" s="49"/>
       <c r="M89" s="50"/>
     </row>
-    <row r="90" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="90" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A90" s="40">
         <v>87</v>
       </c>
@@ -6877,7 +6945,7 @@
       <c r="L90" s="49"/>
       <c r="M90" s="50"/>
     </row>
-    <row r="91" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="91" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A91" s="40">
         <v>88</v>
       </c>
@@ -6894,7 +6962,7 @@
       <c r="L91" s="49"/>
       <c r="M91" s="50"/>
     </row>
-    <row r="92" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="92" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A92" s="40">
         <v>89</v>
       </c>
@@ -6911,7 +6979,7 @@
       <c r="L92" s="49"/>
       <c r="M92" s="50"/>
     </row>
-    <row r="93" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="93" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A93" s="40">
         <v>90</v>
       </c>
@@ -6928,7 +6996,7 @@
       <c r="L93" s="49"/>
       <c r="M93" s="50"/>
     </row>
-    <row r="94" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="94" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A94" s="40">
         <v>91</v>
       </c>
@@ -6945,7 +7013,7 @@
       <c r="L94" s="49"/>
       <c r="M94" s="50"/>
     </row>
-    <row r="95" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="95" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A95" s="40">
         <v>92</v>
       </c>
@@ -6962,7 +7030,7 @@
       <c r="L95" s="49"/>
       <c r="M95" s="50"/>
     </row>
-    <row r="96" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="96" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A96" s="40">
         <v>93</v>
       </c>
@@ -6979,7 +7047,7 @@
       <c r="L96" s="49"/>
       <c r="M96" s="50"/>
     </row>
-    <row r="97" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="97" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A97" s="40">
         <v>94</v>
       </c>
@@ -6996,7 +7064,7 @@
       <c r="L97" s="49"/>
       <c r="M97" s="50"/>
     </row>
-    <row r="98" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="98" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A98" s="40">
         <v>95</v>
       </c>
@@ -7013,7 +7081,7 @@
       <c r="L98" s="49"/>
       <c r="M98" s="50"/>
     </row>
-    <row r="99" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="99" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A99" s="40">
         <v>96</v>
       </c>
@@ -7030,7 +7098,7 @@
       <c r="L99" s="49"/>
       <c r="M99" s="50"/>
     </row>
-    <row r="100" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="100" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A100" s="40">
         <v>97</v>
       </c>
@@ -7047,7 +7115,7 @@
       <c r="L100" s="49"/>
       <c r="M100" s="50"/>
     </row>
-    <row r="101" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="101" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A101" s="40">
         <v>98</v>
       </c>
@@ -7064,7 +7132,7 @@
       <c r="L101" s="49"/>
       <c r="M101" s="50"/>
     </row>
-    <row r="102" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="102" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A102" s="40">
         <v>99</v>
       </c>
@@ -7081,7 +7149,7 @@
       <c r="L102" s="49"/>
       <c r="M102" s="50"/>
     </row>
-    <row r="103" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="103" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A103" s="40">
         <v>100</v>
       </c>
@@ -7098,7 +7166,7 @@
       <c r="L103" s="49"/>
       <c r="M103" s="50"/>
     </row>
-    <row r="104" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="104" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A104" s="40">
         <v>101</v>
       </c>
@@ -7115,7 +7183,7 @@
       <c r="L104" s="49"/>
       <c r="M104" s="50"/>
     </row>
-    <row r="105" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="105" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A105" s="40">
         <v>102</v>
       </c>
@@ -7132,7 +7200,7 @@
       <c r="L105" s="49"/>
       <c r="M105" s="50"/>
     </row>
-    <row r="106" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="106" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A106" s="40">
         <v>103</v>
       </c>
@@ -7149,7 +7217,7 @@
       <c r="L106" s="49"/>
       <c r="M106" s="50"/>
     </row>
-    <row r="107" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="107" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A107" s="40">
         <v>104</v>
       </c>
@@ -7166,7 +7234,7 @@
       <c r="L107" s="49"/>
       <c r="M107" s="50"/>
     </row>
-    <row r="108" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="108" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A108" s="40">
         <v>105</v>
       </c>
@@ -7183,7 +7251,7 @@
       <c r="L108" s="49"/>
       <c r="M108" s="50"/>
     </row>
-    <row r="109" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="109" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A109" s="40">
         <v>106</v>
       </c>
@@ -7200,7 +7268,7 @@
       <c r="L109" s="49"/>
       <c r="M109" s="50"/>
     </row>
-    <row r="110" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="110" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A110" s="40">
         <v>107</v>
       </c>
@@ -7217,7 +7285,7 @@
       <c r="L110" s="49"/>
       <c r="M110" s="50"/>
     </row>
-    <row r="111" spans="1:13" s="51" customFormat="1" ht="13.5" thickBot="1">
+    <row r="111" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A111" s="40">
         <v>108</v>
       </c>
@@ -14528,7 +14596,7 @@
     <sortCondition ref="G4:G80"/>
   </sortState>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="C4:C176">
+  <conditionalFormatting sqref="C4:C80 C83:C176">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>43101</formula>
     </cfRule>
@@ -14547,7 +14615,7 @@
       <selection activeCell="D4" sqref="A1:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
@@ -14848,7 +14916,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="12.75">
+    <row r="24" spans="1:4" ht="13">
       <c r="A24" s="1">
         <v>90</v>
       </c>
@@ -14860,7 +14928,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75">
+    <row r="25" spans="1:4" ht="13">
       <c r="A25" s="1">
         <v>322</v>
       </c>
@@ -14872,7 +14940,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="12.75">
+    <row r="26" spans="1:4" ht="13">
       <c r="A26" s="1">
         <v>198</v>
       </c>
@@ -14884,7 +14952,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75">
+    <row r="27" spans="1:4" ht="13">
       <c r="A27" s="1">
         <v>213</v>
       </c>
@@ -14896,7 +14964,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="12.75">
+    <row r="28" spans="1:4" ht="13">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -14908,7 +14976,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="12.75">
+    <row r="29" spans="1:4" ht="13">
       <c r="A29" s="1">
         <v>61</v>
       </c>
@@ -14920,7 +14988,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75">
+    <row r="30" spans="1:4" ht="13">
       <c r="A30" s="1">
         <v>83</v>
       </c>
@@ -14932,7 +15000,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="12.75">
+    <row r="31" spans="1:4" ht="13">
       <c r="A31" s="1">
         <v>141</v>
       </c>
@@ -14944,7 +15012,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="12.75">
+    <row r="32" spans="1:4" ht="13">
       <c r="A32" s="1">
         <v>147</v>
       </c>
@@ -14956,7 +15024,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="12.75">
+    <row r="33" spans="1:4" ht="13">
       <c r="A33" s="1">
         <v>234</v>
       </c>
@@ -14968,7 +15036,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="12.75">
+    <row r="34" spans="1:4" ht="13">
       <c r="A34" s="1">
         <v>328</v>
       </c>
@@ -14980,7 +15048,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="12.75">
+    <row r="35" spans="1:4" ht="13">
       <c r="A35" s="1">
         <v>136</v>
       </c>
@@ -14994,7 +15062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75">
+    <row r="36" spans="1:4" ht="13">
       <c r="A36" s="1">
         <v>137</v>
       </c>
@@ -15008,7 +15076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75">
+    <row r="37" spans="1:4" ht="13">
       <c r="A37" s="1">
         <v>190</v>
       </c>
@@ -15022,7 +15090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75">
+    <row r="38" spans="1:4" ht="13">
       <c r="A38" s="1">
         <v>191</v>
       </c>
@@ -15036,7 +15104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75">
+    <row r="39" spans="1:4" ht="13">
       <c r="A39" s="1">
         <v>231</v>
       </c>
@@ -15050,7 +15118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75">
+    <row r="40" spans="1:4" ht="13">
       <c r="A40" s="1">
         <v>260</v>
       </c>
@@ -15064,7 +15132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75">
+    <row r="41" spans="1:4" ht="13">
       <c r="A41" s="1">
         <v>268</v>
       </c>
@@ -15078,7 +15146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75">
+    <row r="42" spans="1:4" ht="13">
       <c r="A42" s="1">
         <v>338</v>
       </c>
@@ -15092,7 +15160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75">
+    <row r="43" spans="1:4" ht="13">
       <c r="A43" s="1">
         <v>342</v>
       </c>
@@ -15106,7 +15174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75">
+    <row r="44" spans="1:4" ht="13">
       <c r="A44" s="1">
         <v>371</v>
       </c>
@@ -15120,7 +15188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75">
+    <row r="45" spans="1:4" ht="13">
       <c r="A45" s="1">
         <v>461</v>
       </c>
@@ -15134,7 +15202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75">
+    <row r="46" spans="1:4" ht="13">
       <c r="A46" s="1">
         <v>95</v>
       </c>
@@ -15146,7 +15214,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="12.75">
+    <row r="47" spans="1:4" ht="13">
       <c r="A47" s="1">
         <v>96</v>
       </c>
@@ -15158,7 +15226,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="12.75">
+    <row r="48" spans="1:4" ht="13">
       <c r="A48" s="1">
         <v>98</v>
       </c>
@@ -15170,7 +15238,7 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="12.75">
+    <row r="49" spans="1:4" ht="13">
       <c r="A49" s="1">
         <v>100</v>
       </c>
@@ -15182,7 +15250,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="12.75">
+    <row r="50" spans="1:4" ht="13">
       <c r="A50" s="1">
         <v>101</v>
       </c>
@@ -15194,7 +15262,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="12.75">
+    <row r="51" spans="1:4" ht="13">
       <c r="A51" s="1">
         <v>102</v>
       </c>
@@ -15206,7 +15274,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="12.75">
+    <row r="52" spans="1:4" ht="13">
       <c r="A52" s="1">
         <v>107</v>
       </c>
@@ -15218,7 +15286,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="12.75">
+    <row r="53" spans="1:4" ht="13">
       <c r="A53" s="1">
         <v>108</v>
       </c>
@@ -15230,7 +15298,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" ht="12.75">
+    <row r="54" spans="1:4" ht="13">
       <c r="A54" s="1">
         <v>112</v>
       </c>
@@ -15242,7 +15310,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" ht="12.75">
+    <row r="55" spans="1:4" ht="13">
       <c r="A55" s="1">
         <v>113</v>
       </c>
@@ -15254,7 +15322,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="12.75">
+    <row r="56" spans="1:4" ht="13">
       <c r="A56" s="1">
         <v>199</v>
       </c>
@@ -15266,7 +15334,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="12.75">
+    <row r="57" spans="1:4" ht="13">
       <c r="A57" s="1">
         <v>257</v>
       </c>
@@ -15278,7 +15346,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="12.75">
+    <row r="58" spans="1:4" ht="13">
       <c r="A58" s="1">
         <v>538</v>
       </c>
@@ -15290,7 +15358,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" ht="12.75">
+    <row r="59" spans="1:4" ht="13">
       <c r="A59" s="1">
         <v>617</v>
       </c>
@@ -15302,7 +15370,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" ht="12.75">
+    <row r="60" spans="1:4" ht="13">
       <c r="A60" s="1">
         <v>669</v>
       </c>
@@ -15314,7 +15382,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" ht="12.75">
+    <row r="61" spans="1:4" ht="13">
       <c r="A61" s="1">
         <v>687</v>
       </c>
@@ -15326,7 +15394,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" ht="12.75">
+    <row r="62" spans="1:4" ht="13">
       <c r="A62" s="1">
         <v>637</v>
       </c>
@@ -15338,7 +15406,7 @@
         <v>171107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75">
+    <row r="63" spans="1:4" ht="13">
       <c r="A63" s="1">
         <v>8</v>
       </c>
@@ -15350,7 +15418,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" ht="12.75">
+    <row r="64" spans="1:4" ht="13">
       <c r="A64" s="1">
         <v>125</v>
       </c>
@@ -15362,7 +15430,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" ht="12.75">
+    <row r="65" spans="1:4" ht="13">
       <c r="A65" s="1">
         <v>387</v>
       </c>
@@ -15374,7 +15442,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" ht="12.75">
+    <row r="66" spans="1:4" ht="13">
       <c r="A66" s="1">
         <v>389</v>
       </c>
@@ -15386,7 +15454,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" ht="12.75">
+    <row r="67" spans="1:4" ht="13">
       <c r="A67" s="1">
         <v>412</v>
       </c>
@@ -15398,7 +15466,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" ht="12.75">
+    <row r="68" spans="1:4" ht="13">
       <c r="A68" s="1">
         <v>541</v>
       </c>
@@ -15410,7 +15478,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="12.75">
+    <row r="69" spans="1:4" ht="13">
       <c r="A69" s="1">
         <v>557</v>
       </c>
@@ -15422,7 +15490,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" ht="12.75">
+    <row r="70" spans="1:4" ht="13">
       <c r="A70" s="1">
         <v>657</v>
       </c>
@@ -15434,5653 +15502,5653 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" ht="12.75">
+    <row r="71" spans="1:4" ht="13">
       <c r="A71" s="3"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" ht="12.75">
+    <row r="72" spans="1:4" ht="13">
       <c r="A72" s="3"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" ht="12.75">
+    <row r="73" spans="1:4" ht="13">
       <c r="A73" s="3"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" ht="12.75">
+    <row r="74" spans="1:4" ht="13">
       <c r="A74" s="3"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" ht="12.75">
+    <row r="75" spans="1:4" ht="13">
       <c r="A75" s="3"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="12.75">
+    <row r="76" spans="1:4" ht="13">
       <c r="A76" s="3"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" ht="12.75">
+    <row r="77" spans="1:4" ht="13">
       <c r="A77" s="3"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" ht="12.75">
+    <row r="78" spans="1:4" ht="13">
       <c r="A78" s="3"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="12.75">
+    <row r="79" spans="1:4" ht="13">
       <c r="A79" s="3"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" ht="12.75">
+    <row r="80" spans="1:4" ht="13">
       <c r="A80" s="3"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" ht="12.75">
+    <row r="81" spans="1:4" ht="13">
       <c r="A81" s="3"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" ht="12.75">
+    <row r="82" spans="1:4" ht="13">
       <c r="A82" s="3"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" ht="12.75">
+    <row r="83" spans="1:4" ht="13">
       <c r="A83" s="3"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" ht="12.75">
+    <row r="84" spans="1:4" ht="13">
       <c r="A84" s="3"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="12.75">
+    <row r="85" spans="1:4" ht="13">
       <c r="A85" s="3"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" ht="12.75">
+    <row r="86" spans="1:4" ht="13">
       <c r="A86" s="3"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="12.75">
+    <row r="87" spans="1:4" ht="13">
       <c r="A87" s="3"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" ht="12.75">
+    <row r="88" spans="1:4" ht="13">
       <c r="A88" s="3"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" ht="12.75">
+    <row r="89" spans="1:4" ht="13">
       <c r="A89" s="3"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" ht="12.75">
+    <row r="90" spans="1:4" ht="13">
       <c r="A90" s="3"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" ht="12.75">
+    <row r="91" spans="1:4" ht="13">
       <c r="A91" s="3"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" ht="12.75">
+    <row r="92" spans="1:4" ht="13">
       <c r="A92" s="3"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" ht="12.75">
+    <row r="93" spans="1:4" ht="13">
       <c r="A93" s="3"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" ht="12.75">
+    <row r="94" spans="1:4" ht="13">
       <c r="A94" s="3"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="12.75">
+    <row r="95" spans="1:4" ht="13">
       <c r="A95" s="3"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" ht="12.75">
+    <row r="96" spans="1:4" ht="13">
       <c r="A96" s="3"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" ht="12.75">
+    <row r="97" spans="1:4" ht="13">
       <c r="A97" s="3"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" ht="12.75">
+    <row r="98" spans="1:4" ht="13">
       <c r="A98" s="3"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" ht="12.75">
+    <row r="99" spans="1:4" ht="13">
       <c r="A99" s="3"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" ht="12.75">
+    <row r="100" spans="1:4" ht="13">
       <c r="A100" s="3"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" ht="12.75">
+    <row r="101" spans="1:4" ht="13">
       <c r="A101" s="3"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" ht="12.75">
+    <row r="102" spans="1:4" ht="13">
       <c r="A102" s="3"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" ht="12.75">
+    <row r="103" spans="1:4" ht="13">
       <c r="A103" s="3"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" ht="12.75">
+    <row r="104" spans="1:4" ht="13">
       <c r="A104" s="3"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" ht="12.75">
+    <row r="105" spans="1:4" ht="13">
       <c r="A105" s="3"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" ht="12.75">
+    <row r="106" spans="1:4" ht="13">
       <c r="A106" s="3"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" ht="12.75">
+    <row r="107" spans="1:4" ht="13">
       <c r="A107" s="3"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" ht="12.75">
+    <row r="108" spans="1:4" ht="13">
       <c r="A108" s="3"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" ht="12.75">
+    <row r="109" spans="1:4" ht="13">
       <c r="A109" s="3"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" ht="12.75">
+    <row r="110" spans="1:4" ht="13">
       <c r="A110" s="3"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" ht="12.75">
+    <row r="111" spans="1:4" ht="13">
       <c r="A111" s="3"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" ht="12.75">
+    <row r="112" spans="1:4" ht="13">
       <c r="A112" s="3"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" ht="12.75">
+    <row r="113" spans="1:4" ht="13">
       <c r="A113" s="3"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" ht="12.75">
+    <row r="114" spans="1:4" ht="13">
       <c r="A114" s="3"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" ht="12.75">
+    <row r="115" spans="1:4" ht="13">
       <c r="A115" s="3"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" ht="12.75">
+    <row r="116" spans="1:4" ht="13">
       <c r="A116" s="3"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" ht="12.75">
+    <row r="117" spans="1:4" ht="13">
       <c r="A117" s="3"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" ht="12.75">
+    <row r="118" spans="1:4" ht="13">
       <c r="A118" s="3"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" ht="12.75">
+    <row r="119" spans="1:4" ht="13">
       <c r="A119" s="3"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" ht="12.75">
+    <row r="120" spans="1:4" ht="13">
       <c r="A120" s="3"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" ht="12.75">
+    <row r="121" spans="1:4" ht="13">
       <c r="A121" s="3"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" ht="12.75">
+    <row r="122" spans="1:4" ht="13">
       <c r="A122" s="3"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" ht="12.75">
+    <row r="123" spans="1:4" ht="13">
       <c r="A123" s="3"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" ht="12.75">
+    <row r="124" spans="1:4" ht="13">
       <c r="A124" s="3"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" ht="12.75">
+    <row r="125" spans="1:4" ht="13">
       <c r="A125" s="3"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" ht="12.75">
+    <row r="126" spans="1:4" ht="13">
       <c r="A126" s="3"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" ht="12.75">
+    <row r="127" spans="1:4" ht="13">
       <c r="A127" s="3"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" ht="12.75">
+    <row r="128" spans="1:4" ht="13">
       <c r="A128" s="3"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" ht="12.75">
+    <row r="129" spans="1:4" ht="13">
       <c r="A129" s="3"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" ht="12.75">
+    <row r="130" spans="1:4" ht="13">
       <c r="A130" s="3"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" ht="12.75">
+    <row r="131" spans="1:4" ht="13">
       <c r="A131" s="3"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" ht="12.75">
+    <row r="132" spans="1:4" ht="13">
       <c r="A132" s="3"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" ht="12.75">
+    <row r="133" spans="1:4" ht="13">
       <c r="A133" s="3"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" ht="12.75">
+    <row r="134" spans="1:4" ht="13">
       <c r="A134" s="3"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" ht="12.75">
+    <row r="135" spans="1:4" ht="13">
       <c r="A135" s="3"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" ht="12.75">
+    <row r="136" spans="1:4" ht="13">
       <c r="A136" s="3"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" ht="12.75">
+    <row r="137" spans="1:4" ht="13">
       <c r="A137" s="3"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:4" ht="12.75">
+    <row r="138" spans="1:4" ht="13">
       <c r="A138" s="3"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" ht="12.75">
+    <row r="139" spans="1:4" ht="13">
       <c r="A139" s="3"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" ht="12.75">
+    <row r="140" spans="1:4" ht="13">
       <c r="A140" s="3"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" ht="12.75">
+    <row r="141" spans="1:4" ht="13">
       <c r="A141" s="3"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" ht="12.75">
+    <row r="142" spans="1:4" ht="13">
       <c r="A142" s="3"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" ht="12.75">
+    <row r="143" spans="1:4" ht="13">
       <c r="A143" s="3"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" ht="12.75">
+    <row r="144" spans="1:4" ht="13">
       <c r="A144" s="3"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" ht="12.75">
+    <row r="145" spans="1:4" ht="13">
       <c r="A145" s="3"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" ht="12.75">
+    <row r="146" spans="1:4" ht="13">
       <c r="A146" s="3"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" ht="12.75">
+    <row r="147" spans="1:4" ht="13">
       <c r="A147" s="3"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" ht="12.75">
+    <row r="148" spans="1:4" ht="13">
       <c r="A148" s="3"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" ht="12.75">
+    <row r="149" spans="1:4" ht="13">
       <c r="A149" s="3"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" ht="12.75">
+    <row r="150" spans="1:4" ht="13">
       <c r="A150" s="3"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" ht="12.75">
+    <row r="151" spans="1:4" ht="13">
       <c r="A151" s="3"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" ht="12.75">
+    <row r="152" spans="1:4" ht="13">
       <c r="A152" s="3"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" ht="12.75">
+    <row r="153" spans="1:4" ht="13">
       <c r="A153" s="3"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" ht="12.75">
+    <row r="154" spans="1:4" ht="13">
       <c r="A154" s="3"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" ht="12.75">
+    <row r="155" spans="1:4" ht="13">
       <c r="A155" s="3"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" ht="12.75">
+    <row r="156" spans="1:4" ht="13">
       <c r="A156" s="3"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" ht="12.75">
+    <row r="157" spans="1:4" ht="13">
       <c r="A157" s="3"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" ht="12.75">
+    <row r="158" spans="1:4" ht="13">
       <c r="A158" s="3"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" ht="12.75">
+    <row r="159" spans="1:4" ht="13">
       <c r="A159" s="3"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" ht="12.75">
+    <row r="160" spans="1:4" ht="13">
       <c r="A160" s="3"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" ht="12.75">
+    <row r="161" spans="1:4" ht="13">
       <c r="A161" s="3"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" ht="12.75">
+    <row r="162" spans="1:4" ht="13">
       <c r="A162" s="3"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" ht="12.75">
+    <row r="163" spans="1:4" ht="13">
       <c r="A163" s="3"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" ht="12.75">
+    <row r="164" spans="1:4" ht="13">
       <c r="A164" s="3"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" ht="12.75">
+    <row r="165" spans="1:4" ht="13">
       <c r="A165" s="3"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" ht="12.75">
+    <row r="166" spans="1:4" ht="13">
       <c r="A166" s="3"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" ht="12.75">
+    <row r="167" spans="1:4" ht="13">
       <c r="A167" s="3"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" ht="12.75">
+    <row r="168" spans="1:4" ht="13">
       <c r="A168" s="3"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" ht="12.75">
+    <row r="169" spans="1:4" ht="13">
       <c r="A169" s="3"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" ht="12.75">
+    <row r="170" spans="1:4" ht="13">
       <c r="A170" s="3"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" ht="12.75">
+    <row r="171" spans="1:4" ht="13">
       <c r="A171" s="3"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" ht="12.75">
+    <row r="172" spans="1:4" ht="13">
       <c r="A172" s="3"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" ht="12.75">
+    <row r="173" spans="1:4" ht="13">
       <c r="A173" s="3"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" ht="12.75">
+    <row r="174" spans="1:4" ht="13">
       <c r="A174" s="3"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" ht="12.75">
+    <row r="175" spans="1:4" ht="13">
       <c r="A175" s="3"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" ht="12.75">
+    <row r="176" spans="1:4" ht="13">
       <c r="A176" s="3"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" ht="12.75">
+    <row r="177" spans="1:4" ht="13">
       <c r="A177" s="3"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" ht="12.75">
+    <row r="178" spans="1:4" ht="13">
       <c r="A178" s="3"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" ht="12.75">
+    <row r="179" spans="1:4" ht="13">
       <c r="A179" s="3"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" ht="12.75">
+    <row r="180" spans="1:4" ht="13">
       <c r="A180" s="3"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" ht="12.75">
+    <row r="181" spans="1:4" ht="13">
       <c r="A181" s="3"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" ht="12.75">
+    <row r="182" spans="1:4" ht="13">
       <c r="A182" s="3"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" ht="12.75">
+    <row r="183" spans="1:4" ht="13">
       <c r="A183" s="3"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" ht="12.75">
+    <row r="184" spans="1:4" ht="13">
       <c r="A184" s="3"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" ht="12.75">
+    <row r="185" spans="1:4" ht="13">
       <c r="A185" s="3"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" ht="12.75">
+    <row r="186" spans="1:4" ht="13">
       <c r="A186" s="3"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" ht="12.75">
+    <row r="187" spans="1:4" ht="13">
       <c r="A187" s="3"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" ht="12.75">
+    <row r="188" spans="1:4" ht="13">
       <c r="A188" s="3"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" ht="12.75">
+    <row r="189" spans="1:4" ht="13">
       <c r="A189" s="3"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" ht="12.75">
+    <row r="190" spans="1:4" ht="13">
       <c r="A190" s="3"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" ht="12.75">
+    <row r="191" spans="1:4" ht="13">
       <c r="A191" s="3"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" ht="12.75">
+    <row r="192" spans="1:4" ht="13">
       <c r="A192" s="3"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" ht="12.75">
+    <row r="193" spans="1:4" ht="13">
       <c r="A193" s="3"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" ht="12.75">
+    <row r="194" spans="1:4" ht="13">
       <c r="A194" s="3"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" ht="12.75">
+    <row r="195" spans="1:4" ht="13">
       <c r="A195" s="3"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" ht="12.75">
+    <row r="196" spans="1:4" ht="13">
       <c r="A196" s="3"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" ht="12.75">
+    <row r="197" spans="1:4" ht="13">
       <c r="A197" s="3"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" ht="12.75">
+    <row r="198" spans="1:4" ht="13">
       <c r="A198" s="3"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" ht="12.75">
+    <row r="199" spans="1:4" ht="13">
       <c r="A199" s="3"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" ht="12.75">
+    <row r="200" spans="1:4" ht="13">
       <c r="A200" s="3"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" ht="12.75">
+    <row r="201" spans="1:4" ht="13">
       <c r="A201" s="3"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" ht="12.75">
+    <row r="202" spans="1:4" ht="13">
       <c r="A202" s="3"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" ht="12.75">
+    <row r="203" spans="1:4" ht="13">
       <c r="A203" s="3"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" ht="12.75">
+    <row r="204" spans="1:4" ht="13">
       <c r="A204" s="3"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" ht="12.75">
+    <row r="205" spans="1:4" ht="13">
       <c r="A205" s="3"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" ht="12.75">
+    <row r="206" spans="1:4" ht="13">
       <c r="A206" s="3"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" ht="12.75">
+    <row r="207" spans="1:4" ht="13">
       <c r="A207" s="3"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" ht="12.75">
+    <row r="208" spans="1:4" ht="13">
       <c r="A208" s="3"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" ht="12.75">
+    <row r="209" spans="1:4" ht="13">
       <c r="A209" s="3"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" ht="12.75">
+    <row r="210" spans="1:4" ht="13">
       <c r="A210" s="3"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" ht="12.75">
+    <row r="211" spans="1:4" ht="13">
       <c r="A211" s="3"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" ht="12.75">
+    <row r="212" spans="1:4" ht="13">
       <c r="A212" s="3"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" ht="12.75">
+    <row r="213" spans="1:4" ht="13">
       <c r="A213" s="3"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" ht="12.75">
+    <row r="214" spans="1:4" ht="13">
       <c r="A214" s="3"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" ht="12.75">
+    <row r="215" spans="1:4" ht="13">
       <c r="A215" s="3"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" ht="12.75">
+    <row r="216" spans="1:4" ht="13">
       <c r="A216" s="3"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" ht="12.75">
+    <row r="217" spans="1:4" ht="13">
       <c r="A217" s="3"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" ht="12.75">
+    <row r="218" spans="1:4" ht="13">
       <c r="A218" s="3"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" ht="12.75">
+    <row r="219" spans="1:4" ht="13">
       <c r="A219" s="3"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" ht="12.75">
+    <row r="220" spans="1:4" ht="13">
       <c r="A220" s="3"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" ht="12.75">
+    <row r="221" spans="1:4" ht="13">
       <c r="A221" s="3"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" ht="12.75">
+    <row r="222" spans="1:4" ht="13">
       <c r="A222" s="3"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="1:4" ht="12.75">
+    <row r="223" spans="1:4" ht="13">
       <c r="A223" s="3"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:4" ht="12.75">
+    <row r="224" spans="1:4" ht="13">
       <c r="A224" s="3"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" ht="12.75">
+    <row r="225" spans="1:4" ht="13">
       <c r="A225" s="3"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" ht="12.75">
+    <row r="226" spans="1:4" ht="13">
       <c r="A226" s="3"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" ht="12.75">
+    <row r="227" spans="1:4" ht="13">
       <c r="A227" s="3"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" ht="12.75">
+    <row r="228" spans="1:4" ht="13">
       <c r="A228" s="3"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:4" ht="12.75">
+    <row r="229" spans="1:4" ht="13">
       <c r="A229" s="3"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="1:4" ht="12.75">
+    <row r="230" spans="1:4" ht="13">
       <c r="A230" s="3"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="1:4" ht="12.75">
+    <row r="231" spans="1:4" ht="13">
       <c r="A231" s="3"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" ht="12.75">
+    <row r="232" spans="1:4" ht="13">
       <c r="A232" s="3"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" ht="12.75">
+    <row r="233" spans="1:4" ht="13">
       <c r="A233" s="3"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" ht="12.75">
+    <row r="234" spans="1:4" ht="13">
       <c r="A234" s="3"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="3"/>
     </row>
-    <row r="235" spans="1:4" ht="12.75">
+    <row r="235" spans="1:4" ht="13">
       <c r="A235" s="3"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="3"/>
     </row>
-    <row r="236" spans="1:4" ht="12.75">
+    <row r="236" spans="1:4" ht="13">
       <c r="A236" s="3"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="3"/>
     </row>
-    <row r="237" spans="1:4" ht="12.75">
+    <row r="237" spans="1:4" ht="13">
       <c r="A237" s="3"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="3"/>
     </row>
-    <row r="238" spans="1:4" ht="12.75">
+    <row r="238" spans="1:4" ht="13">
       <c r="A238" s="3"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="3"/>
     </row>
-    <row r="239" spans="1:4" ht="12.75">
+    <row r="239" spans="1:4" ht="13">
       <c r="A239" s="3"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="3"/>
     </row>
-    <row r="240" spans="1:4" ht="12.75">
+    <row r="240" spans="1:4" ht="13">
       <c r="A240" s="3"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="3"/>
     </row>
-    <row r="241" spans="1:4" ht="12.75">
+    <row r="241" spans="1:4" ht="13">
       <c r="A241" s="3"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="3"/>
     </row>
-    <row r="242" spans="1:4" ht="12.75">
+    <row r="242" spans="1:4" ht="13">
       <c r="A242" s="3"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="3"/>
     </row>
-    <row r="243" spans="1:4" ht="12.75">
+    <row r="243" spans="1:4" ht="13">
       <c r="A243" s="3"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="3"/>
     </row>
-    <row r="244" spans="1:4" ht="12.75">
+    <row r="244" spans="1:4" ht="13">
       <c r="A244" s="3"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="3"/>
     </row>
-    <row r="245" spans="1:4" ht="12.75">
+    <row r="245" spans="1:4" ht="13">
       <c r="A245" s="3"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="3"/>
     </row>
-    <row r="246" spans="1:4" ht="12.75">
+    <row r="246" spans="1:4" ht="13">
       <c r="A246" s="3"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="3"/>
     </row>
-    <row r="247" spans="1:4" ht="12.75">
+    <row r="247" spans="1:4" ht="13">
       <c r="A247" s="3"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="3"/>
     </row>
-    <row r="248" spans="1:4" ht="12.75">
+    <row r="248" spans="1:4" ht="13">
       <c r="A248" s="3"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="3"/>
     </row>
-    <row r="249" spans="1:4" ht="12.75">
+    <row r="249" spans="1:4" ht="13">
       <c r="A249" s="3"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="3"/>
     </row>
-    <row r="250" spans="1:4" ht="12.75">
+    <row r="250" spans="1:4" ht="13">
       <c r="A250" s="3"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="3"/>
     </row>
-    <row r="251" spans="1:4" ht="12.75">
+    <row r="251" spans="1:4" ht="13">
       <c r="A251" s="3"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="3"/>
     </row>
-    <row r="252" spans="1:4" ht="12.75">
+    <row r="252" spans="1:4" ht="13">
       <c r="A252" s="3"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="3"/>
     </row>
-    <row r="253" spans="1:4" ht="12.75">
+    <row r="253" spans="1:4" ht="13">
       <c r="A253" s="3"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="3"/>
     </row>
-    <row r="254" spans="1:4" ht="12.75">
+    <row r="254" spans="1:4" ht="13">
       <c r="A254" s="3"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="3"/>
     </row>
-    <row r="255" spans="1:4" ht="12.75">
+    <row r="255" spans="1:4" ht="13">
       <c r="A255" s="3"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="3"/>
     </row>
-    <row r="256" spans="1:4" ht="12.75">
+    <row r="256" spans="1:4" ht="13">
       <c r="A256" s="3"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="3"/>
     </row>
-    <row r="257" spans="1:4" ht="12.75">
+    <row r="257" spans="1:4" ht="13">
       <c r="A257" s="3"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
       <c r="D257" s="3"/>
     </row>
-    <row r="258" spans="1:4" ht="12.75">
+    <row r="258" spans="1:4" ht="13">
       <c r="A258" s="3"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="3"/>
     </row>
-    <row r="259" spans="1:4" ht="12.75">
+    <row r="259" spans="1:4" ht="13">
       <c r="A259" s="3"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="3"/>
     </row>
-    <row r="260" spans="1:4" ht="12.75">
+    <row r="260" spans="1:4" ht="13">
       <c r="A260" s="3"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="3"/>
     </row>
-    <row r="261" spans="1:4" ht="12.75">
+    <row r="261" spans="1:4" ht="13">
       <c r="A261" s="3"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="3"/>
     </row>
-    <row r="262" spans="1:4" ht="12.75">
+    <row r="262" spans="1:4" ht="13">
       <c r="A262" s="3"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="3"/>
     </row>
-    <row r="263" spans="1:4" ht="12.75">
+    <row r="263" spans="1:4" ht="13">
       <c r="A263" s="3"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
       <c r="D263" s="3"/>
     </row>
-    <row r="264" spans="1:4" ht="12.75">
+    <row r="264" spans="1:4" ht="13">
       <c r="A264" s="3"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
       <c r="D264" s="3"/>
     </row>
-    <row r="265" spans="1:4" ht="12.75">
+    <row r="265" spans="1:4" ht="13">
       <c r="A265" s="3"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
       <c r="D265" s="3"/>
     </row>
-    <row r="266" spans="1:4" ht="12.75">
+    <row r="266" spans="1:4" ht="13">
       <c r="A266" s="3"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="3"/>
     </row>
-    <row r="267" spans="1:4" ht="12.75">
+    <row r="267" spans="1:4" ht="13">
       <c r="A267" s="3"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="3"/>
     </row>
-    <row r="268" spans="1:4" ht="12.75">
+    <row r="268" spans="1:4" ht="13">
       <c r="A268" s="3"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
       <c r="D268" s="3"/>
     </row>
-    <row r="269" spans="1:4" ht="12.75">
+    <row r="269" spans="1:4" ht="13">
       <c r="A269" s="3"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
       <c r="D269" s="3"/>
     </row>
-    <row r="270" spans="1:4" ht="12.75">
+    <row r="270" spans="1:4" ht="13">
       <c r="A270" s="3"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
       <c r="D270" s="3"/>
     </row>
-    <row r="271" spans="1:4" ht="12.75">
+    <row r="271" spans="1:4" ht="13">
       <c r="A271" s="3"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="3"/>
     </row>
-    <row r="272" spans="1:4" ht="12.75">
+    <row r="272" spans="1:4" ht="13">
       <c r="A272" s="3"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="D272" s="3"/>
     </row>
-    <row r="273" spans="1:4" ht="12.75">
+    <row r="273" spans="1:4" ht="13">
       <c r="A273" s="3"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="D273" s="3"/>
     </row>
-    <row r="274" spans="1:4" ht="12.75">
+    <row r="274" spans="1:4" ht="13">
       <c r="A274" s="3"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="D274" s="3"/>
     </row>
-    <row r="275" spans="1:4" ht="12.75">
+    <row r="275" spans="1:4" ht="13">
       <c r="A275" s="3"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="D275" s="3"/>
     </row>
-    <row r="276" spans="1:4" ht="12.75">
+    <row r="276" spans="1:4" ht="13">
       <c r="A276" s="3"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="D276" s="3"/>
     </row>
-    <row r="277" spans="1:4" ht="12.75">
+    <row r="277" spans="1:4" ht="13">
       <c r="A277" s="3"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="D277" s="3"/>
     </row>
-    <row r="278" spans="1:4" ht="12.75">
+    <row r="278" spans="1:4" ht="13">
       <c r="A278" s="3"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="D278" s="3"/>
     </row>
-    <row r="279" spans="1:4" ht="12.75">
+    <row r="279" spans="1:4" ht="13">
       <c r="A279" s="3"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="D279" s="3"/>
     </row>
-    <row r="280" spans="1:4" ht="12.75">
+    <row r="280" spans="1:4" ht="13">
       <c r="A280" s="3"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="1:4" ht="12.75">
+    <row r="281" spans="1:4" ht="13">
       <c r="A281" s="3"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
       <c r="D281" s="3"/>
     </row>
-    <row r="282" spans="1:4" ht="12.75">
+    <row r="282" spans="1:4" ht="13">
       <c r="A282" s="3"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
       <c r="D282" s="3"/>
     </row>
-    <row r="283" spans="1:4" ht="12.75">
+    <row r="283" spans="1:4" ht="13">
       <c r="A283" s="3"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="D283" s="3"/>
     </row>
-    <row r="284" spans="1:4" ht="12.75">
+    <row r="284" spans="1:4" ht="13">
       <c r="A284" s="3"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="D284" s="3"/>
     </row>
-    <row r="285" spans="1:4" ht="12.75">
+    <row r="285" spans="1:4" ht="13">
       <c r="A285" s="3"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="D285" s="3"/>
     </row>
-    <row r="286" spans="1:4" ht="12.75">
+    <row r="286" spans="1:4" ht="13">
       <c r="A286" s="3"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="D286" s="3"/>
     </row>
-    <row r="287" spans="1:4" ht="12.75">
+    <row r="287" spans="1:4" ht="13">
       <c r="A287" s="3"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
       <c r="D287" s="3"/>
     </row>
-    <row r="288" spans="1:4" ht="12.75">
+    <row r="288" spans="1:4" ht="13">
       <c r="A288" s="3"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
       <c r="D288" s="3"/>
     </row>
-    <row r="289" spans="1:4" ht="12.75">
+    <row r="289" spans="1:4" ht="13">
       <c r="A289" s="3"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
       <c r="D289" s="3"/>
     </row>
-    <row r="290" spans="1:4" ht="12.75">
+    <row r="290" spans="1:4" ht="13">
       <c r="A290" s="3"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="D290" s="3"/>
     </row>
-    <row r="291" spans="1:4" ht="12.75">
+    <row r="291" spans="1:4" ht="13">
       <c r="A291" s="3"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
       <c r="D291" s="3"/>
     </row>
-    <row r="292" spans="1:4" ht="12.75">
+    <row r="292" spans="1:4" ht="13">
       <c r="A292" s="3"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="D292" s="3"/>
     </row>
-    <row r="293" spans="1:4" ht="12.75">
+    <row r="293" spans="1:4" ht="13">
       <c r="A293" s="3"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="D293" s="3"/>
     </row>
-    <row r="294" spans="1:4" ht="12.75">
+    <row r="294" spans="1:4" ht="13">
       <c r="A294" s="3"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="D294" s="3"/>
     </row>
-    <row r="295" spans="1:4" ht="12.75">
+    <row r="295" spans="1:4" ht="13">
       <c r="A295" s="3"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="D295" s="3"/>
     </row>
-    <row r="296" spans="1:4" ht="12.75">
+    <row r="296" spans="1:4" ht="13">
       <c r="A296" s="3"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
       <c r="D296" s="3"/>
     </row>
-    <row r="297" spans="1:4" ht="12.75">
+    <row r="297" spans="1:4" ht="13">
       <c r="A297" s="3"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="D297" s="3"/>
     </row>
-    <row r="298" spans="1:4" ht="12.75">
+    <row r="298" spans="1:4" ht="13">
       <c r="A298" s="3"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4" ht="12.75">
+    <row r="299" spans="1:4" ht="13">
       <c r="A299" s="3"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
       <c r="D299" s="3"/>
     </row>
-    <row r="300" spans="1:4" ht="12.75">
+    <row r="300" spans="1:4" ht="13">
       <c r="A300" s="3"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
       <c r="D300" s="3"/>
     </row>
-    <row r="301" spans="1:4" ht="12.75">
+    <row r="301" spans="1:4" ht="13">
       <c r="A301" s="3"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
       <c r="D301" s="3"/>
     </row>
-    <row r="302" spans="1:4" ht="12.75">
+    <row r="302" spans="1:4" ht="13">
       <c r="A302" s="3"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
       <c r="D302" s="3"/>
     </row>
-    <row r="303" spans="1:4" ht="12.75">
+    <row r="303" spans="1:4" ht="13">
       <c r="A303" s="3"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="D303" s="3"/>
     </row>
-    <row r="304" spans="1:4" ht="12.75">
+    <row r="304" spans="1:4" ht="13">
       <c r="A304" s="3"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="D304" s="3"/>
     </row>
-    <row r="305" spans="1:4" ht="12.75">
+    <row r="305" spans="1:4" ht="13">
       <c r="A305" s="3"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="D305" s="3"/>
     </row>
-    <row r="306" spans="1:4" ht="12.75">
+    <row r="306" spans="1:4" ht="13">
       <c r="A306" s="3"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="1:4" ht="12.75">
+    <row r="307" spans="1:4" ht="13">
       <c r="A307" s="3"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="1:4" ht="12.75">
+    <row r="308" spans="1:4" ht="13">
       <c r="A308" s="3"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="1:4" ht="12.75">
+    <row r="309" spans="1:4" ht="13">
       <c r="A309" s="3"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="1:4" ht="12.75">
+    <row r="310" spans="1:4" ht="13">
       <c r="A310" s="3"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
       <c r="D310" s="3"/>
     </row>
-    <row r="311" spans="1:4" ht="12.75">
+    <row r="311" spans="1:4" ht="13">
       <c r="A311" s="3"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
       <c r="D311" s="3"/>
     </row>
-    <row r="312" spans="1:4" ht="12.75">
+    <row r="312" spans="1:4" ht="13">
       <c r="A312" s="3"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="1:4" ht="12.75">
+    <row r="313" spans="1:4" ht="13">
       <c r="A313" s="3"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="D313" s="3"/>
     </row>
-    <row r="314" spans="1:4" ht="12.75">
+    <row r="314" spans="1:4" ht="13">
       <c r="A314" s="3"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
       <c r="D314" s="3"/>
     </row>
-    <row r="315" spans="1:4" ht="12.75">
+    <row r="315" spans="1:4" ht="13">
       <c r="A315" s="3"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
       <c r="D315" s="3"/>
     </row>
-    <row r="316" spans="1:4" ht="12.75">
+    <row r="316" spans="1:4" ht="13">
       <c r="A316" s="3"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4" ht="12.75">
+    <row r="317" spans="1:4" ht="13">
       <c r="A317" s="3"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="1:4" ht="12.75">
+    <row r="318" spans="1:4" ht="13">
       <c r="A318" s="3"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="1:4" ht="12.75">
+    <row r="319" spans="1:4" ht="13">
       <c r="A319" s="3"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="1:4" ht="12.75">
+    <row r="320" spans="1:4" ht="13">
       <c r="A320" s="3"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="1:4" ht="12.75">
+    <row r="321" spans="1:4" ht="13">
       <c r="A321" s="3"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="1:4" ht="12.75">
+    <row r="322" spans="1:4" ht="13">
       <c r="A322" s="3"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="1:4" ht="12.75">
+    <row r="323" spans="1:4" ht="13">
       <c r="A323" s="3"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="1:4" ht="12.75">
+    <row r="324" spans="1:4" ht="13">
       <c r="A324" s="3"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="1:4" ht="12.75">
+    <row r="325" spans="1:4" ht="13">
       <c r="A325" s="3"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
       <c r="D325" s="3"/>
     </row>
-    <row r="326" spans="1:4" ht="12.75">
+    <row r="326" spans="1:4" ht="13">
       <c r="A326" s="3"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="D326" s="3"/>
     </row>
-    <row r="327" spans="1:4" ht="12.75">
+    <row r="327" spans="1:4" ht="13">
       <c r="A327" s="3"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="D327" s="3"/>
     </row>
-    <row r="328" spans="1:4" ht="12.75">
+    <row r="328" spans="1:4" ht="13">
       <c r="A328" s="3"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="1:4" ht="12.75">
+    <row r="329" spans="1:4" ht="13">
       <c r="A329" s="3"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="1:4" ht="12.75">
+    <row r="330" spans="1:4" ht="13">
       <c r="A330" s="3"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="1:4" ht="12.75">
+    <row r="331" spans="1:4" ht="13">
       <c r="A331" s="3"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="1:4" ht="12.75">
+    <row r="332" spans="1:4" ht="13">
       <c r="A332" s="3"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
       <c r="D332" s="3"/>
     </row>
-    <row r="333" spans="1:4" ht="12.75">
+    <row r="333" spans="1:4" ht="13">
       <c r="A333" s="3"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
       <c r="D333" s="3"/>
     </row>
-    <row r="334" spans="1:4" ht="12.75">
+    <row r="334" spans="1:4" ht="13">
       <c r="A334" s="3"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
       <c r="D334" s="3"/>
     </row>
-    <row r="335" spans="1:4" ht="12.75">
+    <row r="335" spans="1:4" ht="13">
       <c r="A335" s="3"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
       <c r="D335" s="3"/>
     </row>
-    <row r="336" spans="1:4" ht="12.75">
+    <row r="336" spans="1:4" ht="13">
       <c r="A336" s="3"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
       <c r="D336" s="3"/>
     </row>
-    <row r="337" spans="1:4" ht="12.75">
+    <row r="337" spans="1:4" ht="13">
       <c r="A337" s="3"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
       <c r="D337" s="3"/>
     </row>
-    <row r="338" spans="1:4" ht="12.75">
+    <row r="338" spans="1:4" ht="13">
       <c r="A338" s="3"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
       <c r="D338" s="3"/>
     </row>
-    <row r="339" spans="1:4" ht="12.75">
+    <row r="339" spans="1:4" ht="13">
       <c r="A339" s="3"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="3"/>
     </row>
-    <row r="340" spans="1:4" ht="12.75">
+    <row r="340" spans="1:4" ht="13">
       <c r="A340" s="3"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="3"/>
     </row>
-    <row r="341" spans="1:4" ht="12.75">
+    <row r="341" spans="1:4" ht="13">
       <c r="A341" s="3"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="3"/>
     </row>
-    <row r="342" spans="1:4" ht="12.75">
+    <row r="342" spans="1:4" ht="13">
       <c r="A342" s="3"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="3"/>
     </row>
-    <row r="343" spans="1:4" ht="12.75">
+    <row r="343" spans="1:4" ht="13">
       <c r="A343" s="3"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
       <c r="D343" s="3"/>
     </row>
-    <row r="344" spans="1:4" ht="12.75">
+    <row r="344" spans="1:4" ht="13">
       <c r="A344" s="3"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
       <c r="D344" s="3"/>
     </row>
-    <row r="345" spans="1:4" ht="12.75">
+    <row r="345" spans="1:4" ht="13">
       <c r="A345" s="3"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
       <c r="D345" s="3"/>
     </row>
-    <row r="346" spans="1:4" ht="12.75">
+    <row r="346" spans="1:4" ht="13">
       <c r="A346" s="3"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
       <c r="D346" s="3"/>
     </row>
-    <row r="347" spans="1:4" ht="12.75">
+    <row r="347" spans="1:4" ht="13">
       <c r="A347" s="3"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
       <c r="D347" s="3"/>
     </row>
-    <row r="348" spans="1:4" ht="12.75">
+    <row r="348" spans="1:4" ht="13">
       <c r="A348" s="3"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
       <c r="D348" s="3"/>
     </row>
-    <row r="349" spans="1:4" ht="12.75">
+    <row r="349" spans="1:4" ht="13">
       <c r="A349" s="3"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
       <c r="D349" s="3"/>
     </row>
-    <row r="350" spans="1:4" ht="12.75">
+    <row r="350" spans="1:4" ht="13">
       <c r="A350" s="3"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
       <c r="D350" s="3"/>
     </row>
-    <row r="351" spans="1:4" ht="12.75">
+    <row r="351" spans="1:4" ht="13">
       <c r="A351" s="3"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
       <c r="D351" s="3"/>
     </row>
-    <row r="352" spans="1:4" ht="12.75">
+    <row r="352" spans="1:4" ht="13">
       <c r="A352" s="3"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
       <c r="D352" s="3"/>
     </row>
-    <row r="353" spans="1:4" ht="12.75">
+    <row r="353" spans="1:4" ht="13">
       <c r="A353" s="3"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
       <c r="D353" s="3"/>
     </row>
-    <row r="354" spans="1:4" ht="12.75">
+    <row r="354" spans="1:4" ht="13">
       <c r="A354" s="3"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
       <c r="D354" s="3"/>
     </row>
-    <row r="355" spans="1:4" ht="12.75">
+    <row r="355" spans="1:4" ht="13">
       <c r="A355" s="3"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
       <c r="D355" s="3"/>
     </row>
-    <row r="356" spans="1:4" ht="12.75">
+    <row r="356" spans="1:4" ht="13">
       <c r="A356" s="3"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
       <c r="D356" s="3"/>
     </row>
-    <row r="357" spans="1:4" ht="12.75">
+    <row r="357" spans="1:4" ht="13">
       <c r="A357" s="3"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
       <c r="D357" s="3"/>
     </row>
-    <row r="358" spans="1:4" ht="12.75">
+    <row r="358" spans="1:4" ht="13">
       <c r="A358" s="3"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
       <c r="D358" s="3"/>
     </row>
-    <row r="359" spans="1:4" ht="12.75">
+    <row r="359" spans="1:4" ht="13">
       <c r="A359" s="3"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
       <c r="D359" s="3"/>
     </row>
-    <row r="360" spans="1:4" ht="12.75">
+    <row r="360" spans="1:4" ht="13">
       <c r="A360" s="3"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
       <c r="D360" s="3"/>
     </row>
-    <row r="361" spans="1:4" ht="12.75">
+    <row r="361" spans="1:4" ht="13">
       <c r="A361" s="3"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
       <c r="D361" s="3"/>
     </row>
-    <row r="362" spans="1:4" ht="12.75">
+    <row r="362" spans="1:4" ht="13">
       <c r="A362" s="3"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
       <c r="D362" s="3"/>
     </row>
-    <row r="363" spans="1:4" ht="12.75">
+    <row r="363" spans="1:4" ht="13">
       <c r="A363" s="3"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
       <c r="D363" s="3"/>
     </row>
-    <row r="364" spans="1:4" ht="12.75">
+    <row r="364" spans="1:4" ht="13">
       <c r="A364" s="3"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
       <c r="D364" s="3"/>
     </row>
-    <row r="365" spans="1:4" ht="12.75">
+    <row r="365" spans="1:4" ht="13">
       <c r="A365" s="3"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
       <c r="D365" s="3"/>
     </row>
-    <row r="366" spans="1:4" ht="12.75">
+    <row r="366" spans="1:4" ht="13">
       <c r="A366" s="3"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
       <c r="D366" s="3"/>
     </row>
-    <row r="367" spans="1:4" ht="12.75">
+    <row r="367" spans="1:4" ht="13">
       <c r="A367" s="3"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
       <c r="D367" s="3"/>
     </row>
-    <row r="368" spans="1:4" ht="12.75">
+    <row r="368" spans="1:4" ht="13">
       <c r="A368" s="3"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
       <c r="D368" s="3"/>
     </row>
-    <row r="369" spans="1:4" ht="12.75">
+    <row r="369" spans="1:4" ht="13">
       <c r="A369" s="3"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
       <c r="D369" s="3"/>
     </row>
-    <row r="370" spans="1:4" ht="12.75">
+    <row r="370" spans="1:4" ht="13">
       <c r="A370" s="3"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
       <c r="D370" s="3"/>
     </row>
-    <row r="371" spans="1:4" ht="12.75">
+    <row r="371" spans="1:4" ht="13">
       <c r="A371" s="3"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
       <c r="D371" s="3"/>
     </row>
-    <row r="372" spans="1:4" ht="12.75">
+    <row r="372" spans="1:4" ht="13">
       <c r="A372" s="3"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
       <c r="D372" s="3"/>
     </row>
-    <row r="373" spans="1:4" ht="12.75">
+    <row r="373" spans="1:4" ht="13">
       <c r="A373" s="3"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
       <c r="D373" s="3"/>
     </row>
-    <row r="374" spans="1:4" ht="12.75">
+    <row r="374" spans="1:4" ht="13">
       <c r="A374" s="3"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
       <c r="D374" s="3"/>
     </row>
-    <row r="375" spans="1:4" ht="12.75">
+    <row r="375" spans="1:4" ht="13">
       <c r="A375" s="3"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
       <c r="D375" s="3"/>
     </row>
-    <row r="376" spans="1:4" ht="12.75">
+    <row r="376" spans="1:4" ht="13">
       <c r="A376" s="3"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
       <c r="D376" s="3"/>
     </row>
-    <row r="377" spans="1:4" ht="12.75">
+    <row r="377" spans="1:4" ht="13">
       <c r="A377" s="3"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
       <c r="D377" s="3"/>
     </row>
-    <row r="378" spans="1:4" ht="12.75">
+    <row r="378" spans="1:4" ht="13">
       <c r="A378" s="3"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
       <c r="D378" s="3"/>
     </row>
-    <row r="379" spans="1:4" ht="12.75">
+    <row r="379" spans="1:4" ht="13">
       <c r="A379" s="3"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
       <c r="D379" s="3"/>
     </row>
-    <row r="380" spans="1:4" ht="12.75">
+    <row r="380" spans="1:4" ht="13">
       <c r="A380" s="3"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
       <c r="D380" s="3"/>
     </row>
-    <row r="381" spans="1:4" ht="12.75">
+    <row r="381" spans="1:4" ht="13">
       <c r="A381" s="3"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
       <c r="D381" s="3"/>
     </row>
-    <row r="382" spans="1:4" ht="12.75">
+    <row r="382" spans="1:4" ht="13">
       <c r="A382" s="3"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
       <c r="D382" s="3"/>
     </row>
-    <row r="383" spans="1:4" ht="12.75">
+    <row r="383" spans="1:4" ht="13">
       <c r="A383" s="3"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
       <c r="D383" s="3"/>
     </row>
-    <row r="384" spans="1:4" ht="12.75">
+    <row r="384" spans="1:4" ht="13">
       <c r="A384" s="3"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
       <c r="D384" s="3"/>
     </row>
-    <row r="385" spans="1:4" ht="12.75">
+    <row r="385" spans="1:4" ht="13">
       <c r="A385" s="3"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
       <c r="D385" s="3"/>
     </row>
-    <row r="386" spans="1:4" ht="12.75">
+    <row r="386" spans="1:4" ht="13">
       <c r="A386" s="3"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
       <c r="D386" s="3"/>
     </row>
-    <row r="387" spans="1:4" ht="12.75">
+    <row r="387" spans="1:4" ht="13">
       <c r="A387" s="3"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
       <c r="D387" s="3"/>
     </row>
-    <row r="388" spans="1:4" ht="12.75">
+    <row r="388" spans="1:4" ht="13">
       <c r="A388" s="3"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
       <c r="D388" s="3"/>
     </row>
-    <row r="389" spans="1:4" ht="12.75">
+    <row r="389" spans="1:4" ht="13">
       <c r="A389" s="3"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
       <c r="D389" s="3"/>
     </row>
-    <row r="390" spans="1:4" ht="12.75">
+    <row r="390" spans="1:4" ht="13">
       <c r="A390" s="3"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
       <c r="D390" s="3"/>
     </row>
-    <row r="391" spans="1:4" ht="12.75">
+    <row r="391" spans="1:4" ht="13">
       <c r="A391" s="3"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
       <c r="D391" s="3"/>
     </row>
-    <row r="392" spans="1:4" ht="12.75">
+    <row r="392" spans="1:4" ht="13">
       <c r="A392" s="3"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
       <c r="D392" s="3"/>
     </row>
-    <row r="393" spans="1:4" ht="12.75">
+    <row r="393" spans="1:4" ht="13">
       <c r="A393" s="3"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="3"/>
     </row>
-    <row r="394" spans="1:4" ht="12.75">
+    <row r="394" spans="1:4" ht="13">
       <c r="A394" s="3"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="3"/>
     </row>
-    <row r="395" spans="1:4" ht="12.75">
+    <row r="395" spans="1:4" ht="13">
       <c r="A395" s="3"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="3"/>
     </row>
-    <row r="396" spans="1:4" ht="12.75">
+    <row r="396" spans="1:4" ht="13">
       <c r="A396" s="3"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="3"/>
     </row>
-    <row r="397" spans="1:4" ht="12.75">
+    <row r="397" spans="1:4" ht="13">
       <c r="A397" s="3"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="3"/>
     </row>
-    <row r="398" spans="1:4" ht="12.75">
+    <row r="398" spans="1:4" ht="13">
       <c r="A398" s="3"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="3"/>
     </row>
-    <row r="399" spans="1:4" ht="12.75">
+    <row r="399" spans="1:4" ht="13">
       <c r="A399" s="3"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
       <c r="D399" s="3"/>
     </row>
-    <row r="400" spans="1:4" ht="12.75">
+    <row r="400" spans="1:4" ht="13">
       <c r="A400" s="3"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
       <c r="D400" s="3"/>
     </row>
-    <row r="401" spans="1:4" ht="12.75">
+    <row r="401" spans="1:4" ht="13">
       <c r="A401" s="3"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
       <c r="D401" s="3"/>
     </row>
-    <row r="402" spans="1:4" ht="12.75">
+    <row r="402" spans="1:4" ht="13">
       <c r="A402" s="3"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
       <c r="D402" s="3"/>
     </row>
-    <row r="403" spans="1:4" ht="12.75">
+    <row r="403" spans="1:4" ht="13">
       <c r="A403" s="3"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
       <c r="D403" s="3"/>
     </row>
-    <row r="404" spans="1:4" ht="12.75">
+    <row r="404" spans="1:4" ht="13">
       <c r="A404" s="3"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
       <c r="D404" s="3"/>
     </row>
-    <row r="405" spans="1:4" ht="12.75">
+    <row r="405" spans="1:4" ht="13">
       <c r="A405" s="3"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
       <c r="D405" s="3"/>
     </row>
-    <row r="406" spans="1:4" ht="12.75">
+    <row r="406" spans="1:4" ht="13">
       <c r="A406" s="3"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
       <c r="D406" s="3"/>
     </row>
-    <row r="407" spans="1:4" ht="12.75">
+    <row r="407" spans="1:4" ht="13">
       <c r="A407" s="3"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
       <c r="D407" s="3"/>
     </row>
-    <row r="408" spans="1:4" ht="12.75">
+    <row r="408" spans="1:4" ht="13">
       <c r="A408" s="3"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
       <c r="D408" s="3"/>
     </row>
-    <row r="409" spans="1:4" ht="12.75">
+    <row r="409" spans="1:4" ht="13">
       <c r="A409" s="3"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="3"/>
     </row>
-    <row r="410" spans="1:4" ht="12.75">
+    <row r="410" spans="1:4" ht="13">
       <c r="A410" s="3"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="3"/>
     </row>
-    <row r="411" spans="1:4" ht="12.75">
+    <row r="411" spans="1:4" ht="13">
       <c r="A411" s="3"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="D411" s="3"/>
     </row>
-    <row r="412" spans="1:4" ht="12.75">
+    <row r="412" spans="1:4" ht="13">
       <c r="A412" s="3"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="3"/>
     </row>
-    <row r="413" spans="1:4" ht="12.75">
+    <row r="413" spans="1:4" ht="13">
       <c r="A413" s="3"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
       <c r="D413" s="3"/>
     </row>
-    <row r="414" spans="1:4" ht="12.75">
+    <row r="414" spans="1:4" ht="13">
       <c r="A414" s="3"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
       <c r="D414" s="3"/>
     </row>
-    <row r="415" spans="1:4" ht="12.75">
+    <row r="415" spans="1:4" ht="13">
       <c r="A415" s="3"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
       <c r="D415" s="3"/>
     </row>
-    <row r="416" spans="1:4" ht="12.75">
+    <row r="416" spans="1:4" ht="13">
       <c r="A416" s="3"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="3"/>
     </row>
-    <row r="417" spans="1:4" ht="12.75">
+    <row r="417" spans="1:4" ht="13">
       <c r="A417" s="3"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="3"/>
     </row>
-    <row r="418" spans="1:4" ht="12.75">
+    <row r="418" spans="1:4" ht="13">
       <c r="A418" s="3"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="3"/>
     </row>
-    <row r="419" spans="1:4" ht="12.75">
+    <row r="419" spans="1:4" ht="13">
       <c r="A419" s="3"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
       <c r="D419" s="3"/>
     </row>
-    <row r="420" spans="1:4" ht="12.75">
+    <row r="420" spans="1:4" ht="13">
       <c r="A420" s="3"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
       <c r="D420" s="3"/>
     </row>
-    <row r="421" spans="1:4" ht="12.75">
+    <row r="421" spans="1:4" ht="13">
       <c r="A421" s="3"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
       <c r="D421" s="3"/>
     </row>
-    <row r="422" spans="1:4" ht="12.75">
+    <row r="422" spans="1:4" ht="13">
       <c r="A422" s="3"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
       <c r="D422" s="3"/>
     </row>
-    <row r="423" spans="1:4" ht="12.75">
+    <row r="423" spans="1:4" ht="13">
       <c r="A423" s="3"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
       <c r="D423" s="3"/>
     </row>
-    <row r="424" spans="1:4" ht="12.75">
+    <row r="424" spans="1:4" ht="13">
       <c r="A424" s="3"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
       <c r="D424" s="3"/>
     </row>
-    <row r="425" spans="1:4" ht="12.75">
+    <row r="425" spans="1:4" ht="13">
       <c r="A425" s="3"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
       <c r="D425" s="3"/>
     </row>
-    <row r="426" spans="1:4" ht="12.75">
+    <row r="426" spans="1:4" ht="13">
       <c r="A426" s="3"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
       <c r="D426" s="3"/>
     </row>
-    <row r="427" spans="1:4" ht="12.75">
+    <row r="427" spans="1:4" ht="13">
       <c r="A427" s="3"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
       <c r="D427" s="3"/>
     </row>
-    <row r="428" spans="1:4" ht="12.75">
+    <row r="428" spans="1:4" ht="13">
       <c r="A428" s="3"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
       <c r="D428" s="3"/>
     </row>
-    <row r="429" spans="1:4" ht="12.75">
+    <row r="429" spans="1:4" ht="13">
       <c r="A429" s="3"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
       <c r="D429" s="3"/>
     </row>
-    <row r="430" spans="1:4" ht="12.75">
+    <row r="430" spans="1:4" ht="13">
       <c r="A430" s="3"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
       <c r="D430" s="3"/>
     </row>
-    <row r="431" spans="1:4" ht="12.75">
+    <row r="431" spans="1:4" ht="13">
       <c r="A431" s="3"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
       <c r="D431" s="3"/>
     </row>
-    <row r="432" spans="1:4" ht="12.75">
+    <row r="432" spans="1:4" ht="13">
       <c r="A432" s="3"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
       <c r="D432" s="3"/>
     </row>
-    <row r="433" spans="1:4" ht="12.75">
+    <row r="433" spans="1:4" ht="13">
       <c r="A433" s="3"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
       <c r="D433" s="3"/>
     </row>
-    <row r="434" spans="1:4" ht="12.75">
+    <row r="434" spans="1:4" ht="13">
       <c r="A434" s="3"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
       <c r="D434" s="3"/>
     </row>
-    <row r="435" spans="1:4" ht="12.75">
+    <row r="435" spans="1:4" ht="13">
       <c r="A435" s="3"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
       <c r="D435" s="3"/>
     </row>
-    <row r="436" spans="1:4" ht="12.75">
+    <row r="436" spans="1:4" ht="13">
       <c r="A436" s="3"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
       <c r="D436" s="3"/>
     </row>
-    <row r="437" spans="1:4" ht="12.75">
+    <row r="437" spans="1:4" ht="13">
       <c r="A437" s="3"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
       <c r="D437" s="3"/>
     </row>
-    <row r="438" spans="1:4" ht="12.75">
+    <row r="438" spans="1:4" ht="13">
       <c r="A438" s="3"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
       <c r="D438" s="3"/>
     </row>
-    <row r="439" spans="1:4" ht="12.75">
+    <row r="439" spans="1:4" ht="13">
       <c r="A439" s="3"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
       <c r="D439" s="3"/>
     </row>
-    <row r="440" spans="1:4" ht="12.75">
+    <row r="440" spans="1:4" ht="13">
       <c r="A440" s="3"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
       <c r="D440" s="3"/>
     </row>
-    <row r="441" spans="1:4" ht="12.75">
+    <row r="441" spans="1:4" ht="13">
       <c r="A441" s="3"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
       <c r="D441" s="3"/>
     </row>
-    <row r="442" spans="1:4" ht="12.75">
+    <row r="442" spans="1:4" ht="13">
       <c r="A442" s="3"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
       <c r="D442" s="3"/>
     </row>
-    <row r="443" spans="1:4" ht="12.75">
+    <row r="443" spans="1:4" ht="13">
       <c r="A443" s="3"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
       <c r="D443" s="3"/>
     </row>
-    <row r="444" spans="1:4" ht="12.75">
+    <row r="444" spans="1:4" ht="13">
       <c r="A444" s="3"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
       <c r="D444" s="3"/>
     </row>
-    <row r="445" spans="1:4" ht="12.75">
+    <row r="445" spans="1:4" ht="13">
       <c r="A445" s="3"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
       <c r="D445" s="3"/>
     </row>
-    <row r="446" spans="1:4" ht="12.75">
+    <row r="446" spans="1:4" ht="13">
       <c r="A446" s="3"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
       <c r="D446" s="3"/>
     </row>
-    <row r="447" spans="1:4" ht="12.75">
+    <row r="447" spans="1:4" ht="13">
       <c r="A447" s="3"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
       <c r="D447" s="3"/>
     </row>
-    <row r="448" spans="1:4" ht="12.75">
+    <row r="448" spans="1:4" ht="13">
       <c r="A448" s="3"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
       <c r="D448" s="3"/>
     </row>
-    <row r="449" spans="1:4" ht="12.75">
+    <row r="449" spans="1:4" ht="13">
       <c r="A449" s="3"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
       <c r="D449" s="3"/>
     </row>
-    <row r="450" spans="1:4" ht="12.75">
+    <row r="450" spans="1:4" ht="13">
       <c r="A450" s="3"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
       <c r="D450" s="3"/>
     </row>
-    <row r="451" spans="1:4" ht="12.75">
+    <row r="451" spans="1:4" ht="13">
       <c r="A451" s="3"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
       <c r="D451" s="3"/>
     </row>
-    <row r="452" spans="1:4" ht="12.75">
+    <row r="452" spans="1:4" ht="13">
       <c r="A452" s="3"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
       <c r="D452" s="3"/>
     </row>
-    <row r="453" spans="1:4" ht="12.75">
+    <row r="453" spans="1:4" ht="13">
       <c r="A453" s="3"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="3"/>
     </row>
-    <row r="454" spans="1:4" ht="12.75">
+    <row r="454" spans="1:4" ht="13">
       <c r="A454" s="3"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
       <c r="D454" s="3"/>
     </row>
-    <row r="455" spans="1:4" ht="12.75">
+    <row r="455" spans="1:4" ht="13">
       <c r="A455" s="3"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
       <c r="D455" s="3"/>
     </row>
-    <row r="456" spans="1:4" ht="12.75">
+    <row r="456" spans="1:4" ht="13">
       <c r="A456" s="3"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
       <c r="D456" s="3"/>
     </row>
-    <row r="457" spans="1:4" ht="12.75">
+    <row r="457" spans="1:4" ht="13">
       <c r="A457" s="3"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
       <c r="D457" s="3"/>
     </row>
-    <row r="458" spans="1:4" ht="12.75">
+    <row r="458" spans="1:4" ht="13">
       <c r="A458" s="3"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
       <c r="D458" s="3"/>
     </row>
-    <row r="459" spans="1:4" ht="12.75">
+    <row r="459" spans="1:4" ht="13">
       <c r="A459" s="3"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
       <c r="D459" s="3"/>
     </row>
-    <row r="460" spans="1:4" ht="12.75">
+    <row r="460" spans="1:4" ht="13">
       <c r="A460" s="3"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
       <c r="D460" s="3"/>
     </row>
-    <row r="461" spans="1:4" ht="12.75">
+    <row r="461" spans="1:4" ht="13">
       <c r="A461" s="3"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
       <c r="D461" s="3"/>
     </row>
-    <row r="462" spans="1:4" ht="12.75">
+    <row r="462" spans="1:4" ht="13">
       <c r="A462" s="3"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
       <c r="D462" s="3"/>
     </row>
-    <row r="463" spans="1:4" ht="12.75">
+    <row r="463" spans="1:4" ht="13">
       <c r="A463" s="3"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
       <c r="D463" s="3"/>
     </row>
-    <row r="464" spans="1:4" ht="12.75">
+    <row r="464" spans="1:4" ht="13">
       <c r="A464" s="3"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
       <c r="D464" s="3"/>
     </row>
-    <row r="465" spans="1:4" ht="12.75">
+    <row r="465" spans="1:4" ht="13">
       <c r="A465" s="3"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
       <c r="D465" s="3"/>
     </row>
-    <row r="466" spans="1:4" ht="12.75">
+    <row r="466" spans="1:4" ht="13">
       <c r="A466" s="3"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
       <c r="D466" s="3"/>
     </row>
-    <row r="467" spans="1:4" ht="12.75">
+    <row r="467" spans="1:4" ht="13">
       <c r="A467" s="3"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
       <c r="D467" s="3"/>
     </row>
-    <row r="468" spans="1:4" ht="12.75">
+    <row r="468" spans="1:4" ht="13">
       <c r="A468" s="3"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
       <c r="D468" s="3"/>
     </row>
-    <row r="469" spans="1:4" ht="12.75">
+    <row r="469" spans="1:4" ht="13">
       <c r="A469" s="3"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
       <c r="D469" s="3"/>
     </row>
-    <row r="470" spans="1:4" ht="12.75">
+    <row r="470" spans="1:4" ht="13">
       <c r="A470" s="3"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
       <c r="D470" s="3"/>
     </row>
-    <row r="471" spans="1:4" ht="12.75">
+    <row r="471" spans="1:4" ht="13">
       <c r="A471" s="3"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
       <c r="D471" s="3"/>
     </row>
-    <row r="472" spans="1:4" ht="12.75">
+    <row r="472" spans="1:4" ht="13">
       <c r="A472" s="3"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
       <c r="D472" s="3"/>
     </row>
-    <row r="473" spans="1:4" ht="12.75">
+    <row r="473" spans="1:4" ht="13">
       <c r="A473" s="3"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
       <c r="D473" s="3"/>
     </row>
-    <row r="474" spans="1:4" ht="12.75">
+    <row r="474" spans="1:4" ht="13">
       <c r="A474" s="3"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
       <c r="D474" s="3"/>
     </row>
-    <row r="475" spans="1:4" ht="12.75">
+    <row r="475" spans="1:4" ht="13">
       <c r="A475" s="3"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
       <c r="D475" s="3"/>
     </row>
-    <row r="476" spans="1:4" ht="12.75">
+    <row r="476" spans="1:4" ht="13">
       <c r="A476" s="3"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
       <c r="D476" s="3"/>
     </row>
-    <row r="477" spans="1:4" ht="12.75">
+    <row r="477" spans="1:4" ht="13">
       <c r="A477" s="3"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
       <c r="D477" s="3"/>
     </row>
-    <row r="478" spans="1:4" ht="12.75">
+    <row r="478" spans="1:4" ht="13">
       <c r="A478" s="3"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
       <c r="D478" s="3"/>
     </row>
-    <row r="479" spans="1:4" ht="12.75">
+    <row r="479" spans="1:4" ht="13">
       <c r="A479" s="3"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
       <c r="D479" s="3"/>
     </row>
-    <row r="480" spans="1:4" ht="12.75">
+    <row r="480" spans="1:4" ht="13">
       <c r="A480" s="3"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
       <c r="D480" s="3"/>
     </row>
-    <row r="481" spans="1:4" ht="12.75">
+    <row r="481" spans="1:4" ht="13">
       <c r="A481" s="3"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
       <c r="D481" s="3"/>
     </row>
-    <row r="482" spans="1:4" ht="12.75">
+    <row r="482" spans="1:4" ht="13">
       <c r="A482" s="3"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
       <c r="D482" s="3"/>
     </row>
-    <row r="483" spans="1:4" ht="12.75">
+    <row r="483" spans="1:4" ht="13">
       <c r="A483" s="3"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
       <c r="D483" s="3"/>
     </row>
-    <row r="484" spans="1:4" ht="12.75">
+    <row r="484" spans="1:4" ht="13">
       <c r="A484" s="3"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
       <c r="D484" s="3"/>
     </row>
-    <row r="485" spans="1:4" ht="12.75">
+    <row r="485" spans="1:4" ht="13">
       <c r="A485" s="3"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
       <c r="D485" s="3"/>
     </row>
-    <row r="486" spans="1:4" ht="12.75">
+    <row r="486" spans="1:4" ht="13">
       <c r="A486" s="3"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
       <c r="D486" s="3"/>
     </row>
-    <row r="487" spans="1:4" ht="12.75">
+    <row r="487" spans="1:4" ht="13">
       <c r="A487" s="3"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
       <c r="D487" s="3"/>
     </row>
-    <row r="488" spans="1:4" ht="12.75">
+    <row r="488" spans="1:4" ht="13">
       <c r="A488" s="3"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
       <c r="D488" s="3"/>
     </row>
-    <row r="489" spans="1:4" ht="12.75">
+    <row r="489" spans="1:4" ht="13">
       <c r="A489" s="3"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
       <c r="D489" s="3"/>
     </row>
-    <row r="490" spans="1:4" ht="12.75">
+    <row r="490" spans="1:4" ht="13">
       <c r="A490" s="3"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
       <c r="D490" s="3"/>
     </row>
-    <row r="491" spans="1:4" ht="12.75">
+    <row r="491" spans="1:4" ht="13">
       <c r="A491" s="3"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
       <c r="D491" s="3"/>
     </row>
-    <row r="492" spans="1:4" ht="12.75">
+    <row r="492" spans="1:4" ht="13">
       <c r="A492" s="3"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
       <c r="D492" s="3"/>
     </row>
-    <row r="493" spans="1:4" ht="12.75">
+    <row r="493" spans="1:4" ht="13">
       <c r="A493" s="3"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
       <c r="D493" s="3"/>
     </row>
-    <row r="494" spans="1:4" ht="12.75">
+    <row r="494" spans="1:4" ht="13">
       <c r="A494" s="3"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
       <c r="D494" s="3"/>
     </row>
-    <row r="495" spans="1:4" ht="12.75">
+    <row r="495" spans="1:4" ht="13">
       <c r="A495" s="3"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
       <c r="D495" s="3"/>
     </row>
-    <row r="496" spans="1:4" ht="12.75">
+    <row r="496" spans="1:4" ht="13">
       <c r="A496" s="3"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
       <c r="D496" s="3"/>
     </row>
-    <row r="497" spans="1:4" ht="12.75">
+    <row r="497" spans="1:4" ht="13">
       <c r="A497" s="3"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
       <c r="D497" s="3"/>
     </row>
-    <row r="498" spans="1:4" ht="12.75">
+    <row r="498" spans="1:4" ht="13">
       <c r="A498" s="3"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
       <c r="D498" s="3"/>
     </row>
-    <row r="499" spans="1:4" ht="12.75">
+    <row r="499" spans="1:4" ht="13">
       <c r="A499" s="3"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
       <c r="D499" s="3"/>
     </row>
-    <row r="500" spans="1:4" ht="12.75">
+    <row r="500" spans="1:4" ht="13">
       <c r="A500" s="3"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
       <c r="D500" s="3"/>
     </row>
-    <row r="501" spans="1:4" ht="12.75">
+    <row r="501" spans="1:4" ht="13">
       <c r="A501" s="3"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
       <c r="D501" s="3"/>
     </row>
-    <row r="502" spans="1:4" ht="12.75">
+    <row r="502" spans="1:4" ht="13">
       <c r="A502" s="3"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
       <c r="D502" s="3"/>
     </row>
-    <row r="503" spans="1:4" ht="12.75">
+    <row r="503" spans="1:4" ht="13">
       <c r="A503" s="3"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
       <c r="D503" s="3"/>
     </row>
-    <row r="504" spans="1:4" ht="12.75">
+    <row r="504" spans="1:4" ht="13">
       <c r="A504" s="3"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
       <c r="D504" s="3"/>
     </row>
-    <row r="505" spans="1:4" ht="12.75">
+    <row r="505" spans="1:4" ht="13">
       <c r="A505" s="3"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
       <c r="D505" s="3"/>
     </row>
-    <row r="506" spans="1:4" ht="12.75">
+    <row r="506" spans="1:4" ht="13">
       <c r="A506" s="3"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
       <c r="D506" s="3"/>
     </row>
-    <row r="507" spans="1:4" ht="12.75">
+    <row r="507" spans="1:4" ht="13">
       <c r="A507" s="3"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
       <c r="D507" s="3"/>
     </row>
-    <row r="508" spans="1:4" ht="12.75">
+    <row r="508" spans="1:4" ht="13">
       <c r="A508" s="3"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
       <c r="D508" s="3"/>
     </row>
-    <row r="509" spans="1:4" ht="12.75">
+    <row r="509" spans="1:4" ht="13">
       <c r="A509" s="3"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
       <c r="D509" s="3"/>
     </row>
-    <row r="510" spans="1:4" ht="12.75">
+    <row r="510" spans="1:4" ht="13">
       <c r="A510" s="3"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
       <c r="D510" s="3"/>
     </row>
-    <row r="511" spans="1:4" ht="12.75">
+    <row r="511" spans="1:4" ht="13">
       <c r="A511" s="3"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
       <c r="D511" s="3"/>
     </row>
-    <row r="512" spans="1:4" ht="12.75">
+    <row r="512" spans="1:4" ht="13">
       <c r="A512" s="3"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
       <c r="D512" s="3"/>
     </row>
-    <row r="513" spans="1:4" ht="12.75">
+    <row r="513" spans="1:4" ht="13">
       <c r="A513" s="3"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
       <c r="D513" s="3"/>
     </row>
-    <row r="514" spans="1:4" ht="12.75">
+    <row r="514" spans="1:4" ht="13">
       <c r="A514" s="3"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
       <c r="D514" s="3"/>
     </row>
-    <row r="515" spans="1:4" ht="12.75">
+    <row r="515" spans="1:4" ht="13">
       <c r="A515" s="3"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
       <c r="D515" s="3"/>
     </row>
-    <row r="516" spans="1:4" ht="12.75">
+    <row r="516" spans="1:4" ht="13">
       <c r="A516" s="3"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
       <c r="D516" s="3"/>
     </row>
-    <row r="517" spans="1:4" ht="12.75">
+    <row r="517" spans="1:4" ht="13">
       <c r="A517" s="3"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
       <c r="D517" s="3"/>
     </row>
-    <row r="518" spans="1:4" ht="12.75">
+    <row r="518" spans="1:4" ht="13">
       <c r="A518" s="3"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
       <c r="D518" s="3"/>
     </row>
-    <row r="519" spans="1:4" ht="12.75">
+    <row r="519" spans="1:4" ht="13">
       <c r="A519" s="3"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
       <c r="D519" s="3"/>
     </row>
-    <row r="520" spans="1:4" ht="12.75">
+    <row r="520" spans="1:4" ht="13">
       <c r="A520" s="3"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
       <c r="D520" s="3"/>
     </row>
-    <row r="521" spans="1:4" ht="12.75">
+    <row r="521" spans="1:4" ht="13">
       <c r="A521" s="3"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
       <c r="D521" s="3"/>
     </row>
-    <row r="522" spans="1:4" ht="12.75">
+    <row r="522" spans="1:4" ht="13">
       <c r="A522" s="3"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
       <c r="D522" s="3"/>
     </row>
-    <row r="523" spans="1:4" ht="12.75">
+    <row r="523" spans="1:4" ht="13">
       <c r="A523" s="3"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
       <c r="D523" s="3"/>
     </row>
-    <row r="524" spans="1:4" ht="12.75">
+    <row r="524" spans="1:4" ht="13">
       <c r="A524" s="3"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
       <c r="D524" s="3"/>
     </row>
-    <row r="525" spans="1:4" ht="12.75">
+    <row r="525" spans="1:4" ht="13">
       <c r="A525" s="3"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
       <c r="D525" s="3"/>
     </row>
-    <row r="526" spans="1:4" ht="12.75">
+    <row r="526" spans="1:4" ht="13">
       <c r="A526" s="3"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
       <c r="D526" s="3"/>
     </row>
-    <row r="527" spans="1:4" ht="12.75">
+    <row r="527" spans="1:4" ht="13">
       <c r="A527" s="3"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
       <c r="D527" s="3"/>
     </row>
-    <row r="528" spans="1:4" ht="12.75">
+    <row r="528" spans="1:4" ht="13">
       <c r="A528" s="3"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
       <c r="D528" s="3"/>
     </row>
-    <row r="529" spans="1:4" ht="12.75">
+    <row r="529" spans="1:4" ht="13">
       <c r="A529" s="3"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
       <c r="D529" s="3"/>
     </row>
-    <row r="530" spans="1:4" ht="12.75">
+    <row r="530" spans="1:4" ht="13">
       <c r="A530" s="3"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
       <c r="D530" s="3"/>
     </row>
-    <row r="531" spans="1:4" ht="12.75">
+    <row r="531" spans="1:4" ht="13">
       <c r="A531" s="3"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
       <c r="D531" s="3"/>
     </row>
-    <row r="532" spans="1:4" ht="12.75">
+    <row r="532" spans="1:4" ht="13">
       <c r="A532" s="3"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
       <c r="D532" s="3"/>
     </row>
-    <row r="533" spans="1:4" ht="12.75">
+    <row r="533" spans="1:4" ht="13">
       <c r="A533" s="3"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
       <c r="D533" s="3"/>
     </row>
-    <row r="534" spans="1:4" ht="12.75">
+    <row r="534" spans="1:4" ht="13">
       <c r="A534" s="3"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
       <c r="D534" s="3"/>
     </row>
-    <row r="535" spans="1:4" ht="12.75">
+    <row r="535" spans="1:4" ht="13">
       <c r="A535" s="3"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
       <c r="D535" s="3"/>
     </row>
-    <row r="536" spans="1:4" ht="12.75">
+    <row r="536" spans="1:4" ht="13">
       <c r="A536" s="3"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
       <c r="D536" s="3"/>
     </row>
-    <row r="537" spans="1:4" ht="12.75">
+    <row r="537" spans="1:4" ht="13">
       <c r="A537" s="3"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
       <c r="D537" s="3"/>
     </row>
-    <row r="538" spans="1:4" ht="12.75">
+    <row r="538" spans="1:4" ht="13">
       <c r="A538" s="3"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
       <c r="D538" s="3"/>
     </row>
-    <row r="539" spans="1:4" ht="12.75">
+    <row r="539" spans="1:4" ht="13">
       <c r="A539" s="3"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
       <c r="D539" s="3"/>
     </row>
-    <row r="540" spans="1:4" ht="12.75">
+    <row r="540" spans="1:4" ht="13">
       <c r="A540" s="3"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
       <c r="D540" s="3"/>
     </row>
-    <row r="541" spans="1:4" ht="12.75">
+    <row r="541" spans="1:4" ht="13">
       <c r="A541" s="3"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
       <c r="D541" s="3"/>
     </row>
-    <row r="542" spans="1:4" ht="12.75">
+    <row r="542" spans="1:4" ht="13">
       <c r="A542" s="3"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
       <c r="D542" s="3"/>
     </row>
-    <row r="543" spans="1:4" ht="12.75">
+    <row r="543" spans="1:4" ht="13">
       <c r="A543" s="3"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
       <c r="D543" s="3"/>
     </row>
-    <row r="544" spans="1:4" ht="12.75">
+    <row r="544" spans="1:4" ht="13">
       <c r="A544" s="3"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
       <c r="D544" s="3"/>
     </row>
-    <row r="545" spans="1:4" ht="12.75">
+    <row r="545" spans="1:4" ht="13">
       <c r="A545" s="3"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
       <c r="D545" s="3"/>
     </row>
-    <row r="546" spans="1:4" ht="12.75">
+    <row r="546" spans="1:4" ht="13">
       <c r="A546" s="3"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
       <c r="D546" s="3"/>
     </row>
-    <row r="547" spans="1:4" ht="12.75">
+    <row r="547" spans="1:4" ht="13">
       <c r="A547" s="3"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
       <c r="D547" s="3"/>
     </row>
-    <row r="548" spans="1:4" ht="12.75">
+    <row r="548" spans="1:4" ht="13">
       <c r="A548" s="3"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
       <c r="D548" s="3"/>
     </row>
-    <row r="549" spans="1:4" ht="12.75">
+    <row r="549" spans="1:4" ht="13">
       <c r="A549" s="3"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
       <c r="D549" s="3"/>
     </row>
-    <row r="550" spans="1:4" ht="12.75">
+    <row r="550" spans="1:4" ht="13">
       <c r="A550" s="3"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
       <c r="D550" s="3"/>
     </row>
-    <row r="551" spans="1:4" ht="12.75">
+    <row r="551" spans="1:4" ht="13">
       <c r="A551" s="3"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
       <c r="D551" s="3"/>
     </row>
-    <row r="552" spans="1:4" ht="12.75">
+    <row r="552" spans="1:4" ht="13">
       <c r="A552" s="3"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
       <c r="D552" s="3"/>
     </row>
-    <row r="553" spans="1:4" ht="12.75">
+    <row r="553" spans="1:4" ht="13">
       <c r="A553" s="3"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
       <c r="D553" s="3"/>
     </row>
-    <row r="554" spans="1:4" ht="12.75">
+    <row r="554" spans="1:4" ht="13">
       <c r="A554" s="3"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
       <c r="D554" s="3"/>
     </row>
-    <row r="555" spans="1:4" ht="12.75">
+    <row r="555" spans="1:4" ht="13">
       <c r="A555" s="3"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
       <c r="D555" s="3"/>
     </row>
-    <row r="556" spans="1:4" ht="12.75">
+    <row r="556" spans="1:4" ht="13">
       <c r="A556" s="3"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
       <c r="D556" s="3"/>
     </row>
-    <row r="557" spans="1:4" ht="12.75">
+    <row r="557" spans="1:4" ht="13">
       <c r="A557" s="3"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
       <c r="D557" s="3"/>
     </row>
-    <row r="558" spans="1:4" ht="12.75">
+    <row r="558" spans="1:4" ht="13">
       <c r="A558" s="3"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
       <c r="D558" s="3"/>
     </row>
-    <row r="559" spans="1:4" ht="12.75">
+    <row r="559" spans="1:4" ht="13">
       <c r="A559" s="3"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
       <c r="D559" s="3"/>
     </row>
-    <row r="560" spans="1:4" ht="12.75">
+    <row r="560" spans="1:4" ht="13">
       <c r="A560" s="3"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
       <c r="D560" s="3"/>
     </row>
-    <row r="561" spans="1:4" ht="12.75">
+    <row r="561" spans="1:4" ht="13">
       <c r="A561" s="3"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
       <c r="D561" s="3"/>
     </row>
-    <row r="562" spans="1:4" ht="12.75">
+    <row r="562" spans="1:4" ht="13">
       <c r="A562" s="3"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
       <c r="D562" s="3"/>
     </row>
-    <row r="563" spans="1:4" ht="12.75">
+    <row r="563" spans="1:4" ht="13">
       <c r="A563" s="3"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
       <c r="D563" s="3"/>
     </row>
-    <row r="564" spans="1:4" ht="12.75">
+    <row r="564" spans="1:4" ht="13">
       <c r="A564" s="3"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
       <c r="D564" s="3"/>
     </row>
-    <row r="565" spans="1:4" ht="12.75">
+    <row r="565" spans="1:4" ht="13">
       <c r="A565" s="3"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
       <c r="D565" s="3"/>
     </row>
-    <row r="566" spans="1:4" ht="12.75">
+    <row r="566" spans="1:4" ht="13">
       <c r="A566" s="3"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
       <c r="D566" s="3"/>
     </row>
-    <row r="567" spans="1:4" ht="12.75">
+    <row r="567" spans="1:4" ht="13">
       <c r="A567" s="3"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
       <c r="D567" s="3"/>
     </row>
-    <row r="568" spans="1:4" ht="12.75">
+    <row r="568" spans="1:4" ht="13">
       <c r="A568" s="3"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
       <c r="D568" s="3"/>
     </row>
-    <row r="569" spans="1:4" ht="12.75">
+    <row r="569" spans="1:4" ht="13">
       <c r="A569" s="3"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
       <c r="D569" s="3"/>
     </row>
-    <row r="570" spans="1:4" ht="12.75">
+    <row r="570" spans="1:4" ht="13">
       <c r="A570" s="3"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
       <c r="D570" s="3"/>
     </row>
-    <row r="571" spans="1:4" ht="12.75">
+    <row r="571" spans="1:4" ht="13">
       <c r="A571" s="3"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
       <c r="D571" s="3"/>
     </row>
-    <row r="572" spans="1:4" ht="12.75">
+    <row r="572" spans="1:4" ht="13">
       <c r="A572" s="3"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
       <c r="D572" s="3"/>
     </row>
-    <row r="573" spans="1:4" ht="12.75">
+    <row r="573" spans="1:4" ht="13">
       <c r="A573" s="3"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
       <c r="D573" s="3"/>
     </row>
-    <row r="574" spans="1:4" ht="12.75">
+    <row r="574" spans="1:4" ht="13">
       <c r="A574" s="3"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
       <c r="D574" s="3"/>
     </row>
-    <row r="575" spans="1:4" ht="12.75">
+    <row r="575" spans="1:4" ht="13">
       <c r="A575" s="3"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
       <c r="D575" s="3"/>
     </row>
-    <row r="576" spans="1:4" ht="12.75">
+    <row r="576" spans="1:4" ht="13">
       <c r="A576" s="3"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
       <c r="D576" s="3"/>
     </row>
-    <row r="577" spans="1:4" ht="12.75">
+    <row r="577" spans="1:4" ht="13">
       <c r="A577" s="3"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
       <c r="D577" s="3"/>
     </row>
-    <row r="578" spans="1:4" ht="12.75">
+    <row r="578" spans="1:4" ht="13">
       <c r="A578" s="3"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
       <c r="D578" s="3"/>
     </row>
-    <row r="579" spans="1:4" ht="12.75">
+    <row r="579" spans="1:4" ht="13">
       <c r="A579" s="3"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
       <c r="D579" s="3"/>
     </row>
-    <row r="580" spans="1:4" ht="12.75">
+    <row r="580" spans="1:4" ht="13">
       <c r="A580" s="3"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
       <c r="D580" s="3"/>
     </row>
-    <row r="581" spans="1:4" ht="12.75">
+    <row r="581" spans="1:4" ht="13">
       <c r="A581" s="3"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
       <c r="D581" s="3"/>
     </row>
-    <row r="582" spans="1:4" ht="12.75">
+    <row r="582" spans="1:4" ht="13">
       <c r="A582" s="3"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
       <c r="D582" s="3"/>
     </row>
-    <row r="583" spans="1:4" ht="12.75">
+    <row r="583" spans="1:4" ht="13">
       <c r="A583" s="3"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
       <c r="D583" s="3"/>
     </row>
-    <row r="584" spans="1:4" ht="12.75">
+    <row r="584" spans="1:4" ht="13">
       <c r="A584" s="3"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
       <c r="D584" s="3"/>
     </row>
-    <row r="585" spans="1:4" ht="12.75">
+    <row r="585" spans="1:4" ht="13">
       <c r="A585" s="3"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
       <c r="D585" s="3"/>
     </row>
-    <row r="586" spans="1:4" ht="12.75">
+    <row r="586" spans="1:4" ht="13">
       <c r="A586" s="3"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
       <c r="D586" s="3"/>
     </row>
-    <row r="587" spans="1:4" ht="12.75">
+    <row r="587" spans="1:4" ht="13">
       <c r="A587" s="3"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
       <c r="D587" s="3"/>
     </row>
-    <row r="588" spans="1:4" ht="12.75">
+    <row r="588" spans="1:4" ht="13">
       <c r="A588" s="3"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
       <c r="D588" s="3"/>
     </row>
-    <row r="589" spans="1:4" ht="12.75">
+    <row r="589" spans="1:4" ht="13">
       <c r="A589" s="3"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
       <c r="D589" s="3"/>
     </row>
-    <row r="590" spans="1:4" ht="12.75">
+    <row r="590" spans="1:4" ht="13">
       <c r="A590" s="3"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
       <c r="D590" s="3"/>
     </row>
-    <row r="591" spans="1:4" ht="12.75">
+    <row r="591" spans="1:4" ht="13">
       <c r="A591" s="3"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
       <c r="D591" s="3"/>
     </row>
-    <row r="592" spans="1:4" ht="12.75">
+    <row r="592" spans="1:4" ht="13">
       <c r="A592" s="3"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
       <c r="D592" s="3"/>
     </row>
-    <row r="593" spans="1:4" ht="12.75">
+    <row r="593" spans="1:4" ht="13">
       <c r="A593" s="3"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
       <c r="D593" s="3"/>
     </row>
-    <row r="594" spans="1:4" ht="12.75">
+    <row r="594" spans="1:4" ht="13">
       <c r="A594" s="3"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
       <c r="D594" s="3"/>
     </row>
-    <row r="595" spans="1:4" ht="12.75">
+    <row r="595" spans="1:4" ht="13">
       <c r="A595" s="3"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
       <c r="D595" s="3"/>
     </row>
-    <row r="596" spans="1:4" ht="12.75">
+    <row r="596" spans="1:4" ht="13">
       <c r="A596" s="3"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
       <c r="D596" s="3"/>
     </row>
-    <row r="597" spans="1:4" ht="12.75">
+    <row r="597" spans="1:4" ht="13">
       <c r="A597" s="3"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
       <c r="D597" s="3"/>
     </row>
-    <row r="598" spans="1:4" ht="12.75">
+    <row r="598" spans="1:4" ht="13">
       <c r="A598" s="3"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
       <c r="D598" s="3"/>
     </row>
-    <row r="599" spans="1:4" ht="12.75">
+    <row r="599" spans="1:4" ht="13">
       <c r="A599" s="3"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
       <c r="D599" s="3"/>
     </row>
-    <row r="600" spans="1:4" ht="12.75">
+    <row r="600" spans="1:4" ht="13">
       <c r="A600" s="3"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
       <c r="D600" s="3"/>
     </row>
-    <row r="601" spans="1:4" ht="12.75">
+    <row r="601" spans="1:4" ht="13">
       <c r="A601" s="3"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
       <c r="D601" s="3"/>
     </row>
-    <row r="602" spans="1:4" ht="12.75">
+    <row r="602" spans="1:4" ht="13">
       <c r="A602" s="3"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
       <c r="D602" s="3"/>
     </row>
-    <row r="603" spans="1:4" ht="12.75">
+    <row r="603" spans="1:4" ht="13">
       <c r="A603" s="3"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
       <c r="D603" s="3"/>
     </row>
-    <row r="604" spans="1:4" ht="12.75">
+    <row r="604" spans="1:4" ht="13">
       <c r="A604" s="3"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
       <c r="D604" s="3"/>
     </row>
-    <row r="605" spans="1:4" ht="12.75">
+    <row r="605" spans="1:4" ht="13">
       <c r="A605" s="3"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
       <c r="D605" s="3"/>
     </row>
-    <row r="606" spans="1:4" ht="12.75">
+    <row r="606" spans="1:4" ht="13">
       <c r="A606" s="3"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
       <c r="D606" s="3"/>
     </row>
-    <row r="607" spans="1:4" ht="12.75">
+    <row r="607" spans="1:4" ht="13">
       <c r="A607" s="3"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
       <c r="D607" s="3"/>
     </row>
-    <row r="608" spans="1:4" ht="12.75">
+    <row r="608" spans="1:4" ht="13">
       <c r="A608" s="3"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
       <c r="D608" s="3"/>
     </row>
-    <row r="609" spans="1:4" ht="12.75">
+    <row r="609" spans="1:4" ht="13">
       <c r="A609" s="3"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
       <c r="D609" s="3"/>
     </row>
-    <row r="610" spans="1:4" ht="12.75">
+    <row r="610" spans="1:4" ht="13">
       <c r="A610" s="3"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
       <c r="D610" s="3"/>
     </row>
-    <row r="611" spans="1:4" ht="12.75">
+    <row r="611" spans="1:4" ht="13">
       <c r="A611" s="3"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
       <c r="D611" s="3"/>
     </row>
-    <row r="612" spans="1:4" ht="12.75">
+    <row r="612" spans="1:4" ht="13">
       <c r="A612" s="3"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
       <c r="D612" s="3"/>
     </row>
-    <row r="613" spans="1:4" ht="12.75">
+    <row r="613" spans="1:4" ht="13">
       <c r="A613" s="3"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
       <c r="D613" s="3"/>
     </row>
-    <row r="614" spans="1:4" ht="12.75">
+    <row r="614" spans="1:4" ht="13">
       <c r="A614" s="3"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
       <c r="D614" s="3"/>
     </row>
-    <row r="615" spans="1:4" ht="12.75">
+    <row r="615" spans="1:4" ht="13">
       <c r="A615" s="3"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
       <c r="D615" s="3"/>
     </row>
-    <row r="616" spans="1:4" ht="12.75">
+    <row r="616" spans="1:4" ht="13">
       <c r="A616" s="3"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
       <c r="D616" s="3"/>
     </row>
-    <row r="617" spans="1:4" ht="12.75">
+    <row r="617" spans="1:4" ht="13">
       <c r="A617" s="3"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
       <c r="D617" s="3"/>
     </row>
-    <row r="618" spans="1:4" ht="12.75">
+    <row r="618" spans="1:4" ht="13">
       <c r="A618" s="3"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
       <c r="D618" s="3"/>
     </row>
-    <row r="619" spans="1:4" ht="12.75">
+    <row r="619" spans="1:4" ht="13">
       <c r="A619" s="3"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
       <c r="D619" s="3"/>
     </row>
-    <row r="620" spans="1:4" ht="12.75">
+    <row r="620" spans="1:4" ht="13">
       <c r="A620" s="3"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
       <c r="D620" s="3"/>
     </row>
-    <row r="621" spans="1:4" ht="12.75">
+    <row r="621" spans="1:4" ht="13">
       <c r="A621" s="3"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
       <c r="D621" s="3"/>
     </row>
-    <row r="622" spans="1:4" ht="12.75">
+    <row r="622" spans="1:4" ht="13">
       <c r="A622" s="3"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
       <c r="D622" s="3"/>
     </row>
-    <row r="623" spans="1:4" ht="12.75">
+    <row r="623" spans="1:4" ht="13">
       <c r="A623" s="3"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
       <c r="D623" s="3"/>
     </row>
-    <row r="624" spans="1:4" ht="12.75">
+    <row r="624" spans="1:4" ht="13">
       <c r="A624" s="3"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
       <c r="D624" s="3"/>
     </row>
-    <row r="625" spans="1:4" ht="12.75">
+    <row r="625" spans="1:4" ht="13">
       <c r="A625" s="3"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
       <c r="D625" s="3"/>
     </row>
-    <row r="626" spans="1:4" ht="12.75">
+    <row r="626" spans="1:4" ht="13">
       <c r="A626" s="3"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
       <c r="D626" s="3"/>
     </row>
-    <row r="627" spans="1:4" ht="12.75">
+    <row r="627" spans="1:4" ht="13">
       <c r="A627" s="3"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
       <c r="D627" s="3"/>
     </row>
-    <row r="628" spans="1:4" ht="12.75">
+    <row r="628" spans="1:4" ht="13">
       <c r="A628" s="3"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
       <c r="D628" s="3"/>
     </row>
-    <row r="629" spans="1:4" ht="12.75">
+    <row r="629" spans="1:4" ht="13">
       <c r="A629" s="3"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
       <c r="D629" s="3"/>
     </row>
-    <row r="630" spans="1:4" ht="12.75">
+    <row r="630" spans="1:4" ht="13">
       <c r="A630" s="3"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
       <c r="D630" s="3"/>
     </row>
-    <row r="631" spans="1:4" ht="12.75">
+    <row r="631" spans="1:4" ht="13">
       <c r="A631" s="3"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
       <c r="D631" s="3"/>
     </row>
-    <row r="632" spans="1:4" ht="12.75">
+    <row r="632" spans="1:4" ht="13">
       <c r="A632" s="3"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
       <c r="D632" s="3"/>
     </row>
-    <row r="633" spans="1:4" ht="12.75">
+    <row r="633" spans="1:4" ht="13">
       <c r="A633" s="3"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
       <c r="D633" s="3"/>
     </row>
-    <row r="634" spans="1:4" ht="12.75">
+    <row r="634" spans="1:4" ht="13">
       <c r="A634" s="3"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
       <c r="D634" s="3"/>
     </row>
-    <row r="635" spans="1:4" ht="12.75">
+    <row r="635" spans="1:4" ht="13">
       <c r="A635" s="3"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
       <c r="D635" s="3"/>
     </row>
-    <row r="636" spans="1:4" ht="12.75">
+    <row r="636" spans="1:4" ht="13">
       <c r="A636" s="3"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
       <c r="D636" s="3"/>
     </row>
-    <row r="637" spans="1:4" ht="12.75">
+    <row r="637" spans="1:4" ht="13">
       <c r="A637" s="3"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
       <c r="D637" s="3"/>
     </row>
-    <row r="638" spans="1:4" ht="12.75">
+    <row r="638" spans="1:4" ht="13">
       <c r="A638" s="3"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
       <c r="D638" s="3"/>
     </row>
-    <row r="639" spans="1:4" ht="12.75">
+    <row r="639" spans="1:4" ht="13">
       <c r="A639" s="3"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
       <c r="D639" s="3"/>
     </row>
-    <row r="640" spans="1:4" ht="12.75">
+    <row r="640" spans="1:4" ht="13">
       <c r="A640" s="3"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
       <c r="D640" s="3"/>
     </row>
-    <row r="641" spans="1:4" ht="12.75">
+    <row r="641" spans="1:4" ht="13">
       <c r="A641" s="3"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
       <c r="D641" s="3"/>
     </row>
-    <row r="642" spans="1:4" ht="12.75">
+    <row r="642" spans="1:4" ht="13">
       <c r="A642" s="3"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
       <c r="D642" s="3"/>
     </row>
-    <row r="643" spans="1:4" ht="12.75">
+    <row r="643" spans="1:4" ht="13">
       <c r="A643" s="3"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
       <c r="D643" s="3"/>
     </row>
-    <row r="644" spans="1:4" ht="12.75">
+    <row r="644" spans="1:4" ht="13">
       <c r="A644" s="3"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
       <c r="D644" s="3"/>
     </row>
-    <row r="645" spans="1:4" ht="12.75">
+    <row r="645" spans="1:4" ht="13">
       <c r="A645" s="3"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
       <c r="D645" s="3"/>
     </row>
-    <row r="646" spans="1:4" ht="12.75">
+    <row r="646" spans="1:4" ht="13">
       <c r="A646" s="3"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
       <c r="D646" s="3"/>
     </row>
-    <row r="647" spans="1:4" ht="12.75">
+    <row r="647" spans="1:4" ht="13">
       <c r="A647" s="3"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
       <c r="D647" s="3"/>
     </row>
-    <row r="648" spans="1:4" ht="12.75">
+    <row r="648" spans="1:4" ht="13">
       <c r="A648" s="3"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
       <c r="D648" s="3"/>
     </row>
-    <row r="649" spans="1:4" ht="12.75">
+    <row r="649" spans="1:4" ht="13">
       <c r="A649" s="3"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
       <c r="D649" s="3"/>
     </row>
-    <row r="650" spans="1:4" ht="12.75">
+    <row r="650" spans="1:4" ht="13">
       <c r="A650" s="3"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
       <c r="D650" s="3"/>
     </row>
-    <row r="651" spans="1:4" ht="12.75">
+    <row r="651" spans="1:4" ht="13">
       <c r="A651" s="3"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
       <c r="D651" s="3"/>
     </row>
-    <row r="652" spans="1:4" ht="12.75">
+    <row r="652" spans="1:4" ht="13">
       <c r="A652" s="3"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
       <c r="D652" s="3"/>
     </row>
-    <row r="653" spans="1:4" ht="12.75">
+    <row r="653" spans="1:4" ht="13">
       <c r="A653" s="3"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
       <c r="D653" s="3"/>
     </row>
-    <row r="654" spans="1:4" ht="12.75">
+    <row r="654" spans="1:4" ht="13">
       <c r="A654" s="3"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
       <c r="D654" s="3"/>
     </row>
-    <row r="655" spans="1:4" ht="12.75">
+    <row r="655" spans="1:4" ht="13">
       <c r="A655" s="3"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
       <c r="D655" s="3"/>
     </row>
-    <row r="656" spans="1:4" ht="12.75">
+    <row r="656" spans="1:4" ht="13">
       <c r="A656" s="3"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
       <c r="D656" s="3"/>
     </row>
-    <row r="657" spans="1:4" ht="12.75">
+    <row r="657" spans="1:4" ht="13">
       <c r="A657" s="3"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
       <c r="D657" s="3"/>
     </row>
-    <row r="658" spans="1:4" ht="12.75">
+    <row r="658" spans="1:4" ht="13">
       <c r="A658" s="3"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
       <c r="D658" s="3"/>
     </row>
-    <row r="659" spans="1:4" ht="12.75">
+    <row r="659" spans="1:4" ht="13">
       <c r="A659" s="3"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
       <c r="D659" s="3"/>
     </row>
-    <row r="660" spans="1:4" ht="12.75">
+    <row r="660" spans="1:4" ht="13">
       <c r="A660" s="3"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
       <c r="D660" s="3"/>
     </row>
-    <row r="661" spans="1:4" ht="12.75">
+    <row r="661" spans="1:4" ht="13">
       <c r="A661" s="3"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
       <c r="D661" s="3"/>
     </row>
-    <row r="662" spans="1:4" ht="12.75">
+    <row r="662" spans="1:4" ht="13">
       <c r="A662" s="3"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
       <c r="D662" s="3"/>
     </row>
-    <row r="663" spans="1:4" ht="12.75">
+    <row r="663" spans="1:4" ht="13">
       <c r="A663" s="3"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
       <c r="D663" s="3"/>
     </row>
-    <row r="664" spans="1:4" ht="12.75">
+    <row r="664" spans="1:4" ht="13">
       <c r="A664" s="3"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
       <c r="D664" s="3"/>
     </row>
-    <row r="665" spans="1:4" ht="12.75">
+    <row r="665" spans="1:4" ht="13">
       <c r="A665" s="3"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
       <c r="D665" s="3"/>
     </row>
-    <row r="666" spans="1:4" ht="12.75">
+    <row r="666" spans="1:4" ht="13">
       <c r="A666" s="3"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
       <c r="D666" s="3"/>
     </row>
-    <row r="667" spans="1:4" ht="12.75">
+    <row r="667" spans="1:4" ht="13">
       <c r="A667" s="3"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
       <c r="D667" s="3"/>
     </row>
-    <row r="668" spans="1:4" ht="12.75">
+    <row r="668" spans="1:4" ht="13">
       <c r="A668" s="3"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
       <c r="D668" s="3"/>
     </row>
-    <row r="669" spans="1:4" ht="12.75">
+    <row r="669" spans="1:4" ht="13">
       <c r="A669" s="3"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
       <c r="D669" s="3"/>
     </row>
-    <row r="670" spans="1:4" ht="12.75">
+    <row r="670" spans="1:4" ht="13">
       <c r="A670" s="3"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
       <c r="D670" s="3"/>
     </row>
-    <row r="671" spans="1:4" ht="12.75">
+    <row r="671" spans="1:4" ht="13">
       <c r="A671" s="3"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
       <c r="D671" s="3"/>
     </row>
-    <row r="672" spans="1:4" ht="12.75">
+    <row r="672" spans="1:4" ht="13">
       <c r="A672" s="3"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
       <c r="D672" s="3"/>
     </row>
-    <row r="673" spans="1:4" ht="12.75">
+    <row r="673" spans="1:4" ht="13">
       <c r="A673" s="3"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
       <c r="D673" s="3"/>
     </row>
-    <row r="674" spans="1:4" ht="12.75">
+    <row r="674" spans="1:4" ht="13">
       <c r="A674" s="3"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
       <c r="D674" s="3"/>
     </row>
-    <row r="675" spans="1:4" ht="12.75">
+    <row r="675" spans="1:4" ht="13">
       <c r="A675" s="3"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
       <c r="D675" s="3"/>
     </row>
-    <row r="676" spans="1:4" ht="12.75">
+    <row r="676" spans="1:4" ht="13">
       <c r="A676" s="3"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
       <c r="D676" s="3"/>
     </row>
-    <row r="677" spans="1:4" ht="12.75">
+    <row r="677" spans="1:4" ht="13">
       <c r="A677" s="3"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
       <c r="D677" s="3"/>
     </row>
-    <row r="678" spans="1:4" ht="12.75">
+    <row r="678" spans="1:4" ht="13">
       <c r="A678" s="3"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
       <c r="D678" s="3"/>
     </row>
-    <row r="679" spans="1:4" ht="12.75">
+    <row r="679" spans="1:4" ht="13">
       <c r="A679" s="3"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
       <c r="D679" s="3"/>
     </row>
-    <row r="680" spans="1:4" ht="12.75">
+    <row r="680" spans="1:4" ht="13">
       <c r="A680" s="3"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
       <c r="D680" s="3"/>
     </row>
-    <row r="681" spans="1:4" ht="12.75">
+    <row r="681" spans="1:4" ht="13">
       <c r="A681" s="3"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
       <c r="D681" s="3"/>
     </row>
-    <row r="682" spans="1:4" ht="12.75">
+    <row r="682" spans="1:4" ht="13">
       <c r="A682" s="3"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
       <c r="D682" s="3"/>
     </row>
-    <row r="683" spans="1:4" ht="12.75">
+    <row r="683" spans="1:4" ht="13">
       <c r="A683" s="3"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
       <c r="D683" s="3"/>
     </row>
-    <row r="684" spans="1:4" ht="12.75">
+    <row r="684" spans="1:4" ht="13">
       <c r="A684" s="3"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
       <c r="D684" s="3"/>
     </row>
-    <row r="685" spans="1:4" ht="12.75">
+    <row r="685" spans="1:4" ht="13">
       <c r="A685" s="3"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
       <c r="D685" s="3"/>
     </row>
-    <row r="686" spans="1:4" ht="12.75">
+    <row r="686" spans="1:4" ht="13">
       <c r="A686" s="3"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
       <c r="D686" s="3"/>
     </row>
-    <row r="687" spans="1:4" ht="12.75">
+    <row r="687" spans="1:4" ht="13">
       <c r="A687" s="3"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
       <c r="D687" s="3"/>
     </row>
-    <row r="688" spans="1:4" ht="12.75">
+    <row r="688" spans="1:4" ht="13">
       <c r="A688" s="3"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
       <c r="D688" s="3"/>
     </row>
-    <row r="689" spans="1:4" ht="12.75">
+    <row r="689" spans="1:4" ht="13">
       <c r="A689" s="3"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
       <c r="D689" s="3"/>
     </row>
-    <row r="690" spans="1:4" ht="12.75">
+    <row r="690" spans="1:4" ht="13">
       <c r="A690" s="3"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
       <c r="D690" s="3"/>
     </row>
-    <row r="691" spans="1:4" ht="12.75">
+    <row r="691" spans="1:4" ht="13">
       <c r="A691" s="3"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
       <c r="D691" s="3"/>
     </row>
-    <row r="692" spans="1:4" ht="12.75">
+    <row r="692" spans="1:4" ht="13">
       <c r="A692" s="3"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
       <c r="D692" s="3"/>
     </row>
-    <row r="693" spans="1:4" ht="12.75">
+    <row r="693" spans="1:4" ht="13">
       <c r="A693" s="3"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
       <c r="D693" s="3"/>
     </row>
-    <row r="694" spans="1:4" ht="12.75">
+    <row r="694" spans="1:4" ht="13">
       <c r="A694" s="3"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
       <c r="D694" s="3"/>
     </row>
-    <row r="695" spans="1:4" ht="12.75">
+    <row r="695" spans="1:4" ht="13">
       <c r="A695" s="3"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
       <c r="D695" s="3"/>
     </row>
-    <row r="696" spans="1:4" ht="12.75">
+    <row r="696" spans="1:4" ht="13">
       <c r="A696" s="3"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
       <c r="D696" s="3"/>
     </row>
-    <row r="697" spans="1:4" ht="12.75">
+    <row r="697" spans="1:4" ht="13">
       <c r="A697" s="3"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
       <c r="D697" s="3"/>
     </row>
-    <row r="698" spans="1:4" ht="12.75">
+    <row r="698" spans="1:4" ht="13">
       <c r="A698" s="3"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
       <c r="D698" s="3"/>
     </row>
-    <row r="699" spans="1:4" ht="12.75">
+    <row r="699" spans="1:4" ht="13">
       <c r="A699" s="3"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
       <c r="D699" s="3"/>
     </row>
-    <row r="700" spans="1:4" ht="12.75">
+    <row r="700" spans="1:4" ht="13">
       <c r="A700" s="3"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
       <c r="D700" s="3"/>
     </row>
-    <row r="701" spans="1:4" ht="12.75">
+    <row r="701" spans="1:4" ht="13">
       <c r="A701" s="3"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
       <c r="D701" s="3"/>
     </row>
-    <row r="702" spans="1:4" ht="12.75">
+    <row r="702" spans="1:4" ht="13">
       <c r="A702" s="3"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
       <c r="D702" s="3"/>
     </row>
-    <row r="703" spans="1:4" ht="12.75">
+    <row r="703" spans="1:4" ht="13">
       <c r="A703" s="3"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
       <c r="D703" s="3"/>
     </row>
-    <row r="704" spans="1:4" ht="12.75">
+    <row r="704" spans="1:4" ht="13">
       <c r="A704" s="3"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
       <c r="D704" s="3"/>
     </row>
-    <row r="705" spans="1:4" ht="12.75">
+    <row r="705" spans="1:4" ht="13">
       <c r="A705" s="3"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
       <c r="D705" s="3"/>
     </row>
-    <row r="706" spans="1:4" ht="12.75">
+    <row r="706" spans="1:4" ht="13">
       <c r="A706" s="3"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
       <c r="D706" s="3"/>
     </row>
-    <row r="707" spans="1:4" ht="12.75">
+    <row r="707" spans="1:4" ht="13">
       <c r="A707" s="3"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
       <c r="D707" s="3"/>
     </row>
-    <row r="708" spans="1:4" ht="12.75">
+    <row r="708" spans="1:4" ht="13">
       <c r="A708" s="3"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
       <c r="D708" s="3"/>
     </row>
-    <row r="709" spans="1:4" ht="12.75">
+    <row r="709" spans="1:4" ht="13">
       <c r="A709" s="3"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
       <c r="D709" s="3"/>
     </row>
-    <row r="710" spans="1:4" ht="12.75">
+    <row r="710" spans="1:4" ht="13">
       <c r="A710" s="3"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
       <c r="D710" s="3"/>
     </row>
-    <row r="711" spans="1:4" ht="12.75">
+    <row r="711" spans="1:4" ht="13">
       <c r="A711" s="3"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
       <c r="D711" s="3"/>
     </row>
-    <row r="712" spans="1:4" ht="12.75">
+    <row r="712" spans="1:4" ht="13">
       <c r="A712" s="3"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
       <c r="D712" s="3"/>
     </row>
-    <row r="713" spans="1:4" ht="12.75">
+    <row r="713" spans="1:4" ht="13">
       <c r="A713" s="3"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
       <c r="D713" s="3"/>
     </row>
-    <row r="714" spans="1:4" ht="12.75">
+    <row r="714" spans="1:4" ht="13">
       <c r="A714" s="3"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
       <c r="D714" s="3"/>
     </row>
-    <row r="715" spans="1:4" ht="12.75">
+    <row r="715" spans="1:4" ht="13">
       <c r="A715" s="3"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
       <c r="D715" s="3"/>
     </row>
-    <row r="716" spans="1:4" ht="12.75">
+    <row r="716" spans="1:4" ht="13">
       <c r="A716" s="3"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
       <c r="D716" s="3"/>
     </row>
-    <row r="717" spans="1:4" ht="12.75">
+    <row r="717" spans="1:4" ht="13">
       <c r="A717" s="3"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
       <c r="D717" s="3"/>
     </row>
-    <row r="718" spans="1:4" ht="12.75">
+    <row r="718" spans="1:4" ht="13">
       <c r="A718" s="3"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
       <c r="D718" s="3"/>
     </row>
-    <row r="719" spans="1:4" ht="12.75">
+    <row r="719" spans="1:4" ht="13">
       <c r="A719" s="3"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
       <c r="D719" s="3"/>
     </row>
-    <row r="720" spans="1:4" ht="12.75">
+    <row r="720" spans="1:4" ht="13">
       <c r="A720" s="3"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
       <c r="D720" s="3"/>
     </row>
-    <row r="721" spans="1:4" ht="12.75">
+    <row r="721" spans="1:4" ht="13">
       <c r="A721" s="3"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
       <c r="D721" s="3"/>
     </row>
-    <row r="722" spans="1:4" ht="12.75">
+    <row r="722" spans="1:4" ht="13">
       <c r="A722" s="3"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
       <c r="D722" s="3"/>
     </row>
-    <row r="723" spans="1:4" ht="12.75">
+    <row r="723" spans="1:4" ht="13">
       <c r="A723" s="3"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
       <c r="D723" s="3"/>
     </row>
-    <row r="724" spans="1:4" ht="12.75">
+    <row r="724" spans="1:4" ht="13">
       <c r="A724" s="3"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
       <c r="D724" s="3"/>
     </row>
-    <row r="725" spans="1:4" ht="12.75">
+    <row r="725" spans="1:4" ht="13">
       <c r="A725" s="3"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
       <c r="D725" s="3"/>
     </row>
-    <row r="726" spans="1:4" ht="12.75">
+    <row r="726" spans="1:4" ht="13">
       <c r="A726" s="3"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
       <c r="D726" s="3"/>
     </row>
-    <row r="727" spans="1:4" ht="12.75">
+    <row r="727" spans="1:4" ht="13">
       <c r="A727" s="3"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
       <c r="D727" s="3"/>
     </row>
-    <row r="728" spans="1:4" ht="12.75">
+    <row r="728" spans="1:4" ht="13">
       <c r="A728" s="3"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
       <c r="D728" s="3"/>
     </row>
-    <row r="729" spans="1:4" ht="12.75">
+    <row r="729" spans="1:4" ht="13">
       <c r="A729" s="3"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
       <c r="D729" s="3"/>
     </row>
-    <row r="730" spans="1:4" ht="12.75">
+    <row r="730" spans="1:4" ht="13">
       <c r="A730" s="3"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
       <c r="D730" s="3"/>
     </row>
-    <row r="731" spans="1:4" ht="12.75">
+    <row r="731" spans="1:4" ht="13">
       <c r="A731" s="3"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
       <c r="D731" s="3"/>
     </row>
-    <row r="732" spans="1:4" ht="12.75">
+    <row r="732" spans="1:4" ht="13">
       <c r="A732" s="3"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
       <c r="D732" s="3"/>
     </row>
-    <row r="733" spans="1:4" ht="12.75">
+    <row r="733" spans="1:4" ht="13">
       <c r="A733" s="3"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
       <c r="D733" s="3"/>
     </row>
-    <row r="734" spans="1:4" ht="12.75">
+    <row r="734" spans="1:4" ht="13">
       <c r="A734" s="3"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
       <c r="D734" s="3"/>
     </row>
-    <row r="735" spans="1:4" ht="12.75">
+    <row r="735" spans="1:4" ht="13">
       <c r="A735" s="3"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
       <c r="D735" s="3"/>
     </row>
-    <row r="736" spans="1:4" ht="12.75">
+    <row r="736" spans="1:4" ht="13">
       <c r="A736" s="3"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
       <c r="D736" s="3"/>
     </row>
-    <row r="737" spans="1:4" ht="12.75">
+    <row r="737" spans="1:4" ht="13">
       <c r="A737" s="3"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
       <c r="D737" s="3"/>
     </row>
-    <row r="738" spans="1:4" ht="12.75">
+    <row r="738" spans="1:4" ht="13">
       <c r="A738" s="3"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
       <c r="D738" s="3"/>
     </row>
-    <row r="739" spans="1:4" ht="12.75">
+    <row r="739" spans="1:4" ht="13">
       <c r="A739" s="3"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
       <c r="D739" s="3"/>
     </row>
-    <row r="740" spans="1:4" ht="12.75">
+    <row r="740" spans="1:4" ht="13">
       <c r="A740" s="3"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
       <c r="D740" s="3"/>
     </row>
-    <row r="741" spans="1:4" ht="12.75">
+    <row r="741" spans="1:4" ht="13">
       <c r="A741" s="3"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
       <c r="D741" s="3"/>
     </row>
-    <row r="742" spans="1:4" ht="12.75">
+    <row r="742" spans="1:4" ht="13">
       <c r="A742" s="3"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
       <c r="D742" s="3"/>
     </row>
-    <row r="743" spans="1:4" ht="12.75">
+    <row r="743" spans="1:4" ht="13">
       <c r="A743" s="3"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
       <c r="D743" s="3"/>
     </row>
-    <row r="744" spans="1:4" ht="12.75">
+    <row r="744" spans="1:4" ht="13">
       <c r="A744" s="3"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
       <c r="D744" s="3"/>
     </row>
-    <row r="745" spans="1:4" ht="12.75">
+    <row r="745" spans="1:4" ht="13">
       <c r="A745" s="3"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
       <c r="D745" s="3"/>
     </row>
-    <row r="746" spans="1:4" ht="12.75">
+    <row r="746" spans="1:4" ht="13">
       <c r="A746" s="3"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
       <c r="D746" s="3"/>
     </row>
-    <row r="747" spans="1:4" ht="12.75">
+    <row r="747" spans="1:4" ht="13">
       <c r="A747" s="3"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
       <c r="D747" s="3"/>
     </row>
-    <row r="748" spans="1:4" ht="12.75">
+    <row r="748" spans="1:4" ht="13">
       <c r="A748" s="3"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
       <c r="D748" s="3"/>
     </row>
-    <row r="749" spans="1:4" ht="12.75">
+    <row r="749" spans="1:4" ht="13">
       <c r="A749" s="3"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
       <c r="D749" s="3"/>
     </row>
-    <row r="750" spans="1:4" ht="12.75">
+    <row r="750" spans="1:4" ht="13">
       <c r="A750" s="3"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
       <c r="D750" s="3"/>
     </row>
-    <row r="751" spans="1:4" ht="12.75">
+    <row r="751" spans="1:4" ht="13">
       <c r="A751" s="3"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
       <c r="D751" s="3"/>
     </row>
-    <row r="752" spans="1:4" ht="12.75">
+    <row r="752" spans="1:4" ht="13">
       <c r="A752" s="3"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
       <c r="D752" s="3"/>
     </row>
-    <row r="753" spans="1:4" ht="12.75">
+    <row r="753" spans="1:4" ht="13">
       <c r="A753" s="3"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
       <c r="D753" s="3"/>
     </row>
-    <row r="754" spans="1:4" ht="12.75">
+    <row r="754" spans="1:4" ht="13">
       <c r="A754" s="3"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
       <c r="D754" s="3"/>
     </row>
-    <row r="755" spans="1:4" ht="12.75">
+    <row r="755" spans="1:4" ht="13">
       <c r="A755" s="3"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
       <c r="D755" s="3"/>
     </row>
-    <row r="756" spans="1:4" ht="12.75">
+    <row r="756" spans="1:4" ht="13">
       <c r="A756" s="3"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
       <c r="D756" s="3"/>
     </row>
-    <row r="757" spans="1:4" ht="12.75">
+    <row r="757" spans="1:4" ht="13">
       <c r="A757" s="3"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
       <c r="D757" s="3"/>
     </row>
-    <row r="758" spans="1:4" ht="12.75">
+    <row r="758" spans="1:4" ht="13">
       <c r="A758" s="3"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
       <c r="D758" s="3"/>
     </row>
-    <row r="759" spans="1:4" ht="12.75">
+    <row r="759" spans="1:4" ht="13">
       <c r="A759" s="3"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
       <c r="D759" s="3"/>
     </row>
-    <row r="760" spans="1:4" ht="12.75">
+    <row r="760" spans="1:4" ht="13">
       <c r="A760" s="3"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
       <c r="D760" s="3"/>
     </row>
-    <row r="761" spans="1:4" ht="12.75">
+    <row r="761" spans="1:4" ht="13">
       <c r="A761" s="3"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
       <c r="D761" s="3"/>
     </row>
-    <row r="762" spans="1:4" ht="12.75">
+    <row r="762" spans="1:4" ht="13">
       <c r="A762" s="3"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
       <c r="D762" s="3"/>
     </row>
-    <row r="763" spans="1:4" ht="12.75">
+    <row r="763" spans="1:4" ht="13">
       <c r="A763" s="3"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
       <c r="D763" s="3"/>
     </row>
-    <row r="764" spans="1:4" ht="12.75">
+    <row r="764" spans="1:4" ht="13">
       <c r="A764" s="3"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
       <c r="D764" s="3"/>
     </row>
-    <row r="765" spans="1:4" ht="12.75">
+    <row r="765" spans="1:4" ht="13">
       <c r="A765" s="3"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
       <c r="D765" s="3"/>
     </row>
-    <row r="766" spans="1:4" ht="12.75">
+    <row r="766" spans="1:4" ht="13">
       <c r="A766" s="3"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
       <c r="D766" s="3"/>
     </row>
-    <row r="767" spans="1:4" ht="12.75">
+    <row r="767" spans="1:4" ht="13">
       <c r="A767" s="3"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
       <c r="D767" s="3"/>
     </row>
-    <row r="768" spans="1:4" ht="12.75">
+    <row r="768" spans="1:4" ht="13">
       <c r="A768" s="3"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
       <c r="D768" s="3"/>
     </row>
-    <row r="769" spans="1:4" ht="12.75">
+    <row r="769" spans="1:4" ht="13">
       <c r="A769" s="3"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
       <c r="D769" s="3"/>
     </row>
-    <row r="770" spans="1:4" ht="12.75">
+    <row r="770" spans="1:4" ht="13">
       <c r="A770" s="3"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
       <c r="D770" s="3"/>
     </row>
-    <row r="771" spans="1:4" ht="12.75">
+    <row r="771" spans="1:4" ht="13">
       <c r="A771" s="3"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
       <c r="D771" s="3"/>
     </row>
-    <row r="772" spans="1:4" ht="12.75">
+    <row r="772" spans="1:4" ht="13">
       <c r="A772" s="3"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
       <c r="D772" s="3"/>
     </row>
-    <row r="773" spans="1:4" ht="12.75">
+    <row r="773" spans="1:4" ht="13">
       <c r="A773" s="3"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
       <c r="D773" s="3"/>
     </row>
-    <row r="774" spans="1:4" ht="12.75">
+    <row r="774" spans="1:4" ht="13">
       <c r="A774" s="3"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
       <c r="D774" s="3"/>
     </row>
-    <row r="775" spans="1:4" ht="12.75">
+    <row r="775" spans="1:4" ht="13">
       <c r="A775" s="3"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
       <c r="D775" s="3"/>
     </row>
-    <row r="776" spans="1:4" ht="12.75">
+    <row r="776" spans="1:4" ht="13">
       <c r="A776" s="3"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
       <c r="D776" s="3"/>
     </row>
-    <row r="777" spans="1:4" ht="12.75">
+    <row r="777" spans="1:4" ht="13">
       <c r="A777" s="3"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
       <c r="D777" s="3"/>
     </row>
-    <row r="778" spans="1:4" ht="12.75">
+    <row r="778" spans="1:4" ht="13">
       <c r="A778" s="3"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
       <c r="D778" s="3"/>
     </row>
-    <row r="779" spans="1:4" ht="12.75">
+    <row r="779" spans="1:4" ht="13">
       <c r="A779" s="3"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
       <c r="D779" s="3"/>
     </row>
-    <row r="780" spans="1:4" ht="12.75">
+    <row r="780" spans="1:4" ht="13">
       <c r="A780" s="3"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
       <c r="D780" s="3"/>
     </row>
-    <row r="781" spans="1:4" ht="12.75">
+    <row r="781" spans="1:4" ht="13">
       <c r="A781" s="3"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
       <c r="D781" s="3"/>
     </row>
-    <row r="782" spans="1:4" ht="12.75">
+    <row r="782" spans="1:4" ht="13">
       <c r="A782" s="3"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
       <c r="D782" s="3"/>
     </row>
-    <row r="783" spans="1:4" ht="12.75">
+    <row r="783" spans="1:4" ht="13">
       <c r="A783" s="3"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
       <c r="D783" s="3"/>
     </row>
-    <row r="784" spans="1:4" ht="12.75">
+    <row r="784" spans="1:4" ht="13">
       <c r="A784" s="3"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
       <c r="D784" s="3"/>
     </row>
-    <row r="785" spans="1:4" ht="12.75">
+    <row r="785" spans="1:4" ht="13">
       <c r="A785" s="3"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
       <c r="D785" s="3"/>
     </row>
-    <row r="786" spans="1:4" ht="12.75">
+    <row r="786" spans="1:4" ht="13">
       <c r="A786" s="3"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
       <c r="D786" s="3"/>
     </row>
-    <row r="787" spans="1:4" ht="12.75">
+    <row r="787" spans="1:4" ht="13">
       <c r="A787" s="3"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
       <c r="D787" s="3"/>
     </row>
-    <row r="788" spans="1:4" ht="12.75">
+    <row r="788" spans="1:4" ht="13">
       <c r="A788" s="3"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
       <c r="D788" s="3"/>
     </row>
-    <row r="789" spans="1:4" ht="12.75">
+    <row r="789" spans="1:4" ht="13">
       <c r="A789" s="3"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
       <c r="D789" s="3"/>
     </row>
-    <row r="790" spans="1:4" ht="12.75">
+    <row r="790" spans="1:4" ht="13">
       <c r="A790" s="3"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
       <c r="D790" s="3"/>
     </row>
-    <row r="791" spans="1:4" ht="12.75">
+    <row r="791" spans="1:4" ht="13">
       <c r="A791" s="3"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
       <c r="D791" s="3"/>
     </row>
-    <row r="792" spans="1:4" ht="12.75">
+    <row r="792" spans="1:4" ht="13">
       <c r="A792" s="3"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
       <c r="D792" s="3"/>
     </row>
-    <row r="793" spans="1:4" ht="12.75">
+    <row r="793" spans="1:4" ht="13">
       <c r="A793" s="3"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
       <c r="D793" s="3"/>
     </row>
-    <row r="794" spans="1:4" ht="12.75">
+    <row r="794" spans="1:4" ht="13">
       <c r="A794" s="3"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
       <c r="D794" s="3"/>
     </row>
-    <row r="795" spans="1:4" ht="12.75">
+    <row r="795" spans="1:4" ht="13">
       <c r="A795" s="3"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
       <c r="D795" s="3"/>
     </row>
-    <row r="796" spans="1:4" ht="12.75">
+    <row r="796" spans="1:4" ht="13">
       <c r="A796" s="3"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
       <c r="D796" s="3"/>
     </row>
-    <row r="797" spans="1:4" ht="12.75">
+    <row r="797" spans="1:4" ht="13">
       <c r="A797" s="3"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
       <c r="D797" s="3"/>
     </row>
-    <row r="798" spans="1:4" ht="12.75">
+    <row r="798" spans="1:4" ht="13">
       <c r="A798" s="3"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
       <c r="D798" s="3"/>
     </row>
-    <row r="799" spans="1:4" ht="12.75">
+    <row r="799" spans="1:4" ht="13">
       <c r="A799" s="3"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
       <c r="D799" s="3"/>
     </row>
-    <row r="800" spans="1:4" ht="12.75">
+    <row r="800" spans="1:4" ht="13">
       <c r="A800" s="3"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
       <c r="D800" s="3"/>
     </row>
-    <row r="801" spans="1:4" ht="12.75">
+    <row r="801" spans="1:4" ht="13">
       <c r="A801" s="3"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
       <c r="D801" s="3"/>
     </row>
-    <row r="802" spans="1:4" ht="12.75">
+    <row r="802" spans="1:4" ht="13">
       <c r="A802" s="3"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
       <c r="D802" s="3"/>
     </row>
-    <row r="803" spans="1:4" ht="12.75">
+    <row r="803" spans="1:4" ht="13">
       <c r="A803" s="3"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
       <c r="D803" s="3"/>
     </row>
-    <row r="804" spans="1:4" ht="12.75">
+    <row r="804" spans="1:4" ht="13">
       <c r="A804" s="3"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
       <c r="D804" s="3"/>
     </row>
-    <row r="805" spans="1:4" ht="12.75">
+    <row r="805" spans="1:4" ht="13">
       <c r="A805" s="3"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
       <c r="D805" s="3"/>
     </row>
-    <row r="806" spans="1:4" ht="12.75">
+    <row r="806" spans="1:4" ht="13">
       <c r="A806" s="3"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
       <c r="D806" s="3"/>
     </row>
-    <row r="807" spans="1:4" ht="12.75">
+    <row r="807" spans="1:4" ht="13">
       <c r="A807" s="3"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
       <c r="D807" s="3"/>
     </row>
-    <row r="808" spans="1:4" ht="12.75">
+    <row r="808" spans="1:4" ht="13">
       <c r="A808" s="3"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
       <c r="D808" s="3"/>
     </row>
-    <row r="809" spans="1:4" ht="12.75">
+    <row r="809" spans="1:4" ht="13">
       <c r="A809" s="3"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
       <c r="D809" s="3"/>
     </row>
-    <row r="810" spans="1:4" ht="12.75">
+    <row r="810" spans="1:4" ht="13">
       <c r="A810" s="3"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
       <c r="D810" s="3"/>
     </row>
-    <row r="811" spans="1:4" ht="12.75">
+    <row r="811" spans="1:4" ht="13">
       <c r="A811" s="3"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
       <c r="D811" s="3"/>
     </row>
-    <row r="812" spans="1:4" ht="12.75">
+    <row r="812" spans="1:4" ht="13">
       <c r="A812" s="3"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
       <c r="D812" s="3"/>
     </row>
-    <row r="813" spans="1:4" ht="12.75">
+    <row r="813" spans="1:4" ht="13">
       <c r="A813" s="3"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
       <c r="D813" s="3"/>
     </row>
-    <row r="814" spans="1:4" ht="12.75">
+    <row r="814" spans="1:4" ht="13">
       <c r="A814" s="3"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
       <c r="D814" s="3"/>
     </row>
-    <row r="815" spans="1:4" ht="12.75">
+    <row r="815" spans="1:4" ht="13">
       <c r="A815" s="3"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
       <c r="D815" s="3"/>
     </row>
-    <row r="816" spans="1:4" ht="12.75">
+    <row r="816" spans="1:4" ht="13">
       <c r="A816" s="3"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
       <c r="D816" s="3"/>
     </row>
-    <row r="817" spans="1:4" ht="12.75">
+    <row r="817" spans="1:4" ht="13">
       <c r="A817" s="3"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
       <c r="D817" s="3"/>
     </row>
-    <row r="818" spans="1:4" ht="12.75">
+    <row r="818" spans="1:4" ht="13">
       <c r="A818" s="3"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
       <c r="D818" s="3"/>
     </row>
-    <row r="819" spans="1:4" ht="12.75">
+    <row r="819" spans="1:4" ht="13">
       <c r="A819" s="3"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
       <c r="D819" s="3"/>
     </row>
-    <row r="820" spans="1:4" ht="12.75">
+    <row r="820" spans="1:4" ht="13">
       <c r="A820" s="3"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
       <c r="D820" s="3"/>
     </row>
-    <row r="821" spans="1:4" ht="12.75">
+    <row r="821" spans="1:4" ht="13">
       <c r="A821" s="3"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
       <c r="D821" s="3"/>
     </row>
-    <row r="822" spans="1:4" ht="12.75">
+    <row r="822" spans="1:4" ht="13">
       <c r="A822" s="3"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
       <c r="D822" s="3"/>
     </row>
-    <row r="823" spans="1:4" ht="12.75">
+    <row r="823" spans="1:4" ht="13">
       <c r="A823" s="3"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
       <c r="D823" s="3"/>
     </row>
-    <row r="824" spans="1:4" ht="12.75">
+    <row r="824" spans="1:4" ht="13">
       <c r="A824" s="3"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
       <c r="D824" s="3"/>
     </row>
-    <row r="825" spans="1:4" ht="12.75">
+    <row r="825" spans="1:4" ht="13">
       <c r="A825" s="3"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
       <c r="D825" s="3"/>
     </row>
-    <row r="826" spans="1:4" ht="12.75">
+    <row r="826" spans="1:4" ht="13">
       <c r="A826" s="3"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
       <c r="D826" s="3"/>
     </row>
-    <row r="827" spans="1:4" ht="12.75">
+    <row r="827" spans="1:4" ht="13">
       <c r="A827" s="3"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
       <c r="D827" s="3"/>
     </row>
-    <row r="828" spans="1:4" ht="12.75">
+    <row r="828" spans="1:4" ht="13">
       <c r="A828" s="3"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
       <c r="D828" s="3"/>
     </row>
-    <row r="829" spans="1:4" ht="12.75">
+    <row r="829" spans="1:4" ht="13">
       <c r="A829" s="3"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
       <c r="D829" s="3"/>
     </row>
-    <row r="830" spans="1:4" ht="12.75">
+    <row r="830" spans="1:4" ht="13">
       <c r="A830" s="3"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
       <c r="D830" s="3"/>
     </row>
-    <row r="831" spans="1:4" ht="12.75">
+    <row r="831" spans="1:4" ht="13">
       <c r="A831" s="3"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
       <c r="D831" s="3"/>
     </row>
-    <row r="832" spans="1:4" ht="12.75">
+    <row r="832" spans="1:4" ht="13">
       <c r="A832" s="3"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
       <c r="D832" s="3"/>
     </row>
-    <row r="833" spans="1:4" ht="12.75">
+    <row r="833" spans="1:4" ht="13">
       <c r="A833" s="3"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
       <c r="D833" s="3"/>
     </row>
-    <row r="834" spans="1:4" ht="12.75">
+    <row r="834" spans="1:4" ht="13">
       <c r="A834" s="3"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
       <c r="D834" s="3"/>
     </row>
-    <row r="835" spans="1:4" ht="12.75">
+    <row r="835" spans="1:4" ht="13">
       <c r="A835" s="3"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
       <c r="D835" s="3"/>
     </row>
-    <row r="836" spans="1:4" ht="12.75">
+    <row r="836" spans="1:4" ht="13">
       <c r="A836" s="3"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
       <c r="D836" s="3"/>
     </row>
-    <row r="837" spans="1:4" ht="12.75">
+    <row r="837" spans="1:4" ht="13">
       <c r="A837" s="3"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
       <c r="D837" s="3"/>
     </row>
-    <row r="838" spans="1:4" ht="12.75">
+    <row r="838" spans="1:4" ht="13">
       <c r="A838" s="3"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
       <c r="D838" s="3"/>
     </row>
-    <row r="839" spans="1:4" ht="12.75">
+    <row r="839" spans="1:4" ht="13">
       <c r="A839" s="3"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
       <c r="D839" s="3"/>
     </row>
-    <row r="840" spans="1:4" ht="12.75">
+    <row r="840" spans="1:4" ht="13">
       <c r="A840" s="3"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
       <c r="D840" s="3"/>
     </row>
-    <row r="841" spans="1:4" ht="12.75">
+    <row r="841" spans="1:4" ht="13">
       <c r="A841" s="3"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
       <c r="D841" s="3"/>
     </row>
-    <row r="842" spans="1:4" ht="12.75">
+    <row r="842" spans="1:4" ht="13">
       <c r="A842" s="3"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
       <c r="D842" s="3"/>
     </row>
-    <row r="843" spans="1:4" ht="12.75">
+    <row r="843" spans="1:4" ht="13">
       <c r="A843" s="3"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
       <c r="D843" s="3"/>
     </row>
-    <row r="844" spans="1:4" ht="12.75">
+    <row r="844" spans="1:4" ht="13">
       <c r="A844" s="3"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
       <c r="D844" s="3"/>
     </row>
-    <row r="845" spans="1:4" ht="12.75">
+    <row r="845" spans="1:4" ht="13">
       <c r="A845" s="3"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
       <c r="D845" s="3"/>
     </row>
-    <row r="846" spans="1:4" ht="12.75">
+    <row r="846" spans="1:4" ht="13">
       <c r="A846" s="3"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
       <c r="D846" s="3"/>
     </row>
-    <row r="847" spans="1:4" ht="12.75">
+    <row r="847" spans="1:4" ht="13">
       <c r="A847" s="3"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
       <c r="D847" s="3"/>
     </row>
-    <row r="848" spans="1:4" ht="12.75">
+    <row r="848" spans="1:4" ht="13">
       <c r="A848" s="3"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
       <c r="D848" s="3"/>
     </row>
-    <row r="849" spans="1:4" ht="12.75">
+    <row r="849" spans="1:4" ht="13">
       <c r="A849" s="3"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
       <c r="D849" s="3"/>
     </row>
-    <row r="850" spans="1:4" ht="12.75">
+    <row r="850" spans="1:4" ht="13">
       <c r="A850" s="3"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
       <c r="D850" s="3"/>
     </row>
-    <row r="851" spans="1:4" ht="12.75">
+    <row r="851" spans="1:4" ht="13">
       <c r="A851" s="3"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
       <c r="D851" s="3"/>
     </row>
-    <row r="852" spans="1:4" ht="12.75">
+    <row r="852" spans="1:4" ht="13">
       <c r="A852" s="3"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
       <c r="D852" s="3"/>
     </row>
-    <row r="853" spans="1:4" ht="12.75">
+    <row r="853" spans="1:4" ht="13">
       <c r="A853" s="3"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
       <c r="D853" s="3"/>
     </row>
-    <row r="854" spans="1:4" ht="12.75">
+    <row r="854" spans="1:4" ht="13">
       <c r="A854" s="3"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
       <c r="D854" s="3"/>
     </row>
-    <row r="855" spans="1:4" ht="12.75">
+    <row r="855" spans="1:4" ht="13">
       <c r="A855" s="3"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
       <c r="D855" s="3"/>
     </row>
-    <row r="856" spans="1:4" ht="12.75">
+    <row r="856" spans="1:4" ht="13">
       <c r="A856" s="3"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
       <c r="D856" s="3"/>
     </row>
-    <row r="857" spans="1:4" ht="12.75">
+    <row r="857" spans="1:4" ht="13">
       <c r="A857" s="3"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
       <c r="D857" s="3"/>
     </row>
-    <row r="858" spans="1:4" ht="12.75">
+    <row r="858" spans="1:4" ht="13">
       <c r="A858" s="3"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
       <c r="D858" s="3"/>
     </row>
-    <row r="859" spans="1:4" ht="12.75">
+    <row r="859" spans="1:4" ht="13">
       <c r="A859" s="3"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
       <c r="D859" s="3"/>
     </row>
-    <row r="860" spans="1:4" ht="12.75">
+    <row r="860" spans="1:4" ht="13">
       <c r="A860" s="3"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
       <c r="D860" s="3"/>
     </row>
-    <row r="861" spans="1:4" ht="12.75">
+    <row r="861" spans="1:4" ht="13">
       <c r="A861" s="3"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
       <c r="D861" s="3"/>
     </row>
-    <row r="862" spans="1:4" ht="12.75">
+    <row r="862" spans="1:4" ht="13">
       <c r="A862" s="3"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
       <c r="D862" s="3"/>
     </row>
-    <row r="863" spans="1:4" ht="12.75">
+    <row r="863" spans="1:4" ht="13">
       <c r="A863" s="3"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
       <c r="D863" s="3"/>
     </row>
-    <row r="864" spans="1:4" ht="12.75">
+    <row r="864" spans="1:4" ht="13">
       <c r="A864" s="3"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
       <c r="D864" s="3"/>
     </row>
-    <row r="865" spans="1:4" ht="12.75">
+    <row r="865" spans="1:4" ht="13">
       <c r="A865" s="3"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
       <c r="D865" s="3"/>
     </row>
-    <row r="866" spans="1:4" ht="12.75">
+    <row r="866" spans="1:4" ht="13">
       <c r="A866" s="3"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
       <c r="D866" s="3"/>
     </row>
-    <row r="867" spans="1:4" ht="12.75">
+    <row r="867" spans="1:4" ht="13">
       <c r="A867" s="3"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
       <c r="D867" s="3"/>
     </row>
-    <row r="868" spans="1:4" ht="12.75">
+    <row r="868" spans="1:4" ht="13">
       <c r="A868" s="3"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
       <c r="D868" s="3"/>
     </row>
-    <row r="869" spans="1:4" ht="12.75">
+    <row r="869" spans="1:4" ht="13">
       <c r="A869" s="3"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
       <c r="D869" s="3"/>
     </row>
-    <row r="870" spans="1:4" ht="12.75">
+    <row r="870" spans="1:4" ht="13">
       <c r="A870" s="3"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
       <c r="D870" s="3"/>
     </row>
-    <row r="871" spans="1:4" ht="12.75">
+    <row r="871" spans="1:4" ht="13">
       <c r="A871" s="3"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
       <c r="D871" s="3"/>
     </row>
-    <row r="872" spans="1:4" ht="12.75">
+    <row r="872" spans="1:4" ht="13">
       <c r="A872" s="3"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
       <c r="D872" s="3"/>
     </row>
-    <row r="873" spans="1:4" ht="12.75">
+    <row r="873" spans="1:4" ht="13">
       <c r="A873" s="3"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
       <c r="D873" s="3"/>
     </row>
-    <row r="874" spans="1:4" ht="12.75">
+    <row r="874" spans="1:4" ht="13">
       <c r="A874" s="3"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
       <c r="D874" s="3"/>
     </row>
-    <row r="875" spans="1:4" ht="12.75">
+    <row r="875" spans="1:4" ht="13">
       <c r="A875" s="3"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
       <c r="D875" s="3"/>
     </row>
-    <row r="876" spans="1:4" ht="12.75">
+    <row r="876" spans="1:4" ht="13">
       <c r="A876" s="3"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
       <c r="D876" s="3"/>
     </row>
-    <row r="877" spans="1:4" ht="12.75">
+    <row r="877" spans="1:4" ht="13">
       <c r="A877" s="3"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
       <c r="D877" s="3"/>
     </row>
-    <row r="878" spans="1:4" ht="12.75">
+    <row r="878" spans="1:4" ht="13">
       <c r="A878" s="3"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
       <c r="D878" s="3"/>
     </row>
-    <row r="879" spans="1:4" ht="12.75">
+    <row r="879" spans="1:4" ht="13">
       <c r="A879" s="3"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
       <c r="D879" s="3"/>
     </row>
-    <row r="880" spans="1:4" ht="12.75">
+    <row r="880" spans="1:4" ht="13">
       <c r="A880" s="3"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
       <c r="D880" s="3"/>
     </row>
-    <row r="881" spans="1:4" ht="12.75">
+    <row r="881" spans="1:4" ht="13">
       <c r="A881" s="3"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
       <c r="D881" s="3"/>
     </row>
-    <row r="882" spans="1:4" ht="12.75">
+    <row r="882" spans="1:4" ht="13">
       <c r="A882" s="3"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
       <c r="D882" s="3"/>
     </row>
-    <row r="883" spans="1:4" ht="12.75">
+    <row r="883" spans="1:4" ht="13">
       <c r="A883" s="3"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
       <c r="D883" s="3"/>
     </row>
-    <row r="884" spans="1:4" ht="12.75">
+    <row r="884" spans="1:4" ht="13">
       <c r="A884" s="3"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
       <c r="D884" s="3"/>
     </row>
-    <row r="885" spans="1:4" ht="12.75">
+    <row r="885" spans="1:4" ht="13">
       <c r="A885" s="3"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
       <c r="D885" s="3"/>
     </row>
-    <row r="886" spans="1:4" ht="12.75">
+    <row r="886" spans="1:4" ht="13">
       <c r="A886" s="3"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
       <c r="D886" s="3"/>
     </row>
-    <row r="887" spans="1:4" ht="12.75">
+    <row r="887" spans="1:4" ht="13">
       <c r="A887" s="3"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
       <c r="D887" s="3"/>
     </row>
-    <row r="888" spans="1:4" ht="12.75">
+    <row r="888" spans="1:4" ht="13">
       <c r="A888" s="3"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
       <c r="D888" s="3"/>
     </row>
-    <row r="889" spans="1:4" ht="12.75">
+    <row r="889" spans="1:4" ht="13">
       <c r="A889" s="3"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
       <c r="D889" s="3"/>
     </row>
-    <row r="890" spans="1:4" ht="12.75">
+    <row r="890" spans="1:4" ht="13">
       <c r="A890" s="3"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
       <c r="D890" s="3"/>
     </row>
-    <row r="891" spans="1:4" ht="12.75">
+    <row r="891" spans="1:4" ht="13">
       <c r="A891" s="3"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
       <c r="D891" s="3"/>
     </row>
-    <row r="892" spans="1:4" ht="12.75">
+    <row r="892" spans="1:4" ht="13">
       <c r="A892" s="3"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
       <c r="D892" s="3"/>
     </row>
-    <row r="893" spans="1:4" ht="12.75">
+    <row r="893" spans="1:4" ht="13">
       <c r="A893" s="3"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
       <c r="D893" s="3"/>
     </row>
-    <row r="894" spans="1:4" ht="12.75">
+    <row r="894" spans="1:4" ht="13">
       <c r="A894" s="3"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
       <c r="D894" s="3"/>
     </row>
-    <row r="895" spans="1:4" ht="12.75">
+    <row r="895" spans="1:4" ht="13">
       <c r="A895" s="3"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
       <c r="D895" s="3"/>
     </row>
-    <row r="896" spans="1:4" ht="12.75">
+    <row r="896" spans="1:4" ht="13">
       <c r="A896" s="3"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
       <c r="D896" s="3"/>
     </row>
-    <row r="897" spans="1:4" ht="12.75">
+    <row r="897" spans="1:4" ht="13">
       <c r="A897" s="3"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
       <c r="D897" s="3"/>
     </row>
-    <row r="898" spans="1:4" ht="12.75">
+    <row r="898" spans="1:4" ht="13">
       <c r="A898" s="3"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
       <c r="D898" s="3"/>
     </row>
-    <row r="899" spans="1:4" ht="12.75">
+    <row r="899" spans="1:4" ht="13">
       <c r="A899" s="3"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
       <c r="D899" s="3"/>
     </row>
-    <row r="900" spans="1:4" ht="12.75">
+    <row r="900" spans="1:4" ht="13">
       <c r="A900" s="3"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
       <c r="D900" s="3"/>
     </row>
-    <row r="901" spans="1:4" ht="12.75">
+    <row r="901" spans="1:4" ht="13">
       <c r="A901" s="3"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
       <c r="D901" s="3"/>
     </row>
-    <row r="902" spans="1:4" ht="12.75">
+    <row r="902" spans="1:4" ht="13">
       <c r="A902" s="3"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
       <c r="D902" s="3"/>
     </row>
-    <row r="903" spans="1:4" ht="12.75">
+    <row r="903" spans="1:4" ht="13">
       <c r="A903" s="3"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
       <c r="D903" s="3"/>
     </row>
-    <row r="904" spans="1:4" ht="12.75">
+    <row r="904" spans="1:4" ht="13">
       <c r="A904" s="3"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
       <c r="D904" s="3"/>
     </row>
-    <row r="905" spans="1:4" ht="12.75">
+    <row r="905" spans="1:4" ht="13">
       <c r="A905" s="3"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
       <c r="D905" s="3"/>
     </row>
-    <row r="906" spans="1:4" ht="12.75">
+    <row r="906" spans="1:4" ht="13">
       <c r="A906" s="3"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
       <c r="D906" s="3"/>
     </row>
-    <row r="907" spans="1:4" ht="12.75">
+    <row r="907" spans="1:4" ht="13">
       <c r="A907" s="3"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
       <c r="D907" s="3"/>
     </row>
-    <row r="908" spans="1:4" ht="12.75">
+    <row r="908" spans="1:4" ht="13">
       <c r="A908" s="3"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
       <c r="D908" s="3"/>
     </row>
-    <row r="909" spans="1:4" ht="12.75">
+    <row r="909" spans="1:4" ht="13">
       <c r="A909" s="3"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
       <c r="D909" s="3"/>
     </row>
-    <row r="910" spans="1:4" ht="12.75">
+    <row r="910" spans="1:4" ht="13">
       <c r="A910" s="3"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
       <c r="D910" s="3"/>
     </row>
-    <row r="911" spans="1:4" ht="12.75">
+    <row r="911" spans="1:4" ht="13">
       <c r="A911" s="3"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
       <c r="D911" s="3"/>
     </row>
-    <row r="912" spans="1:4" ht="12.75">
+    <row r="912" spans="1:4" ht="13">
       <c r="A912" s="3"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
       <c r="D912" s="3"/>
     </row>
-    <row r="913" spans="1:4" ht="12.75">
+    <row r="913" spans="1:4" ht="13">
       <c r="A913" s="3"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
       <c r="D913" s="3"/>
     </row>
-    <row r="914" spans="1:4" ht="12.75">
+    <row r="914" spans="1:4" ht="13">
       <c r="A914" s="3"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
       <c r="D914" s="3"/>
     </row>
-    <row r="915" spans="1:4" ht="12.75">
+    <row r="915" spans="1:4" ht="13">
       <c r="A915" s="3"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
       <c r="D915" s="3"/>
     </row>
-    <row r="916" spans="1:4" ht="12.75">
+    <row r="916" spans="1:4" ht="13">
       <c r="A916" s="3"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
       <c r="D916" s="3"/>
     </row>
-    <row r="917" spans="1:4" ht="12.75">
+    <row r="917" spans="1:4" ht="13">
       <c r="A917" s="3"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
       <c r="D917" s="3"/>
     </row>
-    <row r="918" spans="1:4" ht="12.75">
+    <row r="918" spans="1:4" ht="13">
       <c r="A918" s="3"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
       <c r="D918" s="3"/>
     </row>
-    <row r="919" spans="1:4" ht="12.75">
+    <row r="919" spans="1:4" ht="13">
       <c r="A919" s="3"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
       <c r="D919" s="3"/>
     </row>
-    <row r="920" spans="1:4" ht="12.75">
+    <row r="920" spans="1:4" ht="13">
       <c r="A920" s="3"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
       <c r="D920" s="3"/>
     </row>
-    <row r="921" spans="1:4" ht="12.75">
+    <row r="921" spans="1:4" ht="13">
       <c r="A921" s="3"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
       <c r="D921" s="3"/>
     </row>
-    <row r="922" spans="1:4" ht="12.75">
+    <row r="922" spans="1:4" ht="13">
       <c r="A922" s="3"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
       <c r="D922" s="3"/>
     </row>
-    <row r="923" spans="1:4" ht="12.75">
+    <row r="923" spans="1:4" ht="13">
       <c r="A923" s="3"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
       <c r="D923" s="3"/>
     </row>
-    <row r="924" spans="1:4" ht="12.75">
+    <row r="924" spans="1:4" ht="13">
       <c r="A924" s="3"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
       <c r="D924" s="3"/>
     </row>
-    <row r="925" spans="1:4" ht="12.75">
+    <row r="925" spans="1:4" ht="13">
       <c r="A925" s="3"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
       <c r="D925" s="3"/>
     </row>
-    <row r="926" spans="1:4" ht="12.75">
+    <row r="926" spans="1:4" ht="13">
       <c r="A926" s="3"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
       <c r="D926" s="3"/>
     </row>
-    <row r="927" spans="1:4" ht="12.75">
+    <row r="927" spans="1:4" ht="13">
       <c r="A927" s="3"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
       <c r="D927" s="3"/>
     </row>
-    <row r="928" spans="1:4" ht="12.75">
+    <row r="928" spans="1:4" ht="13">
       <c r="A928" s="3"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
       <c r="D928" s="3"/>
     </row>
-    <row r="929" spans="1:4" ht="12.75">
+    <row r="929" spans="1:4" ht="13">
       <c r="A929" s="3"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
       <c r="D929" s="3"/>
     </row>
-    <row r="930" spans="1:4" ht="12.75">
+    <row r="930" spans="1:4" ht="13">
       <c r="A930" s="3"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
       <c r="D930" s="3"/>
     </row>
-    <row r="931" spans="1:4" ht="12.75">
+    <row r="931" spans="1:4" ht="13">
       <c r="A931" s="3"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
       <c r="D931" s="3"/>
     </row>
-    <row r="932" spans="1:4" ht="12.75">
+    <row r="932" spans="1:4" ht="13">
       <c r="A932" s="3"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
       <c r="D932" s="3"/>
     </row>
-    <row r="933" spans="1:4" ht="12.75">
+    <row r="933" spans="1:4" ht="13">
       <c r="A933" s="3"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
       <c r="D933" s="3"/>
     </row>
-    <row r="934" spans="1:4" ht="12.75">
+    <row r="934" spans="1:4" ht="13">
       <c r="A934" s="3"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
       <c r="D934" s="3"/>
     </row>
-    <row r="935" spans="1:4" ht="12.75">
+    <row r="935" spans="1:4" ht="13">
       <c r="A935" s="3"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
       <c r="D935" s="3"/>
     </row>
-    <row r="936" spans="1:4" ht="12.75">
+    <row r="936" spans="1:4" ht="13">
       <c r="A936" s="3"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
       <c r="D936" s="3"/>
     </row>
-    <row r="937" spans="1:4" ht="12.75">
+    <row r="937" spans="1:4" ht="13">
       <c r="A937" s="3"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
       <c r="D937" s="3"/>
     </row>
-    <row r="938" spans="1:4" ht="12.75">
+    <row r="938" spans="1:4" ht="13">
       <c r="A938" s="3"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
       <c r="D938" s="3"/>
     </row>
-    <row r="939" spans="1:4" ht="12.75">
+    <row r="939" spans="1:4" ht="13">
       <c r="A939" s="3"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
       <c r="D939" s="3"/>
     </row>
-    <row r="940" spans="1:4" ht="12.75">
+    <row r="940" spans="1:4" ht="13">
       <c r="A940" s="3"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
       <c r="D940" s="3"/>
     </row>
-    <row r="941" spans="1:4" ht="12.75">
+    <row r="941" spans="1:4" ht="13">
       <c r="A941" s="3"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
       <c r="D941" s="3"/>
     </row>
-    <row r="942" spans="1:4" ht="12.75">
+    <row r="942" spans="1:4" ht="13">
       <c r="A942" s="3"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
       <c r="D942" s="3"/>
     </row>
-    <row r="943" spans="1:4" ht="12.75">
+    <row r="943" spans="1:4" ht="13">
       <c r="A943" s="3"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
       <c r="D943" s="3"/>
     </row>
-    <row r="944" spans="1:4" ht="12.75">
+    <row r="944" spans="1:4" ht="13">
       <c r="A944" s="3"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
       <c r="D944" s="3"/>
     </row>
-    <row r="945" spans="1:4" ht="12.75">
+    <row r="945" spans="1:4" ht="13">
       <c r="A945" s="3"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
       <c r="D945" s="3"/>
     </row>
-    <row r="946" spans="1:4" ht="12.75">
+    <row r="946" spans="1:4" ht="13">
       <c r="A946" s="3"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
       <c r="D946" s="3"/>
     </row>
-    <row r="947" spans="1:4" ht="12.75">
+    <row r="947" spans="1:4" ht="13">
       <c r="A947" s="3"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
       <c r="D947" s="3"/>
     </row>
-    <row r="948" spans="1:4" ht="12.75">
+    <row r="948" spans="1:4" ht="13">
       <c r="A948" s="3"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
       <c r="D948" s="3"/>
     </row>
-    <row r="949" spans="1:4" ht="12.75">
+    <row r="949" spans="1:4" ht="13">
       <c r="A949" s="3"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
       <c r="D949" s="3"/>
     </row>
-    <row r="950" spans="1:4" ht="12.75">
+    <row r="950" spans="1:4" ht="13">
       <c r="A950" s="3"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
       <c r="D950" s="3"/>
     </row>
-    <row r="951" spans="1:4" ht="12.75">
+    <row r="951" spans="1:4" ht="13">
       <c r="A951" s="3"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
       <c r="D951" s="3"/>
     </row>
-    <row r="952" spans="1:4" ht="12.75">
+    <row r="952" spans="1:4" ht="13">
       <c r="A952" s="3"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
       <c r="D952" s="3"/>
     </row>
-    <row r="953" spans="1:4" ht="12.75">
+    <row r="953" spans="1:4" ht="13">
       <c r="A953" s="3"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
       <c r="D953" s="3"/>
     </row>
-    <row r="954" spans="1:4" ht="12.75">
+    <row r="954" spans="1:4" ht="13">
       <c r="A954" s="3"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
       <c r="D954" s="3"/>
     </row>
-    <row r="955" spans="1:4" ht="12.75">
+    <row r="955" spans="1:4" ht="13">
       <c r="A955" s="3"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
       <c r="D955" s="3"/>
     </row>
-    <row r="956" spans="1:4" ht="12.75">
+    <row r="956" spans="1:4" ht="13">
       <c r="A956" s="3"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
       <c r="D956" s="3"/>
     </row>
-    <row r="957" spans="1:4" ht="12.75">
+    <row r="957" spans="1:4" ht="13">
       <c r="A957" s="3"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
       <c r="D957" s="3"/>
     </row>
-    <row r="958" spans="1:4" ht="12.75">
+    <row r="958" spans="1:4" ht="13">
       <c r="A958" s="3"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
       <c r="D958" s="3"/>
     </row>
-    <row r="959" spans="1:4" ht="12.75">
+    <row r="959" spans="1:4" ht="13">
       <c r="A959" s="3"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
       <c r="D959" s="3"/>
     </row>
-    <row r="960" spans="1:4" ht="12.75">
+    <row r="960" spans="1:4" ht="13">
       <c r="A960" s="3"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
       <c r="D960" s="3"/>
     </row>
-    <row r="961" spans="1:4" ht="12.75">
+    <row r="961" spans="1:4" ht="13">
       <c r="A961" s="3"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
       <c r="D961" s="3"/>
     </row>
-    <row r="962" spans="1:4" ht="12.75">
+    <row r="962" spans="1:4" ht="13">
       <c r="A962" s="3"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
       <c r="D962" s="3"/>
     </row>
-    <row r="963" spans="1:4" ht="12.75">
+    <row r="963" spans="1:4" ht="13">
       <c r="A963" s="3"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
       <c r="D963" s="3"/>
     </row>
-    <row r="964" spans="1:4" ht="12.75">
+    <row r="964" spans="1:4" ht="13">
       <c r="A964" s="3"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
       <c r="D964" s="3"/>
     </row>
-    <row r="965" spans="1:4" ht="12.75">
+    <row r="965" spans="1:4" ht="13">
       <c r="A965" s="3"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
       <c r="D965" s="3"/>
     </row>
-    <row r="966" spans="1:4" ht="12.75">
+    <row r="966" spans="1:4" ht="13">
       <c r="A966" s="3"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
       <c r="D966" s="3"/>
     </row>
-    <row r="967" spans="1:4" ht="12.75">
+    <row r="967" spans="1:4" ht="13">
       <c r="A967" s="3"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
       <c r="D967" s="3"/>
     </row>
-    <row r="968" spans="1:4" ht="12.75">
+    <row r="968" spans="1:4" ht="13">
       <c r="A968" s="3"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
       <c r="D968" s="3"/>
     </row>
-    <row r="969" spans="1:4" ht="12.75">
+    <row r="969" spans="1:4" ht="13">
       <c r="A969" s="3"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
       <c r="D969" s="3"/>
     </row>
-    <row r="970" spans="1:4" ht="12.75">
+    <row r="970" spans="1:4" ht="13">
       <c r="A970" s="3"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
       <c r="D970" s="3"/>
     </row>
-    <row r="971" spans="1:4" ht="12.75">
+    <row r="971" spans="1:4" ht="13">
       <c r="A971" s="3"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
       <c r="D971" s="3"/>
     </row>
-    <row r="972" spans="1:4" ht="12.75">
+    <row r="972" spans="1:4" ht="13">
       <c r="A972" s="3"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
       <c r="D972" s="3"/>
     </row>
-    <row r="973" spans="1:4" ht="12.75">
+    <row r="973" spans="1:4" ht="13">
       <c r="A973" s="3"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
       <c r="D973" s="3"/>
     </row>
-    <row r="974" spans="1:4" ht="12.75">
+    <row r="974" spans="1:4" ht="13">
       <c r="A974" s="3"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
       <c r="D974" s="3"/>
     </row>
-    <row r="975" spans="1:4" ht="12.75">
+    <row r="975" spans="1:4" ht="13">
       <c r="A975" s="3"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
       <c r="D975" s="3"/>
     </row>
-    <row r="976" spans="1:4" ht="12.75">
+    <row r="976" spans="1:4" ht="13">
       <c r="A976" s="3"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
       <c r="D976" s="3"/>
     </row>
-    <row r="977" spans="1:4" ht="12.75">
+    <row r="977" spans="1:4" ht="13">
       <c r="A977" s="3"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
       <c r="D977" s="3"/>
     </row>
-    <row r="978" spans="1:4" ht="12.75">
+    <row r="978" spans="1:4" ht="13">
       <c r="A978" s="3"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
       <c r="D978" s="3"/>
     </row>
-    <row r="979" spans="1:4" ht="12.75">
+    <row r="979" spans="1:4" ht="13">
       <c r="A979" s="3"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
       <c r="D979" s="3"/>
     </row>
-    <row r="980" spans="1:4" ht="12.75">
+    <row r="980" spans="1:4" ht="13">
       <c r="A980" s="3"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
       <c r="D980" s="3"/>
     </row>
-    <row r="981" spans="1:4" ht="12.75">
+    <row r="981" spans="1:4" ht="13">
       <c r="A981" s="3"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
       <c r="D981" s="3"/>
     </row>
-    <row r="982" spans="1:4" ht="12.75">
+    <row r="982" spans="1:4" ht="13">
       <c r="A982" s="3"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
       <c r="D982" s="3"/>
     </row>
-    <row r="983" spans="1:4" ht="12.75">
+    <row r="983" spans="1:4" ht="13">
       <c r="A983" s="3"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
       <c r="D983" s="3"/>
     </row>
-    <row r="984" spans="1:4" ht="12.75">
+    <row r="984" spans="1:4" ht="13">
       <c r="A984" s="3"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
       <c r="D984" s="3"/>
     </row>
-    <row r="985" spans="1:4" ht="12.75">
+    <row r="985" spans="1:4" ht="13">
       <c r="A985" s="3"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
       <c r="D985" s="3"/>
     </row>
-    <row r="986" spans="1:4" ht="12.75">
+    <row r="986" spans="1:4" ht="13">
       <c r="A986" s="3"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
       <c r="D986" s="3"/>
     </row>
-    <row r="987" spans="1:4" ht="12.75">
+    <row r="987" spans="1:4" ht="13">
       <c r="A987" s="3"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
       <c r="D987" s="3"/>
     </row>
-    <row r="988" spans="1:4" ht="12.75">
+    <row r="988" spans="1:4" ht="13">
       <c r="A988" s="3"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
       <c r="D988" s="3"/>
     </row>
-    <row r="989" spans="1:4" ht="12.75">
+    <row r="989" spans="1:4" ht="13">
       <c r="A989" s="3"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
       <c r="D989" s="3"/>
     </row>
-    <row r="990" spans="1:4" ht="12.75">
+    <row r="990" spans="1:4" ht="13">
       <c r="A990" s="3"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
       <c r="D990" s="3"/>
     </row>
-    <row r="991" spans="1:4" ht="12.75">
+    <row r="991" spans="1:4" ht="13">
       <c r="A991" s="3"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
       <c r="D991" s="3"/>
     </row>
-    <row r="992" spans="1:4" ht="12.75">
+    <row r="992" spans="1:4" ht="13">
       <c r="A992" s="3"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
       <c r="D992" s="3"/>
     </row>
-    <row r="993" spans="1:4" ht="12.75">
+    <row r="993" spans="1:4" ht="13">
       <c r="A993" s="3"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
       <c r="D993" s="3"/>
     </row>
-    <row r="994" spans="1:4" ht="12.75">
+    <row r="994" spans="1:4" ht="13">
       <c r="A994" s="3"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
       <c r="D994" s="3"/>
     </row>
-    <row r="995" spans="1:4" ht="12.75">
+    <row r="995" spans="1:4" ht="13">
       <c r="A995" s="3"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
       <c r="D995" s="3"/>
     </row>
-    <row r="996" spans="1:4" ht="12.75">
+    <row r="996" spans="1:4" ht="13">
       <c r="A996" s="3"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
       <c r="D996" s="3"/>
     </row>
-    <row r="997" spans="1:4" ht="12.75">
+    <row r="997" spans="1:4" ht="13">
       <c r="A997" s="3"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
       <c r="D997" s="3"/>
     </row>
-    <row r="998" spans="1:4" ht="12.75">
+    <row r="998" spans="1:4" ht="13">
       <c r="A998" s="3"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
       <c r="D998" s="3"/>
     </row>
-    <row r="999" spans="1:4" ht="12.75">
+    <row r="999" spans="1:4" ht="13">
       <c r="A999" s="3"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
       <c r="D999" s="3"/>
     </row>
-    <row r="1000" spans="1:4" ht="12.75">
+    <row r="1000" spans="1:4" ht="13">
       <c r="A1000" s="3"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
       <c r="D1000" s="3"/>
     </row>
-    <row r="1001" spans="1:4" ht="12.75">
+    <row r="1001" spans="1:4" ht="13">
       <c r="A1001" s="3"/>
       <c r="B1001" s="5"/>
       <c r="C1001" s="5"/>
       <c r="D1001" s="3"/>
     </row>
-    <row r="1002" spans="1:4" ht="12.75">
+    <row r="1002" spans="1:4" ht="13">
       <c r="A1002" s="3"/>
       <c r="B1002" s="5"/>
       <c r="C1002" s="5"/>
       <c r="D1002" s="3"/>
     </row>
-    <row r="1003" spans="1:4" ht="12.75">
+    <row r="1003" spans="1:4" ht="13">
       <c r="A1003" s="3"/>
       <c r="B1003" s="5"/>
       <c r="C1003" s="5"/>
       <c r="D1003" s="3"/>
     </row>
-    <row r="1004" spans="1:4" ht="12.75">
+    <row r="1004" spans="1:4" ht="13">
       <c r="A1004" s="3"/>
       <c r="B1004" s="5"/>
       <c r="C1004" s="5"/>
       <c r="D1004" s="3"/>
     </row>
-    <row r="1005" spans="1:4" ht="12.75">
+    <row r="1005" spans="1:4" ht="13">
       <c r="A1005" s="3"/>
       <c r="B1005" s="5"/>
       <c r="C1005" s="5"/>
       <c r="D1005" s="3"/>
     </row>
-    <row r="1006" spans="1:4" ht="12.75">
+    <row r="1006" spans="1:4" ht="13">
       <c r="A1006" s="3"/>
       <c r="B1006" s="5"/>
       <c r="C1006" s="5"/>
       <c r="D1006" s="3"/>
     </row>
-    <row r="1007" spans="1:4" ht="12.75">
+    <row r="1007" spans="1:4" ht="13">
       <c r="A1007" s="3"/>
       <c r="B1007" s="5"/>
       <c r="C1007" s="5"/>
       <c r="D1007" s="3"/>
     </row>
-    <row r="1008" spans="1:4" ht="12.75">
+    <row r="1008" spans="1:4" ht="13">
       <c r="A1008" s="3"/>
       <c r="B1008" s="5"/>
       <c r="C1008" s="5"/>
       <c r="D1008" s="3"/>
     </row>
-    <row r="1009" spans="1:4" ht="12.75">
+    <row r="1009" spans="1:4" ht="13">
       <c r="A1009" s="3"/>
       <c r="B1009" s="5"/>
       <c r="C1009" s="5"/>
       <c r="D1009" s="3"/>
     </row>
-    <row r="1010" spans="1:4" ht="12.75">
+    <row r="1010" spans="1:4" ht="13">
       <c r="A1010" s="3"/>
       <c r="B1010" s="5"/>
       <c r="C1010" s="5"/>
       <c r="D1010" s="3"/>
     </row>
-    <row r="1011" spans="1:4" ht="12.75">
+    <row r="1011" spans="1:4" ht="13">
       <c r="A1011" s="3"/>
       <c r="B1011" s="5"/>
       <c r="C1011" s="5"/>
       <c r="D1011" s="3"/>
     </row>
-    <row r="1012" spans="1:4" ht="12.75">
+    <row r="1012" spans="1:4" ht="13">
       <c r="A1012" s="3"/>
       <c r="B1012" s="5"/>
       <c r="C1012" s="5"/>

--- a/QuizAndKeyList.xlsx
+++ b/QuizAndKeyList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="357">
   <si>
     <t>No</t>
   </si>
@@ -2096,6 +2096,15 @@
   </si>
   <si>
     <t>使用快慢指標 一開始兩者都指向head 快指摽一次兩步 慢指摽一次一步 快慢指標重疊時代表有環 此時再從head造另一個慢指標 一個指標從第一重疊點 一個指標從頭 一次一步 走到的第二重疊點就是入口</t>
+  </si>
+  <si>
+    <t>Reverse Linked List 2</t>
+  </si>
+  <si>
+    <t>給一個singly linked list 以及m,n 然後在m,n兩個node之間 做reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以用#206的方法 先抵達m 再依序往後調整指標往前 做n-m次 但最後還要把m-1的指針指向n 另外一個作法是 每一次循環都把下一個node往前拉到m-1的位置 這個方法比較單純 注意: 使用dummy node的好處是不需要處理例外情況 例如m=1 再仔細研究一下 </t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2617,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2957,9 +2971,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3020,11 +3034,11 @@
       </c>
       <c r="N1" s="34">
         <f>COUNTA(B4:B200)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O1" s="34">
         <f>COUNTA(J10:J206)</f>
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="24" customFormat="1" ht="16">
@@ -3070,254 +3084,245 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="51" customFormat="1" ht="31" thickBot="1">
+    <row r="4" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A4" s="40">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B4" s="41">
         <v>43087</v>
       </c>
       <c r="C4" s="42">
-        <v>43088</v>
-      </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>289</v>
+        <v>43087</v>
+      </c>
+      <c r="D4" s="59">
+        <v>169</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>308</v>
+      <c r="H4" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>317</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="K4" s="49">
-        <v>3213</v>
-      </c>
-      <c r="L4" s="49">
-        <v>100</v>
-      </c>
-      <c r="M4" s="50">
-        <f t="shared" ref="M4:M35" si="0">IF(ISBLANK(K4),,((K4-L4*2)+1000)/9)</f>
-        <v>445.88888888888891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="51" customFormat="1" ht="76" thickBot="1">
+        <v>318</v>
+      </c>
+      <c r="K4" s="61">
+        <v>416</v>
+      </c>
+      <c r="L4" s="61">
+        <v>39</v>
+      </c>
+      <c r="M4" s="58">
+        <f>IF(ISBLANK(K4),,((K4-L4*2)+1000)/9)</f>
+        <v>148.66666666666666</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+    </row>
+    <row r="5" spans="1:30" s="51" customFormat="1" ht="118" thickBot="1">
       <c r="A5" s="40">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B5" s="41">
         <v>43087</v>
       </c>
       <c r="C5" s="42">
-        <v>43088</v>
-      </c>
-      <c r="D5" s="52">
-        <v>15</v>
+        <v>43087</v>
+      </c>
+      <c r="D5" s="43">
+        <v>179</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="H5" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="K5" s="54">
-        <v>905</v>
-      </c>
-      <c r="L5" s="54">
-        <v>103</v>
+      <c r="H5" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="62">
+        <v>215</v>
+      </c>
+      <c r="L5" s="62">
+        <v>23</v>
       </c>
       <c r="M5" s="50">
-        <f t="shared" si="0"/>
-        <v>188.77777777777777</v>
-      </c>
-      <c r="N5" s="55"/>
-    </row>
-    <row r="6" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
+        <f>IF(ISBLANK(K5),,((K5-L5*2)+1000)/9)</f>
+        <v>129.88888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="51" customFormat="1" ht="31" thickBot="1">
       <c r="A6" s="40">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B6" s="41">
-        <v>43072</v>
-      </c>
-      <c r="C6" s="42">
-        <v>43082</v>
-      </c>
-      <c r="D6" s="52">
-        <v>167</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="K6" s="57">
-        <v>245</v>
-      </c>
-      <c r="L6" s="57">
-        <v>114</v>
-      </c>
-      <c r="M6" s="58">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-    </row>
-    <row r="7" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
+        <v>43087</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="43">
+        <v>287</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="62">
+        <v>660</v>
+      </c>
+      <c r="L6" s="62">
+        <v>53</v>
+      </c>
+      <c r="M6" s="50">
+        <f>IF(ISBLANK(K6),,((K6-L6*2)+1000)/9)</f>
+        <v>172.66666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="55" customFormat="1" ht="31" thickBot="1">
       <c r="A7" s="40">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" s="41">
         <v>43087</v>
       </c>
-      <c r="C7" s="42">
-        <v>43087</v>
-      </c>
-      <c r="D7" s="59">
-        <v>169</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="G7" s="60" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="43">
+        <v>347</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="I7" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="K7" s="61">
-        <v>416</v>
-      </c>
-      <c r="L7" s="61">
-        <v>39</v>
-      </c>
-      <c r="M7" s="58">
-        <f t="shared" si="0"/>
-        <v>148.66666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="55" customFormat="1" ht="118" thickBot="1">
+      <c r="I7" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="62">
+        <v>308</v>
+      </c>
+      <c r="L7" s="62">
+        <v>24</v>
+      </c>
+      <c r="M7" s="50">
+        <f>IF(ISBLANK(K7),,((K7-L7*2)+1000)/9)</f>
+        <v>140</v>
+      </c>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+    </row>
+    <row r="8" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A8" s="40">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B8" s="41">
-        <v>43087</v>
+        <v>43063</v>
       </c>
       <c r="C8" s="42">
-        <v>43087</v>
-      </c>
-      <c r="D8" s="43">
-        <v>179</v>
+        <v>43063</v>
+      </c>
+      <c r="D8" s="52">
+        <v>200</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>303</v>
+        <v>174</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>319</v>
+        <v>176</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="K8" s="62">
-        <v>215</v>
-      </c>
-      <c r="L8" s="62">
-        <v>23</v>
-      </c>
-      <c r="M8" s="50">
-        <f t="shared" si="0"/>
-        <v>129.88888888888889</v>
-      </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
+        <v>177</v>
+      </c>
+      <c r="K8" s="57">
+        <v>486</v>
+      </c>
+      <c r="L8" s="57">
+        <v>24</v>
+      </c>
+      <c r="M8" s="58">
+        <f>IF(ISBLANK(K8),,((K8-L8*2)+1000)/9)</f>
+        <v>159.77777777777777</v>
+      </c>
     </row>
     <row r="9" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A9" s="40">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="41">
         <v>43063</v>
@@ -3326,13 +3331,13 @@
         <v>43063</v>
       </c>
       <c r="D9" s="52">
-        <v>200</v>
+        <v>463</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>165</v>
@@ -3341,113 +3346,104 @@
         <v>175</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="K9" s="57">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="L9" s="57">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M9" s="58">
-        <f t="shared" si="0"/>
-        <v>159.77777777777777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" s="55" customFormat="1" ht="31" thickBot="1">
+        <f>IF(ISBLANK(K9),,((K9-L9*2)+1000)/9)</f>
+        <v>134.44444444444446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="55" customFormat="1" ht="131" thickBot="1">
       <c r="A10" s="40">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B10" s="41">
-        <v>43087</v>
-      </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="43">
-        <v>287</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="I10" s="91" t="s">
-        <v>347</v>
-      </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="62">
-        <v>660</v>
-      </c>
-      <c r="L10" s="62">
-        <v>53</v>
-      </c>
-      <c r="M10" s="50">
-        <f t="shared" si="0"/>
-        <v>172.66666666666666</v>
-      </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
+        <v>43062</v>
+      </c>
+      <c r="C10" s="42">
+        <v>43062</v>
+      </c>
+      <c r="D10" s="52">
+        <v>398</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="57">
+        <v>56</v>
+      </c>
+      <c r="L10" s="57">
+        <v>166</v>
+      </c>
+      <c r="M10" s="58">
+        <f>IF(ISBLANK(K10),,((K10-L10*2)+1000)/9)</f>
+        <v>80.444444444444443</v>
+      </c>
     </row>
     <row r="11" spans="1:30" s="55" customFormat="1" ht="31" thickBot="1">
       <c r="A11" s="40">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="41">
         <v>43087</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="42">
+        <v>43088</v>
+      </c>
       <c r="D11" s="43">
-        <v>347</v>
+        <v>1</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>301</v>
+      <c r="F11" s="45" t="s">
+        <v>292</v>
       </c>
       <c r="G11" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="62">
+      <c r="H11" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="62">
-        <v>24</v>
+      <c r="J11" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="K11" s="49">
+        <v>3213</v>
+      </c>
+      <c r="L11" s="49">
+        <v>100</v>
       </c>
       <c r="M11" s="50">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f>IF(ISBLANK(K11),,((K11-L11*2)+1000)/9)</f>
+        <v>445.88888888888891</v>
       </c>
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
@@ -3469,86 +3465,102 @@
     </row>
     <row r="12" spans="1:30" s="55" customFormat="1" ht="138" customHeight="1" thickBot="1">
       <c r="A12" s="40">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B12" s="41">
-        <v>43062</v>
+        <v>43087</v>
       </c>
       <c r="C12" s="42">
-        <v>43062</v>
+        <v>43088</v>
       </c>
       <c r="D12" s="52">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>165</v>
+        <v>309</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>302</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="K12" s="57">
-        <v>56</v>
-      </c>
-      <c r="L12" s="57">
-        <v>166</v>
-      </c>
-      <c r="M12" s="58">
-        <f t="shared" si="0"/>
-        <v>80.444444444444443</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="54">
+        <v>905</v>
+      </c>
+      <c r="L12" s="54">
+        <v>103</v>
+      </c>
+      <c r="M12" s="50">
+        <f>IF(ISBLANK(K12),,((K12-L12*2)+1000)/9)</f>
+        <v>188.77777777777777</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
     </row>
     <row r="13" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A13" s="40">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="41">
-        <v>43063</v>
+        <v>43072</v>
       </c>
       <c r="C13" s="42">
-        <v>43063</v>
+        <v>43082</v>
       </c>
       <c r="D13" s="52">
-        <v>463</v>
+        <v>167</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="G13" s="48" t="s">
         <v>165</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="K13" s="57">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="L13" s="57">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M13" s="58">
-        <f t="shared" si="0"/>
-        <v>134.44444444444446</v>
+        <f>IF(ISBLANK(K13),,((K13-L13*2)+1000)/9)</f>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
@@ -3589,50 +3601,56 @@
         <v>912</v>
       </c>
       <c r="M14" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K14),,((K14-L14*2)+1000)/9)</f>
         <v>-62.555555555555557</v>
       </c>
       <c r="N14" s="51"/>
     </row>
-    <row r="15" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
+    <row r="15" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A15" s="40">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B15" s="41">
-        <v>43036</v>
+        <v>43051</v>
       </c>
       <c r="C15" s="42">
-        <v>43036</v>
+        <v>43051</v>
       </c>
       <c r="D15" s="52">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>230</v>
+        <v>148</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
+        <v>149</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="57">
+        <v>196</v>
+      </c>
+      <c r="L15" s="57">
+        <v>793</v>
+      </c>
       <c r="M15" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
+        <f>IF(ISBLANK(K15),,((K15-L15*2)+1000)/9)</f>
+        <v>-43.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A16" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="41">
         <v>43036</v>
@@ -3641,109 +3659,109 @@
         <v>43036</v>
       </c>
       <c r="D16" s="52">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>230</v>
+        <v>161</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="K16" s="70"/>
       <c r="L16" s="70"/>
       <c r="M16" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K16),,((K16-L16*2)+1000)/9)</f>
         <v>0</v>
       </c>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
     </row>
     <row r="17" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A17" s="40">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B17" s="41">
-        <v>43074</v>
+        <v>43042</v>
       </c>
       <c r="C17" s="42">
         <v>43082</v>
       </c>
       <c r="D17" s="52">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I17" s="56" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="K17" s="57">
-        <v>218</v>
-      </c>
-      <c r="L17" s="57">
-        <v>65</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
       <c r="M17" s="58">
-        <f t="shared" si="0"/>
-        <v>120.88888888888889</v>
-      </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
+        <f>IF(ISBLANK(K17),,((K17-L17*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="71" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A18" s="40">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B18" s="41">
-        <v>43051</v>
+        <v>43042</v>
       </c>
       <c r="C18" s="42">
-        <v>43051</v>
+        <v>43082</v>
       </c>
       <c r="D18" s="52">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>25</v>
@@ -3752,40 +3770,36 @@
         <v>26</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" s="57">
-        <v>196</v>
-      </c>
-      <c r="L18" s="57">
-        <v>793</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="58">
-        <f t="shared" si="0"/>
-        <v>-43.333333333333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
+        <f>IF(ISBLANK(K18),,((K18-L18*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="55" customFormat="1" ht="46" thickBot="1">
       <c r="A19" s="40">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B19" s="41">
-        <v>43036</v>
+        <v>43042</v>
       </c>
       <c r="C19" s="42">
-        <v>43036</v>
+        <v>43082</v>
       </c>
       <c r="D19" s="52">
-        <v>162</v>
+        <v>442</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>25</v>
@@ -3794,53 +3808,36 @@
         <v>26</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>163</v>
+        <v>345</v>
       </c>
       <c r="K19" s="70"/>
       <c r="L19" s="70"/>
       <c r="M19" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K19),,((K19-L19*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-    </row>
-    <row r="20" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
+    </row>
+    <row r="20" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
       <c r="A20" s="40">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B20" s="41">
-        <v>43042</v>
+        <v>43064</v>
       </c>
       <c r="C20" s="42">
         <v>43082</v>
       </c>
       <c r="D20" s="52">
-        <v>215</v>
+        <v>448</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>178</v>
+        <v>91</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>236</v>
       </c>
       <c r="G20" s="48" t="s">
         <v>25</v>
@@ -3849,138 +3846,153 @@
         <v>26</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
+        <v>215</v>
+      </c>
+      <c r="K20" s="57">
+        <v>434</v>
+      </c>
+      <c r="L20" s="57">
+        <v>48</v>
+      </c>
       <c r="M20" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
+        <f>IF(ISBLANK(K20),,((K20-L20*2)+1000)/9)</f>
+        <v>148.66666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A21" s="40">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B21" s="41">
-        <v>43042</v>
+        <v>43036</v>
       </c>
       <c r="C21" s="42">
-        <v>43082</v>
+        <v>43036</v>
       </c>
       <c r="D21" s="52">
-        <v>349</v>
+        <v>54</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>25</v>
+        <v>120</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>230</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>205</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J21" s="48"/>
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
       <c r="M21" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K21),,((K21-L21*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="55" customFormat="1" ht="46" thickBot="1">
+    <row r="22" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A22" s="40">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B22" s="41">
-        <v>43042</v>
+        <v>43036</v>
       </c>
       <c r="C22" s="42">
-        <v>43082</v>
+        <v>43036</v>
       </c>
       <c r="D22" s="52">
-        <v>442</v>
+        <v>59</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>25</v>
+        <v>125</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>230</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>344</v>
+        <v>126</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
       <c r="M22" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K22),,((K22-L22*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
+    <row r="23" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A23" s="40">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B23" s="41">
-        <v>43064</v>
+        <v>43074</v>
       </c>
       <c r="C23" s="42">
         <v>43082</v>
       </c>
       <c r="D23" s="52">
-        <v>448</v>
+        <v>73</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>236</v>
+        <v>29</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="G23" s="48" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="K23" s="57">
-        <v>434</v>
+        <v>218</v>
       </c>
       <c r="L23" s="57">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M23" s="58">
-        <f t="shared" si="0"/>
-        <v>148.66666666666666</v>
-      </c>
+        <f>IF(ISBLANK(K23),,((K23-L23*2)+1000)/9)</f>
+        <v>120.88888888888889</v>
+      </c>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
     </row>
     <row r="24" spans="1:30" s="55" customFormat="1" ht="66" thickBot="1">
       <c r="A24" s="40">
@@ -4020,7 +4032,7 @@
         <v>59</v>
       </c>
       <c r="M24" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K24),,((K24-L24*2)+1000)/9)</f>
         <v>151.33333333333334</v>
       </c>
     </row>
@@ -4062,13 +4074,13 @@
         <v>41</v>
       </c>
       <c r="M25" s="50">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K25),,((K25-L25*2)+1000)/9)</f>
         <v>170.22222222222223</v>
       </c>
     </row>
     <row r="26" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A26" s="40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="41">
         <v>43038</v>
@@ -4077,34 +4089,36 @@
         <v>43038</v>
       </c>
       <c r="D26" s="52">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="G26" s="48" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="J26" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>145</v>
+      </c>
       <c r="K26" s="70"/>
       <c r="L26" s="70"/>
       <c r="M26" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K26),,((K26-L26*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A27" s="40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="41">
         <v>43038</v>
@@ -4113,13 +4127,13 @@
         <v>43038</v>
       </c>
       <c r="D27" s="52">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="72" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="G27" s="48" t="s">
         <v>40</v>
@@ -4128,19 +4142,19 @@
         <v>228</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J27" s="48"/>
       <c r="K27" s="70"/>
       <c r="L27" s="70"/>
       <c r="M27" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K27),,((K27-L27*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A28" s="40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="41">
         <v>43038</v>
@@ -4149,30 +4163,28 @@
         <v>43038</v>
       </c>
       <c r="D28" s="52">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="72" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G28" s="48" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>145</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J28" s="48"/>
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
       <c r="M28" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K28),,((K28-L28*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
@@ -4210,7 +4222,7 @@
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K29),,((K29-L29*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
@@ -4246,7 +4258,7 @@
       <c r="K30" s="70"/>
       <c r="L30" s="70"/>
       <c r="M30" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K30),,((K30-L30*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
@@ -4280,7 +4292,7 @@
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
       <c r="M31" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K31),,((K31-L31*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
@@ -4322,7 +4334,7 @@
         <v>136</v>
       </c>
       <c r="M32" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K32),,((K32-L32*2)+1000)/9)</f>
         <v>89</v>
       </c>
       <c r="N32" s="51"/>
@@ -4381,7 +4393,7 @@
         <v>54</v>
       </c>
       <c r="M33" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(K33),,((K33-L33*2)+1000)/9)</f>
         <v>112.88888888888889</v>
       </c>
       <c r="N33" s="51"/>
@@ -4404,42 +4416,40 @@
     </row>
     <row r="34" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A34" s="40">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B34" s="41">
-        <v>43082</v>
-      </c>
-      <c r="C34" s="42">
-        <v>43082</v>
-      </c>
+        <v>43084</v>
+      </c>
+      <c r="C34" s="42"/>
       <c r="D34" s="52">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="G34" s="48" t="s">
         <v>46</v>
       </c>
       <c r="H34" s="48" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="J34" s="48"/>
       <c r="K34" s="57">
-        <v>1030</v>
+        <v>280</v>
       </c>
       <c r="L34" s="57">
-        <v>34</v>
-      </c>
-      <c r="M34" s="58">
-        <f t="shared" si="0"/>
-        <v>218</v>
+        <v>20</v>
+      </c>
+      <c r="M34" s="50">
+        <f>IF(ISBLANK(K34),,((K34-L34*2)+1000)/9)</f>
+        <v>137.77777777777777</v>
       </c>
       <c r="O34" s="51"/>
       <c r="P34" s="51"/>
@@ -4458,24 +4468,24 @@
       <c r="AC34" s="51"/>
       <c r="AD34" s="51"/>
     </row>
-    <row r="35" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
+    <row r="35" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A35" s="40">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B35" s="41">
-        <v>43052</v>
+        <v>43082</v>
       </c>
       <c r="C35" s="42">
-        <v>43052</v>
+        <v>43082</v>
       </c>
       <c r="D35" s="52">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G35" s="48" t="s">
         <v>46</v>
@@ -4484,25 +4494,39 @@
         <v>129</v>
       </c>
       <c r="I35" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>131</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J35" s="48"/>
       <c r="K35" s="57">
-        <v>290</v>
+        <v>1030</v>
       </c>
       <c r="L35" s="57">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M35" s="58">
-        <f t="shared" si="0"/>
-        <v>139.55555555555554</v>
-      </c>
+        <f>IF(ISBLANK(K35),,((K35-L35*2)+1000)/9)</f>
+        <v>218</v>
+      </c>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
     </row>
     <row r="36" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A36" s="40">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="41">
         <v>43052</v>
@@ -4511,13 +4535,13 @@
         <v>43052</v>
       </c>
       <c r="D36" s="52">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G36" s="48" t="s">
         <v>46</v>
@@ -4526,38 +4550,40 @@
         <v>129</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K36" s="57">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="L36" s="57">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M36" s="58">
-        <f t="shared" ref="M36:M67" si="1">IF(ISBLANK(K36),,((K36-L36*2)+1000)/9)</f>
-        <v>123.33333333333333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
+        <f>IF(ISBLANK(K36),,((K36-L36*2)+1000)/9)</f>
+        <v>139.55555555555554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
       <c r="A37" s="40">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B37" s="41">
-        <v>43084</v>
-      </c>
-      <c r="C37" s="42"/>
+        <v>43052</v>
+      </c>
+      <c r="C37" s="42">
+        <v>43052</v>
+      </c>
       <c r="D37" s="52">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="G37" s="48" t="s">
         <v>46</v>
@@ -4566,54 +4592,38 @@
         <v>129</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="J37" s="48"/>
+        <v>133</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>134</v>
+      </c>
       <c r="K37" s="57">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="L37" s="57">
-        <v>22</v>
-      </c>
-      <c r="M37" s="50">
-        <f t="shared" si="1"/>
-        <v>160.22222222222223</v>
-      </c>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="51"/>
-    </row>
-    <row r="38" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
+        <v>12</v>
+      </c>
+      <c r="M37" s="58">
+        <f>IF(ISBLANK(K37),,((K37-L37*2)+1000)/9)</f>
+        <v>123.33333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A38" s="40">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B38" s="41">
-        <v>43036</v>
-      </c>
-      <c r="C38" s="42">
-        <v>43036</v>
-      </c>
+        <v>43084</v>
+      </c>
+      <c r="C38" s="42"/>
       <c r="D38" s="52">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="G38" s="48" t="s">
         <v>46</v>
@@ -4622,20 +4632,18 @@
         <v>129</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="J38" s="48" t="s">
-        <v>154</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="J38" s="48"/>
       <c r="K38" s="57">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="L38" s="57">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="M38" s="50">
-        <f t="shared" si="1"/>
-        <v>140.77777777777777</v>
+        <f>IF(ISBLANK(K38),,((K38-L38*2)+1000)/9)</f>
+        <v>160.22222222222223</v>
       </c>
       <c r="O38" s="51"/>
       <c r="P38" s="51"/>
@@ -4654,77 +4662,80 @@
       <c r="AC38" s="51"/>
       <c r="AD38" s="51"/>
     </row>
-    <row r="39" spans="1:30" s="55" customFormat="1" ht="16" thickBot="1">
+    <row r="39" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
       <c r="A39" s="40">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B39" s="41">
-        <v>43087</v>
-      </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="43">
-        <v>198</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>289</v>
+        <v>43036</v>
+      </c>
+      <c r="C39" s="42">
+        <v>43036</v>
+      </c>
+      <c r="D39" s="52">
+        <v>120</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>286</v>
+        <v>24</v>
       </c>
       <c r="G39" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="49">
-        <v>625</v>
-      </c>
-      <c r="L39" s="49">
-        <v>18</v>
+      <c r="H39" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="K39" s="57">
+        <v>271</v>
+      </c>
+      <c r="L39" s="57">
+        <v>2</v>
       </c>
       <c r="M39" s="50">
-        <f t="shared" si="1"/>
-        <v>176.55555555555554</v>
-      </c>
-      <c r="N39" s="51"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="75"/>
-      <c r="X39" s="75"/>
-      <c r="Y39" s="75"/>
-      <c r="Z39" s="75"/>
-      <c r="AA39" s="75"/>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="75"/>
-      <c r="AD39" s="75"/>
-    </row>
-    <row r="40" spans="1:30" s="55" customFormat="1" ht="31" thickBot="1">
+        <f>IF(ISBLANK(K39),,((K39-L39*2)+1000)/9)</f>
+        <v>140.77777777777777</v>
+      </c>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+    </row>
+    <row r="40" spans="1:30" s="55" customFormat="1" ht="16" thickBot="1">
       <c r="A40" s="40">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="41">
         <v>43087</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="43">
-        <v>213</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>29</v>
+        <v>198</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>289</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G40" s="48" t="s">
         <v>46</v>
@@ -4732,75 +4743,76 @@
       <c r="H40" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="I40" s="56" t="s">
-        <v>290</v>
+      <c r="I40" s="47" t="s">
+        <v>291</v>
       </c>
       <c r="J40" s="48"/>
       <c r="K40" s="49">
-        <v>171</v>
+        <v>625</v>
       </c>
       <c r="L40" s="49">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M40" s="50">
-        <f t="shared" si="1"/>
-        <v>129</v>
+        <f>IF(ISBLANK(K40),,((K40-L40*2)+1000)/9)</f>
+        <v>176.55555555555554</v>
       </c>
       <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-    </row>
-    <row r="41" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="75"/>
+    </row>
+    <row r="41" spans="1:30" s="55" customFormat="1" ht="31" thickBot="1">
       <c r="A41" s="40">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B41" s="41">
-        <v>43084</v>
-      </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="52">
-        <v>322</v>
+        <v>43087</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="43">
+        <v>213</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="G41" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="48" t="s">
-        <v>254</v>
+      <c r="H41" s="46" t="s">
+        <v>288</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="J41" s="48"/>
-      <c r="K41" s="57">
-        <v>280</v>
-      </c>
-      <c r="L41" s="57">
-        <v>20</v>
+      <c r="K41" s="49">
+        <v>171</v>
+      </c>
+      <c r="L41" s="49">
+        <v>5</v>
       </c>
       <c r="M41" s="50">
-        <f t="shared" si="1"/>
-        <v>137.77777777777777</v>
-      </c>
+        <f>IF(ISBLANK(K41),,((K41-L41*2)+1000)/9)</f>
+        <v>129</v>
+      </c>
+      <c r="N41" s="51"/>
       <c r="O41" s="51"/>
       <c r="P41" s="51"/>
       <c r="Q41" s="51"/>
@@ -4856,7 +4868,7 @@
         <v>386</v>
       </c>
       <c r="M42" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K42),,((K42-L42*2)+1000)/9)</f>
         <v>145</v>
       </c>
     </row>
@@ -4898,7 +4910,7 @@
         <v>22</v>
       </c>
       <c r="M43" s="50">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K43),,((K43-L43*2)+1000)/9)</f>
         <v>147</v>
       </c>
     </row>
@@ -4940,7 +4952,7 @@
         <v>102</v>
       </c>
       <c r="M44" s="50">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K44),,((K44-L44*2)+1000)/9)</f>
         <v>138.66666666666666</v>
       </c>
     </row>
@@ -4982,7 +4994,7 @@
         <v>40</v>
       </c>
       <c r="M45" s="50">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K45),,((K45-L45*2)+1000)/9)</f>
         <v>160.66666666666666</v>
       </c>
       <c r="O45" s="51"/>
@@ -5040,7 +5052,7 @@
         <v>16</v>
       </c>
       <c r="M46" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K46),,((K46-L46*2)+1000)/9)</f>
         <v>176.44444444444446</v>
       </c>
       <c r="N46" s="51"/>
@@ -5063,155 +5075,184 @@
     </row>
     <row r="47" spans="1:30" s="55" customFormat="1" ht="27" thickBot="1">
       <c r="A47" s="40">
+        <v>78</v>
+      </c>
+      <c r="B47" s="80">
+        <v>43127</v>
+      </c>
+      <c r="C47" s="80">
+        <v>43127</v>
+      </c>
+      <c r="D47" s="43">
+        <v>141</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" s="49">
+        <v>454</v>
+      </c>
+      <c r="L47" s="49">
+        <v>22</v>
+      </c>
+      <c r="M47" s="58">
+        <f>IF(ISBLANK(K47),,((K47-L47*2)+1000)/9)</f>
+        <v>156.66666666666666</v>
+      </c>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+    </row>
+    <row r="48" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
+      <c r="A48" s="40">
+        <v>79</v>
+      </c>
+      <c r="B48" s="80">
+        <v>43127</v>
+      </c>
+      <c r="C48" s="80">
+        <v>43127</v>
+      </c>
+      <c r="D48" s="43">
+        <v>142</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" s="49">
+        <v>394</v>
+      </c>
+      <c r="L48" s="49">
+        <v>23</v>
+      </c>
+      <c r="M48" s="58">
+        <f>IF(ISBLANK(K48),,((K48-L48*2)+1000)/9)</f>
+        <v>149.77777777777777</v>
+      </c>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+    </row>
+    <row r="49" spans="1:30" s="79" customFormat="1" ht="53" thickBot="1">
+      <c r="A49" s="40">
+        <v>80</v>
+      </c>
+      <c r="B49" s="41">
+        <v>43127</v>
+      </c>
+      <c r="C49" s="42">
+        <v>43127</v>
+      </c>
+      <c r="D49" s="43">
+        <v>92</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="J49" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="K49" s="49">
+        <v>309</v>
+      </c>
+      <c r="L49" s="49">
+        <v>30</v>
+      </c>
+      <c r="M49" s="58">
+        <f>IF(ISBLANK(K49),,((K49-L49*2)+1000)/9)</f>
+        <v>138.77777777777777</v>
+      </c>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+    </row>
+    <row r="50" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
+      <c r="A50" s="40">
         <v>24</v>
-      </c>
-      <c r="B47" s="41">
-        <v>43044</v>
-      </c>
-      <c r="C47" s="42">
-        <v>43044</v>
-      </c>
-      <c r="D47" s="52">
-        <v>136</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="J47" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="79"/>
-    </row>
-    <row r="48" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
-      <c r="A48" s="40">
-        <v>26</v>
-      </c>
-      <c r="B48" s="41">
-        <v>43045</v>
-      </c>
-      <c r="C48" s="42">
-        <v>43045</v>
-      </c>
-      <c r="D48" s="52">
-        <v>137</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="J48" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="79"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79"/>
-      <c r="X48" s="79"/>
-      <c r="Y48" s="79"/>
-      <c r="Z48" s="79"/>
-      <c r="AA48" s="79"/>
-      <c r="AB48" s="79"/>
-      <c r="AC48" s="79"/>
-      <c r="AD48" s="79"/>
-    </row>
-    <row r="49" spans="1:30" s="79" customFormat="1" ht="14" thickBot="1">
-      <c r="A49" s="40">
-        <v>18</v>
-      </c>
-      <c r="B49" s="41">
-        <v>43044</v>
-      </c>
-      <c r="C49" s="42">
-        <v>43044</v>
-      </c>
-      <c r="D49" s="52">
-        <v>190</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I49" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="J49" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="55"/>
-      <c r="AA49" s="55"/>
-      <c r="AB49" s="55"/>
-      <c r="AC49" s="55"/>
-      <c r="AD49" s="55"/>
-    </row>
-    <row r="50" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
-      <c r="A50" s="40">
-        <v>17</v>
       </c>
       <c r="B50" s="41">
         <v>43044</v>
@@ -5220,13 +5261,13 @@
         <v>43044</v>
       </c>
       <c r="D50" s="52">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="E50" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G50" s="48" t="s">
         <v>57</v>
@@ -5235,18 +5276,18 @@
         <v>58</v>
       </c>
       <c r="I50" s="56" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="K50" s="70"/>
       <c r="L50" s="70"/>
       <c r="M50" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K50),,((K50-L50*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="55"/>
+      <c r="N50" s="79"/>
       <c r="O50" s="55"/>
       <c r="P50" s="55"/>
       <c r="Q50" s="55"/>
@@ -5264,24 +5305,24 @@
       <c r="AC50" s="55"/>
       <c r="AD50" s="55"/>
     </row>
-    <row r="51" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="51" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A51" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B51" s="41">
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="C51" s="42">
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="D51" s="52">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G51" s="48" t="s">
         <v>57</v>
@@ -5290,53 +5331,53 @@
         <v>58</v>
       </c>
       <c r="I51" s="56" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="J51" s="48" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K51" s="70"/>
       <c r="L51" s="70"/>
       <c r="M51" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K51),,((K51-L51*2)+1000)/9)</f>
         <v>0</v>
       </c>
       <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
-      <c r="Y51" s="55"/>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="55"/>
-      <c r="AB51" s="55"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="55"/>
-    </row>
-    <row r="52" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="79"/>
+      <c r="S51" s="79"/>
+      <c r="T51" s="79"/>
+      <c r="U51" s="79"/>
+      <c r="V51" s="79"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="79"/>
+      <c r="AA51" s="79"/>
+      <c r="AB51" s="79"/>
+      <c r="AC51" s="79"/>
+      <c r="AD51" s="79"/>
+    </row>
+    <row r="52" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
       <c r="A52" s="40">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B52" s="41">
-        <v>43045</v>
+        <v>43044</v>
       </c>
       <c r="C52" s="42">
-        <v>43045</v>
+        <v>43044</v>
       </c>
       <c r="D52" s="52">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G52" s="48" t="s">
         <v>57</v>
@@ -5345,38 +5386,21 @@
         <v>58</v>
       </c>
       <c r="I52" s="56" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K52" s="70"/>
       <c r="L52" s="70"/>
       <c r="M52" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K52),,((K52-L52*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="51"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="51"/>
-      <c r="AC52" s="51"/>
-      <c r="AD52" s="51"/>
-    </row>
-    <row r="53" spans="1:30" s="55" customFormat="1" ht="14" thickBot="1">
+    </row>
+    <row r="53" spans="1:30" s="55" customFormat="1" ht="53" thickBot="1">
       <c r="A53" s="40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" s="41">
         <v>43044</v>
@@ -5385,13 +5409,13 @@
         <v>43044</v>
       </c>
       <c r="D53" s="52">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G53" s="48" t="s">
         <v>57</v>
@@ -5400,21 +5424,21 @@
         <v>58</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="K53" s="70"/>
       <c r="L53" s="70"/>
       <c r="M53" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K53),,((K53-L53*2)+1000)/9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
+    <row r="54" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A54" s="40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" s="41">
         <v>43044</v>
@@ -5423,13 +5447,13 @@
         <v>43044</v>
       </c>
       <c r="D54" s="52">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>57</v>
@@ -5438,15 +5462,15 @@
         <v>58</v>
       </c>
       <c r="I54" s="56" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K54" s="70"/>
       <c r="L54" s="70"/>
       <c r="M54" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K54),,((K54-L54*2)+1000)/9)</f>
         <v>0</v>
       </c>
       <c r="N54" s="55"/>
@@ -5467,24 +5491,24 @@
       <c r="AC54" s="55"/>
       <c r="AD54" s="55"/>
     </row>
-    <row r="55" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="55" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A55" s="40">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B55" s="41">
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="C55" s="42">
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="D55" s="52">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G55" s="48" t="s">
         <v>57</v>
@@ -5493,38 +5517,21 @@
         <v>58</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J55" s="48" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K55" s="70"/>
       <c r="L55" s="70"/>
       <c r="M55" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K55),,((K55-L55*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="55"/>
-      <c r="Y55" s="55"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
     </row>
     <row r="56" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A56" s="40">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B56" s="41">
         <v>43044</v>
@@ -5533,13 +5540,13 @@
         <v>43044</v>
       </c>
       <c r="D56" s="52">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="E56" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G56" s="48" t="s">
         <v>57</v>
@@ -5548,15 +5555,15 @@
         <v>58</v>
       </c>
       <c r="I56" s="56" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J56" s="48" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K56" s="70"/>
       <c r="L56" s="70"/>
       <c r="M56" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K56),,((K56-L56*2)+1000)/9)</f>
         <v>0</v>
       </c>
       <c r="N56" s="55"/>
@@ -5577,9 +5584,9 @@
       <c r="AC56" s="55"/>
       <c r="AD56" s="55"/>
     </row>
-    <row r="57" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="57" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A57" s="40">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B57" s="41">
         <v>43044</v>
@@ -5588,13 +5595,13 @@
         <v>43044</v>
       </c>
       <c r="D57" s="52">
-        <v>461</v>
+        <v>338</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="G57" s="48" t="s">
         <v>57</v>
@@ -5603,17 +5610,18 @@
         <v>58</v>
       </c>
       <c r="I57" s="56" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="K57" s="70"/>
       <c r="L57" s="70"/>
       <c r="M57" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K57),,((K57-L57*2)+1000)/9)</f>
         <v>0</v>
       </c>
+      <c r="N57" s="55"/>
       <c r="O57" s="55"/>
       <c r="P57" s="55"/>
       <c r="Q57" s="55"/>
@@ -5633,116 +5641,151 @@
     </row>
     <row r="58" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A58" s="40">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B58" s="41">
-        <v>43087</v>
-      </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="43">
-        <v>75</v>
-      </c>
-      <c r="E58" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="G58" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="H58" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="I58" s="65"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="62">
-        <v>358</v>
-      </c>
-      <c r="L58" s="62">
-        <v>50</v>
-      </c>
-      <c r="M58" s="50">
-        <f t="shared" si="1"/>
-        <v>139.77777777777777</v>
-      </c>
+        <v>43044</v>
+      </c>
+      <c r="C58" s="42">
+        <v>43044</v>
+      </c>
+      <c r="D58" s="52">
+        <v>342</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="J58" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="58">
+        <f>IF(ISBLANK(K58),,((K58-L58*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="55"/>
+      <c r="AD58" s="55"/>
     </row>
     <row r="59" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A59" s="40">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B59" s="41">
-        <v>43087</v>
-      </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="43">
-        <v>415</v>
-      </c>
-      <c r="E59" s="73" t="s">
+        <v>43044</v>
+      </c>
+      <c r="C59" s="42">
+        <v>43044</v>
+      </c>
+      <c r="D59" s="52">
+        <v>371</v>
+      </c>
+      <c r="E59" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="G59" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>138</v>
+        <v>206</v>
+      </c>
+      <c r="G59" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="I59" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="J59" s="48"/>
-      <c r="K59" s="49">
-        <v>108</v>
-      </c>
-      <c r="L59" s="49">
-        <v>33</v>
-      </c>
-      <c r="M59" s="50">
-        <f t="shared" si="1"/>
-        <v>115.77777777777777</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="J59" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="58">
+        <f>IF(ISBLANK(K59),,((K59-L59*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="55"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="55"/>
     </row>
     <row r="60" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A60" s="40">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B60" s="41">
-        <v>43039</v>
+        <v>43044</v>
       </c>
       <c r="C60" s="42">
-        <v>43039</v>
+        <v>43044</v>
       </c>
       <c r="D60" s="52">
-        <v>657</v>
+        <v>461</v>
       </c>
       <c r="E60" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" s="69" t="s">
-        <v>234</v>
+        <v>57</v>
+      </c>
+      <c r="H60" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="I60" s="56" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K60" s="70"/>
       <c r="L60" s="70"/>
       <c r="M60" s="58">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(K60),,((K60-L60*2)+1000)/9)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="55"/>
       <c r="O60" s="55"/>
       <c r="P60" s="55"/>
       <c r="Q60" s="55"/>
@@ -5760,153 +5803,138 @@
       <c r="AC60" s="55"/>
       <c r="AD60" s="55"/>
     </row>
-    <row r="61" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
+    <row r="61" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A61" s="40">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B61" s="41">
-        <v>43062</v>
-      </c>
-      <c r="C61" s="42">
-        <v>43062</v>
-      </c>
-      <c r="D61" s="52">
-        <v>20</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G61" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="J61" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="K61" s="57">
-        <v>627</v>
-      </c>
-      <c r="L61" s="57">
-        <v>39</v>
-      </c>
-      <c r="M61" s="58">
-        <f t="shared" si="1"/>
-        <v>172.11111111111111</v>
-      </c>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
+        <v>43087</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="43">
+        <v>75</v>
+      </c>
+      <c r="E61" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="I61" s="65"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="62">
+        <v>358</v>
+      </c>
+      <c r="L61" s="62">
+        <v>50</v>
+      </c>
+      <c r="M61" s="50">
+        <f>IF(ISBLANK(K61),,((K61-L61*2)+1000)/9)</f>
+        <v>139.77777777777777</v>
+      </c>
     </row>
     <row r="62" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A62" s="40">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B62" s="41">
-        <v>43051</v>
+        <v>43039</v>
       </c>
       <c r="C62" s="42">
-        <v>43051</v>
+        <v>43039</v>
       </c>
       <c r="D62" s="52">
-        <v>28</v>
+        <v>657</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F62" s="45" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="G62" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="H62" s="69" t="s">
+        <v>234</v>
       </c>
       <c r="I62" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="J62" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="58">
+        <f>IF(ISBLANK(K62),,((K62-L62*2)+1000)/9)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
+    </row>
+    <row r="63" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
+      <c r="A63" s="40">
+        <v>72</v>
+      </c>
+      <c r="B63" s="41">
+        <v>43087</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="43">
+        <v>415</v>
+      </c>
+      <c r="E63" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G63" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="J63" s="48"/>
+      <c r="K63" s="49">
         <v>108</v>
       </c>
-      <c r="J62" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K62" s="57">
-        <v>193</v>
-      </c>
-      <c r="L62" s="57">
-        <v>370</v>
-      </c>
-      <c r="M62" s="58">
-        <f t="shared" si="1"/>
-        <v>50.333333333333336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
-      <c r="A63" s="40">
-        <v>30</v>
-      </c>
-      <c r="B63" s="41">
-        <v>43051</v>
-      </c>
-      <c r="C63" s="42">
-        <v>43051</v>
-      </c>
-      <c r="D63" s="52">
-        <v>38</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H63" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I63" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="J63" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="K63" s="57">
-        <v>160</v>
-      </c>
-      <c r="L63" s="57">
-        <v>1169</v>
-      </c>
-      <c r="M63" s="58">
-        <f t="shared" si="1"/>
-        <v>-130.88888888888889</v>
-      </c>
-      <c r="N63" s="55"/>
+      <c r="L63" s="49">
+        <v>33</v>
+      </c>
+      <c r="M63" s="50">
+        <f>IF(ISBLANK(K63),,((K63-L63*2)+1000)/9)</f>
+        <v>115.77777777777777</v>
+      </c>
     </row>
     <row r="64" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A64" s="40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B64" s="41">
         <v>43062</v>
@@ -5915,13 +5943,13 @@
         <v>43062</v>
       </c>
       <c r="D64" s="52">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E64" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="G64" s="48" t="s">
         <v>95</v>
@@ -5930,20 +5958,20 @@
         <v>96</v>
       </c>
       <c r="I64" s="56" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J64" s="48" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="K64" s="57">
-        <v>75</v>
+        <v>627</v>
       </c>
       <c r="L64" s="57">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="M64" s="58">
-        <f t="shared" si="1"/>
-        <v>43.666666666666664</v>
+        <f>IF(ISBLANK(K64),,((K64-L64*2)+1000)/9)</f>
+        <v>172.11111111111111</v>
       </c>
       <c r="N64" s="55"/>
       <c r="O64" s="55"/>
@@ -5963,109 +5991,94 @@
       <c r="AC64" s="55"/>
       <c r="AD64" s="55"/>
     </row>
-    <row r="65" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
+    <row r="65" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A65" s="40">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B65" s="41">
-        <v>43062</v>
+        <v>43051</v>
       </c>
       <c r="C65" s="42">
-        <v>43062</v>
+        <v>43051</v>
       </c>
       <c r="D65" s="52">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E65" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="G65" s="48" t="s">
         <v>95</v>
       </c>
       <c r="H65" s="48" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="I65" s="56" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="J65" s="48" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="K65" s="57">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="L65" s="57">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="M65" s="58">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="55"/>
-      <c r="AA65" s="55"/>
-      <c r="AB65" s="55"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-    </row>
-    <row r="66" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
+        <f>IF(ISBLANK(K65),,((K65-L65*2)+1000)/9)</f>
+        <v>50.333333333333336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
       <c r="A66" s="40">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B66" s="41">
-        <v>43087</v>
+        <v>43051</v>
       </c>
       <c r="C66" s="42">
-        <v>43087</v>
-      </c>
-      <c r="D66" s="43">
-        <v>125</v>
+        <v>43051</v>
+      </c>
+      <c r="D66" s="52">
+        <v>38</v>
       </c>
       <c r="E66" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F66" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="G66" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="H66" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="I66" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="J66" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="K66" s="62">
-        <v>126</v>
-      </c>
-      <c r="L66" s="62">
-        <v>462</v>
-      </c>
-      <c r="M66" s="50">
-        <f t="shared" si="1"/>
-        <v>22.444444444444443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
+      <c r="F66" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I66" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J66" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="K66" s="57">
+        <v>160</v>
+      </c>
+      <c r="L66" s="57">
+        <v>1169</v>
+      </c>
+      <c r="M66" s="58">
+        <f>IF(ISBLANK(K66),,((K66-L66*2)+1000)/9)</f>
+        <v>-130.88888888888889</v>
+      </c>
+      <c r="N66" s="55"/>
+    </row>
+    <row r="67" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A67" s="40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="41">
         <v>43062</v>
@@ -6074,13 +6087,13 @@
         <v>43062</v>
       </c>
       <c r="D67" s="52">
-        <v>383</v>
+        <v>58</v>
       </c>
       <c r="E67" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F67" s="45" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="G67" s="48" t="s">
         <v>95</v>
@@ -6089,20 +6102,20 @@
         <v>96</v>
       </c>
       <c r="I67" s="56" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="J67" s="48" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="K67" s="57">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="L67" s="57">
-        <v>27</v>
+        <v>341</v>
       </c>
       <c r="M67" s="58">
-        <f t="shared" si="1"/>
-        <v>115.77777777777777</v>
+        <f>IF(ISBLANK(K67),,((K67-L67*2)+1000)/9)</f>
+        <v>43.666666666666664</v>
       </c>
       <c r="N67" s="55"/>
       <c r="O67" s="55"/>
@@ -6122,321 +6135,366 @@
       <c r="AC67" s="55"/>
       <c r="AD67" s="55"/>
     </row>
-    <row r="68" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
+    <row r="68" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A68" s="40">
-        <v>74</v>
-      </c>
-      <c r="B68" s="80">
-        <v>43123</v>
-      </c>
-      <c r="C68" s="81">
-        <v>43123</v>
+        <v>68</v>
+      </c>
+      <c r="B68" s="41">
+        <v>43087</v>
+      </c>
+      <c r="C68" s="42">
+        <v>43087</v>
       </c>
       <c r="D68" s="43">
-        <v>94</v>
-      </c>
-      <c r="E68" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="G68" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="H68" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="I68" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="J68" s="82" t="s">
-        <v>332</v>
-      </c>
-      <c r="K68" s="49">
-        <v>378</v>
-      </c>
-      <c r="L68" s="49">
-        <v>13</v>
+        <v>125</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G68" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="H68" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="I68" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="J68" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="K68" s="62">
+        <v>126</v>
+      </c>
+      <c r="L68" s="62">
+        <v>462</v>
       </c>
       <c r="M68" s="50">
-        <f t="shared" ref="M68:M82" si="2">IF(ISBLANK(K68),,((K68-L68*2)+1000)/9)</f>
-        <v>150.22222222222223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
+        <f>IF(ISBLANK(K68),,((K68-L68*2)+1000)/9)</f>
+        <v>22.444444444444443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
       <c r="A69" s="40">
-        <v>50</v>
-      </c>
-      <c r="B69" s="83">
-        <v>43083</v>
-      </c>
-      <c r="C69" s="84">
-        <v>43124</v>
-      </c>
-      <c r="D69" s="85">
-        <v>100</v>
-      </c>
-      <c r="E69" s="86" t="s">
-        <v>245</v>
+        <v>37</v>
+      </c>
+      <c r="B69" s="41">
+        <v>43062</v>
+      </c>
+      <c r="C69" s="42">
+        <v>43062</v>
+      </c>
+      <c r="D69" s="52">
+        <v>383</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G69" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="H69" s="86" t="s">
-        <v>243</v>
-      </c>
-      <c r="I69" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="J69" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="K69" s="87">
-        <v>264</v>
-      </c>
-      <c r="L69" s="87">
-        <v>8</v>
-      </c>
-      <c r="M69" s="88">
-        <f t="shared" si="2"/>
-        <v>138.66666666666666</v>
+        <v>209</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I69" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="J69" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="K69" s="57">
+        <v>96</v>
+      </c>
+      <c r="L69" s="57">
+        <v>27</v>
+      </c>
+      <c r="M69" s="58">
+        <f>IF(ISBLANK(K69),,((K69-L69*2)+1000)/9)</f>
+        <v>115.77777777777777</v>
       </c>
       <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
+      <c r="W69" s="55"/>
+      <c r="X69" s="55"/>
+      <c r="Y69" s="55"/>
+      <c r="Z69" s="55"/>
+      <c r="AA69" s="55"/>
+      <c r="AB69" s="55"/>
+      <c r="AC69" s="55"/>
+      <c r="AD69" s="55"/>
     </row>
     <row r="70" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A70" s="40">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B70" s="41">
-        <v>43083</v>
-      </c>
-      <c r="C70" s="84">
-        <v>43083</v>
+        <v>43062</v>
+      </c>
+      <c r="C70" s="42">
+        <v>43062</v>
       </c>
       <c r="D70" s="52">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="G70" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="H70" s="86" t="s">
-        <v>243</v>
+        <v>137</v>
+      </c>
+      <c r="G70" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="I70" s="56" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="J70" s="48" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="K70" s="57">
-        <v>553</v>
+        <v>164</v>
       </c>
       <c r="L70" s="57">
-        <v>8</v>
-      </c>
-      <c r="M70" s="50">
-        <f t="shared" si="2"/>
-        <v>170.77777777777777</v>
-      </c>
-      <c r="N70" s="55"/>
-    </row>
-    <row r="71" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
+        <v>348</v>
+      </c>
+      <c r="M70" s="58">
+        <f>IF(ISBLANK(K70),,((K70-L70*2)+1000)/9)</f>
+        <v>52</v>
+      </c>
+      <c r="O70" s="55"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="55"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="55"/>
+      <c r="W70" s="55"/>
+      <c r="X70" s="55"/>
+      <c r="Y70" s="55"/>
+      <c r="Z70" s="55"/>
+      <c r="AA70" s="55"/>
+      <c r="AB70" s="55"/>
+      <c r="AC70" s="55"/>
+      <c r="AD70" s="55"/>
+    </row>
+    <row r="71" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
       <c r="A71" s="40">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B71" s="41">
-        <v>43051</v>
+        <v>43073</v>
       </c>
       <c r="C71" s="42">
-        <v>43051</v>
+        <v>43082</v>
       </c>
       <c r="D71" s="52">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="E71" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="G71" s="48" t="s">
         <v>70</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="J71" s="48" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="K71" s="57">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L71" s="57">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M71" s="58">
-        <f t="shared" si="2"/>
-        <v>136.66666666666666</v>
+        <f>IF(ISBLANK(K71),,((K71-L71*2)+1000)/9)</f>
+        <v>131.88888888888889</v>
       </c>
       <c r="N71" s="55"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="55"/>
-      <c r="U71" s="55"/>
-      <c r="V71" s="55"/>
-      <c r="W71" s="55"/>
-      <c r="X71" s="55"/>
-      <c r="Y71" s="55"/>
-      <c r="Z71" s="55"/>
-      <c r="AA71" s="55"/>
-      <c r="AB71" s="55"/>
-      <c r="AC71" s="55"/>
-      <c r="AD71" s="55"/>
-    </row>
-    <row r="72" spans="1:30" s="51" customFormat="1" ht="79" thickBot="1">
+      <c r="O71" s="75"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
+      <c r="W71" s="75"/>
+      <c r="X71" s="75"/>
+      <c r="Y71" s="75"/>
+      <c r="Z71" s="75"/>
+      <c r="AA71" s="75"/>
+      <c r="AB71" s="75"/>
+      <c r="AC71" s="75"/>
+      <c r="AD71" s="75"/>
+    </row>
+    <row r="72" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
       <c r="A72" s="40">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B72" s="41">
-        <v>43083</v>
-      </c>
-      <c r="C72" s="84">
-        <v>43083</v>
-      </c>
-      <c r="D72" s="52">
-        <v>111</v>
-      </c>
-      <c r="E72" s="48" t="s">
-        <v>246</v>
+        <v>43125</v>
+      </c>
+      <c r="C72" s="42">
+        <v>43125</v>
+      </c>
+      <c r="D72" s="43">
+        <v>538</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>91</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="G72" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="H72" s="86" t="s">
-        <v>243</v>
+        <v>333</v>
+      </c>
+      <c r="G72" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>188</v>
       </c>
       <c r="I72" s="56" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="J72" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="K72" s="57">
-        <v>170</v>
-      </c>
-      <c r="L72" s="57">
+        <v>335</v>
+      </c>
+      <c r="K72" s="49">
+        <v>448</v>
+      </c>
+      <c r="L72" s="49">
+        <v>38</v>
+      </c>
+      <c r="M72" s="58">
+        <f>IF(ISBLANK(K72),,((K72-L72*2)+1000)/9)</f>
+        <v>152.44444444444446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" s="51" customFormat="1" ht="46" thickBot="1">
+      <c r="A73" s="40">
+        <v>13</v>
+      </c>
+      <c r="B73" s="41">
+        <v>43042</v>
+      </c>
+      <c r="C73" s="42">
+        <v>43042</v>
+      </c>
+      <c r="D73" s="52">
+        <v>669</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="I73" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="J73" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="K73" s="70">
+        <v>323</v>
+      </c>
+      <c r="L73" s="70">
+        <v>59</v>
+      </c>
+      <c r="M73" s="58">
+        <f>IF(ISBLANK(K73),,((K73-L73*2)+1000)/9)</f>
+        <v>133.88888888888889</v>
+      </c>
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="55"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="55"/>
+      <c r="W73" s="55"/>
+      <c r="X73" s="55"/>
+      <c r="Y73" s="55"/>
+      <c r="Z73" s="55"/>
+      <c r="AA73" s="55"/>
+      <c r="AB73" s="55"/>
+      <c r="AC73" s="55"/>
+      <c r="AD73" s="55"/>
+    </row>
+    <row r="74" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
+      <c r="A74" s="40">
         <v>74</v>
       </c>
-      <c r="M72" s="50">
-        <f t="shared" si="2"/>
-        <v>113.55555555555556</v>
-      </c>
-      <c r="N72" s="55"/>
-    </row>
-    <row r="73" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
-      <c r="A73" s="40">
-        <v>53</v>
-      </c>
-      <c r="B73" s="41">
-        <v>43083</v>
-      </c>
-      <c r="C73" s="84">
-        <v>43083</v>
-      </c>
-      <c r="D73" s="52">
-        <v>112</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="G73" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="H73" s="86" t="s">
-        <v>243</v>
-      </c>
-      <c r="I73" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="J73" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="K73" s="57">
-        <v>210</v>
-      </c>
-      <c r="L73" s="57">
-        <v>69</v>
-      </c>
-      <c r="M73" s="50">
-        <f t="shared" si="2"/>
-        <v>119.11111111111111</v>
-      </c>
-      <c r="N73" s="55"/>
-    </row>
-    <row r="74" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
-      <c r="A74" s="40">
-        <v>54</v>
-      </c>
-      <c r="B74" s="41">
-        <v>43083</v>
-      </c>
-      <c r="C74" s="84">
-        <v>43083</v>
-      </c>
-      <c r="D74" s="52">
-        <v>113</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>251</v>
+      <c r="B74" s="80">
+        <v>43123</v>
+      </c>
+      <c r="C74" s="81">
+        <v>43123</v>
+      </c>
+      <c r="D74" s="43">
+        <v>94</v>
+      </c>
+      <c r="E74" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="G74" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="H74" s="86" t="s">
-        <v>243</v>
+        <v>328</v>
+      </c>
+      <c r="G74" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" s="46" t="s">
+        <v>327</v>
       </c>
       <c r="I74" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="J74" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="K74" s="57">
-        <v>197</v>
-      </c>
-      <c r="L74" s="57">
-        <v>7</v>
+        <v>329</v>
+      </c>
+      <c r="J74" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="K74" s="49">
+        <v>378</v>
+      </c>
+      <c r="L74" s="49">
+        <v>13</v>
       </c>
       <c r="M74" s="50">
-        <f t="shared" si="2"/>
-        <v>131.44444444444446</v>
-      </c>
-      <c r="N74" s="55"/>
+        <f>IF(ISBLANK(K74),,((K74-L74*2)+1000)/9)</f>
+        <v>150.22222222222223</v>
+      </c>
     </row>
     <row r="75" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
       <c r="A75" s="40">
@@ -6476,11 +6534,11 @@
         <v>12</v>
       </c>
       <c r="M75" s="50">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(K75),,((K75-L75*2)+1000)/9)</f>
         <v>124.33333333333333</v>
       </c>
     </row>
-    <row r="76" spans="1:30" s="51" customFormat="1" ht="118" thickBot="1">
+    <row r="76" spans="1:30" s="51" customFormat="1" ht="105" thickBot="1">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -6518,28 +6576,28 @@
         <v>18</v>
       </c>
       <c r="M76" s="50">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(K76),,((K76-L76*2)+1000)/9)</f>
         <v>132.77777777777777</v>
       </c>
     </row>
-    <row r="77" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
+    <row r="77" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A77" s="40">
-        <v>55</v>
-      </c>
-      <c r="B77" s="41">
+        <v>50</v>
+      </c>
+      <c r="B77" s="83">
         <v>43083</v>
       </c>
       <c r="C77" s="84">
-        <v>43083</v>
-      </c>
-      <c r="D77" s="52">
-        <v>226</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>246</v>
+        <v>43124</v>
+      </c>
+      <c r="D77" s="85">
+        <v>100</v>
+      </c>
+      <c r="E77" s="86" t="s">
+        <v>245</v>
       </c>
       <c r="F77" s="45" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G77" s="86" t="s">
         <v>242</v>
@@ -6547,286 +6605,314 @@
       <c r="H77" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="I77" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="J77" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="K77" s="57">
-        <v>353</v>
-      </c>
-      <c r="L77" s="57">
+      <c r="I77" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="J77" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="K77" s="87">
+        <v>264</v>
+      </c>
+      <c r="L77" s="87">
         <v>8</v>
       </c>
-      <c r="M77" s="50">
-        <f t="shared" si="2"/>
-        <v>148.55555555555554</v>
+      <c r="M77" s="88">
+        <f>IF(ISBLANK(K77),,((K77-L77*2)+1000)/9)</f>
+        <v>138.66666666666666</v>
       </c>
       <c r="N77" s="55"/>
     </row>
-    <row r="78" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
+    <row r="78" spans="1:30" s="51" customFormat="1" ht="27" thickBot="1">
       <c r="A78" s="40">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B78" s="41">
-        <v>43073</v>
-      </c>
-      <c r="C78" s="42">
-        <v>43082</v>
+        <v>43083</v>
+      </c>
+      <c r="C78" s="84">
+        <v>43083</v>
       </c>
       <c r="D78" s="52">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F78" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G78" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="H78" s="48" t="s">
-        <v>188</v>
+        <v>244</v>
+      </c>
+      <c r="G78" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="H78" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="I78" s="56" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="J78" s="48" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="K78" s="57">
-        <v>257</v>
+        <v>553</v>
       </c>
       <c r="L78" s="57">
-        <v>35</v>
-      </c>
-      <c r="M78" s="58">
-        <f t="shared" si="2"/>
-        <v>131.88888888888889</v>
+        <v>8</v>
+      </c>
+      <c r="M78" s="50">
+        <f>IF(ISBLANK(K78),,((K78-L78*2)+1000)/9)</f>
+        <v>170.77777777777777</v>
       </c>
       <c r="N78" s="55"/>
-      <c r="O78" s="75"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="75"/>
-      <c r="S78" s="75"/>
-      <c r="T78" s="75"/>
-      <c r="U78" s="75"/>
-      <c r="V78" s="75"/>
-      <c r="W78" s="75"/>
-      <c r="X78" s="75"/>
-      <c r="Y78" s="75"/>
-      <c r="Z78" s="75"/>
-      <c r="AA78" s="75"/>
-      <c r="AB78" s="75"/>
-      <c r="AC78" s="75"/>
-      <c r="AD78" s="75"/>
     </row>
     <row r="79" spans="1:30" s="51" customFormat="1" ht="66" thickBot="1">
       <c r="A79" s="40">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B79" s="41">
-        <v>43125</v>
+        <v>43051</v>
       </c>
       <c r="C79" s="42">
-        <v>43125</v>
-      </c>
-      <c r="D79" s="43">
-        <v>538</v>
-      </c>
-      <c r="E79" s="73" t="s">
+        <v>43051</v>
+      </c>
+      <c r="D79" s="52">
+        <v>104</v>
+      </c>
+      <c r="E79" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F79" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="G79" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H79" s="46" t="s">
-        <v>188</v>
+      <c r="H79" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="I79" s="56" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="J79" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="K79" s="49">
-        <v>448</v>
-      </c>
-      <c r="L79" s="49">
-        <v>38</v>
+        <v>153</v>
+      </c>
+      <c r="K79" s="57">
+        <v>258</v>
+      </c>
+      <c r="L79" s="57">
+        <v>14</v>
       </c>
       <c r="M79" s="58">
-        <f t="shared" si="2"/>
-        <v>152.44444444444446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" s="51" customFormat="1" ht="46" thickBot="1">
+        <f>IF(ISBLANK(K79),,((K79-L79*2)+1000)/9)</f>
+        <v>136.66666666666666</v>
+      </c>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="55"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="55"/>
+      <c r="V79" s="55"/>
+      <c r="W79" s="55"/>
+      <c r="X79" s="55"/>
+      <c r="Y79" s="55"/>
+      <c r="Z79" s="55"/>
+      <c r="AA79" s="55"/>
+      <c r="AB79" s="55"/>
+      <c r="AC79" s="55"/>
+      <c r="AD79" s="55"/>
+    </row>
+    <row r="80" spans="1:30" s="51" customFormat="1" ht="79" thickBot="1">
       <c r="A80" s="40">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B80" s="41">
-        <v>43042</v>
-      </c>
-      <c r="C80" s="42">
-        <v>43042</v>
+        <v>43083</v>
+      </c>
+      <c r="C80" s="84">
+        <v>43083</v>
       </c>
       <c r="D80" s="52">
-        <v>669</v>
+        <v>111</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F80" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="G80" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="H80" s="69" t="s">
-        <v>227</v>
+        <v>247</v>
+      </c>
+      <c r="G80" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="H80" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="I80" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="J80" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="K80" s="57">
+        <v>170</v>
+      </c>
+      <c r="L80" s="57">
+        <v>74</v>
+      </c>
+      <c r="M80" s="50">
+        <f>IF(ISBLANK(K80),,((K80-L80*2)+1000)/9)</f>
+        <v>113.55555555555556</v>
+      </c>
+      <c r="N80" s="55"/>
+    </row>
+    <row r="81" spans="1:30" s="51" customFormat="1" ht="40" thickBot="1">
+      <c r="A81" s="40">
+        <v>53</v>
+      </c>
+      <c r="B81" s="41">
+        <v>43083</v>
+      </c>
+      <c r="C81" s="84">
+        <v>43083</v>
+      </c>
+      <c r="D81" s="52">
+        <v>112</v>
+      </c>
+      <c r="E81" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="G81" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="H81" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="I81" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="J81" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="K81" s="57">
+        <v>210</v>
+      </c>
+      <c r="L81" s="57">
+        <v>69</v>
+      </c>
+      <c r="M81" s="50">
+        <f>IF(ISBLANK(K81),,((K81-L81*2)+1000)/9)</f>
+        <v>119.11111111111111</v>
+      </c>
+      <c r="N81" s="55"/>
+    </row>
+    <row r="82" spans="1:30" s="51" customFormat="1" ht="53" thickBot="1">
+      <c r="A82" s="40">
+        <v>54</v>
+      </c>
+      <c r="B82" s="41">
+        <v>43083</v>
+      </c>
+      <c r="C82" s="84">
+        <v>43083</v>
+      </c>
+      <c r="D82" s="52">
+        <v>113</v>
+      </c>
+      <c r="E82" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="G82" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="H82" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="J82" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="K82" s="57">
+        <v>197</v>
+      </c>
+      <c r="L82" s="57">
+        <v>7</v>
+      </c>
+      <c r="M82" s="50">
+        <f>IF(ISBLANK(K82),,((K82-L82*2)+1000)/9)</f>
+        <v>131.44444444444446</v>
+      </c>
+      <c r="N82" s="55"/>
+    </row>
+    <row r="83" spans="1:30" s="55" customFormat="1" ht="40" thickBot="1">
+      <c r="A83" s="40">
+        <v>55</v>
+      </c>
+      <c r="B83" s="41">
+        <v>43083</v>
+      </c>
+      <c r="C83" s="84">
+        <v>43083</v>
+      </c>
+      <c r="D83" s="52">
         <v>226</v>
       </c>
-      <c r="J80" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="K80" s="70">
-        <v>323</v>
-      </c>
-      <c r="L80" s="70">
-        <v>59</v>
-      </c>
-      <c r="M80" s="58">
-        <f t="shared" si="2"/>
-        <v>133.88888888888889</v>
-      </c>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
-      <c r="W80" s="55"/>
-      <c r="X80" s="55"/>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="55"/>
-      <c r="AA80" s="55"/>
-      <c r="AB80" s="55"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-    </row>
-    <row r="81" spans="1:13" s="51" customFormat="1" ht="27" thickBot="1">
-      <c r="A81" s="40">
-        <v>78</v>
-      </c>
-      <c r="B81" s="80">
-        <v>43127</v>
-      </c>
-      <c r="C81" s="80">
-        <v>43127</v>
-      </c>
-      <c r="D81" s="43">
-        <v>141</v>
-      </c>
-      <c r="E81" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="G81" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="J81" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="K81" s="49">
-        <v>454</v>
-      </c>
-      <c r="L81" s="49">
-        <v>22</v>
-      </c>
-      <c r="M81" s="58">
-        <f t="shared" si="2"/>
-        <v>156.66666666666666</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="51" customFormat="1" ht="40" thickBot="1">
-      <c r="A82" s="40">
-        <v>79</v>
-      </c>
-      <c r="B82" s="80">
-        <v>43127</v>
-      </c>
-      <c r="C82" s="80">
-        <v>43127</v>
-      </c>
-      <c r="D82" s="43">
-        <v>142</v>
-      </c>
-      <c r="E82" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="G82" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="J82" s="48" t="s">
+      <c r="E83" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F83" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G83" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="H83" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="I83" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="J83" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="K83" s="57">
         <v>353</v>
       </c>
-      <c r="K82" s="49">
-        <v>394</v>
-      </c>
-      <c r="L82" s="49">
-        <v>23</v>
-      </c>
-      <c r="M82" s="58">
-        <f t="shared" si="2"/>
-        <v>149.77777777777777</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
-      <c r="A83" s="40">
-        <v>80</v>
-      </c>
-      <c r="B83" s="73"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="89"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="50"/>
-    </row>
-    <row r="84" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+      <c r="L83" s="57">
+        <v>8</v>
+      </c>
+      <c r="M83" s="50">
+        <f>IF(ISBLANK(K83),,((K83-L83*2)+1000)/9)</f>
+        <v>148.55555555555554</v>
+      </c>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="51"/>
+      <c r="W83" s="51"/>
+      <c r="X83" s="51"/>
+      <c r="Y83" s="51"/>
+      <c r="Z83" s="51"/>
+      <c r="AA83" s="51"/>
+      <c r="AB83" s="51"/>
+      <c r="AC83" s="51"/>
+      <c r="AD83" s="51"/>
+    </row>
+    <row r="84" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A84" s="40">
         <v>81</v>
       </c>
@@ -6843,7 +6929,7 @@
       <c r="L84" s="49"/>
       <c r="M84" s="50"/>
     </row>
-    <row r="85" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="85" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A85" s="40">
         <v>82</v>
       </c>
@@ -6860,7 +6946,7 @@
       <c r="L85" s="49"/>
       <c r="M85" s="50"/>
     </row>
-    <row r="86" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="86" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A86" s="40">
         <v>83</v>
       </c>
@@ -6877,7 +6963,7 @@
       <c r="L86" s="49"/>
       <c r="M86" s="50"/>
     </row>
-    <row r="87" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="87" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A87" s="40">
         <v>84</v>
       </c>
@@ -6894,7 +6980,7 @@
       <c r="L87" s="49"/>
       <c r="M87" s="50"/>
     </row>
-    <row r="88" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="88" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A88" s="40">
         <v>85</v>
       </c>
@@ -6911,7 +6997,7 @@
       <c r="L88" s="49"/>
       <c r="M88" s="50"/>
     </row>
-    <row r="89" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="89" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A89" s="40">
         <v>86</v>
       </c>
@@ -6928,7 +7014,7 @@
       <c r="L89" s="49"/>
       <c r="M89" s="50"/>
     </row>
-    <row r="90" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="90" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A90" s="40">
         <v>87</v>
       </c>
@@ -6945,7 +7031,7 @@
       <c r="L90" s="49"/>
       <c r="M90" s="50"/>
     </row>
-    <row r="91" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="91" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A91" s="40">
         <v>88</v>
       </c>
@@ -6962,7 +7048,7 @@
       <c r="L91" s="49"/>
       <c r="M91" s="50"/>
     </row>
-    <row r="92" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="92" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A92" s="40">
         <v>89</v>
       </c>
@@ -6979,7 +7065,7 @@
       <c r="L92" s="49"/>
       <c r="M92" s="50"/>
     </row>
-    <row r="93" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="93" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A93" s="40">
         <v>90</v>
       </c>
@@ -6996,7 +7082,7 @@
       <c r="L93" s="49"/>
       <c r="M93" s="50"/>
     </row>
-    <row r="94" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="94" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A94" s="40">
         <v>91</v>
       </c>
@@ -7013,7 +7099,7 @@
       <c r="L94" s="49"/>
       <c r="M94" s="50"/>
     </row>
-    <row r="95" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="95" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A95" s="40">
         <v>92</v>
       </c>
@@ -7030,7 +7116,7 @@
       <c r="L95" s="49"/>
       <c r="M95" s="50"/>
     </row>
-    <row r="96" spans="1:13" s="51" customFormat="1" ht="14" thickBot="1">
+    <row r="96" spans="1:30" s="51" customFormat="1" ht="14" thickBot="1">
       <c r="A96" s="40">
         <v>93</v>
       </c>
@@ -14592,12 +14678,18 @@
     </row>
   </sheetData>
   <autoFilter ref="G1:G1002"/>
-  <sortState ref="A4:AD80">
-    <sortCondition ref="G4:G80"/>
+  <sortState ref="A4:AD83">
+    <sortCondition ref="G4:G83"/>
+    <sortCondition ref="H4:H83"/>
   </sortState>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="C4:C80 C83:C176">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="C4:C80 C84:C176">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+      <formula>43101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>43101</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21157,42 +21249,42 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Algo">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Algo">
       <formula>NOT(ISERROR(SEARCH(("Algo"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Array">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Array">
       <formula>NOT(ISERROR(SEARCH(("Array"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Backtracking">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Backtracking">
       <formula>NOT(ISERROR(SEARCH(("Backtracking"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="DP">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="DP">
       <formula>NOT(ISERROR(SEARCH(("DP"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="LinkedList">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="LinkedList">
       <formula>NOT(ISERROR(SEARCH(("LinkedList"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Math">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Math">
       <formula>NOT(ISERROR(SEARCH(("Math"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Tree">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Tree">
       <formula>NOT(ISERROR(SEARCH(("Tree"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="String">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="String">
       <formula>NOT(ISERROR(SEARCH(("String"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QuizAndKeyList.xlsx
+++ b/QuizAndKeyList.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g3094010\git\Note-Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/Programming/Java/Note-Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24885" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24880" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$G$1:$G$1002</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="306">
   <si>
     <t>No</t>
   </si>
@@ -2099,14 +2099,23 @@
     <t>Permutations1</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>給一個陣列 把所有的0往後搬 保持其他非0元素順序不變 in-place完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">這題非常簡單 說是把0往後搬 其實就是把非0往前搬 剩下來的空位填0進去就可以了(不需要搬0) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2191,7 +2200,7 @@
       <b/>
       <sz val="12"/>
       <color theme="7" tint="0.59999389629810485"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -2452,7 +2461,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2461,10 +2470,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2498,7 +2507,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2562,10 +2571,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2577,7 +2586,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2589,30 +2598,30 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2974,23 +2983,23 @@
   <dimension ref="A1:AD1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <pane ySplit="3" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="52.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" style="30" customWidth="1"/>
-    <col min="11" max="12" width="7.28515625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="13" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="52.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" style="30" customWidth="1"/>
+    <col min="11" max="12" width="7.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="28" customFormat="1">
@@ -3035,14 +3044,14 @@
       </c>
       <c r="N1" s="33">
         <f>COUNTA(B4:B200)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O1" s="33">
         <f>COUNTA(J10:J206)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="23" customFormat="1" ht="14.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="23" customFormat="1" ht="16">
       <c r="A2" s="18"/>
       <c r="B2" s="29"/>
       <c r="C2" s="34"/>
@@ -3063,7 +3072,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="23" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:30" s="23" customFormat="1" ht="17" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="29"/>
       <c r="C3" s="34"/>
@@ -3085,7 +3094,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="50" customFormat="1" ht="68.25" thickBot="1">
+    <row r="4" spans="1:30" s="50" customFormat="1" ht="76" thickBot="1">
       <c r="A4" s="39">
         <v>9</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="84">
-        <f>IF(ISBLANK(K4),,((K4-L4*2)+1000)/9)</f>
+        <f t="shared" ref="M4:M35" si="0">IF(ISBLANK(K4),,((K4-L4*2)+1000)/9)</f>
         <v>165.66666666666666</v>
       </c>
       <c r="N4" s="54"/>
@@ -3144,7 +3153,7 @@
       <c r="AC4" s="54"/>
       <c r="AD4" s="54"/>
     </row>
-    <row r="5" spans="1:30" s="50" customFormat="1" ht="68.25" thickBot="1">
+    <row r="5" spans="1:30" s="50" customFormat="1" ht="76" thickBot="1">
       <c r="A5" s="39">
         <v>10</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="84">
-        <f>IF(ISBLANK(K5),,((K5-L5*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="N5" s="54"/>
@@ -3203,7 +3212,7 @@
       <c r="AC5" s="68"/>
       <c r="AD5" s="68"/>
     </row>
-    <row r="6" spans="1:30" s="50" customFormat="1" ht="39" thickBot="1">
+    <row r="6" spans="1:30" s="50" customFormat="1" ht="53" thickBot="1">
       <c r="A6" s="39">
         <v>69</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>39</v>
       </c>
       <c r="M6" s="84">
-        <f>IF(ISBLANK(K6),,((K6-L6*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>148.66666666666666</v>
       </c>
       <c r="N6" s="54"/>
@@ -3262,7 +3271,7 @@
       <c r="AC6" s="54"/>
       <c r="AD6" s="54"/>
     </row>
-    <row r="7" spans="1:30" s="54" customFormat="1" ht="77.25" thickBot="1">
+    <row r="7" spans="1:30" s="54" customFormat="1" ht="79" thickBot="1">
       <c r="A7" s="39">
         <v>65</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>24</v>
       </c>
       <c r="M7" s="85">
-        <f>IF(ISBLANK(K7),,((K7-L7*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="N7" s="50"/>
@@ -3321,7 +3330,7 @@
       <c r="AC7" s="50"/>
       <c r="AD7" s="50"/>
     </row>
-    <row r="8" spans="1:30" s="54" customFormat="1" ht="77.25" thickBot="1">
+    <row r="8" spans="1:30" s="54" customFormat="1" ht="92" thickBot="1">
       <c r="A8" s="39">
         <v>82</v>
       </c>
@@ -3359,7 +3368,7 @@
         <v>38</v>
       </c>
       <c r="M8" s="85">
-        <f>IF(ISBLANK(K8),,((K8-L8*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>151.22222222222223</v>
       </c>
       <c r="N8" s="50"/>
@@ -3380,7 +3389,7 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:30" s="54" customFormat="1" ht="68.25" thickBot="1">
+    <row r="9" spans="1:30" s="54" customFormat="1" ht="76" thickBot="1">
       <c r="A9" s="39">
         <v>63</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="M9" s="85">
-        <f>IF(ISBLANK(K9),,((K9-L9*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>445.88888888888891</v>
       </c>
       <c r="N9" s="50"/>
@@ -3439,7 +3448,7 @@
       <c r="AC9" s="50"/>
       <c r="AD9" s="50"/>
     </row>
-    <row r="10" spans="1:30" s="54" customFormat="1" ht="95.25" thickBot="1">
+    <row r="10" spans="1:30" s="54" customFormat="1" ht="76" thickBot="1">
       <c r="A10" s="39">
         <v>64</v>
       </c>
@@ -3477,14 +3486,14 @@
         <v>103</v>
       </c>
       <c r="M10" s="85">
-        <f>IF(ISBLANK(K10),,((K10-L10*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>188.77777777777777</v>
       </c>
       <c r="O10" s="50"/>
       <c r="P10" s="50"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="11" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A11" s="39">
         <v>46</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>114</v>
       </c>
       <c r="M11" s="84">
-        <f>IF(ISBLANK(K11),,((K11-L11*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
@@ -3560,11 +3569,11 @@
       <c r="K12" s="89"/>
       <c r="L12" s="89"/>
       <c r="M12" s="84">
-        <f>IF(ISBLANK(K12),,((K12-L12*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="54" customFormat="1" ht="64.5" thickBot="1">
+    <row r="13" spans="1:30" s="54" customFormat="1" ht="66" thickBot="1">
       <c r="A13" s="39">
         <v>81</v>
       </c>
@@ -3602,7 +3611,7 @@
         <v>77</v>
       </c>
       <c r="M13" s="84">
-        <f>IF(ISBLANK(K13),,((K13-L13*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>111.66666666666667</v>
       </c>
       <c r="R13" s="50"/>
@@ -3619,7 +3628,7 @@
       <c r="AC13" s="50"/>
       <c r="AD13" s="50"/>
     </row>
-    <row r="14" spans="1:30" s="54" customFormat="1" ht="27.75" thickBot="1">
+    <row r="14" spans="1:30" s="54" customFormat="1" ht="31" thickBot="1">
       <c r="A14" s="39">
         <v>78</v>
       </c>
@@ -3657,7 +3666,7 @@
         <v>22</v>
       </c>
       <c r="M14" s="84">
-        <f>IF(ISBLANK(K14),,((K14-L14*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>156.66666666666666</v>
       </c>
       <c r="N14" s="50"/>
@@ -3678,7 +3687,7 @@
       <c r="AC14" s="50"/>
       <c r="AD14" s="50"/>
     </row>
-    <row r="15" spans="1:30" s="54" customFormat="1" ht="39" thickBot="1">
+    <row r="15" spans="1:30" s="54" customFormat="1" ht="40" thickBot="1">
       <c r="A15" s="39">
         <v>79</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>23</v>
       </c>
       <c r="M15" s="84">
-        <f>IF(ISBLANK(K15),,((K15-L15*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>149.77777777777777</v>
       </c>
       <c r="N15" s="50"/>
@@ -3724,7 +3733,7 @@
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:30" s="54" customFormat="1" ht="51.75" thickBot="1">
+    <row r="16" spans="1:30" s="54" customFormat="1" ht="53" thickBot="1">
       <c r="A16" s="39">
         <v>80</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>30</v>
       </c>
       <c r="M16" s="84">
-        <f>IF(ISBLANK(K16),,((K16-L16*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>138.77777777777777</v>
       </c>
       <c r="N16" s="50"/>
@@ -3770,7 +3779,7 @@
       <c r="P16" s="50"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="1:30" s="54" customFormat="1" ht="41.25" thickBot="1">
+    <row r="17" spans="1:30" s="54" customFormat="1" ht="46" thickBot="1">
       <c r="A17" s="39">
         <v>57</v>
       </c>
@@ -3808,11 +3817,11 @@
         <v>102</v>
       </c>
       <c r="M17" s="85">
-        <f>IF(ISBLANK(K17),,((K17-L17*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>138.66666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="54" customFormat="1" ht="68.25" thickBot="1">
+    <row r="18" spans="1:30" s="54" customFormat="1" ht="76" thickBot="1">
       <c r="A18" s="39">
         <v>56</v>
       </c>
@@ -3850,7 +3859,7 @@
         <v>40</v>
       </c>
       <c r="M18" s="85">
-        <f>IF(ISBLANK(K18),,((K18-L18*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>160.66666666666666</v>
       </c>
       <c r="O18" s="50"/>
@@ -3870,7 +3879,7 @@
       <c r="AC18" s="50"/>
       <c r="AD18" s="50"/>
     </row>
-    <row r="19" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="19" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A19" s="39">
         <v>77</v>
       </c>
@@ -3908,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="M19" s="84">
-        <f>IF(ISBLANK(K19),,((K19-L19*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>176.44444444444446</v>
       </c>
       <c r="N19" s="50"/>
@@ -3916,7 +3925,7 @@
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="1:30" s="54" customFormat="1" ht="64.5" thickBot="1">
+    <row r="20" spans="1:30" s="54" customFormat="1" ht="66" thickBot="1">
       <c r="A20" s="39">
         <v>76</v>
       </c>
@@ -3954,7 +3963,7 @@
         <v>38</v>
       </c>
       <c r="M20" s="84">
-        <f>IF(ISBLANK(K20),,((K20-L20*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>152.44444444444446</v>
       </c>
       <c r="N20" s="50"/>
@@ -3962,7 +3971,7 @@
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:30" s="54" customFormat="1" ht="13.5" thickBot="1">
+    <row r="21" spans="1:30" s="54" customFormat="1" ht="14" thickBot="1">
       <c r="A21" s="39">
         <v>50</v>
       </c>
@@ -4000,14 +4009,14 @@
         <v>8</v>
       </c>
       <c r="M21" s="88">
-        <f>IF(ISBLANK(K21),,((K21-L21*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>138.66666666666666</v>
       </c>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:30" s="54" customFormat="1" ht="77.25" thickBot="1">
+    <row r="22" spans="1:30" s="54" customFormat="1" ht="66" thickBot="1">
       <c r="A22" s="39">
         <v>74</v>
       </c>
@@ -4045,7 +4054,7 @@
         <v>13</v>
       </c>
       <c r="M22" s="85">
-        <f>IF(ISBLANK(K22),,((K22-L22*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>150.22222222222223</v>
       </c>
       <c r="N22" s="50"/>
@@ -4053,7 +4062,7 @@
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:30" s="54" customFormat="1" ht="64.5" thickBot="1">
+    <row r="23" spans="1:30" s="54" customFormat="1" ht="53" thickBot="1">
       <c r="A23" s="39">
         <v>73</v>
       </c>
@@ -4091,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="M23" s="85">
-        <f>IF(ISBLANK(K23),,((K23-L23*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>124.33333333333333</v>
       </c>
       <c r="N23" s="50"/>
@@ -4099,7 +4108,7 @@
       <c r="P23" s="50"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:30" s="54" customFormat="1" ht="102.75" thickBot="1">
+    <row r="24" spans="1:30" s="54" customFormat="1" ht="118" thickBot="1">
       <c r="A24" s="39">
         <v>75</v>
       </c>
@@ -4137,7 +4146,7 @@
         <v>18</v>
       </c>
       <c r="M24" s="85">
-        <f>IF(ISBLANK(K24),,((K24-L24*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>132.77777777777777</v>
       </c>
       <c r="N24" s="50"/>
@@ -4145,7 +4154,7 @@
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:30" s="54" customFormat="1" ht="102.75" thickBot="1">
+    <row r="25" spans="1:30" s="54" customFormat="1" ht="118" thickBot="1">
       <c r="A25" s="39">
         <v>70</v>
       </c>
@@ -4183,7 +4192,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="85">
-        <f>IF(ISBLANK(K25),,((K25-L25*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>129.88888888888889</v>
       </c>
       <c r="N25" s="50"/>
@@ -4191,7 +4200,7 @@
       <c r="P25" s="50"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:30" s="54" customFormat="1" ht="51.75" thickBot="1">
+    <row r="26" spans="1:30" s="54" customFormat="1" ht="53" thickBot="1">
       <c r="A26" s="39">
         <v>68</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>462</v>
       </c>
       <c r="M26" s="85">
-        <f>IF(ISBLANK(K26),,((K26-L26*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>22.444444444444443</v>
       </c>
       <c r="N26" s="50"/>
@@ -4250,7 +4259,7 @@
       <c r="AC26" s="50"/>
       <c r="AD26" s="50"/>
     </row>
-    <row r="27" spans="1:30" s="54" customFormat="1" ht="51.75" thickBot="1">
+    <row r="27" spans="1:30" s="54" customFormat="1" ht="66" thickBot="1">
       <c r="A27" s="39">
         <v>71</v>
       </c>
@@ -4288,11 +4297,11 @@
         <v>41</v>
       </c>
       <c r="M27" s="85">
-        <f>IF(ISBLANK(K27),,((K27-L27*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>170.22222222222223</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="54" customFormat="1" ht="64.5" thickBot="1">
+    <row r="28" spans="1:30" s="54" customFormat="1" ht="66" thickBot="1">
       <c r="A28" s="39">
         <v>58</v>
       </c>
@@ -4330,11 +4339,11 @@
         <v>22</v>
       </c>
       <c r="M28" s="85">
-        <f>IF(ISBLANK(K28),,((K28-L28*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="29" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A29" s="39">
         <v>51</v>
       </c>
@@ -4372,14 +4381,14 @@
         <v>8</v>
       </c>
       <c r="M29" s="85">
-        <f>IF(ISBLANK(K29),,((K29-L29*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>170.77777777777777</v>
       </c>
       <c r="O29" s="50"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:30" s="54" customFormat="1" ht="77.25" thickBot="1">
+    <row r="30" spans="1:30" s="54" customFormat="1" ht="79" thickBot="1">
       <c r="A30" s="39">
         <v>52</v>
       </c>
@@ -4417,14 +4426,14 @@
         <v>74</v>
       </c>
       <c r="M30" s="85">
-        <f>IF(ISBLANK(K30),,((K30-L30*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>113.55555555555556</v>
       </c>
       <c r="O30" s="50"/>
       <c r="P30" s="50"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:30" s="54" customFormat="1" ht="39" thickBot="1">
+    <row r="31" spans="1:30" s="54" customFormat="1" ht="40" thickBot="1">
       <c r="A31" s="39">
         <v>53</v>
       </c>
@@ -4462,14 +4471,14 @@
         <v>69</v>
       </c>
       <c r="M31" s="85">
-        <f>IF(ISBLANK(K31),,((K31-L31*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>119.11111111111111</v>
       </c>
       <c r="O31" s="50"/>
       <c r="P31" s="50"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:30" s="54" customFormat="1" ht="51.75" thickBot="1">
+    <row r="32" spans="1:30" s="54" customFormat="1" ht="53" thickBot="1">
       <c r="A32" s="39">
         <v>54</v>
       </c>
@@ -4507,14 +4516,14 @@
         <v>7</v>
       </c>
       <c r="M32" s="85">
-        <f>IF(ISBLANK(K32),,((K32-L32*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>131.44444444444446</v>
       </c>
       <c r="O32" s="50"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:30" s="54" customFormat="1" ht="39" thickBot="1">
+    <row r="33" spans="1:30" s="54" customFormat="1" ht="40" thickBot="1">
       <c r="A33" s="39">
         <v>55</v>
       </c>
@@ -4552,14 +4561,14 @@
         <v>8</v>
       </c>
       <c r="M33" s="85">
-        <f>IF(ISBLANK(K33),,((K33-L33*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>148.55555555555554</v>
       </c>
       <c r="O33" s="50"/>
       <c r="P33" s="50"/>
       <c r="Q33" s="50"/>
     </row>
-    <row r="34" spans="1:30" s="54" customFormat="1" ht="39" thickBot="1">
+    <row r="34" spans="1:30" s="54" customFormat="1" ht="40" thickBot="1">
       <c r="A34" s="39">
         <v>14</v>
       </c>
@@ -4597,12 +4606,12 @@
         <v>56</v>
       </c>
       <c r="M34" s="84">
-        <f>IF(ISBLANK(K34),,((K34-L34*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>159.11111111111111</v>
       </c>
       <c r="N34" s="64"/>
     </row>
-    <row r="35" spans="1:30" s="54" customFormat="1" ht="41.25" thickBot="1">
+    <row r="35" spans="1:30" s="54" customFormat="1" ht="46" thickBot="1">
       <c r="A35" s="39">
         <v>16</v>
       </c>
@@ -4640,7 +4649,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="84">
-        <f>IF(ISBLANK(K35),,((K35-L35*2)+1000)/9)</f>
+        <f t="shared" si="0"/>
         <v>138.33333333333334</v>
       </c>
       <c r="R35" s="50"/>
@@ -4695,7 +4704,7 @@
         <v>48</v>
       </c>
       <c r="M36" s="84">
-        <f>IF(ISBLANK(K36),,((K36-L36*2)+1000)/9)</f>
+        <f t="shared" ref="M36:M67" si="1">IF(ISBLANK(K36),,((K36-L36*2)+1000)/9)</f>
         <v>148.66666666666666</v>
       </c>
       <c r="R36" s="67"/>
@@ -4750,7 +4759,7 @@
         <v>65</v>
       </c>
       <c r="M37" s="84">
-        <f>IF(ISBLANK(K37),,((K37-L37*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>120.88888888888889</v>
       </c>
       <c r="O37" s="50"/>
@@ -4770,7 +4779,7 @@
       <c r="AC37" s="50"/>
       <c r="AD37" s="50"/>
     </row>
-    <row r="38" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="38" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A38" s="39">
         <v>2</v>
       </c>
@@ -4808,7 +4817,7 @@
         <v>136</v>
       </c>
       <c r="M38" s="84">
-        <f>IF(ISBLANK(K38),,((K38-L38*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="N38" s="50"/>
@@ -4829,7 +4838,7 @@
       <c r="AC38" s="50"/>
       <c r="AD38" s="50"/>
     </row>
-    <row r="39" spans="1:30" s="54" customFormat="1" ht="64.5" thickBot="1">
+    <row r="39" spans="1:30" s="54" customFormat="1" ht="66" thickBot="1">
       <c r="A39" s="39">
         <v>1</v>
       </c>
@@ -4867,7 +4876,7 @@
         <v>54</v>
       </c>
       <c r="M39" s="84">
-        <f>IF(ISBLANK(K39),,((K39-L39*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>112.88888888888889</v>
       </c>
       <c r="N39" s="50"/>
@@ -4875,7 +4884,7 @@
       <c r="P39" s="67"/>
       <c r="Q39" s="67"/>
     </row>
-    <row r="40" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="40" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A40" s="39">
         <v>49</v>
       </c>
@@ -4911,14 +4920,14 @@
         <v>34</v>
       </c>
       <c r="M40" s="84">
-        <f>IF(ISBLANK(K40),,((K40-L40*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="O40" s="50"/>
       <c r="P40" s="50"/>
       <c r="Q40" s="50"/>
     </row>
-    <row r="41" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="41" spans="1:30" s="54" customFormat="1" ht="40" thickBot="1">
       <c r="A41" s="39">
         <v>47</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>35</v>
       </c>
       <c r="M41" s="84">
-        <f>IF(ISBLANK(K41),,((K41-L41*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>131.88888888888889</v>
       </c>
       <c r="O41" s="68"/>
@@ -4976,7 +4985,7 @@
       <c r="AC41" s="50"/>
       <c r="AD41" s="50"/>
     </row>
-    <row r="42" spans="1:30" s="54" customFormat="1" ht="13.5" thickBot="1">
+    <row r="42" spans="1:30" s="54" customFormat="1" ht="14" thickBot="1">
       <c r="A42" s="39">
         <v>45</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v>114</v>
       </c>
       <c r="M42" s="84">
-        <f>IF(ISBLANK(K42),,((K42-L42*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>136.22222222222223</v>
       </c>
       <c r="R42" s="50"/>
@@ -5027,7 +5036,7 @@
       <c r="AC42" s="50"/>
       <c r="AD42" s="50"/>
     </row>
-    <row r="43" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="43" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A43" s="39">
         <v>42</v>
       </c>
@@ -5065,7 +5074,7 @@
         <v>24</v>
       </c>
       <c r="M43" s="84">
-        <f>IF(ISBLANK(K43),,((K43-L43*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>159.77777777777777</v>
       </c>
       <c r="R43" s="68"/>
@@ -5082,7 +5091,7 @@
       <c r="AC43" s="68"/>
       <c r="AD43" s="68"/>
     </row>
-    <row r="44" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="44" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A44" s="39">
         <v>43</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>27</v>
       </c>
       <c r="M44" s="84">
-        <f>IF(ISBLANK(K44),,((K44-L44*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>134.44444444444446</v>
       </c>
       <c r="R44" s="50"/>
@@ -5137,7 +5146,7 @@
       <c r="AC44" s="50"/>
       <c r="AD44" s="50"/>
     </row>
-    <row r="45" spans="1:30" s="54" customFormat="1" ht="128.25" thickBot="1">
+    <row r="45" spans="1:30" s="54" customFormat="1" ht="131" thickBot="1">
       <c r="A45" s="39">
         <v>38</v>
       </c>
@@ -5175,11 +5184,11 @@
         <v>166</v>
       </c>
       <c r="M45" s="84">
-        <f>IF(ISBLANK(K45),,((K45-L45*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>80.444444444444443</v>
       </c>
     </row>
-    <row r="46" spans="1:30" s="54" customFormat="1" ht="64.5" thickBot="1">
+    <row r="46" spans="1:30" s="54" customFormat="1" ht="66" thickBot="1">
       <c r="A46" s="39">
         <v>41</v>
       </c>
@@ -5217,11 +5226,11 @@
         <v>59</v>
       </c>
       <c r="M46" s="84">
-        <f>IF(ISBLANK(K46),,((K46-L46*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>151.33333333333334</v>
       </c>
     </row>
-    <row r="47" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="47" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A47" s="39">
         <v>39</v>
       </c>
@@ -5259,11 +5268,11 @@
         <v>39</v>
       </c>
       <c r="M47" s="84">
-        <f>IF(ISBLANK(K47),,((K47-L47*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>172.11111111111111</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="54" customFormat="1" ht="26.25" thickBot="1">
+    <row r="48" spans="1:30" s="54" customFormat="1" ht="27" thickBot="1">
       <c r="A48" s="39">
         <v>36</v>
       </c>
@@ -5301,7 +5310,7 @@
         <v>341</v>
       </c>
       <c r="M48" s="84">
-        <f>IF(ISBLANK(K48),,((K48-L48*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>43.666666666666664</v>
       </c>
       <c r="R48" s="50"/>
@@ -5318,7 +5327,7 @@
       <c r="AC48" s="50"/>
       <c r="AD48" s="50"/>
     </row>
-    <row r="49" spans="1:30" s="71" customFormat="1" ht="39" thickBot="1">
+    <row r="49" spans="1:30" s="71" customFormat="1" ht="40" thickBot="1">
       <c r="A49" s="39">
         <v>37</v>
       </c>
@@ -5356,7 +5365,7 @@
         <v>27</v>
       </c>
       <c r="M49" s="84">
-        <f>IF(ISBLANK(K49),,((K49-L49*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>115.77777777777777</v>
       </c>
       <c r="N49" s="54"/>
@@ -5377,7 +5386,7 @@
       <c r="AC49" s="50"/>
       <c r="AD49" s="50"/>
     </row>
-    <row r="50" spans="1:30" s="50" customFormat="1" ht="26.25" thickBot="1">
+    <row r="50" spans="1:30" s="50" customFormat="1" ht="27" thickBot="1">
       <c r="A50" s="39">
         <v>40</v>
       </c>
@@ -5415,14 +5424,14 @@
         <v>348</v>
       </c>
       <c r="M50" s="84">
-        <f>IF(ISBLANK(K50),,((K50-L50*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="O50" s="54"/>
       <c r="P50" s="54"/>
       <c r="Q50" s="54"/>
     </row>
-    <row r="51" spans="1:30" s="50" customFormat="1" ht="39" thickBot="1">
+    <row r="51" spans="1:30" s="50" customFormat="1" ht="40" thickBot="1">
       <c r="A51" s="39">
         <v>34</v>
       </c>
@@ -5460,7 +5469,7 @@
         <v>17</v>
       </c>
       <c r="M51" s="84">
-        <f>IF(ISBLANK(K51),,((K51-L51*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>139.55555555555554</v>
       </c>
       <c r="N51" s="54"/>
@@ -5468,7 +5477,7 @@
       <c r="P51" s="54"/>
       <c r="Q51" s="54"/>
     </row>
-    <row r="52" spans="1:30" s="54" customFormat="1" ht="39" thickBot="1">
+    <row r="52" spans="1:30" s="54" customFormat="1" ht="40" thickBot="1">
       <c r="A52" s="39">
         <v>35</v>
       </c>
@@ -5506,7 +5515,7 @@
         <v>12</v>
       </c>
       <c r="M52" s="84">
-        <f>IF(ISBLANK(K52),,((K52-L52*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>123.33333333333333</v>
       </c>
       <c r="R52" s="50"/>
@@ -5523,7 +5532,7 @@
       <c r="AC52" s="50"/>
       <c r="AD52" s="50"/>
     </row>
-    <row r="53" spans="1:30" s="54" customFormat="1" ht="39" thickBot="1">
+    <row r="53" spans="1:30" s="54" customFormat="1" ht="40" thickBot="1">
       <c r="A53" s="39">
         <v>28</v>
       </c>
@@ -5561,12 +5570,12 @@
         <v>912</v>
       </c>
       <c r="M53" s="84">
-        <f>IF(ISBLANK(K53),,((K53-L53*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>-62.555555555555557</v>
       </c>
       <c r="N53" s="50"/>
     </row>
-    <row r="54" spans="1:30" s="50" customFormat="1" ht="39" thickBot="1">
+    <row r="54" spans="1:30" s="50" customFormat="1" ht="40" thickBot="1">
       <c r="A54" s="39">
         <v>31</v>
       </c>
@@ -5604,7 +5613,7 @@
         <v>793</v>
       </c>
       <c r="M54" s="84">
-        <f>IF(ISBLANK(K54),,((K54-L54*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>-43.333333333333336</v>
       </c>
       <c r="N54" s="54"/>
@@ -5625,7 +5634,7 @@
       <c r="AC54" s="71"/>
       <c r="AD54" s="71"/>
     </row>
-    <row r="55" spans="1:30" s="50" customFormat="1" ht="81.75" thickBot="1">
+    <row r="55" spans="1:30" s="50" customFormat="1" ht="91" thickBot="1">
       <c r="A55" s="39">
         <v>33</v>
       </c>
@@ -5663,7 +5672,7 @@
         <v>386</v>
       </c>
       <c r="M55" s="84">
-        <f>IF(ISBLANK(K55),,((K55-L55*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="N55" s="54"/>
@@ -5684,7 +5693,7 @@
       <c r="AC55" s="54"/>
       <c r="AD55" s="54"/>
     </row>
-    <row r="56" spans="1:30" s="50" customFormat="1" ht="26.25" thickBot="1">
+    <row r="56" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A56" s="39">
         <v>29</v>
       </c>
@@ -5722,7 +5731,7 @@
         <v>370</v>
       </c>
       <c r="M56" s="84">
-        <f>IF(ISBLANK(K56),,((K56-L56*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>50.333333333333336</v>
       </c>
       <c r="R56" s="54"/>
@@ -5739,7 +5748,7 @@
       <c r="AC56" s="54"/>
       <c r="AD56" s="54"/>
     </row>
-    <row r="57" spans="1:30" s="50" customFormat="1" ht="64.5" thickBot="1">
+    <row r="57" spans="1:30" s="50" customFormat="1" ht="66" thickBot="1">
       <c r="A57" s="39">
         <v>30</v>
       </c>
@@ -5777,7 +5786,7 @@
         <v>1169</v>
       </c>
       <c r="M57" s="84">
-        <f>IF(ISBLANK(K57),,((K57-L57*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>-130.88888888888889</v>
       </c>
       <c r="N57" s="54"/>
@@ -5795,7 +5804,7 @@
       <c r="AC57" s="54"/>
       <c r="AD57" s="54"/>
     </row>
-    <row r="58" spans="1:30" s="50" customFormat="1" ht="64.5" thickBot="1">
+    <row r="58" spans="1:30" s="50" customFormat="1" ht="66" thickBot="1">
       <c r="A58" s="39">
         <v>32</v>
       </c>
@@ -5833,7 +5842,7 @@
         <v>14</v>
       </c>
       <c r="M58" s="84">
-        <f>IF(ISBLANK(K58),,((K58-L58*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>136.66666666666666</v>
       </c>
       <c r="N58" s="54"/>
@@ -5841,7 +5850,7 @@
       <c r="P58" s="54"/>
       <c r="Q58" s="54"/>
     </row>
-    <row r="59" spans="1:30" s="50" customFormat="1" ht="51.75" thickBot="1">
+    <row r="59" spans="1:30" s="50" customFormat="1" ht="53" thickBot="1">
       <c r="A59" s="39">
         <v>26</v>
       </c>
@@ -5879,7 +5888,7 @@
         <v>99</v>
       </c>
       <c r="M59" s="84">
-        <f>IF(ISBLANK(K59),,((K59-L59*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>116.88888888888889</v>
       </c>
       <c r="N59" s="54"/>
@@ -5900,7 +5909,7 @@
       <c r="AC59" s="54"/>
       <c r="AD59" s="54"/>
     </row>
-    <row r="60" spans="1:30" s="50" customFormat="1" ht="51.75" thickBot="1">
+    <row r="60" spans="1:30" s="50" customFormat="1" ht="53" thickBot="1">
       <c r="A60" s="39">
         <v>27</v>
       </c>
@@ -5938,7 +5947,7 @@
         <v>35</v>
       </c>
       <c r="M60" s="84">
-        <f>IF(ISBLANK(K60),,((K60-L60*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>133.44444444444446</v>
       </c>
       <c r="R60" s="54"/>
@@ -5955,7 +5964,7 @@
       <c r="AC60" s="54"/>
       <c r="AD60" s="54"/>
     </row>
-    <row r="61" spans="1:30" s="50" customFormat="1" ht="26.25" thickBot="1">
+    <row r="61" spans="1:30" s="50" customFormat="1" ht="27" thickBot="1">
       <c r="A61" s="39">
         <v>24</v>
       </c>
@@ -5993,7 +6002,7 @@
         <v>19</v>
       </c>
       <c r="M61" s="84">
-        <f>IF(ISBLANK(K61),,((K61-L61*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>185.66666666666666</v>
       </c>
       <c r="N61" s="71"/>
@@ -6014,7 +6023,7 @@
       <c r="AC61" s="54"/>
       <c r="AD61" s="54"/>
     </row>
-    <row r="62" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="62" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A62" s="39">
         <v>18</v>
       </c>
@@ -6052,7 +6061,7 @@
         <v>33</v>
       </c>
       <c r="M62" s="84">
-        <f>IF(ISBLANK(K62),,((K62-L62*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>122.88888888888889</v>
       </c>
       <c r="N62" s="54"/>
@@ -6073,7 +6082,7 @@
       <c r="AC62" s="54"/>
       <c r="AD62" s="54"/>
     </row>
-    <row r="63" spans="1:30" s="50" customFormat="1" ht="51.75" thickBot="1">
+    <row r="63" spans="1:30" s="50" customFormat="1" ht="53" thickBot="1">
       <c r="A63" s="39">
         <v>17</v>
       </c>
@@ -6111,7 +6120,7 @@
         <v>120</v>
       </c>
       <c r="M63" s="84">
-        <f>IF(ISBLANK(K63),,((K63-L63*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="N63" s="54"/>
@@ -6132,7 +6141,7 @@
       <c r="AC63" s="54"/>
       <c r="AD63" s="54"/>
     </row>
-    <row r="64" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="64" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A64" s="39">
         <v>22</v>
       </c>
@@ -6170,7 +6179,7 @@
         <v>44</v>
       </c>
       <c r="M64" s="84">
-        <f>IF(ISBLANK(K64),,((K64-L64*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>114.88888888888889</v>
       </c>
       <c r="N64" s="54"/>
@@ -6178,7 +6187,7 @@
       <c r="P64" s="54"/>
       <c r="Q64" s="54"/>
     </row>
-    <row r="65" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="65" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A65" s="39">
         <v>19</v>
       </c>
@@ -6216,7 +6225,7 @@
         <v>553</v>
       </c>
       <c r="M65" s="84">
-        <f>IF(ISBLANK(K65),,((K65-L65*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>16.111111111111111</v>
       </c>
       <c r="N65" s="54"/>
@@ -6237,7 +6246,7 @@
       <c r="AC65" s="54"/>
       <c r="AD65" s="54"/>
     </row>
-    <row r="66" spans="1:30" s="50" customFormat="1" ht="26.25" thickBot="1">
+    <row r="66" spans="1:30" s="50" customFormat="1" ht="27" thickBot="1">
       <c r="A66" s="39">
         <v>23</v>
       </c>
@@ -6275,7 +6284,7 @@
         <v>35</v>
       </c>
       <c r="M66" s="84">
-        <f>IF(ISBLANK(K66),,((K66-L66*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>147.55555555555554</v>
       </c>
       <c r="N66" s="54"/>
@@ -6283,7 +6292,7 @@
       <c r="P66" s="54"/>
       <c r="Q66" s="54"/>
     </row>
-    <row r="67" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="67" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A67" s="39">
         <v>20</v>
       </c>
@@ -6321,7 +6330,7 @@
         <v>59</v>
       </c>
       <c r="M67" s="84">
-        <f>IF(ISBLANK(K67),,((K67-L67*2)+1000)/9)</f>
+        <f t="shared" si="1"/>
         <v>112.55555555555556</v>
       </c>
       <c r="N67" s="54"/>
@@ -6342,7 +6351,7 @@
       <c r="AC67" s="54"/>
       <c r="AD67" s="54"/>
     </row>
-    <row r="68" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="68" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A68" s="39">
         <v>21</v>
       </c>
@@ -6380,7 +6389,7 @@
         <v>357</v>
       </c>
       <c r="M68" s="84">
-        <f>IF(ISBLANK(K68),,((K68-L68*2)+1000)/9)</f>
+        <f t="shared" ref="M68:M99" si="2">IF(ISBLANK(K68),,((K68-L68*2)+1000)/9)</f>
         <v>64.444444444444443</v>
       </c>
       <c r="N68" s="54"/>
@@ -6388,7 +6397,7 @@
       <c r="P68" s="54"/>
       <c r="Q68" s="54"/>
     </row>
-    <row r="69" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="69" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A69" s="39">
         <v>25</v>
       </c>
@@ -6426,14 +6435,14 @@
         <v>48</v>
       </c>
       <c r="M69" s="84">
-        <f>IF(ISBLANK(K69),,((K69-L69*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>165.44444444444446</v>
       </c>
       <c r="O69" s="54"/>
       <c r="P69" s="54"/>
       <c r="Q69" s="54"/>
     </row>
-    <row r="70" spans="1:30" s="50" customFormat="1" ht="41.25" thickBot="1">
+    <row r="70" spans="1:30" s="50" customFormat="1" ht="46" thickBot="1">
       <c r="A70" s="39">
         <v>13</v>
       </c>
@@ -6471,7 +6480,7 @@
         <v>59</v>
       </c>
       <c r="M70" s="84">
-        <f>IF(ISBLANK(K70),,((K70-L70*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>133.88888888888889</v>
       </c>
       <c r="N70" s="54"/>
@@ -6492,7 +6501,7 @@
       <c r="AC70" s="54"/>
       <c r="AD70" s="54"/>
     </row>
-    <row r="71" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="71" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A71" s="39">
         <v>12</v>
       </c>
@@ -6530,7 +6539,7 @@
         <v>283</v>
       </c>
       <c r="M71" s="84">
-        <f>IF(ISBLANK(K71),,((K71-L71*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>84.888888888888886</v>
       </c>
       <c r="N71" s="54"/>
@@ -6538,7 +6547,7 @@
       <c r="P71" s="54"/>
       <c r="Q71" s="54"/>
     </row>
-    <row r="72" spans="1:30" s="50" customFormat="1" ht="26.25" thickBot="1">
+    <row r="72" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A72" s="39">
         <v>11</v>
       </c>
@@ -6576,7 +6585,7 @@
         <v>18</v>
       </c>
       <c r="M72" s="84">
-        <f>IF(ISBLANK(K72),,((K72-L72*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>135.33333333333334</v>
       </c>
       <c r="N72" s="54"/>
@@ -6597,7 +6606,7 @@
       <c r="AC72" s="54"/>
       <c r="AD72" s="54"/>
     </row>
-    <row r="73" spans="1:30" s="50" customFormat="1" ht="39" thickBot="1">
+    <row r="73" spans="1:30" s="50" customFormat="1" ht="40" thickBot="1">
       <c r="A73" s="39">
         <v>7</v>
       </c>
@@ -6635,7 +6644,7 @@
         <v>17</v>
       </c>
       <c r="M73" s="84">
-        <f>IF(ISBLANK(K73),,((K73-L73*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>165.22222222222223</v>
       </c>
       <c r="N73" s="54"/>
@@ -6643,7 +6652,7 @@
       <c r="P73" s="54"/>
       <c r="Q73" s="54"/>
     </row>
-    <row r="74" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="74" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A74" s="39">
         <v>8</v>
       </c>
@@ -6679,7 +6688,7 @@
         <v>11</v>
       </c>
       <c r="M74" s="84">
-        <f>IF(ISBLANK(K74),,((K74-L74*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>137.22222222222223</v>
       </c>
       <c r="N74" s="54"/>
@@ -6700,7 +6709,7 @@
       <c r="AC74" s="54"/>
       <c r="AD74" s="54"/>
     </row>
-    <row r="75" spans="1:30" s="50" customFormat="1" ht="39" thickBot="1">
+    <row r="75" spans="1:30" s="50" customFormat="1" ht="40" thickBot="1">
       <c r="A75" s="39">
         <v>4</v>
       </c>
@@ -6738,11 +6747,11 @@
         <v>447</v>
       </c>
       <c r="M75" s="84">
-        <f>IF(ISBLANK(K75),,((K75-L75*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>34.222222222222221</v>
       </c>
     </row>
-    <row r="76" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="76" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A76" s="39">
         <v>6</v>
       </c>
@@ -6778,7 +6787,7 @@
         <v>128</v>
       </c>
       <c r="M76" s="84">
-        <f>IF(ISBLANK(K76),,((K76-L76*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="N76" s="54"/>
@@ -6786,7 +6795,7 @@
       <c r="P76" s="54"/>
       <c r="Q76" s="54"/>
     </row>
-    <row r="77" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="77" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A77" s="39">
         <v>5</v>
       </c>
@@ -6824,7 +6833,7 @@
         <v>29</v>
       </c>
       <c r="M77" s="84">
-        <f>IF(ISBLANK(K77),,((K77-L77*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="N77" s="54"/>
@@ -6832,7 +6841,7 @@
       <c r="P77" s="54"/>
       <c r="Q77" s="54"/>
     </row>
-    <row r="78" spans="1:30" s="50" customFormat="1" ht="51.75" thickBot="1">
+    <row r="78" spans="1:30" s="50" customFormat="1" ht="53" thickBot="1">
       <c r="A78" s="39">
         <v>3</v>
       </c>
@@ -6870,12 +6879,12 @@
         <v>2</v>
       </c>
       <c r="M78" s="85">
-        <f>IF(ISBLANK(K78),,((K78-L78*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>140.77777777777777</v>
       </c>
       <c r="N78" s="54"/>
     </row>
-    <row r="79" spans="1:30" s="50" customFormat="1" ht="27.75" thickBot="1">
+    <row r="79" spans="1:30" s="50" customFormat="1" ht="31" thickBot="1">
       <c r="A79" s="39">
         <v>66</v>
       </c>
@@ -6909,11 +6918,11 @@
         <v>53</v>
       </c>
       <c r="M79" s="85">
-        <f>IF(ISBLANK(K79),,((K79-L79*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>172.66666666666666</v>
       </c>
     </row>
-    <row r="80" spans="1:30" s="50" customFormat="1" ht="26.25" thickBot="1">
+    <row r="80" spans="1:30" s="50" customFormat="1" ht="27" thickBot="1">
       <c r="A80" s="39">
         <v>59</v>
       </c>
@@ -6947,7 +6956,7 @@
         <v>20</v>
       </c>
       <c r="M80" s="85">
-        <f>IF(ISBLANK(K80),,((K80-L80*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>137.77777777777777</v>
       </c>
       <c r="N80" s="54"/>
@@ -6965,7 +6974,7 @@
       <c r="AC80" s="54"/>
       <c r="AD80" s="54"/>
     </row>
-    <row r="81" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="81" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A81" s="39">
         <v>60</v>
       </c>
@@ -6999,12 +7008,12 @@
         <v>22</v>
       </c>
       <c r="M81" s="85">
-        <f>IF(ISBLANK(K81),,((K81-L81*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>160.22222222222223</v>
       </c>
       <c r="N81" s="54"/>
     </row>
-    <row r="82" spans="1:30" s="50" customFormat="1" ht="14.25" thickBot="1">
+    <row r="82" spans="1:30" s="50" customFormat="1" ht="16" thickBot="1">
       <c r="A82" s="39">
         <v>61</v>
       </c>
@@ -7038,14 +7047,14 @@
         <v>18</v>
       </c>
       <c r="M82" s="85">
-        <f>IF(ISBLANK(K82),,((K82-L82*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>176.55555555555554</v>
       </c>
       <c r="O82" s="68"/>
       <c r="P82" s="68"/>
       <c r="Q82" s="68"/>
     </row>
-    <row r="83" spans="1:30" s="54" customFormat="1" ht="27.75" thickBot="1">
+    <row r="83" spans="1:30" s="54" customFormat="1" ht="31" thickBot="1">
       <c r="A83" s="39">
         <v>62</v>
       </c>
@@ -7079,7 +7088,7 @@
         <v>5</v>
       </c>
       <c r="M83" s="85">
-        <f>IF(ISBLANK(K83),,((K83-L83*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="N83" s="50"/>
@@ -7100,7 +7109,7 @@
       <c r="AC83" s="50"/>
       <c r="AD83" s="50"/>
     </row>
-    <row r="84" spans="1:30" s="54" customFormat="1" ht="13.5" thickBot="1">
+    <row r="84" spans="1:30" s="54" customFormat="1" ht="14" thickBot="1">
       <c r="A84" s="39">
         <v>67</v>
       </c>
@@ -7132,7 +7141,7 @@
         <v>50</v>
       </c>
       <c r="M84" s="85">
-        <f>IF(ISBLANK(K84),,((K84-L84*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>139.77777777777777</v>
       </c>
       <c r="N84" s="50"/>
@@ -7153,7 +7162,7 @@
       <c r="AC84" s="50"/>
       <c r="AD84" s="50"/>
     </row>
-    <row r="85" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="85" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A85" s="39">
         <v>72</v>
       </c>
@@ -7187,28 +7196,53 @@
         <v>33</v>
       </c>
       <c r="M85" s="85">
-        <f>IF(ISBLANK(K85),,((K85-L85*2)+1000)/9)</f>
+        <f t="shared" si="2"/>
         <v>115.77777777777777</v>
       </c>
     </row>
-    <row r="86" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="86" spans="1:30" s="50" customFormat="1" ht="27" thickBot="1">
       <c r="A86" s="39">
         <v>83</v>
       </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="79"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="49"/>
-    </row>
-    <row r="87" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B86" s="72">
+        <v>43136</v>
+      </c>
+      <c r="C86" s="72">
+        <v>43136</v>
+      </c>
+      <c r="D86" s="42">
+        <v>283</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="G86" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="J86" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="K86" s="48">
+        <v>621</v>
+      </c>
+      <c r="L86" s="48">
+        <v>30</v>
+      </c>
+      <c r="M86" s="49">
+        <f t="shared" si="2"/>
+        <v>173.44444444444446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A87" s="39">
         <v>84</v>
       </c>
@@ -7225,7 +7259,7 @@
       <c r="L87" s="48"/>
       <c r="M87" s="49"/>
     </row>
-    <row r="88" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="88" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A88" s="39">
         <v>85</v>
       </c>
@@ -7242,7 +7276,7 @@
       <c r="L88" s="48"/>
       <c r="M88" s="49"/>
     </row>
-    <row r="89" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="89" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A89" s="39">
         <v>86</v>
       </c>
@@ -7259,7 +7293,7 @@
       <c r="L89" s="48"/>
       <c r="M89" s="49"/>
     </row>
-    <row r="90" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="90" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A90" s="39">
         <v>87</v>
       </c>
@@ -7276,7 +7310,7 @@
       <c r="L90" s="48"/>
       <c r="M90" s="49"/>
     </row>
-    <row r="91" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="91" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A91" s="39">
         <v>88</v>
       </c>
@@ -7293,7 +7327,7 @@
       <c r="L91" s="48"/>
       <c r="M91" s="49"/>
     </row>
-    <row r="92" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="92" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A92" s="39">
         <v>89</v>
       </c>
@@ -7310,7 +7344,7 @@
       <c r="L92" s="48"/>
       <c r="M92" s="49"/>
     </row>
-    <row r="93" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="93" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A93" s="39">
         <v>90</v>
       </c>
@@ -7327,7 +7361,7 @@
       <c r="L93" s="48"/>
       <c r="M93" s="49"/>
     </row>
-    <row r="94" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="94" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A94" s="39">
         <v>91</v>
       </c>
@@ -7344,7 +7378,7 @@
       <c r="L94" s="48"/>
       <c r="M94" s="49"/>
     </row>
-    <row r="95" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="95" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A95" s="39">
         <v>92</v>
       </c>
@@ -7361,7 +7395,7 @@
       <c r="L95" s="48"/>
       <c r="M95" s="49"/>
     </row>
-    <row r="96" spans="1:30" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="96" spans="1:30" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A96" s="39">
         <v>93</v>
       </c>
@@ -7378,7 +7412,7 @@
       <c r="L96" s="48"/>
       <c r="M96" s="49"/>
     </row>
-    <row r="97" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="97" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A97" s="39">
         <v>94</v>
       </c>
@@ -7395,7 +7429,7 @@
       <c r="L97" s="48"/>
       <c r="M97" s="49"/>
     </row>
-    <row r="98" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="98" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A98" s="39">
         <v>95</v>
       </c>
@@ -7412,7 +7446,7 @@
       <c r="L98" s="48"/>
       <c r="M98" s="49"/>
     </row>
-    <row r="99" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="99" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A99" s="39">
         <v>96</v>
       </c>
@@ -7429,7 +7463,7 @@
       <c r="L99" s="48"/>
       <c r="M99" s="49"/>
     </row>
-    <row r="100" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="100" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A100" s="39">
         <v>97</v>
       </c>
@@ -7446,7 +7480,7 @@
       <c r="L100" s="48"/>
       <c r="M100" s="49"/>
     </row>
-    <row r="101" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="101" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A101" s="39">
         <v>98</v>
       </c>
@@ -7463,7 +7497,7 @@
       <c r="L101" s="48"/>
       <c r="M101" s="49"/>
     </row>
-    <row r="102" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="102" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A102" s="39">
         <v>99</v>
       </c>
@@ -7480,7 +7514,7 @@
       <c r="L102" s="48"/>
       <c r="M102" s="49"/>
     </row>
-    <row r="103" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="103" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A103" s="39">
         <v>100</v>
       </c>
@@ -7497,7 +7531,7 @@
       <c r="L103" s="48"/>
       <c r="M103" s="49"/>
     </row>
-    <row r="104" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="104" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A104" s="39">
         <v>101</v>
       </c>
@@ -7514,7 +7548,7 @@
       <c r="L104" s="48"/>
       <c r="M104" s="49"/>
     </row>
-    <row r="105" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="105" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A105" s="39">
         <v>102</v>
       </c>
@@ -7531,7 +7565,7 @@
       <c r="L105" s="48"/>
       <c r="M105" s="49"/>
     </row>
-    <row r="106" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="106" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A106" s="39">
         <v>103</v>
       </c>
@@ -7548,7 +7582,7 @@
       <c r="L106" s="48"/>
       <c r="M106" s="49"/>
     </row>
-    <row r="107" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="107" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A107" s="39">
         <v>104</v>
       </c>
@@ -7565,7 +7599,7 @@
       <c r="L107" s="48"/>
       <c r="M107" s="49"/>
     </row>
-    <row r="108" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="108" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A108" s="39">
         <v>105</v>
       </c>
@@ -7582,7 +7616,7 @@
       <c r="L108" s="48"/>
       <c r="M108" s="49"/>
     </row>
-    <row r="109" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="109" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A109" s="39">
         <v>106</v>
       </c>
@@ -7599,7 +7633,7 @@
       <c r="L109" s="48"/>
       <c r="M109" s="49"/>
     </row>
-    <row r="110" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="110" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A110" s="39">
         <v>107</v>
       </c>
@@ -7616,7 +7650,7 @@
       <c r="L110" s="48"/>
       <c r="M110" s="49"/>
     </row>
-    <row r="111" spans="1:13" s="50" customFormat="1" ht="13.5" thickBot="1">
+    <row r="111" spans="1:13" s="50" customFormat="1" ht="14" thickBot="1">
       <c r="A111" s="39">
         <v>108</v>
       </c>
@@ -14929,7 +14963,7 @@
     <sortCondition ref="H4:H85"/>
   </sortState>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="C85:C176 C4:C70 C73:C80">
+  <conditionalFormatting sqref="C85 C4:C70 C73:C80 C87:C176">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>43101</formula>
     </cfRule>
@@ -14958,9 +14992,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="13.28515625" customWidth="1"/>
+    <col min="1" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -15051,5935 +15085,5935 @@
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="12.75">
+    <row r="14" spans="1:4" ht="13">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="12.75">
+    <row r="15" spans="1:4" ht="13">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="12.75">
+    <row r="16" spans="1:4" ht="13">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="12.75">
+    <row r="17" spans="1:4" ht="13">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="12.75">
+    <row r="18" spans="1:4" ht="13">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="12.75">
+    <row r="19" spans="1:4" ht="13">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="12.75">
+    <row r="20" spans="1:4" ht="13">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="12.75">
+    <row r="21" spans="1:4" ht="13">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="12.75">
+    <row r="22" spans="1:4" ht="13">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="12.75">
+    <row r="23" spans="1:4" ht="13">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="12.75">
+    <row r="24" spans="1:4" ht="13">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75">
+    <row r="25" spans="1:4" ht="13">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="12.75">
+    <row r="26" spans="1:4" ht="13">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75">
+    <row r="27" spans="1:4" ht="13">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="12.75">
+    <row r="28" spans="1:4" ht="13">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="12.75">
+    <row r="29" spans="1:4" ht="13">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75">
+    <row r="30" spans="1:4" ht="13">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="12.75">
+    <row r="31" spans="1:4" ht="13">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="12.75">
+    <row r="32" spans="1:4" ht="13">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="12.75">
+    <row r="33" spans="1:4" ht="13">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="12.75">
+    <row r="34" spans="1:4" ht="13">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="12.75">
+    <row r="35" spans="1:4" ht="13">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="12.75">
+    <row r="36" spans="1:4" ht="13">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="12.75">
+    <row r="37" spans="1:4" ht="13">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="12.75">
+    <row r="38" spans="1:4" ht="13">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="12.75">
+    <row r="39" spans="1:4" ht="13">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="12.75">
+    <row r="40" spans="1:4" ht="13">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="12.75">
+    <row r="41" spans="1:4" ht="13">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="12.75">
+    <row r="42" spans="1:4" ht="13">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="12.75">
+    <row r="43" spans="1:4" ht="13">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="12.75">
+    <row r="44" spans="1:4" ht="13">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="12.75">
+    <row r="45" spans="1:4" ht="13">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="12.75">
+    <row r="46" spans="1:4" ht="13">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="12.75">
+    <row r="47" spans="1:4" ht="13">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="12.75">
+    <row r="48" spans="1:4" ht="13">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="12.75">
+    <row r="49" spans="1:4" ht="13">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="12.75">
+    <row r="50" spans="1:4" ht="13">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="12.75">
+    <row r="51" spans="1:4" ht="13">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="12.75">
+    <row r="52" spans="1:4" ht="13">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="12.75">
+    <row r="53" spans="1:4" ht="13">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" ht="12.75">
+    <row r="54" spans="1:4" ht="13">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" ht="12.75">
+    <row r="55" spans="1:4" ht="13">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="12.75">
+    <row r="56" spans="1:4" ht="13">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="12.75">
+    <row r="57" spans="1:4" ht="13">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="12.75">
+    <row r="58" spans="1:4" ht="13">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" ht="12.75">
+    <row r="59" spans="1:4" ht="13">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" ht="12.75">
+    <row r="60" spans="1:4" ht="13">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" ht="12.75">
+    <row r="61" spans="1:4" ht="13">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" ht="12.75">
+    <row r="62" spans="1:4" ht="13">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" ht="12.75">
+    <row r="63" spans="1:4" ht="13">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" ht="12.75">
+    <row r="64" spans="1:4" ht="13">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" ht="12.75">
+    <row r="65" spans="1:4" ht="13">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" ht="12.75">
+    <row r="66" spans="1:4" ht="13">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" ht="12.75">
+    <row r="67" spans="1:4" ht="13">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" ht="12.75">
+    <row r="68" spans="1:4" ht="13">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="12.75">
+    <row r="69" spans="1:4" ht="13">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" ht="12.75">
+    <row r="70" spans="1:4" ht="13">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" ht="12.75">
+    <row r="71" spans="1:4" ht="13">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" ht="12.75">
+    <row r="72" spans="1:4" ht="13">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" ht="12.75">
+    <row r="73" spans="1:4" ht="13">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" ht="12.75">
+    <row r="74" spans="1:4" ht="13">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" ht="12.75">
+    <row r="75" spans="1:4" ht="13">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="12.75">
+    <row r="76" spans="1:4" ht="13">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" ht="12.75">
+    <row r="77" spans="1:4" ht="13">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" ht="12.75">
+    <row r="78" spans="1:4" ht="13">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="12.75">
+    <row r="79" spans="1:4" ht="13">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" ht="12.75">
+    <row r="80" spans="1:4" ht="13">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" ht="12.75">
+    <row r="81" spans="1:4" ht="13">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" ht="12.75">
+    <row r="82" spans="1:4" ht="13">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" ht="12.75">
+    <row r="83" spans="1:4" ht="13">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" ht="12.75">
+    <row r="84" spans="1:4" ht="13">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="12.75">
+    <row r="85" spans="1:4" ht="13">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" ht="12.75">
+    <row r="86" spans="1:4" ht="13">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="12.75">
+    <row r="87" spans="1:4" ht="13">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" ht="12.75">
+    <row r="88" spans="1:4" ht="13">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" ht="12.75">
+    <row r="89" spans="1:4" ht="13">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" ht="12.75">
+    <row r="90" spans="1:4" ht="13">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" ht="12.75">
+    <row r="91" spans="1:4" ht="13">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" ht="12.75">
+    <row r="92" spans="1:4" ht="13">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" ht="12.75">
+    <row r="93" spans="1:4" ht="13">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" ht="12.75">
+    <row r="94" spans="1:4" ht="13">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="12.75">
+    <row r="95" spans="1:4" ht="13">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" ht="12.75">
+    <row r="96" spans="1:4" ht="13">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" ht="12.75">
+    <row r="97" spans="1:4" ht="13">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" ht="12.75">
+    <row r="98" spans="1:4" ht="13">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" ht="12.75">
+    <row r="99" spans="1:4" ht="13">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" ht="12.75">
+    <row r="100" spans="1:4" ht="13">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" ht="12.75">
+    <row r="101" spans="1:4" ht="13">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" ht="12.75">
+    <row r="102" spans="1:4" ht="13">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" ht="12.75">
+    <row r="103" spans="1:4" ht="13">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" ht="12.75">
+    <row r="104" spans="1:4" ht="13">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" ht="12.75">
+    <row r="105" spans="1:4" ht="13">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" ht="12.75">
+    <row r="106" spans="1:4" ht="13">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" ht="12.75">
+    <row r="107" spans="1:4" ht="13">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" ht="12.75">
+    <row r="108" spans="1:4" ht="13">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" ht="12.75">
+    <row r="109" spans="1:4" ht="13">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" ht="12.75">
+    <row r="110" spans="1:4" ht="13">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" ht="12.75">
+    <row r="111" spans="1:4" ht="13">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" ht="12.75">
+    <row r="112" spans="1:4" ht="13">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" ht="12.75">
+    <row r="113" spans="1:4" ht="13">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" ht="12.75">
+    <row r="114" spans="1:4" ht="13">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" ht="12.75">
+    <row r="115" spans="1:4" ht="13">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" ht="12.75">
+    <row r="116" spans="1:4" ht="13">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" ht="12.75">
+    <row r="117" spans="1:4" ht="13">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" ht="12.75">
+    <row r="118" spans="1:4" ht="13">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" ht="12.75">
+    <row r="119" spans="1:4" ht="13">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" ht="12.75">
+    <row r="120" spans="1:4" ht="13">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" ht="12.75">
+    <row r="121" spans="1:4" ht="13">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" ht="12.75">
+    <row r="122" spans="1:4" ht="13">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" ht="12.75">
+    <row r="123" spans="1:4" ht="13">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" ht="12.75">
+    <row r="124" spans="1:4" ht="13">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" ht="12.75">
+    <row r="125" spans="1:4" ht="13">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" ht="12.75">
+    <row r="126" spans="1:4" ht="13">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" ht="12.75">
+    <row r="127" spans="1:4" ht="13">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" ht="12.75">
+    <row r="128" spans="1:4" ht="13">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" ht="12.75">
+    <row r="129" spans="1:4" ht="13">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" ht="12.75">
+    <row r="130" spans="1:4" ht="13">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" ht="12.75">
+    <row r="131" spans="1:4" ht="13">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" ht="12.75">
+    <row r="132" spans="1:4" ht="13">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" ht="12.75">
+    <row r="133" spans="1:4" ht="13">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" ht="12.75">
+    <row r="134" spans="1:4" ht="13">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" ht="12.75">
+    <row r="135" spans="1:4" ht="13">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" ht="12.75">
+    <row r="136" spans="1:4" ht="13">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" ht="12.75">
+    <row r="137" spans="1:4" ht="13">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:4" ht="12.75">
+    <row r="138" spans="1:4" ht="13">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" ht="12.75">
+    <row r="139" spans="1:4" ht="13">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" ht="12.75">
+    <row r="140" spans="1:4" ht="13">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" ht="12.75">
+    <row r="141" spans="1:4" ht="13">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" ht="12.75">
+    <row r="142" spans="1:4" ht="13">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" ht="12.75">
+    <row r="143" spans="1:4" ht="13">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" ht="12.75">
+    <row r="144" spans="1:4" ht="13">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" ht="12.75">
+    <row r="145" spans="1:4" ht="13">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" ht="12.75">
+    <row r="146" spans="1:4" ht="13">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" ht="12.75">
+    <row r="147" spans="1:4" ht="13">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" ht="12.75">
+    <row r="148" spans="1:4" ht="13">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" ht="12.75">
+    <row r="149" spans="1:4" ht="13">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" ht="12.75">
+    <row r="150" spans="1:4" ht="13">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" ht="12.75">
+    <row r="151" spans="1:4" ht="13">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" ht="12.75">
+    <row r="152" spans="1:4" ht="13">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" ht="12.75">
+    <row r="153" spans="1:4" ht="13">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" ht="12.75">
+    <row r="154" spans="1:4" ht="13">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" ht="12.75">
+    <row r="155" spans="1:4" ht="13">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" ht="12.75">
+    <row r="156" spans="1:4" ht="13">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" ht="12.75">
+    <row r="157" spans="1:4" ht="13">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" ht="12.75">
+    <row r="158" spans="1:4" ht="13">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" ht="12.75">
+    <row r="159" spans="1:4" ht="13">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" ht="12.75">
+    <row r="160" spans="1:4" ht="13">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" ht="12.75">
+    <row r="161" spans="1:4" ht="13">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" ht="12.75">
+    <row r="162" spans="1:4" ht="13">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" ht="12.75">
+    <row r="163" spans="1:4" ht="13">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" ht="12.75">
+    <row r="164" spans="1:4" ht="13">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" ht="12.75">
+    <row r="165" spans="1:4" ht="13">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" ht="12.75">
+    <row r="166" spans="1:4" ht="13">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" ht="12.75">
+    <row r="167" spans="1:4" ht="13">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" ht="12.75">
+    <row r="168" spans="1:4" ht="13">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" ht="12.75">
+    <row r="169" spans="1:4" ht="13">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" ht="12.75">
+    <row r="170" spans="1:4" ht="13">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" ht="12.75">
+    <row r="171" spans="1:4" ht="13">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" ht="12.75">
+    <row r="172" spans="1:4" ht="13">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" ht="12.75">
+    <row r="173" spans="1:4" ht="13">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" ht="12.75">
+    <row r="174" spans="1:4" ht="13">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" ht="12.75">
+    <row r="175" spans="1:4" ht="13">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" ht="12.75">
+    <row r="176" spans="1:4" ht="13">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" ht="12.75">
+    <row r="177" spans="1:4" ht="13">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" ht="12.75">
+    <row r="178" spans="1:4" ht="13">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" ht="12.75">
+    <row r="179" spans="1:4" ht="13">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" ht="12.75">
+    <row r="180" spans="1:4" ht="13">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" ht="12.75">
+    <row r="181" spans="1:4" ht="13">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" ht="12.75">
+    <row r="182" spans="1:4" ht="13">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" ht="12.75">
+    <row r="183" spans="1:4" ht="13">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" ht="12.75">
+    <row r="184" spans="1:4" ht="13">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" ht="12.75">
+    <row r="185" spans="1:4" ht="13">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" ht="12.75">
+    <row r="186" spans="1:4" ht="13">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" ht="12.75">
+    <row r="187" spans="1:4" ht="13">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" ht="12.75">
+    <row r="188" spans="1:4" ht="13">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" ht="12.75">
+    <row r="189" spans="1:4" ht="13">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" ht="12.75">
+    <row r="190" spans="1:4" ht="13">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" ht="12.75">
+    <row r="191" spans="1:4" ht="13">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" ht="12.75">
+    <row r="192" spans="1:4" ht="13">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" ht="12.75">
+    <row r="193" spans="1:4" ht="13">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" ht="12.75">
+    <row r="194" spans="1:4" ht="13">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" ht="12.75">
+    <row r="195" spans="1:4" ht="13">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" ht="12.75">
+    <row r="196" spans="1:4" ht="13">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" ht="12.75">
+    <row r="197" spans="1:4" ht="13">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" ht="12.75">
+    <row r="198" spans="1:4" ht="13">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" ht="12.75">
+    <row r="199" spans="1:4" ht="13">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" ht="12.75">
+    <row r="200" spans="1:4" ht="13">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" ht="12.75">
+    <row r="201" spans="1:4" ht="13">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" ht="12.75">
+    <row r="202" spans="1:4" ht="13">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" ht="12.75">
+    <row r="203" spans="1:4" ht="13">
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" ht="12.75">
+    <row r="204" spans="1:4" ht="13">
       <c r="A204" s="3"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" ht="12.75">
+    <row r="205" spans="1:4" ht="13">
       <c r="A205" s="3"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" ht="12.75">
+    <row r="206" spans="1:4" ht="13">
       <c r="A206" s="3"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" ht="12.75">
+    <row r="207" spans="1:4" ht="13">
       <c r="A207" s="3"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" ht="12.75">
+    <row r="208" spans="1:4" ht="13">
       <c r="A208" s="3"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" ht="12.75">
+    <row r="209" spans="1:4" ht="13">
       <c r="A209" s="3"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" ht="12.75">
+    <row r="210" spans="1:4" ht="13">
       <c r="A210" s="3"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" ht="12.75">
+    <row r="211" spans="1:4" ht="13">
       <c r="A211" s="3"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" ht="12.75">
+    <row r="212" spans="1:4" ht="13">
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" ht="12.75">
+    <row r="213" spans="1:4" ht="13">
       <c r="A213" s="3"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" ht="12.75">
+    <row r="214" spans="1:4" ht="13">
       <c r="A214" s="3"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" ht="12.75">
+    <row r="215" spans="1:4" ht="13">
       <c r="A215" s="3"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" ht="12.75">
+    <row r="216" spans="1:4" ht="13">
       <c r="A216" s="3"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" ht="12.75">
+    <row r="217" spans="1:4" ht="13">
       <c r="A217" s="3"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" ht="12.75">
+    <row r="218" spans="1:4" ht="13">
       <c r="A218" s="3"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" ht="12.75">
+    <row r="219" spans="1:4" ht="13">
       <c r="A219" s="3"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" ht="12.75">
+    <row r="220" spans="1:4" ht="13">
       <c r="A220" s="3"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" ht="12.75">
+    <row r="221" spans="1:4" ht="13">
       <c r="A221" s="3"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" ht="12.75">
+    <row r="222" spans="1:4" ht="13">
       <c r="A222" s="3"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="1:4" ht="12.75">
+    <row r="223" spans="1:4" ht="13">
       <c r="A223" s="3"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:4" ht="12.75">
+    <row r="224" spans="1:4" ht="13">
       <c r="A224" s="3"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" ht="12.75">
+    <row r="225" spans="1:4" ht="13">
       <c r="A225" s="3"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" ht="12.75">
+    <row r="226" spans="1:4" ht="13">
       <c r="A226" s="3"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" ht="12.75">
+    <row r="227" spans="1:4" ht="13">
       <c r="A227" s="3"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" ht="12.75">
+    <row r="228" spans="1:4" ht="13">
       <c r="A228" s="3"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:4" ht="12.75">
+    <row r="229" spans="1:4" ht="13">
       <c r="A229" s="3"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="1:4" ht="12.75">
+    <row r="230" spans="1:4" ht="13">
       <c r="A230" s="3"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="1:4" ht="12.75">
+    <row r="231" spans="1:4" ht="13">
       <c r="A231" s="3"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" ht="12.75">
+    <row r="232" spans="1:4" ht="13">
       <c r="A232" s="3"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" ht="12.75">
+    <row r="233" spans="1:4" ht="13">
       <c r="A233" s="3"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" ht="12.75">
+    <row r="234" spans="1:4" ht="13">
       <c r="A234" s="3"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="3"/>
     </row>
-    <row r="235" spans="1:4" ht="12.75">
+    <row r="235" spans="1:4" ht="13">
       <c r="A235" s="3"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="3"/>
     </row>
-    <row r="236" spans="1:4" ht="12.75">
+    <row r="236" spans="1:4" ht="13">
       <c r="A236" s="3"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="3"/>
     </row>
-    <row r="237" spans="1:4" ht="12.75">
+    <row r="237" spans="1:4" ht="13">
       <c r="A237" s="3"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="3"/>
     </row>
-    <row r="238" spans="1:4" ht="12.75">
+    <row r="238" spans="1:4" ht="13">
       <c r="A238" s="3"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="3"/>
     </row>
-    <row r="239" spans="1:4" ht="12.75">
+    <row r="239" spans="1:4" ht="13">
       <c r="A239" s="3"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="3"/>
     </row>
-    <row r="240" spans="1:4" ht="12.75">
+    <row r="240" spans="1:4" ht="13">
       <c r="A240" s="3"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="3"/>
     </row>
-    <row r="241" spans="1:4" ht="12.75">
+    <row r="241" spans="1:4" ht="13">
       <c r="A241" s="3"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="3"/>
     </row>
-    <row r="242" spans="1:4" ht="12.75">
+    <row r="242" spans="1:4" ht="13">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="3"/>
     </row>
-    <row r="243" spans="1:4" ht="12.75">
+    <row r="243" spans="1:4" ht="13">
       <c r="A243" s="3"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="3"/>
     </row>
-    <row r="244" spans="1:4" ht="12.75">
+    <row r="244" spans="1:4" ht="13">
       <c r="A244" s="3"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="3"/>
     </row>
-    <row r="245" spans="1:4" ht="12.75">
+    <row r="245" spans="1:4" ht="13">
       <c r="A245" s="3"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="3"/>
     </row>
-    <row r="246" spans="1:4" ht="12.75">
+    <row r="246" spans="1:4" ht="13">
       <c r="A246" s="3"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="3"/>
     </row>
-    <row r="247" spans="1:4" ht="12.75">
+    <row r="247" spans="1:4" ht="13">
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="3"/>
     </row>
-    <row r="248" spans="1:4" ht="12.75">
+    <row r="248" spans="1:4" ht="13">
       <c r="A248" s="3"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="3"/>
     </row>
-    <row r="249" spans="1:4" ht="12.75">
+    <row r="249" spans="1:4" ht="13">
       <c r="A249" s="3"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="3"/>
     </row>
-    <row r="250" spans="1:4" ht="12.75">
+    <row r="250" spans="1:4" ht="13">
       <c r="A250" s="3"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="3"/>
     </row>
-    <row r="251" spans="1:4" ht="12.75">
+    <row r="251" spans="1:4" ht="13">
       <c r="A251" s="3"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="3"/>
     </row>
-    <row r="252" spans="1:4" ht="12.75">
+    <row r="252" spans="1:4" ht="13">
       <c r="A252" s="3"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="3"/>
     </row>
-    <row r="253" spans="1:4" ht="12.75">
+    <row r="253" spans="1:4" ht="13">
       <c r="A253" s="3"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="3"/>
     </row>
-    <row r="254" spans="1:4" ht="12.75">
+    <row r="254" spans="1:4" ht="13">
       <c r="A254" s="3"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="3"/>
     </row>
-    <row r="255" spans="1:4" ht="12.75">
+    <row r="255" spans="1:4" ht="13">
       <c r="A255" s="3"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="3"/>
     </row>
-    <row r="256" spans="1:4" ht="12.75">
+    <row r="256" spans="1:4" ht="13">
       <c r="A256" s="3"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="3"/>
     </row>
-    <row r="257" spans="1:4" ht="12.75">
+    <row r="257" spans="1:4" ht="13">
       <c r="A257" s="3"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="3"/>
     </row>
-    <row r="258" spans="1:4" ht="12.75">
+    <row r="258" spans="1:4" ht="13">
       <c r="A258" s="3"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="3"/>
     </row>
-    <row r="259" spans="1:4" ht="12.75">
+    <row r="259" spans="1:4" ht="13">
       <c r="A259" s="3"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="3"/>
     </row>
-    <row r="260" spans="1:4" ht="12.75">
+    <row r="260" spans="1:4" ht="13">
       <c r="A260" s="3"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="3"/>
     </row>
-    <row r="261" spans="1:4" ht="12.75">
+    <row r="261" spans="1:4" ht="13">
       <c r="A261" s="3"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="3"/>
     </row>
-    <row r="262" spans="1:4" ht="12.75">
+    <row r="262" spans="1:4" ht="13">
       <c r="A262" s="3"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="3"/>
     </row>
-    <row r="263" spans="1:4" ht="12.75">
+    <row r="263" spans="1:4" ht="13">
       <c r="A263" s="3"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="3"/>
     </row>
-    <row r="264" spans="1:4" ht="12.75">
+    <row r="264" spans="1:4" ht="13">
       <c r="A264" s="3"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="3"/>
     </row>
-    <row r="265" spans="1:4" ht="12.75">
+    <row r="265" spans="1:4" ht="13">
       <c r="A265" s="3"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="3"/>
     </row>
-    <row r="266" spans="1:4" ht="12.75">
+    <row r="266" spans="1:4" ht="13">
       <c r="A266" s="3"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="3"/>
     </row>
-    <row r="267" spans="1:4" ht="12.75">
+    <row r="267" spans="1:4" ht="13">
       <c r="A267" s="3"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="3"/>
     </row>
-    <row r="268" spans="1:4" ht="12.75">
+    <row r="268" spans="1:4" ht="13">
       <c r="A268" s="3"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="3"/>
     </row>
-    <row r="269" spans="1:4" ht="12.75">
+    <row r="269" spans="1:4" ht="13">
       <c r="A269" s="3"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="3"/>
     </row>
-    <row r="270" spans="1:4" ht="12.75">
+    <row r="270" spans="1:4" ht="13">
       <c r="A270" s="3"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="3"/>
     </row>
-    <row r="271" spans="1:4" ht="12.75">
+    <row r="271" spans="1:4" ht="13">
       <c r="A271" s="3"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="3"/>
     </row>
-    <row r="272" spans="1:4" ht="12.75">
+    <row r="272" spans="1:4" ht="13">
       <c r="A272" s="3"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="3"/>
     </row>
-    <row r="273" spans="1:4" ht="12.75">
+    <row r="273" spans="1:4" ht="13">
       <c r="A273" s="3"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="3"/>
     </row>
-    <row r="274" spans="1:4" ht="12.75">
+    <row r="274" spans="1:4" ht="13">
       <c r="A274" s="3"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="3"/>
     </row>
-    <row r="275" spans="1:4" ht="12.75">
+    <row r="275" spans="1:4" ht="13">
       <c r="A275" s="3"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="3"/>
     </row>
-    <row r="276" spans="1:4" ht="12.75">
+    <row r="276" spans="1:4" ht="13">
       <c r="A276" s="3"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="3"/>
     </row>
-    <row r="277" spans="1:4" ht="12.75">
+    <row r="277" spans="1:4" ht="13">
       <c r="A277" s="3"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="3"/>
     </row>
-    <row r="278" spans="1:4" ht="12.75">
+    <row r="278" spans="1:4" ht="13">
       <c r="A278" s="3"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="3"/>
     </row>
-    <row r="279" spans="1:4" ht="12.75">
+    <row r="279" spans="1:4" ht="13">
       <c r="A279" s="3"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="3"/>
     </row>
-    <row r="280" spans="1:4" ht="12.75">
+    <row r="280" spans="1:4" ht="13">
       <c r="A280" s="3"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="1:4" ht="12.75">
+    <row r="281" spans="1:4" ht="13">
       <c r="A281" s="3"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="3"/>
     </row>
-    <row r="282" spans="1:4" ht="12.75">
+    <row r="282" spans="1:4" ht="13">
       <c r="A282" s="3"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="3"/>
     </row>
-    <row r="283" spans="1:4" ht="12.75">
+    <row r="283" spans="1:4" ht="13">
       <c r="A283" s="3"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="3"/>
     </row>
-    <row r="284" spans="1:4" ht="12.75">
+    <row r="284" spans="1:4" ht="13">
       <c r="A284" s="3"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="3"/>
     </row>
-    <row r="285" spans="1:4" ht="12.75">
+    <row r="285" spans="1:4" ht="13">
       <c r="A285" s="3"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="3"/>
     </row>
-    <row r="286" spans="1:4" ht="12.75">
+    <row r="286" spans="1:4" ht="13">
       <c r="A286" s="3"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="3"/>
     </row>
-    <row r="287" spans="1:4" ht="12.75">
+    <row r="287" spans="1:4" ht="13">
       <c r="A287" s="3"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="3"/>
     </row>
-    <row r="288" spans="1:4" ht="12.75">
+    <row r="288" spans="1:4" ht="13">
       <c r="A288" s="3"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="3"/>
     </row>
-    <row r="289" spans="1:4" ht="12.75">
+    <row r="289" spans="1:4" ht="13">
       <c r="A289" s="3"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="3"/>
     </row>
-    <row r="290" spans="1:4" ht="12.75">
+    <row r="290" spans="1:4" ht="13">
       <c r="A290" s="3"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="3"/>
     </row>
-    <row r="291" spans="1:4" ht="12.75">
+    <row r="291" spans="1:4" ht="13">
       <c r="A291" s="3"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="3"/>
     </row>
-    <row r="292" spans="1:4" ht="12.75">
+    <row r="292" spans="1:4" ht="13">
       <c r="A292" s="3"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="3"/>
     </row>
-    <row r="293" spans="1:4" ht="12.75">
+    <row r="293" spans="1:4" ht="13">
       <c r="A293" s="3"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="3"/>
     </row>
-    <row r="294" spans="1:4" ht="12.75">
+    <row r="294" spans="1:4" ht="13">
       <c r="A294" s="3"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="3"/>
     </row>
-    <row r="295" spans="1:4" ht="12.75">
+    <row r="295" spans="1:4" ht="13">
       <c r="A295" s="3"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="3"/>
     </row>
-    <row r="296" spans="1:4" ht="12.75">
+    <row r="296" spans="1:4" ht="13">
       <c r="A296" s="3"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="3"/>
     </row>
-    <row r="297" spans="1:4" ht="12.75">
+    <row r="297" spans="1:4" ht="13">
       <c r="A297" s="3"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="3"/>
     </row>
-    <row r="298" spans="1:4" ht="12.75">
+    <row r="298" spans="1:4" ht="13">
       <c r="A298" s="3"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4" ht="12.75">
+    <row r="299" spans="1:4" ht="13">
       <c r="A299" s="3"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="3"/>
     </row>
-    <row r="300" spans="1:4" ht="12.75">
+    <row r="300" spans="1:4" ht="13">
       <c r="A300" s="3"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="3"/>
     </row>
-    <row r="301" spans="1:4" ht="12.75">
+    <row r="301" spans="1:4" ht="13">
       <c r="A301" s="3"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="3"/>
     </row>
-    <row r="302" spans="1:4" ht="12.75">
+    <row r="302" spans="1:4" ht="13">
       <c r="A302" s="3"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="3"/>
     </row>
-    <row r="303" spans="1:4" ht="12.75">
+    <row r="303" spans="1:4" ht="13">
       <c r="A303" s="3"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="3"/>
     </row>
-    <row r="304" spans="1:4" ht="12.75">
+    <row r="304" spans="1:4" ht="13">
       <c r="A304" s="3"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="3"/>
     </row>
-    <row r="305" spans="1:4" ht="12.75">
+    <row r="305" spans="1:4" ht="13">
       <c r="A305" s="3"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="3"/>
     </row>
-    <row r="306" spans="1:4" ht="12.75">
+    <row r="306" spans="1:4" ht="13">
       <c r="A306" s="3"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="1:4" ht="12.75">
+    <row r="307" spans="1:4" ht="13">
       <c r="A307" s="3"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="1:4" ht="12.75">
+    <row r="308" spans="1:4" ht="13">
       <c r="A308" s="3"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="1:4" ht="12.75">
+    <row r="309" spans="1:4" ht="13">
       <c r="A309" s="3"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="1:4" ht="12.75">
+    <row r="310" spans="1:4" ht="13">
       <c r="A310" s="3"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="3"/>
     </row>
-    <row r="311" spans="1:4" ht="12.75">
+    <row r="311" spans="1:4" ht="13">
       <c r="A311" s="3"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="3"/>
     </row>
-    <row r="312" spans="1:4" ht="12.75">
+    <row r="312" spans="1:4" ht="13">
       <c r="A312" s="3"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="1:4" ht="12.75">
+    <row r="313" spans="1:4" ht="13">
       <c r="A313" s="3"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="3"/>
     </row>
-    <row r="314" spans="1:4" ht="12.75">
+    <row r="314" spans="1:4" ht="13">
       <c r="A314" s="3"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="3"/>
     </row>
-    <row r="315" spans="1:4" ht="12.75">
+    <row r="315" spans="1:4" ht="13">
       <c r="A315" s="3"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="3"/>
     </row>
-    <row r="316" spans="1:4" ht="12.75">
+    <row r="316" spans="1:4" ht="13">
       <c r="A316" s="3"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4" ht="12.75">
+    <row r="317" spans="1:4" ht="13">
       <c r="A317" s="3"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="1:4" ht="12.75">
+    <row r="318" spans="1:4" ht="13">
       <c r="A318" s="3"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="1:4" ht="12.75">
+    <row r="319" spans="1:4" ht="13">
       <c r="A319" s="3"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="1:4" ht="12.75">
+    <row r="320" spans="1:4" ht="13">
       <c r="A320" s="3"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="1:4" ht="12.75">
+    <row r="321" spans="1:4" ht="13">
       <c r="A321" s="3"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="1:4" ht="12.75">
+    <row r="322" spans="1:4" ht="13">
       <c r="A322" s="3"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="1:4" ht="12.75">
+    <row r="323" spans="1:4" ht="13">
       <c r="A323" s="3"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="1:4" ht="12.75">
+    <row r="324" spans="1:4" ht="13">
       <c r="A324" s="3"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="1:4" ht="12.75">
+    <row r="325" spans="1:4" ht="13">
       <c r="A325" s="3"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="3"/>
     </row>
-    <row r="326" spans="1:4" ht="12.75">
+    <row r="326" spans="1:4" ht="13">
       <c r="A326" s="3"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="3"/>
     </row>
-    <row r="327" spans="1:4" ht="12.75">
+    <row r="327" spans="1:4" ht="13">
       <c r="A327" s="3"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="3"/>
     </row>
-    <row r="328" spans="1:4" ht="12.75">
+    <row r="328" spans="1:4" ht="13">
       <c r="A328" s="3"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="1:4" ht="12.75">
+    <row r="329" spans="1:4" ht="13">
       <c r="A329" s="3"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="1:4" ht="12.75">
+    <row r="330" spans="1:4" ht="13">
       <c r="A330" s="3"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="1:4" ht="12.75">
+    <row r="331" spans="1:4" ht="13">
       <c r="A331" s="3"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="1:4" ht="12.75">
+    <row r="332" spans="1:4" ht="13">
       <c r="A332" s="3"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="3"/>
     </row>
-    <row r="333" spans="1:4" ht="12.75">
+    <row r="333" spans="1:4" ht="13">
       <c r="A333" s="3"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="3"/>
     </row>
-    <row r="334" spans="1:4" ht="12.75">
+    <row r="334" spans="1:4" ht="13">
       <c r="A334" s="3"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="3"/>
     </row>
-    <row r="335" spans="1:4" ht="12.75">
+    <row r="335" spans="1:4" ht="13">
       <c r="A335" s="3"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="3"/>
     </row>
-    <row r="336" spans="1:4" ht="12.75">
+    <row r="336" spans="1:4" ht="13">
       <c r="A336" s="3"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="3"/>
     </row>
-    <row r="337" spans="1:4" ht="12.75">
+    <row r="337" spans="1:4" ht="13">
       <c r="A337" s="3"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="3"/>
     </row>
-    <row r="338" spans="1:4" ht="12.75">
+    <row r="338" spans="1:4" ht="13">
       <c r="A338" s="3"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="3"/>
     </row>
-    <row r="339" spans="1:4" ht="12.75">
+    <row r="339" spans="1:4" ht="13">
       <c r="A339" s="3"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="3"/>
     </row>
-    <row r="340" spans="1:4" ht="12.75">
+    <row r="340" spans="1:4" ht="13">
       <c r="A340" s="3"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="3"/>
     </row>
-    <row r="341" spans="1:4" ht="12.75">
+    <row r="341" spans="1:4" ht="13">
       <c r="A341" s="3"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="3"/>
     </row>
-    <row r="342" spans="1:4" ht="12.75">
+    <row r="342" spans="1:4" ht="13">
       <c r="A342" s="3"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="3"/>
     </row>
-    <row r="343" spans="1:4" ht="12.75">
+    <row r="343" spans="1:4" ht="13">
       <c r="A343" s="3"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="3"/>
     </row>
-    <row r="344" spans="1:4" ht="12.75">
+    <row r="344" spans="1:4" ht="13">
       <c r="A344" s="3"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="3"/>
     </row>
-    <row r="345" spans="1:4" ht="12.75">
+    <row r="345" spans="1:4" ht="13">
       <c r="A345" s="3"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="3"/>
     </row>
-    <row r="346" spans="1:4" ht="12.75">
+    <row r="346" spans="1:4" ht="13">
       <c r="A346" s="3"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="3"/>
     </row>
-    <row r="347" spans="1:4" ht="12.75">
+    <row r="347" spans="1:4" ht="13">
       <c r="A347" s="3"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="3"/>
     </row>
-    <row r="348" spans="1:4" ht="12.75">
+    <row r="348" spans="1:4" ht="13">
       <c r="A348" s="3"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="3"/>
     </row>
-    <row r="349" spans="1:4" ht="12.75">
+    <row r="349" spans="1:4" ht="13">
       <c r="A349" s="3"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="3"/>
     </row>
-    <row r="350" spans="1:4" ht="12.75">
+    <row r="350" spans="1:4" ht="13">
       <c r="A350" s="3"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="3"/>
     </row>
-    <row r="351" spans="1:4" ht="12.75">
+    <row r="351" spans="1:4" ht="13">
       <c r="A351" s="3"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="3"/>
     </row>
-    <row r="352" spans="1:4" ht="12.75">
+    <row r="352" spans="1:4" ht="13">
       <c r="A352" s="3"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="3"/>
     </row>
-    <row r="353" spans="1:4" ht="12.75">
+    <row r="353" spans="1:4" ht="13">
       <c r="A353" s="3"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="3"/>
     </row>
-    <row r="354" spans="1:4" ht="12.75">
+    <row r="354" spans="1:4" ht="13">
       <c r="A354" s="3"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="3"/>
     </row>
-    <row r="355" spans="1:4" ht="12.75">
+    <row r="355" spans="1:4" ht="13">
       <c r="A355" s="3"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="3"/>
     </row>
-    <row r="356" spans="1:4" ht="12.75">
+    <row r="356" spans="1:4" ht="13">
       <c r="A356" s="3"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="3"/>
     </row>
-    <row r="357" spans="1:4" ht="12.75">
+    <row r="357" spans="1:4" ht="13">
       <c r="A357" s="3"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="3"/>
     </row>
-    <row r="358" spans="1:4" ht="12.75">
+    <row r="358" spans="1:4" ht="13">
       <c r="A358" s="3"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="3"/>
     </row>
-    <row r="359" spans="1:4" ht="12.75">
+    <row r="359" spans="1:4" ht="13">
       <c r="A359" s="3"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="3"/>
     </row>
-    <row r="360" spans="1:4" ht="12.75">
+    <row r="360" spans="1:4" ht="13">
       <c r="A360" s="3"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="3"/>
     </row>
-    <row r="361" spans="1:4" ht="12.75">
+    <row r="361" spans="1:4" ht="13">
       <c r="A361" s="3"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="3"/>
     </row>
-    <row r="362" spans="1:4" ht="12.75">
+    <row r="362" spans="1:4" ht="13">
       <c r="A362" s="3"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="3"/>
     </row>
-    <row r="363" spans="1:4" ht="12.75">
+    <row r="363" spans="1:4" ht="13">
       <c r="A363" s="3"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="3"/>
     </row>
-    <row r="364" spans="1:4" ht="12.75">
+    <row r="364" spans="1:4" ht="13">
       <c r="A364" s="3"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="3"/>
     </row>
-    <row r="365" spans="1:4" ht="12.75">
+    <row r="365" spans="1:4" ht="13">
       <c r="A365" s="3"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="3"/>
     </row>
-    <row r="366" spans="1:4" ht="12.75">
+    <row r="366" spans="1:4" ht="13">
       <c r="A366" s="3"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="3"/>
     </row>
-    <row r="367" spans="1:4" ht="12.75">
+    <row r="367" spans="1:4" ht="13">
       <c r="A367" s="3"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="3"/>
     </row>
-    <row r="368" spans="1:4" ht="12.75">
+    <row r="368" spans="1:4" ht="13">
       <c r="A368" s="3"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="3"/>
     </row>
-    <row r="369" spans="1:4" ht="12.75">
+    <row r="369" spans="1:4" ht="13">
       <c r="A369" s="3"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="3"/>
     </row>
-    <row r="370" spans="1:4" ht="12.75">
+    <row r="370" spans="1:4" ht="13">
       <c r="A370" s="3"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="3"/>
     </row>
-    <row r="371" spans="1:4" ht="12.75">
+    <row r="371" spans="1:4" ht="13">
       <c r="A371" s="3"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="3"/>
     </row>
-    <row r="372" spans="1:4" ht="12.75">
+    <row r="372" spans="1:4" ht="13">
       <c r="A372" s="3"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="3"/>
     </row>
-    <row r="373" spans="1:4" ht="12.75">
+    <row r="373" spans="1:4" ht="13">
       <c r="A373" s="3"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="3"/>
     </row>
-    <row r="374" spans="1:4" ht="12.75">
+    <row r="374" spans="1:4" ht="13">
       <c r="A374" s="3"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="3"/>
     </row>
-    <row r="375" spans="1:4" ht="12.75">
+    <row r="375" spans="1:4" ht="13">
       <c r="A375" s="3"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="3"/>
     </row>
-    <row r="376" spans="1:4" ht="12.75">
+    <row r="376" spans="1:4" ht="13">
       <c r="A376" s="3"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="3"/>
     </row>
-    <row r="377" spans="1:4" ht="12.75">
+    <row r="377" spans="1:4" ht="13">
       <c r="A377" s="3"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="3"/>
     </row>
-    <row r="378" spans="1:4" ht="12.75">
+    <row r="378" spans="1:4" ht="13">
       <c r="A378" s="3"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="3"/>
     </row>
-    <row r="379" spans="1:4" ht="12.75">
+    <row r="379" spans="1:4" ht="13">
       <c r="A379" s="3"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="3"/>
     </row>
-    <row r="380" spans="1:4" ht="12.75">
+    <row r="380" spans="1:4" ht="13">
       <c r="A380" s="3"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="3"/>
     </row>
-    <row r="381" spans="1:4" ht="12.75">
+    <row r="381" spans="1:4" ht="13">
       <c r="A381" s="3"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="3"/>
     </row>
-    <row r="382" spans="1:4" ht="12.75">
+    <row r="382" spans="1:4" ht="13">
       <c r="A382" s="3"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="3"/>
     </row>
-    <row r="383" spans="1:4" ht="12.75">
+    <row r="383" spans="1:4" ht="13">
       <c r="A383" s="3"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="3"/>
     </row>
-    <row r="384" spans="1:4" ht="12.75">
+    <row r="384" spans="1:4" ht="13">
       <c r="A384" s="3"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="3"/>
     </row>
-    <row r="385" spans="1:4" ht="12.75">
+    <row r="385" spans="1:4" ht="13">
       <c r="A385" s="3"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="3"/>
     </row>
-    <row r="386" spans="1:4" ht="12.75">
+    <row r="386" spans="1:4" ht="13">
       <c r="A386" s="3"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="3"/>
     </row>
-    <row r="387" spans="1:4" ht="12.75">
+    <row r="387" spans="1:4" ht="13">
       <c r="A387" s="3"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="3"/>
     </row>
-    <row r="388" spans="1:4" ht="12.75">
+    <row r="388" spans="1:4" ht="13">
       <c r="A388" s="3"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="3"/>
     </row>
-    <row r="389" spans="1:4" ht="12.75">
+    <row r="389" spans="1:4" ht="13">
       <c r="A389" s="3"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="3"/>
     </row>
-    <row r="390" spans="1:4" ht="12.75">
+    <row r="390" spans="1:4" ht="13">
       <c r="A390" s="3"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="3"/>
     </row>
-    <row r="391" spans="1:4" ht="12.75">
+    <row r="391" spans="1:4" ht="13">
       <c r="A391" s="3"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="3"/>
     </row>
-    <row r="392" spans="1:4" ht="12.75">
+    <row r="392" spans="1:4" ht="13">
       <c r="A392" s="3"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="3"/>
     </row>
-    <row r="393" spans="1:4" ht="12.75">
+    <row r="393" spans="1:4" ht="13">
       <c r="A393" s="3"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="3"/>
     </row>
-    <row r="394" spans="1:4" ht="12.75">
+    <row r="394" spans="1:4" ht="13">
       <c r="A394" s="3"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="3"/>
     </row>
-    <row r="395" spans="1:4" ht="12.75">
+    <row r="395" spans="1:4" ht="13">
       <c r="A395" s="3"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="3"/>
     </row>
-    <row r="396" spans="1:4" ht="12.75">
+    <row r="396" spans="1:4" ht="13">
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="3"/>
     </row>
-    <row r="397" spans="1:4" ht="12.75">
+    <row r="397" spans="1:4" ht="13">
       <c r="A397" s="3"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="3"/>
     </row>
-    <row r="398" spans="1:4" ht="12.75">
+    <row r="398" spans="1:4" ht="13">
       <c r="A398" s="3"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="3"/>
     </row>
-    <row r="399" spans="1:4" ht="12.75">
+    <row r="399" spans="1:4" ht="13">
       <c r="A399" s="3"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="3"/>
     </row>
-    <row r="400" spans="1:4" ht="12.75">
+    <row r="400" spans="1:4" ht="13">
       <c r="A400" s="3"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="3"/>
     </row>
-    <row r="401" spans="1:4" ht="12.75">
+    <row r="401" spans="1:4" ht="13">
       <c r="A401" s="3"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="3"/>
     </row>
-    <row r="402" spans="1:4" ht="12.75">
+    <row r="402" spans="1:4" ht="13">
       <c r="A402" s="3"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="3"/>
     </row>
-    <row r="403" spans="1:4" ht="12.75">
+    <row r="403" spans="1:4" ht="13">
       <c r="A403" s="3"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="3"/>
     </row>
-    <row r="404" spans="1:4" ht="12.75">
+    <row r="404" spans="1:4" ht="13">
       <c r="A404" s="3"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="3"/>
     </row>
-    <row r="405" spans="1:4" ht="12.75">
+    <row r="405" spans="1:4" ht="13">
       <c r="A405" s="3"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="3"/>
     </row>
-    <row r="406" spans="1:4" ht="12.75">
+    <row r="406" spans="1:4" ht="13">
       <c r="A406" s="3"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="3"/>
     </row>
-    <row r="407" spans="1:4" ht="12.75">
+    <row r="407" spans="1:4" ht="13">
       <c r="A407" s="3"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="3"/>
     </row>
-    <row r="408" spans="1:4" ht="12.75">
+    <row r="408" spans="1:4" ht="13">
       <c r="A408" s="3"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="3"/>
     </row>
-    <row r="409" spans="1:4" ht="12.75">
+    <row r="409" spans="1:4" ht="13">
       <c r="A409" s="3"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="3"/>
     </row>
-    <row r="410" spans="1:4" ht="12.75">
+    <row r="410" spans="1:4" ht="13">
       <c r="A410" s="3"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="3"/>
     </row>
-    <row r="411" spans="1:4" ht="12.75">
+    <row r="411" spans="1:4" ht="13">
       <c r="A411" s="3"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="3"/>
     </row>
-    <row r="412" spans="1:4" ht="12.75">
+    <row r="412" spans="1:4" ht="13">
       <c r="A412" s="3"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="3"/>
     </row>
-    <row r="413" spans="1:4" ht="12.75">
+    <row r="413" spans="1:4" ht="13">
       <c r="A413" s="3"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="3"/>
     </row>
-    <row r="414" spans="1:4" ht="12.75">
+    <row r="414" spans="1:4" ht="13">
       <c r="A414" s="3"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="3"/>
     </row>
-    <row r="415" spans="1:4" ht="12.75">
+    <row r="415" spans="1:4" ht="13">
       <c r="A415" s="3"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="3"/>
     </row>
-    <row r="416" spans="1:4" ht="12.75">
+    <row r="416" spans="1:4" ht="13">
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="3"/>
     </row>
-    <row r="417" spans="1:4" ht="12.75">
+    <row r="417" spans="1:4" ht="13">
       <c r="A417" s="3"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="3"/>
     </row>
-    <row r="418" spans="1:4" ht="12.75">
+    <row r="418" spans="1:4" ht="13">
       <c r="A418" s="3"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="3"/>
     </row>
-    <row r="419" spans="1:4" ht="12.75">
+    <row r="419" spans="1:4" ht="13">
       <c r="A419" s="3"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="3"/>
     </row>
-    <row r="420" spans="1:4" ht="12.75">
+    <row r="420" spans="1:4" ht="13">
       <c r="A420" s="3"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="3"/>
     </row>
-    <row r="421" spans="1:4" ht="12.75">
+    <row r="421" spans="1:4" ht="13">
       <c r="A421" s="3"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="3"/>
     </row>
-    <row r="422" spans="1:4" ht="12.75">
+    <row r="422" spans="1:4" ht="13">
       <c r="A422" s="3"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="3"/>
     </row>
-    <row r="423" spans="1:4" ht="12.75">
+    <row r="423" spans="1:4" ht="13">
       <c r="A423" s="3"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="3"/>
     </row>
-    <row r="424" spans="1:4" ht="12.75">
+    <row r="424" spans="1:4" ht="13">
       <c r="A424" s="3"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="3"/>
     </row>
-    <row r="425" spans="1:4" ht="12.75">
+    <row r="425" spans="1:4" ht="13">
       <c r="A425" s="3"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="3"/>
     </row>
-    <row r="426" spans="1:4" ht="12.75">
+    <row r="426" spans="1:4" ht="13">
       <c r="A426" s="3"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="3"/>
     </row>
-    <row r="427" spans="1:4" ht="12.75">
+    <row r="427" spans="1:4" ht="13">
       <c r="A427" s="3"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="3"/>
     </row>
-    <row r="428" spans="1:4" ht="12.75">
+    <row r="428" spans="1:4" ht="13">
       <c r="A428" s="3"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="3"/>
     </row>
-    <row r="429" spans="1:4" ht="12.75">
+    <row r="429" spans="1:4" ht="13">
       <c r="A429" s="3"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="3"/>
     </row>
-    <row r="430" spans="1:4" ht="12.75">
+    <row r="430" spans="1:4" ht="13">
       <c r="A430" s="3"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="3"/>
     </row>
-    <row r="431" spans="1:4" ht="12.75">
+    <row r="431" spans="1:4" ht="13">
       <c r="A431" s="3"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="3"/>
     </row>
-    <row r="432" spans="1:4" ht="12.75">
+    <row r="432" spans="1:4" ht="13">
       <c r="A432" s="3"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="3"/>
     </row>
-    <row r="433" spans="1:4" ht="12.75">
+    <row r="433" spans="1:4" ht="13">
       <c r="A433" s="3"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="3"/>
     </row>
-    <row r="434" spans="1:4" ht="12.75">
+    <row r="434" spans="1:4" ht="13">
       <c r="A434" s="3"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="3"/>
     </row>
-    <row r="435" spans="1:4" ht="12.75">
+    <row r="435" spans="1:4" ht="13">
       <c r="A435" s="3"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="3"/>
     </row>
-    <row r="436" spans="1:4" ht="12.75">
+    <row r="436" spans="1:4" ht="13">
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="3"/>
     </row>
-    <row r="437" spans="1:4" ht="12.75">
+    <row r="437" spans="1:4" ht="13">
       <c r="A437" s="3"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="3"/>
     </row>
-    <row r="438" spans="1:4" ht="12.75">
+    <row r="438" spans="1:4" ht="13">
       <c r="A438" s="3"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="3"/>
     </row>
-    <row r="439" spans="1:4" ht="12.75">
+    <row r="439" spans="1:4" ht="13">
       <c r="A439" s="3"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="3"/>
     </row>
-    <row r="440" spans="1:4" ht="12.75">
+    <row r="440" spans="1:4" ht="13">
       <c r="A440" s="3"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="3"/>
     </row>
-    <row r="441" spans="1:4" ht="12.75">
+    <row r="441" spans="1:4" ht="13">
       <c r="A441" s="3"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="3"/>
     </row>
-    <row r="442" spans="1:4" ht="12.75">
+    <row r="442" spans="1:4" ht="13">
       <c r="A442" s="3"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="3"/>
     </row>
-    <row r="443" spans="1:4" ht="12.75">
+    <row r="443" spans="1:4" ht="13">
       <c r="A443" s="3"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="3"/>
     </row>
-    <row r="444" spans="1:4" ht="12.75">
+    <row r="444" spans="1:4" ht="13">
       <c r="A444" s="3"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="3"/>
     </row>
-    <row r="445" spans="1:4" ht="12.75">
+    <row r="445" spans="1:4" ht="13">
       <c r="A445" s="3"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="3"/>
     </row>
-    <row r="446" spans="1:4" ht="12.75">
+    <row r="446" spans="1:4" ht="13">
       <c r="A446" s="3"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="3"/>
     </row>
-    <row r="447" spans="1:4" ht="12.75">
+    <row r="447" spans="1:4" ht="13">
       <c r="A447" s="3"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="3"/>
     </row>
-    <row r="448" spans="1:4" ht="12.75">
+    <row r="448" spans="1:4" ht="13">
       <c r="A448" s="3"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="3"/>
     </row>
-    <row r="449" spans="1:4" ht="12.75">
+    <row r="449" spans="1:4" ht="13">
       <c r="A449" s="3"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="3"/>
     </row>
-    <row r="450" spans="1:4" ht="12.75">
+    <row r="450" spans="1:4" ht="13">
       <c r="A450" s="3"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="3"/>
     </row>
-    <row r="451" spans="1:4" ht="12.75">
+    <row r="451" spans="1:4" ht="13">
       <c r="A451" s="3"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="3"/>
     </row>
-    <row r="452" spans="1:4" ht="12.75">
+    <row r="452" spans="1:4" ht="13">
       <c r="A452" s="3"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="3"/>
     </row>
-    <row r="453" spans="1:4" ht="12.75">
+    <row r="453" spans="1:4" ht="13">
       <c r="A453" s="3"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="3"/>
     </row>
-    <row r="454" spans="1:4" ht="12.75">
+    <row r="454" spans="1:4" ht="13">
       <c r="A454" s="3"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="3"/>
     </row>
-    <row r="455" spans="1:4" ht="12.75">
+    <row r="455" spans="1:4" ht="13">
       <c r="A455" s="3"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="3"/>
     </row>
-    <row r="456" spans="1:4" ht="12.75">
+    <row r="456" spans="1:4" ht="13">
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="3"/>
     </row>
-    <row r="457" spans="1:4" ht="12.75">
+    <row r="457" spans="1:4" ht="13">
       <c r="A457" s="3"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="3"/>
     </row>
-    <row r="458" spans="1:4" ht="12.75">
+    <row r="458" spans="1:4" ht="13">
       <c r="A458" s="3"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="3"/>
     </row>
-    <row r="459" spans="1:4" ht="12.75">
+    <row r="459" spans="1:4" ht="13">
       <c r="A459" s="3"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="3"/>
     </row>
-    <row r="460" spans="1:4" ht="12.75">
+    <row r="460" spans="1:4" ht="13">
       <c r="A460" s="3"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="3"/>
     </row>
-    <row r="461" spans="1:4" ht="12.75">
+    <row r="461" spans="1:4" ht="13">
       <c r="A461" s="3"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="3"/>
     </row>
-    <row r="462" spans="1:4" ht="12.75">
+    <row r="462" spans="1:4" ht="13">
       <c r="A462" s="3"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="3"/>
     </row>
-    <row r="463" spans="1:4" ht="12.75">
+    <row r="463" spans="1:4" ht="13">
       <c r="A463" s="3"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="3"/>
     </row>
-    <row r="464" spans="1:4" ht="12.75">
+    <row r="464" spans="1:4" ht="13">
       <c r="A464" s="3"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="3"/>
     </row>
-    <row r="465" spans="1:4" ht="12.75">
+    <row r="465" spans="1:4" ht="13">
       <c r="A465" s="3"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="3"/>
     </row>
-    <row r="466" spans="1:4" ht="12.75">
+    <row r="466" spans="1:4" ht="13">
       <c r="A466" s="3"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="3"/>
     </row>
-    <row r="467" spans="1:4" ht="12.75">
+    <row r="467" spans="1:4" ht="13">
       <c r="A467" s="3"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="3"/>
     </row>
-    <row r="468" spans="1:4" ht="12.75">
+    <row r="468" spans="1:4" ht="13">
       <c r="A468" s="3"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="3"/>
     </row>
-    <row r="469" spans="1:4" ht="12.75">
+    <row r="469" spans="1:4" ht="13">
       <c r="A469" s="3"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="3"/>
     </row>
-    <row r="470" spans="1:4" ht="12.75">
+    <row r="470" spans="1:4" ht="13">
       <c r="A470" s="3"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="3"/>
     </row>
-    <row r="471" spans="1:4" ht="12.75">
+    <row r="471" spans="1:4" ht="13">
       <c r="A471" s="3"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="3"/>
     </row>
-    <row r="472" spans="1:4" ht="12.75">
+    <row r="472" spans="1:4" ht="13">
       <c r="A472" s="3"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="3"/>
     </row>
-    <row r="473" spans="1:4" ht="12.75">
+    <row r="473" spans="1:4" ht="13">
       <c r="A473" s="3"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="3"/>
     </row>
-    <row r="474" spans="1:4" ht="12.75">
+    <row r="474" spans="1:4" ht="13">
       <c r="A474" s="3"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="3"/>
     </row>
-    <row r="475" spans="1:4" ht="12.75">
+    <row r="475" spans="1:4" ht="13">
       <c r="A475" s="3"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="3"/>
     </row>
-    <row r="476" spans="1:4" ht="12.75">
+    <row r="476" spans="1:4" ht="13">
       <c r="A476" s="3"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="3"/>
     </row>
-    <row r="477" spans="1:4" ht="12.75">
+    <row r="477" spans="1:4" ht="13">
       <c r="A477" s="3"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="3"/>
     </row>
-    <row r="478" spans="1:4" ht="12.75">
+    <row r="478" spans="1:4" ht="13">
       <c r="A478" s="3"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="3"/>
     </row>
-    <row r="479" spans="1:4" ht="12.75">
+    <row r="479" spans="1:4" ht="13">
       <c r="A479" s="3"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="3"/>
     </row>
-    <row r="480" spans="1:4" ht="12.75">
+    <row r="480" spans="1:4" ht="13">
       <c r="A480" s="3"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="3"/>
     </row>
-    <row r="481" spans="1:4" ht="12.75">
+    <row r="481" spans="1:4" ht="13">
       <c r="A481" s="3"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="3"/>
     </row>
-    <row r="482" spans="1:4" ht="12.75">
+    <row r="482" spans="1:4" ht="13">
       <c r="A482" s="3"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="3"/>
     </row>
-    <row r="483" spans="1:4" ht="12.75">
+    <row r="483" spans="1:4" ht="13">
       <c r="A483" s="3"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="3"/>
     </row>
-    <row r="484" spans="1:4" ht="12.75">
+    <row r="484" spans="1:4" ht="13">
       <c r="A484" s="3"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="3"/>
     </row>
-    <row r="485" spans="1:4" ht="12.75">
+    <row r="485" spans="1:4" ht="13">
       <c r="A485" s="3"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="3"/>
     </row>
-    <row r="486" spans="1:4" ht="12.75">
+    <row r="486" spans="1:4" ht="13">
       <c r="A486" s="3"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="3"/>
     </row>
-    <row r="487" spans="1:4" ht="12.75">
+    <row r="487" spans="1:4" ht="13">
       <c r="A487" s="3"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="3"/>
     </row>
-    <row r="488" spans="1:4" ht="12.75">
+    <row r="488" spans="1:4" ht="13">
       <c r="A488" s="3"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="3"/>
     </row>
-    <row r="489" spans="1:4" ht="12.75">
+    <row r="489" spans="1:4" ht="13">
       <c r="A489" s="3"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="3"/>
     </row>
-    <row r="490" spans="1:4" ht="12.75">
+    <row r="490" spans="1:4" ht="13">
       <c r="A490" s="3"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="3"/>
     </row>
-    <row r="491" spans="1:4" ht="12.75">
+    <row r="491" spans="1:4" ht="13">
       <c r="A491" s="3"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="3"/>
     </row>
-    <row r="492" spans="1:4" ht="12.75">
+    <row r="492" spans="1:4" ht="13">
       <c r="A492" s="3"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="3"/>
     </row>
-    <row r="493" spans="1:4" ht="12.75">
+    <row r="493" spans="1:4" ht="13">
       <c r="A493" s="3"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="3"/>
     </row>
-    <row r="494" spans="1:4" ht="12.75">
+    <row r="494" spans="1:4" ht="13">
       <c r="A494" s="3"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="3"/>
     </row>
-    <row r="495" spans="1:4" ht="12.75">
+    <row r="495" spans="1:4" ht="13">
       <c r="A495" s="3"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="3"/>
     </row>
-    <row r="496" spans="1:4" ht="12.75">
+    <row r="496" spans="1:4" ht="13">
       <c r="A496" s="3"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="3"/>
     </row>
-    <row r="497" spans="1:4" ht="12.75">
+    <row r="497" spans="1:4" ht="13">
       <c r="A497" s="3"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="3"/>
     </row>
-    <row r="498" spans="1:4" ht="12.75">
+    <row r="498" spans="1:4" ht="13">
       <c r="A498" s="3"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="3"/>
     </row>
-    <row r="499" spans="1:4" ht="12.75">
+    <row r="499" spans="1:4" ht="13">
       <c r="A499" s="3"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="3"/>
     </row>
-    <row r="500" spans="1:4" ht="12.75">
+    <row r="500" spans="1:4" ht="13">
       <c r="A500" s="3"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="3"/>
     </row>
-    <row r="501" spans="1:4" ht="12.75">
+    <row r="501" spans="1:4" ht="13">
       <c r="A501" s="3"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="3"/>
     </row>
-    <row r="502" spans="1:4" ht="12.75">
+    <row r="502" spans="1:4" ht="13">
       <c r="A502" s="3"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="3"/>
     </row>
-    <row r="503" spans="1:4" ht="12.75">
+    <row r="503" spans="1:4" ht="13">
       <c r="A503" s="3"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="3"/>
     </row>
-    <row r="504" spans="1:4" ht="12.75">
+    <row r="504" spans="1:4" ht="13">
       <c r="A504" s="3"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="3"/>
     </row>
-    <row r="505" spans="1:4" ht="12.75">
+    <row r="505" spans="1:4" ht="13">
       <c r="A505" s="3"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="3"/>
     </row>
-    <row r="506" spans="1:4" ht="12.75">
+    <row r="506" spans="1:4" ht="13">
       <c r="A506" s="3"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="3"/>
     </row>
-    <row r="507" spans="1:4" ht="12.75">
+    <row r="507" spans="1:4" ht="13">
       <c r="A507" s="3"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="3"/>
     </row>
-    <row r="508" spans="1:4" ht="12.75">
+    <row r="508" spans="1:4" ht="13">
       <c r="A508" s="3"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="3"/>
     </row>
-    <row r="509" spans="1:4" ht="12.75">
+    <row r="509" spans="1:4" ht="13">
       <c r="A509" s="3"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="3"/>
     </row>
-    <row r="510" spans="1:4" ht="12.75">
+    <row r="510" spans="1:4" ht="13">
       <c r="A510" s="3"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="3"/>
     </row>
-    <row r="511" spans="1:4" ht="12.75">
+    <row r="511" spans="1:4" ht="13">
       <c r="A511" s="3"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="3"/>
     </row>
-    <row r="512" spans="1:4" ht="12.75">
+    <row r="512" spans="1:4" ht="13">
       <c r="A512" s="3"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="3"/>
     </row>
-    <row r="513" spans="1:4" ht="12.75">
+    <row r="513" spans="1:4" ht="13">
       <c r="A513" s="3"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="3"/>
     </row>
-    <row r="514" spans="1:4" ht="12.75">
+    <row r="514" spans="1:4" ht="13">
       <c r="A514" s="3"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="3"/>
     </row>
-    <row r="515" spans="1:4" ht="12.75">
+    <row r="515" spans="1:4" ht="13">
       <c r="A515" s="3"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="3"/>
     </row>
-    <row r="516" spans="1:4" ht="12.75">
+    <row r="516" spans="1:4" ht="13">
       <c r="A516" s="3"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="3"/>
     </row>
-    <row r="517" spans="1:4" ht="12.75">
+    <row r="517" spans="1:4" ht="13">
       <c r="A517" s="3"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="3"/>
     </row>
-    <row r="518" spans="1:4" ht="12.75">
+    <row r="518" spans="1:4" ht="13">
       <c r="A518" s="3"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="3"/>
     </row>
-    <row r="519" spans="1:4" ht="12.75">
+    <row r="519" spans="1:4" ht="13">
       <c r="A519" s="3"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="3"/>
     </row>
-    <row r="520" spans="1:4" ht="12.75">
+    <row r="520" spans="1:4" ht="13">
       <c r="A520" s="3"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="3"/>
     </row>
-    <row r="521" spans="1:4" ht="12.75">
+    <row r="521" spans="1:4" ht="13">
       <c r="A521" s="3"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="3"/>
     </row>
-    <row r="522" spans="1:4" ht="12.75">
+    <row r="522" spans="1:4" ht="13">
       <c r="A522" s="3"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="3"/>
     </row>
-    <row r="523" spans="1:4" ht="12.75">
+    <row r="523" spans="1:4" ht="13">
       <c r="A523" s="3"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="3"/>
     </row>
-    <row r="524" spans="1:4" ht="12.75">
+    <row r="524" spans="1:4" ht="13">
       <c r="A524" s="3"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="3"/>
     </row>
-    <row r="525" spans="1:4" ht="12.75">
+    <row r="525" spans="1:4" ht="13">
       <c r="A525" s="3"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="3"/>
     </row>
-    <row r="526" spans="1:4" ht="12.75">
+    <row r="526" spans="1:4" ht="13">
       <c r="A526" s="3"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="3"/>
     </row>
-    <row r="527" spans="1:4" ht="12.75">
+    <row r="527" spans="1:4" ht="13">
       <c r="A527" s="3"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="3"/>
     </row>
-    <row r="528" spans="1:4" ht="12.75">
+    <row r="528" spans="1:4" ht="13">
       <c r="A528" s="3"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="3"/>
     </row>
-    <row r="529" spans="1:4" ht="12.75">
+    <row r="529" spans="1:4" ht="13">
       <c r="A529" s="3"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="3"/>
     </row>
-    <row r="530" spans="1:4" ht="12.75">
+    <row r="530" spans="1:4" ht="13">
       <c r="A530" s="3"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="3"/>
     </row>
-    <row r="531" spans="1:4" ht="12.75">
+    <row r="531" spans="1:4" ht="13">
       <c r="A531" s="3"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="3"/>
     </row>
-    <row r="532" spans="1:4" ht="12.75">
+    <row r="532" spans="1:4" ht="13">
       <c r="A532" s="3"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="3"/>
     </row>
-    <row r="533" spans="1:4" ht="12.75">
+    <row r="533" spans="1:4" ht="13">
       <c r="A533" s="3"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="3"/>
     </row>
-    <row r="534" spans="1:4" ht="12.75">
+    <row r="534" spans="1:4" ht="13">
       <c r="A534" s="3"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="3"/>
     </row>
-    <row r="535" spans="1:4" ht="12.75">
+    <row r="535" spans="1:4" ht="13">
       <c r="A535" s="3"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="3"/>
     </row>
-    <row r="536" spans="1:4" ht="12.75">
+    <row r="536" spans="1:4" ht="13">
       <c r="A536" s="3"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="3"/>
     </row>
-    <row r="537" spans="1:4" ht="12.75">
+    <row r="537" spans="1:4" ht="13">
       <c r="A537" s="3"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="3"/>
     </row>
-    <row r="538" spans="1:4" ht="12.75">
+    <row r="538" spans="1:4" ht="13">
       <c r="A538" s="3"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="3"/>
     </row>
-    <row r="539" spans="1:4" ht="12.75">
+    <row r="539" spans="1:4" ht="13">
       <c r="A539" s="3"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="3"/>
     </row>
-    <row r="540" spans="1:4" ht="12.75">
+    <row r="540" spans="1:4" ht="13">
       <c r="A540" s="3"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="3"/>
     </row>
-    <row r="541" spans="1:4" ht="12.75">
+    <row r="541" spans="1:4" ht="13">
       <c r="A541" s="3"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="3"/>
     </row>
-    <row r="542" spans="1:4" ht="12.75">
+    <row r="542" spans="1:4" ht="13">
       <c r="A542" s="3"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="3"/>
     </row>
-    <row r="543" spans="1:4" ht="12.75">
+    <row r="543" spans="1:4" ht="13">
       <c r="A543" s="3"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="3"/>
     </row>
-    <row r="544" spans="1:4" ht="12.75">
+    <row r="544" spans="1:4" ht="13">
       <c r="A544" s="3"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="3"/>
     </row>
-    <row r="545" spans="1:4" ht="12.75">
+    <row r="545" spans="1:4" ht="13">
       <c r="A545" s="3"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="3"/>
     </row>
-    <row r="546" spans="1:4" ht="12.75">
+    <row r="546" spans="1:4" ht="13">
       <c r="A546" s="3"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="3"/>
     </row>
-    <row r="547" spans="1:4" ht="12.75">
+    <row r="547" spans="1:4" ht="13">
       <c r="A547" s="3"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="3"/>
     </row>
-    <row r="548" spans="1:4" ht="12.75">
+    <row r="548" spans="1:4" ht="13">
       <c r="A548" s="3"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="3"/>
     </row>
-    <row r="549" spans="1:4" ht="12.75">
+    <row r="549" spans="1:4" ht="13">
       <c r="A549" s="3"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="3"/>
     </row>
-    <row r="550" spans="1:4" ht="12.75">
+    <row r="550" spans="1:4" ht="13">
       <c r="A550" s="3"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="3"/>
     </row>
-    <row r="551" spans="1:4" ht="12.75">
+    <row r="551" spans="1:4" ht="13">
       <c r="A551" s="3"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="3"/>
     </row>
-    <row r="552" spans="1:4" ht="12.75">
+    <row r="552" spans="1:4" ht="13">
       <c r="A552" s="3"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="3"/>
     </row>
-    <row r="553" spans="1:4" ht="12.75">
+    <row r="553" spans="1:4" ht="13">
       <c r="A553" s="3"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="3"/>
     </row>
-    <row r="554" spans="1:4" ht="12.75">
+    <row r="554" spans="1:4" ht="13">
       <c r="A554" s="3"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="3"/>
     </row>
-    <row r="555" spans="1:4" ht="12.75">
+    <row r="555" spans="1:4" ht="13">
       <c r="A555" s="3"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="3"/>
     </row>
-    <row r="556" spans="1:4" ht="12.75">
+    <row r="556" spans="1:4" ht="13">
       <c r="A556" s="3"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="3"/>
     </row>
-    <row r="557" spans="1:4" ht="12.75">
+    <row r="557" spans="1:4" ht="13">
       <c r="A557" s="3"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="3"/>
     </row>
-    <row r="558" spans="1:4" ht="12.75">
+    <row r="558" spans="1:4" ht="13">
       <c r="A558" s="3"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="3"/>
     </row>
-    <row r="559" spans="1:4" ht="12.75">
+    <row r="559" spans="1:4" ht="13">
       <c r="A559" s="3"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="3"/>
     </row>
-    <row r="560" spans="1:4" ht="12.75">
+    <row r="560" spans="1:4" ht="13">
       <c r="A560" s="3"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="3"/>
     </row>
-    <row r="561" spans="1:4" ht="12.75">
+    <row r="561" spans="1:4" ht="13">
       <c r="A561" s="3"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="3"/>
     </row>
-    <row r="562" spans="1:4" ht="12.75">
+    <row r="562" spans="1:4" ht="13">
       <c r="A562" s="3"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="3"/>
     </row>
-    <row r="563" spans="1:4" ht="12.75">
+    <row r="563" spans="1:4" ht="13">
       <c r="A563" s="3"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="3"/>
     </row>
-    <row r="564" spans="1:4" ht="12.75">
+    <row r="564" spans="1:4" ht="13">
       <c r="A564" s="3"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="3"/>
     </row>
-    <row r="565" spans="1:4" ht="12.75">
+    <row r="565" spans="1:4" ht="13">
       <c r="A565" s="3"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="3"/>
     </row>
-    <row r="566" spans="1:4" ht="12.75">
+    <row r="566" spans="1:4" ht="13">
       <c r="A566" s="3"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="3"/>
     </row>
-    <row r="567" spans="1:4" ht="12.75">
+    <row r="567" spans="1:4" ht="13">
       <c r="A567" s="3"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="3"/>
     </row>
-    <row r="568" spans="1:4" ht="12.75">
+    <row r="568" spans="1:4" ht="13">
       <c r="A568" s="3"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="3"/>
     </row>
-    <row r="569" spans="1:4" ht="12.75">
+    <row r="569" spans="1:4" ht="13">
       <c r="A569" s="3"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="3"/>
     </row>
-    <row r="570" spans="1:4" ht="12.75">
+    <row r="570" spans="1:4" ht="13">
       <c r="A570" s="3"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="3"/>
     </row>
-    <row r="571" spans="1:4" ht="12.75">
+    <row r="571" spans="1:4" ht="13">
       <c r="A571" s="3"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="3"/>
     </row>
-    <row r="572" spans="1:4" ht="12.75">
+    <row r="572" spans="1:4" ht="13">
       <c r="A572" s="3"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="3"/>
     </row>
-    <row r="573" spans="1:4" ht="12.75">
+    <row r="573" spans="1:4" ht="13">
       <c r="A573" s="3"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="3"/>
     </row>
-    <row r="574" spans="1:4" ht="12.75">
+    <row r="574" spans="1:4" ht="13">
       <c r="A574" s="3"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="3"/>
     </row>
-    <row r="575" spans="1:4" ht="12.75">
+    <row r="575" spans="1:4" ht="13">
       <c r="A575" s="3"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="3"/>
     </row>
-    <row r="576" spans="1:4" ht="12.75">
+    <row r="576" spans="1:4" ht="13">
       <c r="A576" s="3"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="3"/>
     </row>
-    <row r="577" spans="1:4" ht="12.75">
+    <row r="577" spans="1:4" ht="13">
       <c r="A577" s="3"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="3"/>
     </row>
-    <row r="578" spans="1:4" ht="12.75">
+    <row r="578" spans="1:4" ht="13">
       <c r="A578" s="3"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="3"/>
     </row>
-    <row r="579" spans="1:4" ht="12.75">
+    <row r="579" spans="1:4" ht="13">
       <c r="A579" s="3"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="3"/>
     </row>
-    <row r="580" spans="1:4" ht="12.75">
+    <row r="580" spans="1:4" ht="13">
       <c r="A580" s="3"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="3"/>
     </row>
-    <row r="581" spans="1:4" ht="12.75">
+    <row r="581" spans="1:4" ht="13">
       <c r="A581" s="3"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="3"/>
     </row>
-    <row r="582" spans="1:4" ht="12.75">
+    <row r="582" spans="1:4" ht="13">
       <c r="A582" s="3"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="3"/>
     </row>
-    <row r="583" spans="1:4" ht="12.75">
+    <row r="583" spans="1:4" ht="13">
       <c r="A583" s="3"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="3"/>
     </row>
-    <row r="584" spans="1:4" ht="12.75">
+    <row r="584" spans="1:4" ht="13">
       <c r="A584" s="3"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="3"/>
     </row>
-    <row r="585" spans="1:4" ht="12.75">
+    <row r="585" spans="1:4" ht="13">
       <c r="A585" s="3"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="3"/>
     </row>
-    <row r="586" spans="1:4" ht="12.75">
+    <row r="586" spans="1:4" ht="13">
       <c r="A586" s="3"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="3"/>
     </row>
-    <row r="587" spans="1:4" ht="12.75">
+    <row r="587" spans="1:4" ht="13">
       <c r="A587" s="3"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="3"/>
     </row>
-    <row r="588" spans="1:4" ht="12.75">
+    <row r="588" spans="1:4" ht="13">
       <c r="A588" s="3"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="3"/>
     </row>
-    <row r="589" spans="1:4" ht="12.75">
+    <row r="589" spans="1:4" ht="13">
       <c r="A589" s="3"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="3"/>
     </row>
-    <row r="590" spans="1:4" ht="12.75">
+    <row r="590" spans="1:4" ht="13">
       <c r="A590" s="3"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="3"/>
     </row>
-    <row r="591" spans="1:4" ht="12.75">
+    <row r="591" spans="1:4" ht="13">
       <c r="A591" s="3"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="3"/>
     </row>
-    <row r="592" spans="1:4" ht="12.75">
+    <row r="592" spans="1:4" ht="13">
       <c r="A592" s="3"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="3"/>
     </row>
-    <row r="593" spans="1:4" ht="12.75">
+    <row r="593" spans="1:4" ht="13">
       <c r="A593" s="3"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="3"/>
     </row>
-    <row r="594" spans="1:4" ht="12.75">
+    <row r="594" spans="1:4" ht="13">
       <c r="A594" s="3"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="3"/>
     </row>
-    <row r="595" spans="1:4" ht="12.75">
+    <row r="595" spans="1:4" ht="13">
       <c r="A595" s="3"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="3"/>
     </row>
-    <row r="596" spans="1:4" ht="12.75">
+    <row r="596" spans="1:4" ht="13">
       <c r="A596" s="3"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="3"/>
     </row>
-    <row r="597" spans="1:4" ht="12.75">
+    <row r="597" spans="1:4" ht="13">
       <c r="A597" s="3"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="3"/>
     </row>
-    <row r="598" spans="1:4" ht="12.75">
+    <row r="598" spans="1:4" ht="13">
       <c r="A598" s="3"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="3"/>
     </row>
-    <row r="599" spans="1:4" ht="12.75">
+    <row r="599" spans="1:4" ht="13">
       <c r="A599" s="3"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="3"/>
     </row>
-    <row r="600" spans="1:4" ht="12.75">
+    <row r="600" spans="1:4" ht="13">
       <c r="A600" s="3"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="3"/>
     </row>
-    <row r="601" spans="1:4" ht="12.75">
+    <row r="601" spans="1:4" ht="13">
       <c r="A601" s="3"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="3"/>
     </row>
-    <row r="602" spans="1:4" ht="12.75">
+    <row r="602" spans="1:4" ht="13">
       <c r="A602" s="3"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="3"/>
     </row>
-    <row r="603" spans="1:4" ht="12.75">
+    <row r="603" spans="1:4" ht="13">
       <c r="A603" s="3"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="3"/>
     </row>
-    <row r="604" spans="1:4" ht="12.75">
+    <row r="604" spans="1:4" ht="13">
       <c r="A604" s="3"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="3"/>
     </row>
-    <row r="605" spans="1:4" ht="12.75">
+    <row r="605" spans="1:4" ht="13">
       <c r="A605" s="3"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="3"/>
     </row>
-    <row r="606" spans="1:4" ht="12.75">
+    <row r="606" spans="1:4" ht="13">
       <c r="A606" s="3"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="3"/>
     </row>
-    <row r="607" spans="1:4" ht="12.75">
+    <row r="607" spans="1:4" ht="13">
       <c r="A607" s="3"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="3"/>
     </row>
-    <row r="608" spans="1:4" ht="12.75">
+    <row r="608" spans="1:4" ht="13">
       <c r="A608" s="3"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="3"/>
     </row>
-    <row r="609" spans="1:4" ht="12.75">
+    <row r="609" spans="1:4" ht="13">
       <c r="A609" s="3"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="3"/>
     </row>
-    <row r="610" spans="1:4" ht="12.75">
+    <row r="610" spans="1:4" ht="13">
       <c r="A610" s="3"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="3"/>
     </row>
-    <row r="611" spans="1:4" ht="12.75">
+    <row r="611" spans="1:4" ht="13">
       <c r="A611" s="3"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="3"/>
     </row>
-    <row r="612" spans="1:4" ht="12.75">
+    <row r="612" spans="1:4" ht="13">
       <c r="A612" s="3"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="3"/>
     </row>
-    <row r="613" spans="1:4" ht="12.75">
+    <row r="613" spans="1:4" ht="13">
       <c r="A613" s="3"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="3"/>
     </row>
-    <row r="614" spans="1:4" ht="12.75">
+    <row r="614" spans="1:4" ht="13">
       <c r="A614" s="3"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="3"/>
     </row>
-    <row r="615" spans="1:4" ht="12.75">
+    <row r="615" spans="1:4" ht="13">
       <c r="A615" s="3"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="3"/>
     </row>
-    <row r="616" spans="1:4" ht="12.75">
+    <row r="616" spans="1:4" ht="13">
       <c r="A616" s="3"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="3"/>
     </row>
-    <row r="617" spans="1:4" ht="12.75">
+    <row r="617" spans="1:4" ht="13">
       <c r="A617" s="3"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="3"/>
     </row>
-    <row r="618" spans="1:4" ht="12.75">
+    <row r="618" spans="1:4" ht="13">
       <c r="A618" s="3"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="3"/>
     </row>
-    <row r="619" spans="1:4" ht="12.75">
+    <row r="619" spans="1:4" ht="13">
       <c r="A619" s="3"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="3"/>
     </row>
-    <row r="620" spans="1:4" ht="12.75">
+    <row r="620" spans="1:4" ht="13">
       <c r="A620" s="3"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="3"/>
     </row>
-    <row r="621" spans="1:4" ht="12.75">
+    <row r="621" spans="1:4" ht="13">
       <c r="A621" s="3"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="3"/>
     </row>
-    <row r="622" spans="1:4" ht="12.75">
+    <row r="622" spans="1:4" ht="13">
       <c r="A622" s="3"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="3"/>
     </row>
-    <row r="623" spans="1:4" ht="12.75">
+    <row r="623" spans="1:4" ht="13">
       <c r="A623" s="3"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="3"/>
     </row>
-    <row r="624" spans="1:4" ht="12.75">
+    <row r="624" spans="1:4" ht="13">
       <c r="A624" s="3"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="3"/>
     </row>
-    <row r="625" spans="1:4" ht="12.75">
+    <row r="625" spans="1:4" ht="13">
       <c r="A625" s="3"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="3"/>
     </row>
-    <row r="626" spans="1:4" ht="12.75">
+    <row r="626" spans="1:4" ht="13">
       <c r="A626" s="3"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="3"/>
     </row>
-    <row r="627" spans="1:4" ht="12.75">
+    <row r="627" spans="1:4" ht="13">
       <c r="A627" s="3"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="3"/>
     </row>
-    <row r="628" spans="1:4" ht="12.75">
+    <row r="628" spans="1:4" ht="13">
       <c r="A628" s="3"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="3"/>
     </row>
-    <row r="629" spans="1:4" ht="12.75">
+    <row r="629" spans="1:4" ht="13">
       <c r="A629" s="3"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="3"/>
     </row>
-    <row r="630" spans="1:4" ht="12.75">
+    <row r="630" spans="1:4" ht="13">
       <c r="A630" s="3"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="3"/>
     </row>
-    <row r="631" spans="1:4" ht="12.75">
+    <row r="631" spans="1:4" ht="13">
       <c r="A631" s="3"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="3"/>
     </row>
-    <row r="632" spans="1:4" ht="12.75">
+    <row r="632" spans="1:4" ht="13">
       <c r="A632" s="3"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="3"/>
     </row>
-    <row r="633" spans="1:4" ht="12.75">
+    <row r="633" spans="1:4" ht="13">
       <c r="A633" s="3"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="3"/>
     </row>
-    <row r="634" spans="1:4" ht="12.75">
+    <row r="634" spans="1:4" ht="13">
       <c r="A634" s="3"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="3"/>
     </row>
-    <row r="635" spans="1:4" ht="12.75">
+    <row r="635" spans="1:4" ht="13">
       <c r="A635" s="3"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="3"/>
     </row>
-    <row r="636" spans="1:4" ht="12.75">
+    <row r="636" spans="1:4" ht="13">
       <c r="A636" s="3"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="3"/>
     </row>
-    <row r="637" spans="1:4" ht="12.75">
+    <row r="637" spans="1:4" ht="13">
       <c r="A637" s="3"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="3"/>
     </row>
-    <row r="638" spans="1:4" ht="12.75">
+    <row r="638" spans="1:4" ht="13">
       <c r="A638" s="3"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="3"/>
     </row>
-    <row r="639" spans="1:4" ht="12.75">
+    <row r="639" spans="1:4" ht="13">
       <c r="A639" s="3"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="3"/>
     </row>
-    <row r="640" spans="1:4" ht="12.75">
+    <row r="640" spans="1:4" ht="13">
       <c r="A640" s="3"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="3"/>
     </row>
-    <row r="641" spans="1:4" ht="12.75">
+    <row r="641" spans="1:4" ht="13">
       <c r="A641" s="3"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="3"/>
     </row>
-    <row r="642" spans="1:4" ht="12.75">
+    <row r="642" spans="1:4" ht="13">
       <c r="A642" s="3"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="3"/>
     </row>
-    <row r="643" spans="1:4" ht="12.75">
+    <row r="643" spans="1:4" ht="13">
       <c r="A643" s="3"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="3"/>
     </row>
-    <row r="644" spans="1:4" ht="12.75">
+    <row r="644" spans="1:4" ht="13">
       <c r="A644" s="3"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="3"/>
     </row>
-    <row r="645" spans="1:4" ht="12.75">
+    <row r="645" spans="1:4" ht="13">
       <c r="A645" s="3"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="3"/>
     </row>
-    <row r="646" spans="1:4" ht="12.75">
+    <row r="646" spans="1:4" ht="13">
       <c r="A646" s="3"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="3"/>
     </row>
-    <row r="647" spans="1:4" ht="12.75">
+    <row r="647" spans="1:4" ht="13">
       <c r="A647" s="3"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="3"/>
     </row>
-    <row r="648" spans="1:4" ht="12.75">
+    <row r="648" spans="1:4" ht="13">
       <c r="A648" s="3"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="3"/>
     </row>
-    <row r="649" spans="1:4" ht="12.75">
+    <row r="649" spans="1:4" ht="13">
       <c r="A649" s="3"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="3"/>
     </row>
-    <row r="650" spans="1:4" ht="12.75">
+    <row r="650" spans="1:4" ht="13">
       <c r="A650" s="3"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="3"/>
     </row>
-    <row r="651" spans="1:4" ht="12.75">
+    <row r="651" spans="1:4" ht="13">
       <c r="A651" s="3"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="3"/>
     </row>
-    <row r="652" spans="1:4" ht="12.75">
+    <row r="652" spans="1:4" ht="13">
       <c r="A652" s="3"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="3"/>
     </row>
-    <row r="653" spans="1:4" ht="12.75">
+    <row r="653" spans="1:4" ht="13">
       <c r="A653" s="3"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="3"/>
     </row>
-    <row r="654" spans="1:4" ht="12.75">
+    <row r="654" spans="1:4" ht="13">
       <c r="A654" s="3"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="3"/>
     </row>
-    <row r="655" spans="1:4" ht="12.75">
+    <row r="655" spans="1:4" ht="13">
       <c r="A655" s="3"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="3"/>
     </row>
-    <row r="656" spans="1:4" ht="12.75">
+    <row r="656" spans="1:4" ht="13">
       <c r="A656" s="3"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="3"/>
     </row>
-    <row r="657" spans="1:4" ht="12.75">
+    <row r="657" spans="1:4" ht="13">
       <c r="A657" s="3"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="3"/>
     </row>
-    <row r="658" spans="1:4" ht="12.75">
+    <row r="658" spans="1:4" ht="13">
       <c r="A658" s="3"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="3"/>
     </row>
-    <row r="659" spans="1:4" ht="12.75">
+    <row r="659" spans="1:4" ht="13">
       <c r="A659" s="3"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="3"/>
     </row>
-    <row r="660" spans="1:4" ht="12.75">
+    <row r="660" spans="1:4" ht="13">
       <c r="A660" s="3"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="3"/>
     </row>
-    <row r="661" spans="1:4" ht="12.75">
+    <row r="661" spans="1:4" ht="13">
       <c r="A661" s="3"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="3"/>
     </row>
-    <row r="662" spans="1:4" ht="12.75">
+    <row r="662" spans="1:4" ht="13">
       <c r="A662" s="3"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="3"/>
     </row>
-    <row r="663" spans="1:4" ht="12.75">
+    <row r="663" spans="1:4" ht="13">
       <c r="A663" s="3"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="3"/>
     </row>
-    <row r="664" spans="1:4" ht="12.75">
+    <row r="664" spans="1:4" ht="13">
       <c r="A664" s="3"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="3"/>
     </row>
-    <row r="665" spans="1:4" ht="12.75">
+    <row r="665" spans="1:4" ht="13">
       <c r="A665" s="3"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="3"/>
     </row>
-    <row r="666" spans="1:4" ht="12.75">
+    <row r="666" spans="1:4" ht="13">
       <c r="A666" s="3"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="3"/>
     </row>
-    <row r="667" spans="1:4" ht="12.75">
+    <row r="667" spans="1:4" ht="13">
       <c r="A667" s="3"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="3"/>
     </row>
-    <row r="668" spans="1:4" ht="12.75">
+    <row r="668" spans="1:4" ht="13">
       <c r="A668" s="3"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="3"/>
     </row>
-    <row r="669" spans="1:4" ht="12.75">
+    <row r="669" spans="1:4" ht="13">
       <c r="A669" s="3"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="3"/>
     </row>
-    <row r="670" spans="1:4" ht="12.75">
+    <row r="670" spans="1:4" ht="13">
       <c r="A670" s="3"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="3"/>
     </row>
-    <row r="671" spans="1:4" ht="12.75">
+    <row r="671" spans="1:4" ht="13">
       <c r="A671" s="3"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="3"/>
     </row>
-    <row r="672" spans="1:4" ht="12.75">
+    <row r="672" spans="1:4" ht="13">
       <c r="A672" s="3"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="3"/>
     </row>
-    <row r="673" spans="1:4" ht="12.75">
+    <row r="673" spans="1:4" ht="13">
       <c r="A673" s="3"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="3"/>
     </row>
-    <row r="674" spans="1:4" ht="12.75">
+    <row r="674" spans="1:4" ht="13">
       <c r="A674" s="3"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="3"/>
     </row>
-    <row r="675" spans="1:4" ht="12.75">
+    <row r="675" spans="1:4" ht="13">
       <c r="A675" s="3"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="3"/>
     </row>
-    <row r="676" spans="1:4" ht="12.75">
+    <row r="676" spans="1:4" ht="13">
       <c r="A676" s="3"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="3"/>
     </row>
-    <row r="677" spans="1:4" ht="12.75">
+    <row r="677" spans="1:4" ht="13">
       <c r="A677" s="3"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="3"/>
     </row>
-    <row r="678" spans="1:4" ht="12.75">
+    <row r="678" spans="1:4" ht="13">
       <c r="A678" s="3"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="3"/>
     </row>
-    <row r="679" spans="1:4" ht="12.75">
+    <row r="679" spans="1:4" ht="13">
       <c r="A679" s="3"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="3"/>
     </row>
-    <row r="680" spans="1:4" ht="12.75">
+    <row r="680" spans="1:4" ht="13">
       <c r="A680" s="3"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="3"/>
     </row>
-    <row r="681" spans="1:4" ht="12.75">
+    <row r="681" spans="1:4" ht="13">
       <c r="A681" s="3"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="3"/>
     </row>
-    <row r="682" spans="1:4" ht="12.75">
+    <row r="682" spans="1:4" ht="13">
       <c r="A682" s="3"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="3"/>
     </row>
-    <row r="683" spans="1:4" ht="12.75">
+    <row r="683" spans="1:4" ht="13">
       <c r="A683" s="3"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="3"/>
     </row>
-    <row r="684" spans="1:4" ht="12.75">
+    <row r="684" spans="1:4" ht="13">
       <c r="A684" s="3"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="3"/>
     </row>
-    <row r="685" spans="1:4" ht="12.75">
+    <row r="685" spans="1:4" ht="13">
       <c r="A685" s="3"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="3"/>
     </row>
-    <row r="686" spans="1:4" ht="12.75">
+    <row r="686" spans="1:4" ht="13">
       <c r="A686" s="3"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="3"/>
     </row>
-    <row r="687" spans="1:4" ht="12.75">
+    <row r="687" spans="1:4" ht="13">
       <c r="A687" s="3"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="3"/>
     </row>
-    <row r="688" spans="1:4" ht="12.75">
+    <row r="688" spans="1:4" ht="13">
       <c r="A688" s="3"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="3"/>
     </row>
-    <row r="689" spans="1:4" ht="12.75">
+    <row r="689" spans="1:4" ht="13">
       <c r="A689" s="3"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="3"/>
     </row>
-    <row r="690" spans="1:4" ht="12.75">
+    <row r="690" spans="1:4" ht="13">
       <c r="A690" s="3"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="3"/>
     </row>
-    <row r="691" spans="1:4" ht="12.75">
+    <row r="691" spans="1:4" ht="13">
       <c r="A691" s="3"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="3"/>
     </row>
-    <row r="692" spans="1:4" ht="12.75">
+    <row r="692" spans="1:4" ht="13">
       <c r="A692" s="3"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="3"/>
     </row>
-    <row r="693" spans="1:4" ht="12.75">
+    <row r="693" spans="1:4" ht="13">
       <c r="A693" s="3"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="3"/>
     </row>
-    <row r="694" spans="1:4" ht="12.75">
+    <row r="694" spans="1:4" ht="13">
       <c r="A694" s="3"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="3"/>
     </row>
-    <row r="695" spans="1:4" ht="12.75">
+    <row r="695" spans="1:4" ht="13">
       <c r="A695" s="3"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="3"/>
     </row>
-    <row r="696" spans="1:4" ht="12.75">
+    <row r="696" spans="1:4" ht="13">
       <c r="A696" s="3"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="3"/>
     </row>
-    <row r="697" spans="1:4" ht="12.75">
+    <row r="697" spans="1:4" ht="13">
       <c r="A697" s="3"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="3"/>
     </row>
-    <row r="698" spans="1:4" ht="12.75">
+    <row r="698" spans="1:4" ht="13">
       <c r="A698" s="3"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="3"/>
     </row>
-    <row r="699" spans="1:4" ht="12.75">
+    <row r="699" spans="1:4" ht="13">
       <c r="A699" s="3"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="3"/>
     </row>
-    <row r="700" spans="1:4" ht="12.75">
+    <row r="700" spans="1:4" ht="13">
       <c r="A700" s="3"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="3"/>
     </row>
-    <row r="701" spans="1:4" ht="12.75">
+    <row r="701" spans="1:4" ht="13">
       <c r="A701" s="3"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="3"/>
     </row>
-    <row r="702" spans="1:4" ht="12.75">
+    <row r="702" spans="1:4" ht="13">
       <c r="A702" s="3"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="3"/>
     </row>
-    <row r="703" spans="1:4" ht="12.75">
+    <row r="703" spans="1:4" ht="13">
       <c r="A703" s="3"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="3"/>
     </row>
-    <row r="704" spans="1:4" ht="12.75">
+    <row r="704" spans="1:4" ht="13">
       <c r="A704" s="3"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="3"/>
     </row>
-    <row r="705" spans="1:4" ht="12.75">
+    <row r="705" spans="1:4" ht="13">
       <c r="A705" s="3"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="3"/>
     </row>
-    <row r="706" spans="1:4" ht="12.75">
+    <row r="706" spans="1:4" ht="13">
       <c r="A706" s="3"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="3"/>
     </row>
-    <row r="707" spans="1:4" ht="12.75">
+    <row r="707" spans="1:4" ht="13">
       <c r="A707" s="3"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="3"/>
     </row>
-    <row r="708" spans="1:4" ht="12.75">
+    <row r="708" spans="1:4" ht="13">
       <c r="A708" s="3"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="3"/>
     </row>
-    <row r="709" spans="1:4" ht="12.75">
+    <row r="709" spans="1:4" ht="13">
       <c r="A709" s="3"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="3"/>
     </row>
-    <row r="710" spans="1:4" ht="12.75">
+    <row r="710" spans="1:4" ht="13">
       <c r="A710" s="3"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="3"/>
     </row>
-    <row r="711" spans="1:4" ht="12.75">
+    <row r="711" spans="1:4" ht="13">
       <c r="A711" s="3"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="3"/>
     </row>
-    <row r="712" spans="1:4" ht="12.75">
+    <row r="712" spans="1:4" ht="13">
       <c r="A712" s="3"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="3"/>
     </row>
-    <row r="713" spans="1:4" ht="12.75">
+    <row r="713" spans="1:4" ht="13">
       <c r="A713" s="3"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="3"/>
     </row>
-    <row r="714" spans="1:4" ht="12.75">
+    <row r="714" spans="1:4" ht="13">
       <c r="A714" s="3"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="3"/>
     </row>
-    <row r="715" spans="1:4" ht="12.75">
+    <row r="715" spans="1:4" ht="13">
       <c r="A715" s="3"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="3"/>
     </row>
-    <row r="716" spans="1:4" ht="12.75">
+    <row r="716" spans="1:4" ht="13">
       <c r="A716" s="3"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="3"/>
     </row>
-    <row r="717" spans="1:4" ht="12.75">
+    <row r="717" spans="1:4" ht="13">
       <c r="A717" s="3"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="3"/>
     </row>
-    <row r="718" spans="1:4" ht="12.75">
+    <row r="718" spans="1:4" ht="13">
       <c r="A718" s="3"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="3"/>
     </row>
-    <row r="719" spans="1:4" ht="12.75">
+    <row r="719" spans="1:4" ht="13">
       <c r="A719" s="3"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="3"/>
     </row>
-    <row r="720" spans="1:4" ht="12.75">
+    <row r="720" spans="1:4" ht="13">
       <c r="A720" s="3"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="3"/>
     </row>
-    <row r="721" spans="1:4" ht="12.75">
+    <row r="721" spans="1:4" ht="13">
       <c r="A721" s="3"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="3"/>
     </row>
-    <row r="722" spans="1:4" ht="12.75">
+    <row r="722" spans="1:4" ht="13">
       <c r="A722" s="3"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="3"/>
     </row>
-    <row r="723" spans="1:4" ht="12.75">
+    <row r="723" spans="1:4" ht="13">
       <c r="A723" s="3"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="3"/>
     </row>
-    <row r="724" spans="1:4" ht="12.75">
+    <row r="724" spans="1:4" ht="13">
       <c r="A724" s="3"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="3"/>
     </row>
-    <row r="725" spans="1:4" ht="12.75">
+    <row r="725" spans="1:4" ht="13">
       <c r="A725" s="3"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="3"/>
     </row>
-    <row r="726" spans="1:4" ht="12.75">
+    <row r="726" spans="1:4" ht="13">
       <c r="A726" s="3"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="3"/>
     </row>
-    <row r="727" spans="1:4" ht="12.75">
+    <row r="727" spans="1:4" ht="13">
       <c r="A727" s="3"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="3"/>
     </row>
-    <row r="728" spans="1:4" ht="12.75">
+    <row r="728" spans="1:4" ht="13">
       <c r="A728" s="3"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="3"/>
     </row>
-    <row r="729" spans="1:4" ht="12.75">
+    <row r="729" spans="1:4" ht="13">
       <c r="A729" s="3"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="3"/>
     </row>
-    <row r="730" spans="1:4" ht="12.75">
+    <row r="730" spans="1:4" ht="13">
       <c r="A730" s="3"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="3"/>
     </row>
-    <row r="731" spans="1:4" ht="12.75">
+    <row r="731" spans="1:4" ht="13">
       <c r="A731" s="3"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="3"/>
     </row>
-    <row r="732" spans="1:4" ht="12.75">
+    <row r="732" spans="1:4" ht="13">
       <c r="A732" s="3"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="3"/>
     </row>
-    <row r="733" spans="1:4" ht="12.75">
+    <row r="733" spans="1:4" ht="13">
       <c r="A733" s="3"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="3"/>
     </row>
-    <row r="734" spans="1:4" ht="12.75">
+    <row r="734" spans="1:4" ht="13">
       <c r="A734" s="3"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="3"/>
     </row>
-    <row r="735" spans="1:4" ht="12.75">
+    <row r="735" spans="1:4" ht="13">
       <c r="A735" s="3"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="3"/>
     </row>
-    <row r="736" spans="1:4" ht="12.75">
+    <row r="736" spans="1:4" ht="13">
       <c r="A736" s="3"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="3"/>
     </row>
-    <row r="737" spans="1:4" ht="12.75">
+    <row r="737" spans="1:4" ht="13">
       <c r="A737" s="3"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="3"/>
     </row>
-    <row r="738" spans="1:4" ht="12.75">
+    <row r="738" spans="1:4" ht="13">
       <c r="A738" s="3"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="3"/>
     </row>
-    <row r="739" spans="1:4" ht="12.75">
+    <row r="739" spans="1:4" ht="13">
       <c r="A739" s="3"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="3"/>
     </row>
-    <row r="740" spans="1:4" ht="12.75">
+    <row r="740" spans="1:4" ht="13">
       <c r="A740" s="3"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="3"/>
     </row>
-    <row r="741" spans="1:4" ht="12.75">
+    <row r="741" spans="1:4" ht="13">
       <c r="A741" s="3"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="3"/>
     </row>
-    <row r="742" spans="1:4" ht="12.75">
+    <row r="742" spans="1:4" ht="13">
       <c r="A742" s="3"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="3"/>
     </row>
-    <row r="743" spans="1:4" ht="12.75">
+    <row r="743" spans="1:4" ht="13">
       <c r="A743" s="3"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="3"/>
     </row>
-    <row r="744" spans="1:4" ht="12.75">
+    <row r="744" spans="1:4" ht="13">
       <c r="A744" s="3"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="3"/>
     </row>
-    <row r="745" spans="1:4" ht="12.75">
+    <row r="745" spans="1:4" ht="13">
       <c r="A745" s="3"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="3"/>
     </row>
-    <row r="746" spans="1:4" ht="12.75">
+    <row r="746" spans="1:4" ht="13">
       <c r="A746" s="3"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="3"/>
     </row>
-    <row r="747" spans="1:4" ht="12.75">
+    <row r="747" spans="1:4" ht="13">
       <c r="A747" s="3"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="3"/>
     </row>
-    <row r="748" spans="1:4" ht="12.75">
+    <row r="748" spans="1:4" ht="13">
       <c r="A748" s="3"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="3"/>
     </row>
-    <row r="749" spans="1:4" ht="12.75">
+    <row r="749" spans="1:4" ht="13">
       <c r="A749" s="3"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="3"/>
     </row>
-    <row r="750" spans="1:4" ht="12.75">
+    <row r="750" spans="1:4" ht="13">
       <c r="A750" s="3"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="3"/>
     </row>
-    <row r="751" spans="1:4" ht="12.75">
+    <row r="751" spans="1:4" ht="13">
       <c r="A751" s="3"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="3"/>
     </row>
-    <row r="752" spans="1:4" ht="12.75">
+    <row r="752" spans="1:4" ht="13">
       <c r="A752" s="3"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="3"/>
     </row>
-    <row r="753" spans="1:4" ht="12.75">
+    <row r="753" spans="1:4" ht="13">
       <c r="A753" s="3"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="3"/>
     </row>
-    <row r="754" spans="1:4" ht="12.75">
+    <row r="754" spans="1:4" ht="13">
       <c r="A754" s="3"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="3"/>
     </row>
-    <row r="755" spans="1:4" ht="12.75">
+    <row r="755" spans="1:4" ht="13">
       <c r="A755" s="3"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="3"/>
     </row>
-    <row r="756" spans="1:4" ht="12.75">
+    <row r="756" spans="1:4" ht="13">
       <c r="A756" s="3"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="3"/>
     </row>
-    <row r="757" spans="1:4" ht="12.75">
+    <row r="757" spans="1:4" ht="13">
       <c r="A757" s="3"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="3"/>
     </row>
-    <row r="758" spans="1:4" ht="12.75">
+    <row r="758" spans="1:4" ht="13">
       <c r="A758" s="3"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="3"/>
     </row>
-    <row r="759" spans="1:4" ht="12.75">
+    <row r="759" spans="1:4" ht="13">
       <c r="A759" s="3"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="3"/>
     </row>
-    <row r="760" spans="1:4" ht="12.75">
+    <row r="760" spans="1:4" ht="13">
       <c r="A760" s="3"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="3"/>
     </row>
-    <row r="761" spans="1:4" ht="12.75">
+    <row r="761" spans="1:4" ht="13">
       <c r="A761" s="3"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="3"/>
     </row>
-    <row r="762" spans="1:4" ht="12.75">
+    <row r="762" spans="1:4" ht="13">
       <c r="A762" s="3"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="3"/>
     </row>
-    <row r="763" spans="1:4" ht="12.75">
+    <row r="763" spans="1:4" ht="13">
       <c r="A763" s="3"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="3"/>
     </row>
-    <row r="764" spans="1:4" ht="12.75">
+    <row r="764" spans="1:4" ht="13">
       <c r="A764" s="3"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="3"/>
     </row>
-    <row r="765" spans="1:4" ht="12.75">
+    <row r="765" spans="1:4" ht="13">
       <c r="A765" s="3"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="3"/>
     </row>
-    <row r="766" spans="1:4" ht="12.75">
+    <row r="766" spans="1:4" ht="13">
       <c r="A766" s="3"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="3"/>
     </row>
-    <row r="767" spans="1:4" ht="12.75">
+    <row r="767" spans="1:4" ht="13">
       <c r="A767" s="3"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="3"/>
     </row>
-    <row r="768" spans="1:4" ht="12.75">
+    <row r="768" spans="1:4" ht="13">
       <c r="A768" s="3"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="3"/>
     </row>
-    <row r="769" spans="1:4" ht="12.75">
+    <row r="769" spans="1:4" ht="13">
       <c r="A769" s="3"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="3"/>
     </row>
-    <row r="770" spans="1:4" ht="12.75">
+    <row r="770" spans="1:4" ht="13">
       <c r="A770" s="3"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="3"/>
     </row>
-    <row r="771" spans="1:4" ht="12.75">
+    <row r="771" spans="1:4" ht="13">
       <c r="A771" s="3"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="3"/>
     </row>
-    <row r="772" spans="1:4" ht="12.75">
+    <row r="772" spans="1:4" ht="13">
       <c r="A772" s="3"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="3"/>
     </row>
-    <row r="773" spans="1:4" ht="12.75">
+    <row r="773" spans="1:4" ht="13">
       <c r="A773" s="3"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="3"/>
     </row>
-    <row r="774" spans="1:4" ht="12.75">
+    <row r="774" spans="1:4" ht="13">
       <c r="A774" s="3"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="3"/>
     </row>
-    <row r="775" spans="1:4" ht="12.75">
+    <row r="775" spans="1:4" ht="13">
       <c r="A775" s="3"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="3"/>
     </row>
-    <row r="776" spans="1:4" ht="12.75">
+    <row r="776" spans="1:4" ht="13">
       <c r="A776" s="3"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="3"/>
     </row>
-    <row r="777" spans="1:4" ht="12.75">
+    <row r="777" spans="1:4" ht="13">
       <c r="A777" s="3"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="3"/>
     </row>
-    <row r="778" spans="1:4" ht="12.75">
+    <row r="778" spans="1:4" ht="13">
       <c r="A778" s="3"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="3"/>
     </row>
-    <row r="779" spans="1:4" ht="12.75">
+    <row r="779" spans="1:4" ht="13">
       <c r="A779" s="3"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="3"/>
     </row>
-    <row r="780" spans="1:4" ht="12.75">
+    <row r="780" spans="1:4" ht="13">
       <c r="A780" s="3"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="3"/>
     </row>
-    <row r="781" spans="1:4" ht="12.75">
+    <row r="781" spans="1:4" ht="13">
       <c r="A781" s="3"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="3"/>
     </row>
-    <row r="782" spans="1:4" ht="12.75">
+    <row r="782" spans="1:4" ht="13">
       <c r="A782" s="3"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="3"/>
     </row>
-    <row r="783" spans="1:4" ht="12.75">
+    <row r="783" spans="1:4" ht="13">
       <c r="A783" s="3"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="3"/>
     </row>
-    <row r="784" spans="1:4" ht="12.75">
+    <row r="784" spans="1:4" ht="13">
       <c r="A784" s="3"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="3"/>
     </row>
-    <row r="785" spans="1:4" ht="12.75">
+    <row r="785" spans="1:4" ht="13">
       <c r="A785" s="3"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="3"/>
     </row>
-    <row r="786" spans="1:4" ht="12.75">
+    <row r="786" spans="1:4" ht="13">
       <c r="A786" s="3"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="3"/>
     </row>
-    <row r="787" spans="1:4" ht="12.75">
+    <row r="787" spans="1:4" ht="13">
       <c r="A787" s="3"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="3"/>
     </row>
-    <row r="788" spans="1:4" ht="12.75">
+    <row r="788" spans="1:4" ht="13">
       <c r="A788" s="3"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="3"/>
     </row>
-    <row r="789" spans="1:4" ht="12.75">
+    <row r="789" spans="1:4" ht="13">
       <c r="A789" s="3"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="3"/>
     </row>
-    <row r="790" spans="1:4" ht="12.75">
+    <row r="790" spans="1:4" ht="13">
       <c r="A790" s="3"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="3"/>
     </row>
-    <row r="791" spans="1:4" ht="12.75">
+    <row r="791" spans="1:4" ht="13">
       <c r="A791" s="3"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="3"/>
     </row>
-    <row r="792" spans="1:4" ht="12.75">
+    <row r="792" spans="1:4" ht="13">
       <c r="A792" s="3"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="3"/>
     </row>
-    <row r="793" spans="1:4" ht="12.75">
+    <row r="793" spans="1:4" ht="13">
       <c r="A793" s="3"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="3"/>
     </row>
-    <row r="794" spans="1:4" ht="12.75">
+    <row r="794" spans="1:4" ht="13">
       <c r="A794" s="3"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="3"/>
     </row>
-    <row r="795" spans="1:4" ht="12.75">
+    <row r="795" spans="1:4" ht="13">
       <c r="A795" s="3"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="3"/>
     </row>
-    <row r="796" spans="1:4" ht="12.75">
+    <row r="796" spans="1:4" ht="13">
       <c r="A796" s="3"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="3"/>
     </row>
-    <row r="797" spans="1:4" ht="12.75">
+    <row r="797" spans="1:4" ht="13">
       <c r="A797" s="3"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="3"/>
     </row>
-    <row r="798" spans="1:4" ht="12.75">
+    <row r="798" spans="1:4" ht="13">
       <c r="A798" s="3"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="3"/>
     </row>
-    <row r="799" spans="1:4" ht="12.75">
+    <row r="799" spans="1:4" ht="13">
       <c r="A799" s="3"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="3"/>
     </row>
-    <row r="800" spans="1:4" ht="12.75">
+    <row r="800" spans="1:4" ht="13">
       <c r="A800" s="3"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="3"/>
     </row>
-    <row r="801" spans="1:4" ht="12.75">
+    <row r="801" spans="1:4" ht="13">
       <c r="A801" s="3"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="3"/>
     </row>
-    <row r="802" spans="1:4" ht="12.75">
+    <row r="802" spans="1:4" ht="13">
       <c r="A802" s="3"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="3"/>
     </row>
-    <row r="803" spans="1:4" ht="12.75">
+    <row r="803" spans="1:4" ht="13">
       <c r="A803" s="3"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="3"/>
     </row>
-    <row r="804" spans="1:4" ht="12.75">
+    <row r="804" spans="1:4" ht="13">
       <c r="A804" s="3"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="3"/>
     </row>
-    <row r="805" spans="1:4" ht="12.75">
+    <row r="805" spans="1:4" ht="13">
       <c r="A805" s="3"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="3"/>
     </row>
-    <row r="806" spans="1:4" ht="12.75">
+    <row r="806" spans="1:4" ht="13">
       <c r="A806" s="3"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="3"/>
     </row>
-    <row r="807" spans="1:4" ht="12.75">
+    <row r="807" spans="1:4" ht="13">
       <c r="A807" s="3"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="3"/>
     </row>
-    <row r="808" spans="1:4" ht="12.75">
+    <row r="808" spans="1:4" ht="13">
       <c r="A808" s="3"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="3"/>
     </row>
-    <row r="809" spans="1:4" ht="12.75">
+    <row r="809" spans="1:4" ht="13">
       <c r="A809" s="3"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="3"/>
     </row>
-    <row r="810" spans="1:4" ht="12.75">
+    <row r="810" spans="1:4" ht="13">
       <c r="A810" s="3"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="3"/>
     </row>
-    <row r="811" spans="1:4" ht="12.75">
+    <row r="811" spans="1:4" ht="13">
       <c r="A811" s="3"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="3"/>
     </row>
-    <row r="812" spans="1:4" ht="12.75">
+    <row r="812" spans="1:4" ht="13">
       <c r="A812" s="3"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="3"/>
     </row>
-    <row r="813" spans="1:4" ht="12.75">
+    <row r="813" spans="1:4" ht="13">
       <c r="A813" s="3"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="3"/>
     </row>
-    <row r="814" spans="1:4" ht="12.75">
+    <row r="814" spans="1:4" ht="13">
       <c r="A814" s="3"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="3"/>
     </row>
-    <row r="815" spans="1:4" ht="12.75">
+    <row r="815" spans="1:4" ht="13">
       <c r="A815" s="3"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="3"/>
     </row>
-    <row r="816" spans="1:4" ht="12.75">
+    <row r="816" spans="1:4" ht="13">
       <c r="A816" s="3"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="3"/>
     </row>
-    <row r="817" spans="1:4" ht="12.75">
+    <row r="817" spans="1:4" ht="13">
       <c r="A817" s="3"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="3"/>
     </row>
-    <row r="818" spans="1:4" ht="12.75">
+    <row r="818" spans="1:4" ht="13">
       <c r="A818" s="3"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="3"/>
     </row>
-    <row r="819" spans="1:4" ht="12.75">
+    <row r="819" spans="1:4" ht="13">
       <c r="A819" s="3"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="3"/>
     </row>
-    <row r="820" spans="1:4" ht="12.75">
+    <row r="820" spans="1:4" ht="13">
       <c r="A820" s="3"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="3"/>
     </row>
-    <row r="821" spans="1:4" ht="12.75">
+    <row r="821" spans="1:4" ht="13">
       <c r="A821" s="3"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="3"/>
     </row>
-    <row r="822" spans="1:4" ht="12.75">
+    <row r="822" spans="1:4" ht="13">
       <c r="A822" s="3"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="3"/>
     </row>
-    <row r="823" spans="1:4" ht="12.75">
+    <row r="823" spans="1:4" ht="13">
       <c r="A823" s="3"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="3"/>
     </row>
-    <row r="824" spans="1:4" ht="12.75">
+    <row r="824" spans="1:4" ht="13">
       <c r="A824" s="3"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="3"/>
     </row>
-    <row r="825" spans="1:4" ht="12.75">
+    <row r="825" spans="1:4" ht="13">
       <c r="A825" s="3"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="3"/>
     </row>
-    <row r="826" spans="1:4" ht="12.75">
+    <row r="826" spans="1:4" ht="13">
       <c r="A826" s="3"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="3"/>
     </row>
-    <row r="827" spans="1:4" ht="12.75">
+    <row r="827" spans="1:4" ht="13">
       <c r="A827" s="3"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="3"/>
     </row>
-    <row r="828" spans="1:4" ht="12.75">
+    <row r="828" spans="1:4" ht="13">
       <c r="A828" s="3"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="3"/>
     </row>
-    <row r="829" spans="1:4" ht="12.75">
+    <row r="829" spans="1:4" ht="13">
       <c r="A829" s="3"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="3"/>
     </row>
-    <row r="830" spans="1:4" ht="12.75">
+    <row r="830" spans="1:4" ht="13">
       <c r="A830" s="3"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="3"/>
     </row>
-    <row r="831" spans="1:4" ht="12.75">
+    <row r="831" spans="1:4" ht="13">
       <c r="A831" s="3"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="3"/>
     </row>
-    <row r="832" spans="1:4" ht="12.75">
+    <row r="832" spans="1:4" ht="13">
       <c r="A832" s="3"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="3"/>
     </row>
-    <row r="833" spans="1:4" ht="12.75">
+    <row r="833" spans="1:4" ht="13">
       <c r="A833" s="3"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="3"/>
     </row>
-    <row r="834" spans="1:4" ht="12.75">
+    <row r="834" spans="1:4" ht="13">
       <c r="A834" s="3"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="3"/>
     </row>
-    <row r="835" spans="1:4" ht="12.75">
+    <row r="835" spans="1:4" ht="13">
       <c r="A835" s="3"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="3"/>
     </row>
-    <row r="836" spans="1:4" ht="12.75">
+    <row r="836" spans="1:4" ht="13">
       <c r="A836" s="3"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="3"/>
     </row>
-    <row r="837" spans="1:4" ht="12.75">
+    <row r="837" spans="1:4" ht="13">
       <c r="A837" s="3"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="3"/>
     </row>
-    <row r="838" spans="1:4" ht="12.75">
+    <row r="838" spans="1:4" ht="13">
       <c r="A838" s="3"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="3"/>
     </row>
-    <row r="839" spans="1:4" ht="12.75">
+    <row r="839" spans="1:4" ht="13">
       <c r="A839" s="3"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="3"/>
     </row>
-    <row r="840" spans="1:4" ht="12.75">
+    <row r="840" spans="1:4" ht="13">
       <c r="A840" s="3"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="3"/>
     </row>
-    <row r="841" spans="1:4" ht="12.75">
+    <row r="841" spans="1:4" ht="13">
       <c r="A841" s="3"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="3"/>
     </row>
-    <row r="842" spans="1:4" ht="12.75">
+    <row r="842" spans="1:4" ht="13">
       <c r="A842" s="3"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="3"/>
     </row>
-    <row r="843" spans="1:4" ht="12.75">
+    <row r="843" spans="1:4" ht="13">
       <c r="A843" s="3"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="3"/>
     </row>
-    <row r="844" spans="1:4" ht="12.75">
+    <row r="844" spans="1:4" ht="13">
       <c r="A844" s="3"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="3"/>
     </row>
-    <row r="845" spans="1:4" ht="12.75">
+    <row r="845" spans="1:4" ht="13">
       <c r="A845" s="3"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="3"/>
     </row>
-    <row r="846" spans="1:4" ht="12.75">
+    <row r="846" spans="1:4" ht="13">
       <c r="A846" s="3"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="3"/>
     </row>
-    <row r="847" spans="1:4" ht="12.75">
+    <row r="847" spans="1:4" ht="13">
       <c r="A847" s="3"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="3"/>
     </row>
-    <row r="848" spans="1:4" ht="12.75">
+    <row r="848" spans="1:4" ht="13">
       <c r="A848" s="3"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="3"/>
     </row>
-    <row r="849" spans="1:4" ht="12.75">
+    <row r="849" spans="1:4" ht="13">
       <c r="A849" s="3"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="3"/>
     </row>
-    <row r="850" spans="1:4" ht="12.75">
+    <row r="850" spans="1:4" ht="13">
       <c r="A850" s="3"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="3"/>
     </row>
-    <row r="851" spans="1:4" ht="12.75">
+    <row r="851" spans="1:4" ht="13">
       <c r="A851" s="3"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="3"/>
     </row>
-    <row r="852" spans="1:4" ht="12.75">
+    <row r="852" spans="1:4" ht="13">
       <c r="A852" s="3"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="3"/>
     </row>
-    <row r="853" spans="1:4" ht="12.75">
+    <row r="853" spans="1:4" ht="13">
       <c r="A853" s="3"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="3"/>
     </row>
-    <row r="854" spans="1:4" ht="12.75">
+    <row r="854" spans="1:4" ht="13">
       <c r="A854" s="3"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="3"/>
     </row>
-    <row r="855" spans="1:4" ht="12.75">
+    <row r="855" spans="1:4" ht="13">
       <c r="A855" s="3"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="3"/>
     </row>
-    <row r="856" spans="1:4" ht="12.75">
+    <row r="856" spans="1:4" ht="13">
       <c r="A856" s="3"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="3"/>
     </row>
-    <row r="857" spans="1:4" ht="12.75">
+    <row r="857" spans="1:4" ht="13">
       <c r="A857" s="3"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="3"/>
     </row>
-    <row r="858" spans="1:4" ht="12.75">
+    <row r="858" spans="1:4" ht="13">
       <c r="A858" s="3"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="3"/>
     </row>
-    <row r="859" spans="1:4" ht="12.75">
+    <row r="859" spans="1:4" ht="13">
       <c r="A859" s="3"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="3"/>
     </row>
-    <row r="860" spans="1:4" ht="12.75">
+    <row r="860" spans="1:4" ht="13">
       <c r="A860" s="3"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="3"/>
     </row>
-    <row r="861" spans="1:4" ht="12.75">
+    <row r="861" spans="1:4" ht="13">
       <c r="A861" s="3"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="3"/>
     </row>
-    <row r="862" spans="1:4" ht="12.75">
+    <row r="862" spans="1:4" ht="13">
       <c r="A862" s="3"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="3"/>
     </row>
-    <row r="863" spans="1:4" ht="12.75">
+    <row r="863" spans="1:4" ht="13">
       <c r="A863" s="3"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="3"/>
     </row>
-    <row r="864" spans="1:4" ht="12.75">
+    <row r="864" spans="1:4" ht="13">
       <c r="A864" s="3"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="3"/>
     </row>
-    <row r="865" spans="1:4" ht="12.75">
+    <row r="865" spans="1:4" ht="13">
       <c r="A865" s="3"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="3"/>
     </row>
-    <row r="866" spans="1:4" ht="12.75">
+    <row r="866" spans="1:4" ht="13">
       <c r="A866" s="3"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="3"/>
     </row>
-    <row r="867" spans="1:4" ht="12.75">
+    <row r="867" spans="1:4" ht="13">
       <c r="A867" s="3"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="3"/>
     </row>
-    <row r="868" spans="1:4" ht="12.75">
+    <row r="868" spans="1:4" ht="13">
       <c r="A868" s="3"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="3"/>
     </row>
-    <row r="869" spans="1:4" ht="12.75">
+    <row r="869" spans="1:4" ht="13">
       <c r="A869" s="3"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="3"/>
     </row>
-    <row r="870" spans="1:4" ht="12.75">
+    <row r="870" spans="1:4" ht="13">
       <c r="A870" s="3"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="3"/>
     </row>
-    <row r="871" spans="1:4" ht="12.75">
+    <row r="871" spans="1:4" ht="13">
       <c r="A871" s="3"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="3"/>
     </row>
-    <row r="872" spans="1:4" ht="12.75">
+    <row r="872" spans="1:4" ht="13">
       <c r="A872" s="3"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="3"/>
     </row>
-    <row r="873" spans="1:4" ht="12.75">
+    <row r="873" spans="1:4" ht="13">
       <c r="A873" s="3"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="3"/>
     </row>
-    <row r="874" spans="1:4" ht="12.75">
+    <row r="874" spans="1:4" ht="13">
       <c r="A874" s="3"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="3"/>
     </row>
-    <row r="875" spans="1:4" ht="12.75">
+    <row r="875" spans="1:4" ht="13">
       <c r="A875" s="3"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="3"/>
     </row>
-    <row r="876" spans="1:4" ht="12.75">
+    <row r="876" spans="1:4" ht="13">
       <c r="A876" s="3"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="3"/>
     </row>
-    <row r="877" spans="1:4" ht="12.75">
+    <row r="877" spans="1:4" ht="13">
       <c r="A877" s="3"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="3"/>
     </row>
-    <row r="878" spans="1:4" ht="12.75">
+    <row r="878" spans="1:4" ht="13">
       <c r="A878" s="3"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="3"/>
     </row>
-    <row r="879" spans="1:4" ht="12.75">
+    <row r="879" spans="1:4" ht="13">
       <c r="A879" s="3"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="3"/>
     </row>
-    <row r="880" spans="1:4" ht="12.75">
+    <row r="880" spans="1:4" ht="13">
       <c r="A880" s="3"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="3"/>
     </row>
-    <row r="881" spans="1:4" ht="12.75">
+    <row r="881" spans="1:4" ht="13">
       <c r="A881" s="3"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="3"/>
     </row>
-    <row r="882" spans="1:4" ht="12.75">
+    <row r="882" spans="1:4" ht="13">
       <c r="A882" s="3"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="3"/>
     </row>
-    <row r="883" spans="1:4" ht="12.75">
+    <row r="883" spans="1:4" ht="13">
       <c r="A883" s="3"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="3"/>
     </row>
-    <row r="884" spans="1:4" ht="12.75">
+    <row r="884" spans="1:4" ht="13">
       <c r="A884" s="3"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="3"/>
     </row>
-    <row r="885" spans="1:4" ht="12.75">
+    <row r="885" spans="1:4" ht="13">
       <c r="A885" s="3"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="3"/>
     </row>
-    <row r="886" spans="1:4" ht="12.75">
+    <row r="886" spans="1:4" ht="13">
       <c r="A886" s="3"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="3"/>
     </row>
-    <row r="887" spans="1:4" ht="12.75">
+    <row r="887" spans="1:4" ht="13">
       <c r="A887" s="3"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="3"/>
     </row>
-    <row r="888" spans="1:4" ht="12.75">
+    <row r="888" spans="1:4" ht="13">
       <c r="A888" s="3"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="3"/>
     </row>
-    <row r="889" spans="1:4" ht="12.75">
+    <row r="889" spans="1:4" ht="13">
       <c r="A889" s="3"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="3"/>
     </row>
-    <row r="890" spans="1:4" ht="12.75">
+    <row r="890" spans="1:4" ht="13">
       <c r="A890" s="3"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="3"/>
     </row>
-    <row r="891" spans="1:4" ht="12.75">
+    <row r="891" spans="1:4" ht="13">
       <c r="A891" s="3"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="3"/>
     </row>
-    <row r="892" spans="1:4" ht="12.75">
+    <row r="892" spans="1:4" ht="13">
       <c r="A892" s="3"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="3"/>
     </row>
-    <row r="893" spans="1:4" ht="12.75">
+    <row r="893" spans="1:4" ht="13">
       <c r="A893" s="3"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="3"/>
     </row>
-    <row r="894" spans="1:4" ht="12.75">
+    <row r="894" spans="1:4" ht="13">
       <c r="A894" s="3"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="3"/>
     </row>
-    <row r="895" spans="1:4" ht="12.75">
+    <row r="895" spans="1:4" ht="13">
       <c r="A895" s="3"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="3"/>
     </row>
-    <row r="896" spans="1:4" ht="12.75">
+    <row r="896" spans="1:4" ht="13">
       <c r="A896" s="3"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
       <c r="D896" s="3"/>
     </row>
-    <row r="897" spans="1:4" ht="12.75">
+    <row r="897" spans="1:4" ht="13">
       <c r="A897" s="3"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
       <c r="D897" s="3"/>
     </row>
-    <row r="898" spans="1:4" ht="12.75">
+    <row r="898" spans="1:4" ht="13">
       <c r="A898" s="3"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
       <c r="D898" s="3"/>
     </row>
-    <row r="899" spans="1:4" ht="12.75">
+    <row r="899" spans="1:4" ht="13">
       <c r="A899" s="3"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
       <c r="D899" s="3"/>
     </row>
-    <row r="900" spans="1:4" ht="12.75">
+    <row r="900" spans="1:4" ht="13">
       <c r="A900" s="3"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
       <c r="D900" s="3"/>
     </row>
-    <row r="901" spans="1:4" ht="12.75">
+    <row r="901" spans="1:4" ht="13">
       <c r="A901" s="3"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
       <c r="D901" s="3"/>
     </row>
-    <row r="902" spans="1:4" ht="12.75">
+    <row r="902" spans="1:4" ht="13">
       <c r="A902" s="3"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
       <c r="D902" s="3"/>
     </row>
-    <row r="903" spans="1:4" ht="12.75">
+    <row r="903" spans="1:4" ht="13">
       <c r="A903" s="3"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
       <c r="D903" s="3"/>
     </row>
-    <row r="904" spans="1:4" ht="12.75">
+    <row r="904" spans="1:4" ht="13">
       <c r="A904" s="3"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
       <c r="D904" s="3"/>
     </row>
-    <row r="905" spans="1:4" ht="12.75">
+    <row r="905" spans="1:4" ht="13">
       <c r="A905" s="3"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
       <c r="D905" s="3"/>
     </row>
-    <row r="906" spans="1:4" ht="12.75">
+    <row r="906" spans="1:4" ht="13">
       <c r="A906" s="3"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
       <c r="D906" s="3"/>
     </row>
-    <row r="907" spans="1:4" ht="12.75">
+    <row r="907" spans="1:4" ht="13">
       <c r="A907" s="3"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
       <c r="D907" s="3"/>
     </row>
-    <row r="908" spans="1:4" ht="12.75">
+    <row r="908" spans="1:4" ht="13">
       <c r="A908" s="3"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
       <c r="D908" s="3"/>
     </row>
-    <row r="909" spans="1:4" ht="12.75">
+    <row r="909" spans="1:4" ht="13">
       <c r="A909" s="3"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
       <c r="D909" s="3"/>
     </row>
-    <row r="910" spans="1:4" ht="12.75">
+    <row r="910" spans="1:4" ht="13">
       <c r="A910" s="3"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
       <c r="D910" s="3"/>
     </row>
-    <row r="911" spans="1:4" ht="12.75">
+    <row r="911" spans="1:4" ht="13">
       <c r="A911" s="3"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
       <c r="D911" s="3"/>
     </row>
-    <row r="912" spans="1:4" ht="12.75">
+    <row r="912" spans="1:4" ht="13">
       <c r="A912" s="3"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
       <c r="D912" s="3"/>
     </row>
-    <row r="913" spans="1:4" ht="12.75">
+    <row r="913" spans="1:4" ht="13">
       <c r="A913" s="3"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
       <c r="D913" s="3"/>
     </row>
-    <row r="914" spans="1:4" ht="12.75">
+    <row r="914" spans="1:4" ht="13">
       <c r="A914" s="3"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
       <c r="D914" s="3"/>
     </row>
-    <row r="915" spans="1:4" ht="12.75">
+    <row r="915" spans="1:4" ht="13">
       <c r="A915" s="3"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
       <c r="D915" s="3"/>
     </row>
-    <row r="916" spans="1:4" ht="12.75">
+    <row r="916" spans="1:4" ht="13">
       <c r="A916" s="3"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
       <c r="D916" s="3"/>
     </row>
-    <row r="917" spans="1:4" ht="12.75">
+    <row r="917" spans="1:4" ht="13">
       <c r="A917" s="3"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
       <c r="D917" s="3"/>
     </row>
-    <row r="918" spans="1:4" ht="12.75">
+    <row r="918" spans="1:4" ht="13">
       <c r="A918" s="3"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
       <c r="D918" s="3"/>
     </row>
-    <row r="919" spans="1:4" ht="12.75">
+    <row r="919" spans="1:4" ht="13">
       <c r="A919" s="3"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
       <c r="D919" s="3"/>
     </row>
-    <row r="920" spans="1:4" ht="12.75">
+    <row r="920" spans="1:4" ht="13">
       <c r="A920" s="3"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
       <c r="D920" s="3"/>
     </row>
-    <row r="921" spans="1:4" ht="12.75">
+    <row r="921" spans="1:4" ht="13">
       <c r="A921" s="3"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
       <c r="D921" s="3"/>
     </row>
-    <row r="922" spans="1:4" ht="12.75">
+    <row r="922" spans="1:4" ht="13">
       <c r="A922" s="3"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
       <c r="D922" s="3"/>
     </row>
-    <row r="923" spans="1:4" ht="12.75">
+    <row r="923" spans="1:4" ht="13">
       <c r="A923" s="3"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
       <c r="D923" s="3"/>
     </row>
-    <row r="924" spans="1:4" ht="12.75">
+    <row r="924" spans="1:4" ht="13">
       <c r="A924" s="3"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
       <c r="D924" s="3"/>
     </row>
-    <row r="925" spans="1:4" ht="12.75">
+    <row r="925" spans="1:4" ht="13">
       <c r="A925" s="3"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
       <c r="D925" s="3"/>
     </row>
-    <row r="926" spans="1:4" ht="12.75">
+    <row r="926" spans="1:4" ht="13">
       <c r="A926" s="3"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
       <c r="D926" s="3"/>
     </row>
-    <row r="927" spans="1:4" ht="12.75">
+    <row r="927" spans="1:4" ht="13">
       <c r="A927" s="3"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
       <c r="D927" s="3"/>
     </row>
-    <row r="928" spans="1:4" ht="12.75">
+    <row r="928" spans="1:4" ht="13">
       <c r="A928" s="3"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
       <c r="D928" s="3"/>
     </row>
-    <row r="929" spans="1:4" ht="12.75">
+    <row r="929" spans="1:4" ht="13">
       <c r="A929" s="3"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
       <c r="D929" s="3"/>
     </row>
-    <row r="930" spans="1:4" ht="12.75">
+    <row r="930" spans="1:4" ht="13">
       <c r="A930" s="3"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
       <c r="D930" s="3"/>
     </row>
-    <row r="931" spans="1:4" ht="12.75">
+    <row r="931" spans="1:4" ht="13">
       <c r="A931" s="3"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
       <c r="D931" s="3"/>
     </row>
-    <row r="932" spans="1:4" ht="12.75">
+    <row r="932" spans="1:4" ht="13">
       <c r="A932" s="3"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
       <c r="D932" s="3"/>
     </row>
-    <row r="933" spans="1:4" ht="12.75">
+    <row r="933" spans="1:4" ht="13">
       <c r="A933" s="3"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
       <c r="D933" s="3"/>
     </row>
-    <row r="934" spans="1:4" ht="12.75">
+    <row r="934" spans="1:4" ht="13">
       <c r="A934" s="3"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
       <c r="D934" s="3"/>
     </row>
-    <row r="935" spans="1:4" ht="12.75">
+    <row r="935" spans="1:4" ht="13">
       <c r="A935" s="3"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
       <c r="D935" s="3"/>
     </row>
-    <row r="936" spans="1:4" ht="12.75">
+    <row r="936" spans="1:4" ht="13">
       <c r="A936" s="3"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
       <c r="D936" s="3"/>
     </row>
-    <row r="937" spans="1:4" ht="12.75">
+    <row r="937" spans="1:4" ht="13">
       <c r="A937" s="3"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
       <c r="D937" s="3"/>
     </row>
-    <row r="938" spans="1:4" ht="12.75">
+    <row r="938" spans="1:4" ht="13">
       <c r="A938" s="3"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
       <c r="D938" s="3"/>
     </row>
-    <row r="939" spans="1:4" ht="12.75">
+    <row r="939" spans="1:4" ht="13">
       <c r="A939" s="3"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
       <c r="D939" s="3"/>
     </row>
-    <row r="940" spans="1:4" ht="12.75">
+    <row r="940" spans="1:4" ht="13">
       <c r="A940" s="3"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
       <c r="D940" s="3"/>
     </row>
-    <row r="941" spans="1:4" ht="12.75">
+    <row r="941" spans="1:4" ht="13">
       <c r="A941" s="3"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
       <c r="D941" s="3"/>
     </row>
-    <row r="942" spans="1:4" ht="12.75">
+    <row r="942" spans="1:4" ht="13">
       <c r="A942" s="3"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
       <c r="D942" s="3"/>
     </row>
-    <row r="943" spans="1:4" ht="12.75">
+    <row r="943" spans="1:4" ht="13">
       <c r="A943" s="3"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
       <c r="D943" s="3"/>
     </row>
-    <row r="944" spans="1:4" ht="12.75">
+    <row r="944" spans="1:4" ht="13">
       <c r="A944" s="3"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
       <c r="D944" s="3"/>
     </row>
-    <row r="945" spans="1:4" ht="12.75">
+    <row r="945" spans="1:4" ht="13">
       <c r="A945" s="3"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
       <c r="D945" s="3"/>
     </row>
-    <row r="946" spans="1:4" ht="12.75">
+    <row r="946" spans="1:4" ht="13">
       <c r="A946" s="3"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
       <c r="D946" s="3"/>
     </row>
-    <row r="947" spans="1:4" ht="12.75">
+    <row r="947" spans="1:4" ht="13">
       <c r="A947" s="3"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
       <c r="D947" s="3"/>
     </row>
-    <row r="948" spans="1:4" ht="12.75">
+    <row r="948" spans="1:4" ht="13">
       <c r="A948" s="3"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
       <c r="D948" s="3"/>
     </row>
-    <row r="949" spans="1:4" ht="12.75">
+    <row r="949" spans="1:4" ht="13">
       <c r="A949" s="3"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
       <c r="D949" s="3"/>
     </row>
-    <row r="950" spans="1:4" ht="12.75">
+    <row r="950" spans="1:4" ht="13">
       <c r="A950" s="3"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
       <c r="D950" s="3"/>
     </row>
-    <row r="951" spans="1:4" ht="12.75">
+    <row r="951" spans="1:4" ht="13">
       <c r="A951" s="3"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
       <c r="D951" s="3"/>
     </row>
-    <row r="952" spans="1:4" ht="12.75">
+    <row r="952" spans="1:4" ht="13">
       <c r="A952" s="3"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
       <c r="D952" s="3"/>
     </row>
-    <row r="953" spans="1:4" ht="12.75">
+    <row r="953" spans="1:4" ht="13">
       <c r="A953" s="3"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
       <c r="D953" s="3"/>
     </row>
-    <row r="954" spans="1:4" ht="12.75">
+    <row r="954" spans="1:4" ht="13">
       <c r="A954" s="3"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
       <c r="D954" s="3"/>
     </row>
-    <row r="955" spans="1:4" ht="12.75">
+    <row r="955" spans="1:4" ht="13">
       <c r="A955" s="3"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
       <c r="D955" s="3"/>
     </row>
-    <row r="956" spans="1:4" ht="12.75">
+    <row r="956" spans="1:4" ht="13">
       <c r="A956" s="3"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
       <c r="D956" s="3"/>
     </row>
-    <row r="957" spans="1:4" ht="12.75">
+    <row r="957" spans="1:4" ht="13">
       <c r="A957" s="3"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
       <c r="D957" s="3"/>
     </row>
-    <row r="958" spans="1:4" ht="12.75">
+    <row r="958" spans="1:4" ht="13">
       <c r="A958" s="3"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
       <c r="D958" s="3"/>
     </row>
-    <row r="959" spans="1:4" ht="12.75">
+    <row r="959" spans="1:4" ht="13">
       <c r="A959" s="3"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
       <c r="D959" s="3"/>
     </row>
-    <row r="960" spans="1:4" ht="12.75">
+    <row r="960" spans="1:4" ht="13">
       <c r="A960" s="3"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
       <c r="D960" s="3"/>
     </row>
-    <row r="961" spans="1:4" ht="12.75">
+    <row r="961" spans="1:4" ht="13">
       <c r="A961" s="3"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
       <c r="D961" s="3"/>
     </row>
-    <row r="962" spans="1:4" ht="12.75">
+    <row r="962" spans="1:4" ht="13">
       <c r="A962" s="3"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
       <c r="D962" s="3"/>
     </row>
-    <row r="963" spans="1:4" ht="12.75">
+    <row r="963" spans="1:4" ht="13">
       <c r="A963" s="3"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
       <c r="D963" s="3"/>
     </row>
-    <row r="964" spans="1:4" ht="12.75">
+    <row r="964" spans="1:4" ht="13">
       <c r="A964" s="3"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
       <c r="D964" s="3"/>
     </row>
-    <row r="965" spans="1:4" ht="12.75">
+    <row r="965" spans="1:4" ht="13">
       <c r="A965" s="3"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
       <c r="D965" s="3"/>
     </row>
-    <row r="966" spans="1:4" ht="12.75">
+    <row r="966" spans="1:4" ht="13">
       <c r="A966" s="3"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
       <c r="D966" s="3"/>
     </row>
-    <row r="967" spans="1:4" ht="12.75">
+    <row r="967" spans="1:4" ht="13">
       <c r="A967" s="3"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
       <c r="D967" s="3"/>
     </row>
-    <row r="968" spans="1:4" ht="12.75">
+    <row r="968" spans="1:4" ht="13">
       <c r="A968" s="3"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
       <c r="D968" s="3"/>
     </row>
-    <row r="969" spans="1:4" ht="12.75">
+    <row r="969" spans="1:4" ht="13">
       <c r="A969" s="3"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
       <c r="D969" s="3"/>
     </row>
-    <row r="970" spans="1:4" ht="12.75">
+    <row r="970" spans="1:4" ht="13">
       <c r="A970" s="3"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
       <c r="D970" s="3"/>
     </row>
-    <row r="971" spans="1:4" ht="12.75">
+    <row r="971" spans="1:4" ht="13">
       <c r="A971" s="3"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
       <c r="D971" s="3"/>
     </row>
-    <row r="972" spans="1:4" ht="12.75">
+    <row r="972" spans="1:4" ht="13">
       <c r="A972" s="3"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
       <c r="D972" s="3"/>
     </row>
-    <row r="973" spans="1:4" ht="12.75">
+    <row r="973" spans="1:4" ht="13">
       <c r="A973" s="3"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
       <c r="D973" s="3"/>
     </row>
-    <row r="974" spans="1:4" ht="12.75">
+    <row r="974" spans="1:4" ht="13">
       <c r="A974" s="3"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
       <c r="D974" s="3"/>
     </row>
-    <row r="975" spans="1:4" ht="12.75">
+    <row r="975" spans="1:4" ht="13">
       <c r="A975" s="3"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
       <c r="D975" s="3"/>
     </row>
-    <row r="976" spans="1:4" ht="12.75">
+    <row r="976" spans="1:4" ht="13">
       <c r="A976" s="3"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
       <c r="D976" s="3"/>
     </row>
-    <row r="977" spans="1:4" ht="12.75">
+    <row r="977" spans="1:4" ht="13">
       <c r="A977" s="3"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
       <c r="D977" s="3"/>
     </row>
-    <row r="978" spans="1:4" ht="12.75">
+    <row r="978" spans="1:4" ht="13">
       <c r="A978" s="3"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
       <c r="D978" s="3"/>
     </row>
-    <row r="979" spans="1:4" ht="12.75">
+    <row r="979" spans="1:4" ht="13">
       <c r="A979" s="3"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
       <c r="D979" s="3"/>
     </row>
-    <row r="980" spans="1:4" ht="12.75">
+    <row r="980" spans="1:4" ht="13">
       <c r="A980" s="3"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
       <c r="D980" s="3"/>
     </row>
-    <row r="981" spans="1:4" ht="12.75">
+    <row r="981" spans="1:4" ht="13">
       <c r="A981" s="3"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
       <c r="D981" s="3"/>
     </row>
-    <row r="982" spans="1:4" ht="12.75">
+    <row r="982" spans="1:4" ht="13">
       <c r="A982" s="3"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
       <c r="D982" s="3"/>
     </row>
-    <row r="983" spans="1:4" ht="12.75">
+    <row r="983" spans="1:4" ht="13">
       <c r="A983" s="3"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
       <c r="D983" s="3"/>
     </row>
-    <row r="984" spans="1:4" ht="12.75">
+    <row r="984" spans="1:4" ht="13">
       <c r="A984" s="3"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
       <c r="D984" s="3"/>
     </row>
-    <row r="985" spans="1:4" ht="12.75">
+    <row r="985" spans="1:4" ht="13">
       <c r="A985" s="3"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
       <c r="D985" s="3"/>
     </row>
-    <row r="986" spans="1:4" ht="12.75">
+    <row r="986" spans="1:4" ht="13">
       <c r="A986" s="3"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
       <c r="D986" s="3"/>
     </row>
-    <row r="987" spans="1:4" ht="12.75">
+    <row r="987" spans="1:4" ht="13">
       <c r="A987" s="3"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
       <c r="D987" s="3"/>
     </row>
-    <row r="988" spans="1:4" ht="12.75">
+    <row r="988" spans="1:4" ht="13">
       <c r="A988" s="3"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
       <c r="D988" s="3"/>
     </row>
-    <row r="989" spans="1:4" ht="12.75">
+    <row r="989" spans="1:4" ht="13">
       <c r="A989" s="3"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
       <c r="D989" s="3"/>
     </row>
-    <row r="990" spans="1:4" ht="12.75">
+    <row r="990" spans="1:4" ht="13">
       <c r="A990" s="3"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
       <c r="D990" s="3"/>
     </row>
-    <row r="991" spans="1:4" ht="12.75">
+    <row r="991" spans="1:4" ht="13">
       <c r="A991" s="3"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
       <c r="D991" s="3"/>
     </row>
-    <row r="992" spans="1:4" ht="12.75">
+    <row r="992" spans="1:4" ht="13">
       <c r="A992" s="3"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
       <c r="D992" s="3"/>
     </row>
-    <row r="993" spans="1:4" ht="12.75">
+    <row r="993" spans="1:4" ht="13">
       <c r="A993" s="3"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
       <c r="D993" s="3"/>
     </row>
-    <row r="994" spans="1:4" ht="12.75">
+    <row r="994" spans="1:4" ht="13">
       <c r="A994" s="3"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
       <c r="D994" s="3"/>
     </row>
-    <row r="995" spans="1:4" ht="12.75">
+    <row r="995" spans="1:4" ht="13">
       <c r="A995" s="3"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
       <c r="D995" s="3"/>
     </row>
-    <row r="996" spans="1:4" ht="12.75">
+    <row r="996" spans="1:4" ht="13">
       <c r="A996" s="3"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
       <c r="D996" s="3"/>
     </row>
-    <row r="997" spans="1:4" ht="12.75">
+    <row r="997" spans="1:4" ht="13">
       <c r="A997" s="3"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
       <c r="D997" s="3"/>
     </row>
-    <row r="998" spans="1:4" ht="12.75">
+    <row r="998" spans="1:4" ht="13">
       <c r="A998" s="3"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
       <c r="D998" s="3"/>
     </row>
-    <row r="999" spans="1:4" ht="12.75">
+    <row r="999" spans="1:4" ht="13">
       <c r="A999" s="3"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
       <c r="D999" s="3"/>
     </row>
-    <row r="1000" spans="1:4" ht="12.75">
+    <row r="1000" spans="1:4" ht="13">
       <c r="A1000" s="3"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
       <c r="D1000" s="3"/>
     </row>
-    <row r="1001" spans="1:4" ht="12.75">
+    <row r="1001" spans="1:4" ht="13">
       <c r="A1001" s="3"/>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
       <c r="D1001" s="3"/>
     </row>
-    <row r="1002" spans="1:4" ht="12.75">
+    <row r="1002" spans="1:4" ht="13">
       <c r="A1002" s="3"/>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
